--- a/Batch/14/In_Class/Day_2.xlsx
+++ b/Batch/14/In_Class/Day_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28305"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28407"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Acciojob\Modules\Excel\Batch\14\In_Class\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8FAC01-88CA-40B0-95A5-D35EA5506372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B8599D-4852-45D4-87D1-C2F54B21B874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="750" windowWidth="29040" windowHeight="15720" tabRatio="769" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="769" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recap" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,11 @@
     <sheet name="Questions" sheetId="8" r:id="rId3"/>
     <sheet name="Cell Refrencing" sheetId="4" r:id="rId4"/>
     <sheet name="Navigation" sheetId="5" r:id="rId5"/>
-    <sheet name="Rename _with Rename" sheetId="12" r:id="rId6"/>
-    <sheet name="Rename _with Rename (2)" sheetId="13" r:id="rId7"/>
-    <sheet name="Rename It" sheetId="11" r:id="rId8"/>
-    <sheet name="Formatting" sheetId="6" r:id="rId9"/>
-    <sheet name="Conditional Formatting" sheetId="7" r:id="rId10"/>
+    <sheet name="Formatting" sheetId="6" r:id="rId6"/>
+    <sheet name="Conditional Formatting" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Formatting!$C$137:$C$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Formatting!$C$137:$C$143</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2396,17 +2393,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="9">
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="170" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    <numFmt numFmtId="171" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="172" formatCode="[$-F400]h\.mm\.ss\ AM/PM"/>
-    <numFmt numFmtId="174" formatCode="dd/mmm/yyyy"/>
-    <numFmt numFmtId="175" formatCode="dd/mmmm/yyyy"/>
-    <numFmt numFmtId="176" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="177" formatCode="ddd/mm/yyyy"/>
-    <numFmt numFmtId="178" formatCode="dddd/mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h\.mm\.ss\ AM/PM"/>
+    <numFmt numFmtId="167" formatCode="dd/mmm/yyyy"/>
+    <numFmt numFmtId="168" formatCode="dd/mmmm/yyyy"/>
+    <numFmt numFmtId="169" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="170" formatCode="ddd/mm/yyyy"/>
+    <numFmt numFmtId="171" formatCode="dddd/mm/yyyy"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -2617,7 +2614,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2625,7 +2622,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -2643,20 +2639,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2676,9 +2672,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2686,6 +2679,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -2694,17 +2690,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <b/>
@@ -2714,6 +2700,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2740,424 +2736,10 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <u val="double"/>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <u val="double"/>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <u val="double"/>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <u val="double"/>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <u val="double"/>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <u val="double"/>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <u val="double"/>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <u val="double"/>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <u val="double"/>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <u val="double"/>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <u val="double"/>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <u val="double"/>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{FBDBCE54-2973-4003-B54D-EF2344E0357E}"/>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FF99CCFF"/>
@@ -3189,8 +2771,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>143242</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="21" name="Ink 20">
@@ -3209,7 +2791,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="21" name="Ink 20">
@@ -3254,8 +2836,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>132082</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="34" name="Ink 33">
@@ -3274,7 +2856,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="34" name="Ink 33">
@@ -3319,8 +2901,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>26242</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="47" name="Ink 46">
@@ -3339,7 +2921,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="47" name="Ink 46">
@@ -3384,8 +2966,8 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>11842</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="73" name="Ink 72">
@@ -3404,7 +2986,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="73" name="Ink 72">
@@ -3449,8 +3031,8 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>141442</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="83" name="Ink 82">
@@ -3469,7 +3051,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="83" name="Ink 82">
@@ -3514,8 +3096,8 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>133522</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="100" name="Ink 99">
@@ -3534,7 +3116,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="100" name="Ink 99">
@@ -3579,8 +3161,8 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>68046</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="104" name="Ink 103">
@@ -3599,7 +3181,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="104" name="Ink 103">
@@ -3644,8 +3226,8 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>8662</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="105" name="Ink 104">
@@ -3664,7 +3246,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="105" name="Ink 104">
@@ -3709,8 +3291,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>171120</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="106" name="Ink 105">
@@ -3729,7 +3311,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="106" name="Ink 105">
@@ -3774,8 +3356,8 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>160206</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="107" name="Ink 106">
@@ -3794,7 +3376,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="107" name="Ink 106">
@@ -3839,8 +3421,8 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>105074</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="108" name="Ink 107">
@@ -3859,7 +3441,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="108" name="Ink 107">
@@ -3904,8 +3486,8 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>46140</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="109" name="Ink 108">
@@ -3924,7 +3506,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="109" name="Ink 108">
@@ -3969,8 +3551,8 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>48622</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="111" name="Ink 110">
@@ -3989,7 +3571,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="111" name="Ink 110">
@@ -4034,8 +3616,8 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>106162</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="115" name="Ink 114">
@@ -4054,7 +3636,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="115" name="Ink 114">
@@ -4099,8 +3681,8 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>74122</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="116" name="Ink 115">
@@ -4119,7 +3701,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="116" name="Ink 115">
@@ -4164,8 +3746,8 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>142162</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="123" name="Ink 122">
@@ -4184,7 +3766,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="123" name="Ink 122">
@@ -4229,8 +3811,8 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>18764</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="134" name="Ink 133">
@@ -4249,7 +3831,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="134" name="Ink 133">
@@ -4294,8 +3876,8 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="135" name="Ink 134">
@@ -4314,7 +3896,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="135" name="Ink 134">
@@ -4359,8 +3941,8 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>648</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="140" name="Ink 139">
@@ -4379,7 +3961,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="140" name="Ink 139">
@@ -4424,8 +4006,8 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>1762</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="151" name="Ink 150">
@@ -4444,7 +4026,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="151" name="Ink 150">
@@ -4489,8 +4071,8 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>45322</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="152" name="Ink 151">
@@ -4509,7 +4091,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="152" name="Ink 151">
@@ -4554,8 +4136,8 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>69000</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="153" name="Ink 152">
@@ -4574,7 +4156,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="153" name="Ink 152">
@@ -4619,8 +4201,8 @@
       <xdr:row>88</xdr:row>
       <xdr:rowOff>84562</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="154" name="Ink 153">
@@ -4639,7 +4221,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="154" name="Ink 153">
@@ -4684,8 +4266,8 @@
       <xdr:row>97</xdr:row>
       <xdr:rowOff>85282</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="181" name="Ink 180">
@@ -4704,7 +4286,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="181" name="Ink 180">
@@ -4749,8 +4331,8 @@
       <xdr:row>101</xdr:row>
       <xdr:rowOff>173482</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId49">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="201" name="Ink 200">
@@ -4769,7 +4351,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="201" name="Ink 200">
@@ -4814,8 +4396,8 @@
       <xdr:row>103</xdr:row>
       <xdr:rowOff>30562</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="264" name="Ink 263">
@@ -4834,7 +4416,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="264" name="Ink 263">
@@ -4879,8 +4461,8 @@
       <xdr:row>106</xdr:row>
       <xdr:rowOff>49635</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="280" name="Ink 279">
@@ -4899,7 +4481,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="280" name="Ink 279">
@@ -4944,8 +4526,8 @@
       <xdr:row>106</xdr:row>
       <xdr:rowOff>16957</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId55">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="282" name="Ink 281">
@@ -4964,7 +4546,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="282" name="Ink 281">
@@ -5009,8 +4591,8 @@
       <xdr:row>107</xdr:row>
       <xdr:rowOff>17283</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId57">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="297" name="Ink 296">
@@ -5029,7 +4611,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="297" name="Ink 296">
@@ -5074,8 +4656,8 @@
       <xdr:row>108</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId59">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="312" name="Ink 311">
@@ -5094,7 +4676,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="312" name="Ink 311">
@@ -5139,8 +4721,8 @@
       <xdr:row>109</xdr:row>
       <xdr:rowOff>9656</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId61">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="331" name="Ink 330">
@@ -5159,7 +4741,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="331" name="Ink 330">
@@ -5204,8 +4786,8 @@
       <xdr:row>109</xdr:row>
       <xdr:rowOff>28294</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId63">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="332" name="Ink 331">
@@ -5224,7 +4806,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="332" name="Ink 331">
@@ -5269,8 +4851,8 @@
       <xdr:row>105</xdr:row>
       <xdr:rowOff>92869</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId65">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="333" name="Ink 332">
@@ -5289,7 +4871,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="333" name="Ink 332">
@@ -5334,8 +4916,8 @@
       <xdr:row>106</xdr:row>
       <xdr:rowOff>115957</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId67">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="336" name="Ink 335">
@@ -5354,7 +4936,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="336" name="Ink 335">
@@ -5399,8 +4981,8 @@
       <xdr:row>121</xdr:row>
       <xdr:rowOff>163837</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId69">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="342" name="Ink 341">
@@ -5419,7 +5001,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="342" name="Ink 341">
@@ -5464,8 +5046,8 @@
       <xdr:row>123</xdr:row>
       <xdr:rowOff>17969</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId71">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="349" name="Ink 348">
@@ -5484,7 +5066,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="349" name="Ink 348">
@@ -5529,8 +5111,8 @@
       <xdr:row>120</xdr:row>
       <xdr:rowOff>152628</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId73">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="355" name="Ink 354">
@@ -5549,7 +5131,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="355" name="Ink 354">
@@ -5594,8 +5176,8 @@
       <xdr:row>121</xdr:row>
       <xdr:rowOff>153315</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId75">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="362" name="Ink 361">
@@ -5614,7 +5196,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="362" name="Ink 361">
@@ -5659,8 +5241,8 @@
       <xdr:row>122</xdr:row>
       <xdr:rowOff>8087</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId77">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="367" name="Ink 366">
@@ -5679,7 +5261,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="367" name="Ink 366">
@@ -5724,8 +5306,8 @@
       <xdr:row>121</xdr:row>
       <xdr:rowOff>315</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId79">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="368" name="Ink 367">
@@ -5744,7 +5326,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="368" name="Ink 367">
@@ -5789,8 +5371,8 @@
       <xdr:row>120</xdr:row>
       <xdr:rowOff>19068</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId81">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="377" name="Ink 376">
@@ -5809,7 +5391,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="377" name="Ink 376">
@@ -5854,8 +5436,8 @@
       <xdr:row>123</xdr:row>
       <xdr:rowOff>86091</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId83">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="393" name="Ink 392">
@@ -5874,7 +5456,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="393" name="Ink 392">
@@ -5919,8 +5501,8 @@
       <xdr:row>135</xdr:row>
       <xdr:rowOff>172668</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId85">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="422" name="Ink 421">
@@ -5939,7 +5521,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="422" name="Ink 421">
@@ -5984,8 +5566,8 @@
       <xdr:row>145</xdr:row>
       <xdr:rowOff>97597</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId87">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="447" name="Ink 446">
@@ -6004,7 +5586,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="447" name="Ink 446">
@@ -6049,8 +5631,8 @@
       <xdr:row>148</xdr:row>
       <xdr:rowOff>153295</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId89">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="464" name="Ink 463">
@@ -6069,7 +5651,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="464" name="Ink 463">
@@ -6114,8 +5696,8 @@
       <xdr:row>148</xdr:row>
       <xdr:rowOff>171017</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId91">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="472" name="Ink 471">
@@ -6134,7 +5716,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="472" name="Ink 471">
@@ -6179,8 +5761,8 @@
       <xdr:row>155</xdr:row>
       <xdr:rowOff>1083</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId93">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="501" name="Ink 500">
@@ -6199,7 +5781,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="501" name="Ink 500">
@@ -6244,8 +5826,8 @@
       <xdr:row>159</xdr:row>
       <xdr:rowOff>141108</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId95">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="515" name="Ink 514">
@@ -6264,7 +5846,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="515" name="Ink 514">
@@ -6309,8 +5891,8 @@
       <xdr:row>160</xdr:row>
       <xdr:rowOff>9756</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId97">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="518" name="Ink 517">
@@ -6329,7 +5911,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="518" name="Ink 517">
@@ -6374,8 +5956,8 @@
       <xdr:row>158</xdr:row>
       <xdr:rowOff>113864</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId99">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="519" name="Ink 518">
@@ -6394,7 +5976,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="519" name="Ink 518">
@@ -6439,8 +6021,8 @@
       <xdr:row>165</xdr:row>
       <xdr:rowOff>8230</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId101">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="527" name="Ink 526">
@@ -6459,7 +6041,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="527" name="Ink 526">
@@ -6504,8 +6086,8 @@
       <xdr:row>166</xdr:row>
       <xdr:rowOff>36194</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId103">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="528" name="Ink 527">
@@ -6524,7 +6106,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="528" name="Ink 527">
@@ -6569,8 +6151,8 @@
       <xdr:row>167</xdr:row>
       <xdr:rowOff>21318</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId105">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="529" name="Ink 528">
@@ -6589,7 +6171,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="529" name="Ink 528">
@@ -6634,8 +6216,8 @@
       <xdr:row>167</xdr:row>
       <xdr:rowOff>132640</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId107">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="530" name="Ink 529">
@@ -6654,7 +6236,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="530" name="Ink 529">
@@ -6699,8 +6281,8 @@
       <xdr:row>168</xdr:row>
       <xdr:rowOff>135404</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId109">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="534" name="Ink 533">
@@ -6719,7 +6301,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="534" name="Ink 533">
@@ -6808,8 +6390,8 @@
       <xdr:row>162</xdr:row>
       <xdr:rowOff>102854</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId112">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="587" name="Ink 586">
@@ -6828,7 +6410,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="587" name="Ink 586">
@@ -6873,8 +6455,8 @@
       <xdr:row>173</xdr:row>
       <xdr:rowOff>47864</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId114">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="615" name="Ink 614">
@@ -6893,7 +6475,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="615" name="Ink 614">
@@ -6982,8 +6564,8 @@
       <xdr:row>159</xdr:row>
       <xdr:rowOff>66254</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId117">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="621" name="Ink 620">
@@ -7002,7 +6584,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="621" name="Ink 620">
@@ -7047,8 +6629,8 @@
       <xdr:row>159</xdr:row>
       <xdr:rowOff>45456</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId119">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="625" name="Ink 624">
@@ -7067,7 +6649,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="625" name="Ink 624">
@@ -7112,8 +6694,8 @@
       <xdr:row>160</xdr:row>
       <xdr:rowOff>112218</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId121">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="626" name="Ink 625">
@@ -7132,7 +6714,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="626" name="Ink 625">
@@ -7177,8 +6759,8 @@
       <xdr:row>159</xdr:row>
       <xdr:rowOff>39153</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId123">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="627" name="Ink 626">
@@ -7197,7 +6779,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="627" name="Ink 626">
@@ -7242,8 +6824,8 @@
       <xdr:row>169</xdr:row>
       <xdr:rowOff>47898</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId125">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="664" name="Ink 663">
@@ -7262,7 +6844,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="664" name="Ink 663">
@@ -7307,8 +6889,8 @@
       <xdr:row>171</xdr:row>
       <xdr:rowOff>46308</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId127">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="702" name="Ink 701">
@@ -7327,7 +6909,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="702" name="Ink 701">
@@ -7372,8 +6954,8 @@
       <xdr:row>172</xdr:row>
       <xdr:rowOff>94514</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId129">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="719" name="Ink 718">
@@ -7392,7 +6974,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="719" name="Ink 718">
@@ -7437,8 +7019,8 @@
       <xdr:row>171</xdr:row>
       <xdr:rowOff>123348</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId131">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="720" name="Ink 719">
@@ -7457,7 +7039,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="720" name="Ink 719">
@@ -7502,8 +7084,8 @@
       <xdr:row>175</xdr:row>
       <xdr:rowOff>105655</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId133">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="723" name="Ink 722">
@@ -7522,7 +7104,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="723" name="Ink 722">
@@ -7567,8 +7149,8 @@
       <xdr:row>172</xdr:row>
       <xdr:rowOff>83632</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId135">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="726" name="Ink 725">
@@ -7587,7 +7169,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="726" name="Ink 725">
@@ -7632,8 +7214,8 @@
       <xdr:row>178</xdr:row>
       <xdr:rowOff>11171</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId137">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="734" name="Ink 733">
@@ -7652,7 +7234,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="734" name="Ink 733">
@@ -7697,8 +7279,8 @@
       <xdr:row>175</xdr:row>
       <xdr:rowOff>144914</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId139">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="735" name="Ink 734">
@@ -7717,7 +7299,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="735" name="Ink 734">
@@ -7767,8 +7349,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>104440</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="13" name="Ink 12">
@@ -7787,7 +7369,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="13" name="Ink 12">
@@ -7832,8 +7414,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>159916</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="26" name="Ink 25">
@@ -7852,7 +7434,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="26" name="Ink 25">
@@ -7897,8 +7479,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>150264</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="28" name="Ink 27">
@@ -7917,7 +7499,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="28" name="Ink 27">
@@ -7962,8 +7544,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>74896</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="29" name="Ink 28">
@@ -7982,7 +7564,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="29" name="Ink 28">
@@ -8027,8 +7609,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>142449</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="35" name="Ink 34">
@@ -8047,7 +7629,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="35" name="Ink 34">
@@ -8092,8 +7674,8 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>8635</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="42" name="Ink 41">
@@ -8112,7 +7694,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="42" name="Ink 41">
@@ -8157,8 +7739,8 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>508</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="43" name="Ink 42">
@@ -8177,7 +7759,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="43" name="Ink 42">
@@ -8222,8 +7804,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>103127</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="44" name="Ink 43">
@@ -8242,7 +7824,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="44" name="Ink 43">
@@ -8287,8 +7869,8 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>97555</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="45" name="Ink 44">
@@ -8307,7 +7889,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="45" name="Ink 44">
@@ -8352,8 +7934,8 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>143507</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="57" name="Ink 56">
@@ -8372,7 +7954,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="57" name="Ink 56">
@@ -8417,8 +7999,8 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>11178</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="62" name="Ink 61">
@@ -8437,7 +8019,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="62" name="Ink 61">
@@ -8482,8 +8064,8 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>49698</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="68" name="Ink 67">
@@ -8502,7 +8084,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="68" name="Ink 67">
@@ -8547,8 +8129,8 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>19329</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="77" name="Ink 76">
@@ -8567,7 +8149,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="77" name="Ink 76">
@@ -8612,8 +8194,8 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>112742</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="78" name="Ink 77">
@@ -8632,7 +8214,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="78" name="Ink 77">
@@ -8677,8 +8259,8 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>8553</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="92" name="Ink 91">
@@ -8697,7 +8279,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="92" name="Ink 91">
@@ -8742,8 +8324,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>57444</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="107" name="Ink 106">
@@ -8762,7 +8344,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="107" name="Ink 106">
@@ -8807,8 +8389,8 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>140545</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="109" name="Ink 108">
@@ -8827,7 +8409,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="109" name="Ink 108">
@@ -8872,8 +8454,8 @@
       <xdr:row>42</xdr:row>
       <xdr:rowOff>58653</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="111" name="Ink 110">
@@ -8892,7 +8474,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="111" name="Ink 110">
@@ -8937,8 +8519,8 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>86456</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="117" name="Ink 116">
@@ -8957,7 +8539,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="117" name="Ink 116">
@@ -9002,8 +8584,8 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7899</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="118" name="Ink 117">
@@ -9022,7 +8604,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="118" name="Ink 117">
@@ -9067,8 +8649,8 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>45421</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="127" name="Ink 126">
@@ -9087,7 +8669,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="127" name="Ink 126">
@@ -9132,8 +8714,8 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>28419</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="130" name="Ink 129">
@@ -9152,7 +8734,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="130" name="Ink 129">
@@ -9197,8 +8779,8 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>37882</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="153" name="Ink 152">
@@ -9217,7 +8799,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="153" name="Ink 152">
@@ -9262,8 +8844,8 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>163187</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="156" name="Ink 155">
@@ -9282,7 +8864,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="156" name="Ink 155">
@@ -9327,8 +8909,8 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>16976</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId49">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="157" name="Ink 156">
@@ -9347,7 +8929,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="157" name="Ink 156">
@@ -9392,8 +8974,8 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>2190</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="160" name="Ink 159">
@@ -9412,7 +8994,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="160" name="Ink 159">
@@ -9457,8 +9039,8 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>93934</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="168" name="Ink 167">
@@ -9477,7 +9059,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="168" name="Ink 167">
@@ -9522,8 +9104,8 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>161285</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId55">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="169" name="Ink 168">
@@ -9542,7 +9124,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="169" name="Ink 168">
@@ -9587,8 +9169,8 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>159927</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId57">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="170" name="Ink 169">
@@ -9607,7 +9189,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="170" name="Ink 169">
@@ -9652,8 +9234,8 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>17228</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId59">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="171" name="Ink 170">
@@ -9672,7 +9254,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="171" name="Ink 170">
@@ -9717,8 +9299,8 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>10912</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId61">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="174" name="Ink 173">
@@ -9737,7 +9319,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="174" name="Ink 173">
@@ -9782,8 +9364,8 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>114454</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId63">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="180" name="Ink 179">
@@ -9802,7 +9384,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="180" name="Ink 179">
@@ -9847,8 +9429,8 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>116336</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId65">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="185" name="Ink 184">
@@ -9867,7 +9449,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="185" name="Ink 184">
@@ -9912,8 +9494,8 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>47597</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId67">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="204" name="Ink 203">
@@ -9932,7 +9514,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="204" name="Ink 203">
@@ -9977,8 +9559,8 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>178971</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId69">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="205" name="Ink 204">
@@ -9997,7 +9579,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="205" name="Ink 204">
@@ -10042,8 +9624,8 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>114279</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId71">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="206" name="Ink 205">
@@ -10062,7 +9644,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="206" name="Ink 205">
@@ -10107,8 +9689,8 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>68507</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId73">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="207" name="Ink 206">
@@ -10127,7 +9709,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="207" name="Ink 206">
@@ -10172,8 +9754,8 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>58149</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId75">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="208" name="Ink 207">
@@ -10192,7 +9774,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="208" name="Ink 207">
@@ -10237,8 +9819,8 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>65267</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId77">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="209" name="Ink 208">
@@ -10257,7 +9839,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="209" name="Ink 208">
@@ -10302,8 +9884,8 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>142307</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId79">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="210" name="Ink 209">
@@ -10322,7 +9904,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="210" name="Ink 209">
@@ -10367,8 +9949,8 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>131153</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId81">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="220" name="Ink 219">
@@ -10387,7 +9969,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="220" name="Ink 219">
@@ -10437,8 +10019,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>59876</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="15" name="Ink 14">
@@ -10457,7 +10039,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="15" name="Ink 14">
@@ -10502,8 +10084,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>161180</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="16" name="Ink 15">
@@ -10522,7 +10104,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="16" name="Ink 15">
@@ -10567,8 +10149,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>99476</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="19" name="Ink 18">
@@ -10587,7 +10169,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="19" name="Ink 18">
@@ -10632,8 +10214,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>44756</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="20" name="Ink 19">
@@ -10652,7 +10234,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="20" name="Ink 19">
@@ -10712,9 +10294,9 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">17 256 64,'0'0'7419,"-2"-9"-6674,-2-1-523,2 6-95,1 0-1,-1 1 0,1-1 1,0 0-1,0 0 1,1 1-1,-1-1 1,0-8-1,13 9 5656,30-2-4979,-10 1-606,88-28-14,-82 21-129,74-14 0,-108 25-432,27-2 1284,-19 7-2068,-7 5-4580</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="439.73">368 41 3570,'0'0'8329,"-8"-7"-7350,-21-20 51,21 20 522,11 8-1647,0 1 71,0-1 1,-1 1-1,1-1 0,0 1 1,-1 0-1,0 0 0,1 0 1,1 3-1,-3-4 18,11 10 55,8 6 1,-1 1 1,23 30 0,-37-42-42,-1 0 1,0 0-1,0 1 1,0-1-1,-1 1 1,0 0-1,-1 0 0,1 0 1,-1 0-1,-1 1 1,1-1-1,-1 0 1,0 11-1,-2-15 16,0 0 0,0-1 0,0 1 0,-1-1 0,1 1-1,-1-1 1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1-1,-1 0 1,-4 3 0,-48 19 109,70-17-8680,3-6 4633</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="439.72">368 41 3570,'0'0'8329,"-8"-7"-7350,-21-20 51,21 20 522,11 8-1647,0 1 71,0-1 1,-1 1-1,1-1 0,0 1 1,-1 0-1,0 0 0,1 0 1,1 3-1,-3-4 18,11 10 55,8 6 1,-1 1 1,23 30 0,-37-42-42,-1 0 1,0 0-1,0 1 1,0-1-1,-1 1 1,0 0-1,-1 0 0,1 0 1,-1 0-1,-1 1 1,1-1-1,-1 0 1,0 11-1,-2-15 16,0 0 0,0-1 0,0 1 0,-1-1 0,1 1-1,-1-1 1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1-1,-1 0 1,-4 3 0,-48 19 109,70-17-8680,3-6 4633</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="921.33">734 59 1265,'0'0'11824,"0"0"-11796,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0-1-1,0 1 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,-10 53 852,3 0 0,-1 89 1,6-195-813,2-52-194,0 95 102,1 1 0,1-1 0,-1 1 0,1-1-1,1 1 1,0 0 0,0 0 0,6-11 0,-8 19 12,-1 0 1,1-1 0,0 1 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 0-1,0 0 1,0 1 0,1-1 0,-1 1-1,0-1 1,1 1 0,-1-1 0,0 1-1,1 0 1,-1-1 0,1 1 0,1 0-1,0 0 4,0 1-1,0 0 1,0-1 0,0 1-1,0 0 1,0 1-1,-1-1 1,1 0 0,0 1-1,4 3 1,4 3 109,-1 2 1,0-1-1,15 20 1,93 132 761,-117-160-1124,0 0-1,0 0 1,0 0-1,1 0 1,-1-1-1,0 1 1,0 0 0,1 0-1,-1-1 1,1 1-1,-1-1 1,1 1-1,-1-1 1,1 0-1,-1 1 1,1-1 0,-1 0-1,1 0 1,-1 0-1,1 0 1,-1-1-1,1 1 1,-1 0 0,1-1-1,-1 1 1,1 0-1,-1-1 1,0 0-1,1 1 1,-1-1-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1 0,0 1-1,1-2 1,11-20-5033</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1182.09">1053 22 4482,'0'0'9242,"-3"-5"-8346,-7-7-556,4 13-116,3 29 235,2-15-225,-1 182 966,2-194-1305,0 0 1,0 1-1,0-1 0,1 0 1,0 0-1,-1 1 0,1-1 1,0 0-1,1 0 0,-1 0 1,0 0-1,1 0 0,0 0 1,0 0-1,0-1 0,0 1 0,4 3 1,-4-4-468,0 0 1,0-1 0,0 1-1,1-1 1,-1 0-1,0 0 1,1 0 0,-1 0-1,1 0 1,-1-1-1,1 1 1,0-1 0,-1 1-1,4-1 1,13 0-5443</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1182.08">1053 22 4482,'0'0'9242,"-3"-5"-8346,-7-7-556,4 13-116,3 29 235,2-15-225,-1 182 966,2-194-1305,0 0 1,0 1-1,0-1 0,1 0 1,0 0-1,-1 1 0,1-1 1,0 0-1,1 0 0,-1 0 1,0 0-1,1 0 0,0 0 1,0 0-1,0-1 0,0 1 0,4 3 1,-4-4-468,0 0 1,0-1 0,0 1-1,1-1 1,-1 0-1,0 0 1,1 0 0,-1 0-1,1 0 1,-1-1-1,1 1 1,0-1 0,-1 1-1,4-1 1,13 0-5443</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1536.79">1172 156 3922,'0'0'9388,"-10"-12"-8798,11 75 127,1-59-700,-1 0 1,0-1-1,1 1 0,0 0 0,0-1 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,1-1 0,0 1 1,0 0-1,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,5 2 0,-6-4-3,-1 1-1,1-1 0,0 1 1,-1-1-1,1 1 1,0-1-1,0 0 0,-1 0 1,1 0-1,0 0 1,0-1-1,0 1 0,-1 0 1,1-1-1,0 1 1,-1-1-1,1 1 0,0-1 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 1,0 0-1,1 0 0,-1 0 1,0-1-1,0 1 1,1 0-1,-1-1 0,0 1 1,0-1-1,-1 0 1,1 1-1,0-1 0,-1 0 1,1 1-1,0-1 1,-1 0-1,0 0 0,1 1 1,-1-4-1,1-1 32,1-1 0,-1 0 1,0 0-1,-1 0 0,0 0 0,0 1 0,0-1 1,-1 0-1,0 0 0,-1 0 0,-3-12 0,4 16-13,-1 0-1,1 0 1,-1 0-1,0 1 1,0-1-1,0 1 1,0-1-1,-1 1 1,1 0-1,0 0 1,-1 0-1,0 0 1,1 0-1,-1 0 1,0 1-1,0-1 1,0 1-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,-1 1-1,1-1 1,0 1-1,-5 1 1,6-1-65,0 1 1,0-1 0,-1 1 0,1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,1 0 0,-1 1 0,0-1-1,0 1 1,1-1 0,-1 1-1,1-1 1,-1 1 0,1 0 0,0 0-1,0 0 1,0 0 0,-2 4-1,-4 22-2512,7-27 2188,0 0-1,1 1 1,-1-1-1,0 1 1,0-1 0,1 0-1,-1 1 1,1-1-1,-1 0 1,1 1-1,-1-1 1,1 0-1,0 0 1,0 1-1,-1-1 1,3 1-1,10 6-4340</inkml:trace>
 </inkml:ink>
 </file>
@@ -10921,7 +10503,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">10 152 4946,'0'0'7486,"0"-5"-6848,0-3-464,0 26 306,-4 89 1179,-1 60-990,5-126-674,0-38-87,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 0 0,3 3 0,-2-3-295,0 0-1,-1-1 1,1 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0-1 1,0 1-1,0 0 1,0-1-1,4 0 1,27 1-4669</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="483.42">264 203 7764,'0'0'6184,"-11"16"-5883,-33 52-133,43-67-163,0 1 0,1-1 0,-1 1 0,0-1 0,1 1-1,-1 0 1,1-1 0,-1 1 0,1 0 0,0-1 0,0 1-1,-1 0 1,1-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0 0-1,1-1 1,-1 1 0,1-1 0,0 1 0,-1 0 0,1-1 0,0 1-1,0-1 1,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1-1,1-1 1,-1 0 0,0 0 0,3 1 0,1 1 3,0-1 1,0 1-1,0-1 1,1 0 0,-1 0-1,1-1 1,7 2-1,-8-2 20,-1-1 0,1 1 0,-1-1 0,1 0-1,-1 0 1,1-1 0,-1 1 0,1-1 0,5-1-1,-9 1-18,0 0 0,0 1 0,0-1 0,0 0-1,0 0 1,0 1 0,0-1 0,0 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,-1 0-1,1 0 1,-1-1 0,1 1 0,-1 0 0,1 0-1,-1 0 1,0-1 0,0 1 0,0 0 0,1 0-1,-1-1 1,0 1 0,-1 0 0,1 0 0,0-1-1,0 1 1,0 0 0,-1 0 0,1 0-1,-1-1 1,1 1 0,-1 0 0,1 0 0,-1 0-1,1 0 1,-3-2 0,-2-5-1,-1 0 0,-1 0 0,1 1-1,-1 0 1,0 0 0,-1 0 0,0 1 0,0 0 0,0 1-1,-10-5 1,-15-12-6,15 9 0,1 0-1,1-1 1,0 0-1,1-2 1,0 1 0,1-2-1,1 0 1,1-1-1,-11-20 1,23 38-8,-1-1-1,1 0 1,0 0-1,-1 0 1,1 0 0,0 0-1,-1 0 1,1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 1-1,0-1 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,1 0 1,-1 0-1,0 0 1,1 0 0,-1 0-1,1 0 1,-1 1-1,1-1 1,-1 0 0,1 0-1,0 0 1,-1 1-1,1-1 1,0 0 0,-1 1-1,1-1 1,0 1-1,0-1 1,0 1 0,0-1-1,0 1 1,-1 0-1,1-1 1,0 1 0,0 0-1,0 0 1,2-1-1,53-1-157,-42 3 138,8-1-104,2-1 29,-1 1 0,0 1 0,1 2-1,41 8 1,-60-10 97,-1 1 0,1-1-1,-1 1 1,0 0 0,1 0-1,-1 0 1,0 0 0,0 1-1,0 0 1,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 1 1,0 0 0,0-1-1,-1 1 1,1 0 0,-1 1-1,0-1 1,0 0-1,0 0 1,0 1 0,-1-1-1,0 1 1,0 0 0,0-1-1,-1 1 1,1 0 0,-1 5-1,0 0 28,-1 1 0,0-1 0,0 0 0,-1 1 0,0-1 0,-1 0 0,0 0 0,-1-1 0,0 1 0,0-1 0,-1 0 0,-9 14 0,10-17-55,1 0 1,0 0-1,0 0 1,1 0-1,-1 1 1,-1 11-1,4 20-5496,3-29-646</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="483.41">264 203 7764,'0'0'6184,"-11"16"-5883,-33 52-133,43-67-163,0 1 0,1-1 0,-1 1 0,0-1 0,1 1-1,-1 0 1,1-1 0,-1 1 0,1 0 0,0-1 0,0 1-1,-1 0 1,1-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0 0-1,1-1 1,-1 1 0,1-1 0,0 1 0,-1 0 0,1-1 0,0 1-1,0-1 1,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1-1,1-1 1,-1 0 0,0 0 0,3 1 0,1 1 3,0-1 1,0 1-1,0-1 1,1 0 0,-1 0-1,1-1 1,7 2-1,-8-2 20,-1-1 0,1 1 0,-1-1 0,1 0-1,-1 0 1,1-1 0,-1 1 0,1-1 0,5-1-1,-9 1-18,0 0 0,0 1 0,0-1 0,0 0-1,0 0 1,0 1 0,0-1 0,0 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,-1 0-1,1 0 1,-1-1 0,1 1 0,-1 0 0,1 0-1,-1 0 1,0-1 0,0 1 0,0 0 0,1 0-1,-1-1 1,0 1 0,-1 0 0,1 0 0,0-1-1,0 1 1,0 0 0,-1 0 0,1 0-1,-1-1 1,1 1 0,-1 0 0,1 0 0,-1 0-1,1 0 1,-3-2 0,-2-5-1,-1 0 0,-1 0 0,1 1-1,-1 0 1,0 0 0,-1 0 0,0 1 0,0 0 0,0 1-1,-10-5 1,-15-12-6,15 9 0,1 0-1,1-1 1,0 0-1,1-2 1,0 1 0,1-2-1,1 0 1,1-1-1,-11-20 1,23 38-8,-1-1-1,1 0 1,0 0-1,-1 0 1,1 0 0,0 0-1,-1 0 1,1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 1-1,0-1 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,1 0 1,-1 0-1,0 0 1,1 0 0,-1 0-1,1 0 1,-1 1-1,1-1 1,-1 0 0,1 0-1,0 0 1,-1 1-1,1-1 1,0 0 0,-1 1-1,1-1 1,0 1-1,0-1 1,0 1 0,0-1-1,0 1 1,-1 0-1,1-1 1,0 1 0,0 0-1,0 0 1,2-1-1,53-1-157,-42 3 138,8-1-104,2-1 29,-1 1 0,0 1 0,1 2-1,41 8 1,-60-10 97,-1 1 0,1-1-1,-1 1 1,0 0 0,1 0-1,-1 0 1,0 0 0,0 1-1,0 0 1,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 1 1,0 0 0,0-1-1,-1 1 1,1 0 0,-1 1-1,0-1 1,0 0-1,0 0 1,0 1 0,-1-1-1,0 1 1,0 0 0,0-1-1,-1 1 1,1 0 0,-1 5-1,0 0 28,-1 1 0,0-1 0,0 0 0,-1 1 0,0-1 0,-1 0 0,0 0 0,-1-1 0,0 1 0,0-1 0,-1 0 0,-9 14 0,10-17-55,1 0 1,0 0-1,0 0 1,1 0-1,-1 1 1,-1 11-1,4 20-5496,3-29-646</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1181.22">714 269 7700,'0'0'8203,"14"-5"-8115,44-18 47,92-21 0,-130 42-1452,-19 2 996,0 0-1,-1 0 0,1 0 1,0 0-1,-1 0 1,1 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,-1 1 1,1-1-1,-1 0 0,1 0 1,0 1-1,-1-1 0,1 0 1,-1 1-1,1-1 1,-1 1-1,1-1 0,-1 1 1,1-1-1,-1 1 0,1 0 1,0 10-6261</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1350.53">1165 78 4722,'0'0'9106,"8"-8"-8808,-2 3-242,0 0 0,0 0-1,1 1 1,0 0 0,0 0-1,0 1 1,0 0-1,9-3 1,-13 5-38,0 0-1,1 0 1,-1 0-1,0 1 1,1-1-1,-1 1 1,0 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,0 1 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 1 1,0-1-1,0 1 1,0 0-1,0 0 1,-1 0-1,1 1 1,2 2-1,-2-1 11,0 0 0,0 1 0,0-1 0,-1 1-1,1 0 1,-1 0 0,0 0 0,-1 0 0,1 0-1,-1 1 1,0-1 0,0 0 0,-1 1 0,1-1 0,-1 0-1,0 1 1,-1-1 0,1 0 0,-1 1 0,0-1-1,-1 0 1,1 0 0,-4 8 0,-1 0 29,-1 0 1,0-1 0,0 1-1,-1-2 1,-1 1 0,0-1-1,-17 16 1,18-19-16,-42 37 48,46-43-72,1 1-1,-1-1 1,0 1 0,0-1 0,0 0-1,0-1 1,0 1 0,0-1 0,0 1-1,-1-1 1,1-1 0,-5 2 0,8-4-28,0 1 0,0 0 1,0 0-1,0 0 0,0 0 0,0-1 1,1 1-1,-1 0 0,0-1 1,1 1-1,-1-1 0,1 1 1,-1-1-1,1 1 0,0-1 0,0 1 1,0-1-1,0 1 0,0-1 1,0 1-1,0-3 0,4-36-318,-2 37 310,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 1,0 1-1,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,7 1 0,-2-1 33,0 0-1,0 1 0,0 0 1,0 1-1,0-1 1,13 4-1,-18-2 10,0-1 0,0 0 0,0 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 1 1,0-1-1,0 1 0,0 0 0,2 6 0,18 59 393,-2-8-312,-19-59-376,1 1 1,0-1-1,-1 1 0,1-1 1,0 0-1,0 1 1,0-1-1,0 0 0,0 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0-1 0,1 1 1,-1-1-1,0 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 0,0-1 1,1 1-1,-1-1 0,2 0 1,18-8-5066</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1709.9">1561 30 6963,'0'0'9127,"0"4"-8887,0 14-161,1-1 0,0 0 0,1 1 0,1-1-1,9 30 1,-10-43-82,-1 1 0,1-1 0,-1 0 0,1 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,1-1 0,0 1-1,0-1 1,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0-1-1,0 0 1,0 0 0,0 0 0,1 0 0,-1-1 0,1 1-1,-1-1 1,0 0 0,1-1 0,0 1 0,4-1 0,-4 0-90,0 0 1,0 0 0,0 0 0,-1-1 0,1 0-1,0 0 1,0 0 0,-1-1 0,1 1-1,-1-1 1,1 0 0,-1-1 0,5-2 0,-4 0 20,0 0 1,0 1 0,-1-2 0,0 1-1,0 0 1,0-1 0,0 0 0,-1 1-1,4-11 1,-2 4 122,1 0-1,-2-1 1,0 0 0,0 0 0,-1 0-1,-1 0 1,1-16 0,-3 28 789,0 21-216,-3 24-551,1-27 11,1 0-1,0 0 1,2 20 0,0-34-351,-1 1 1,1-1-1,-1 1 0,1-1 0,0 0 1,0 1-1,0-1 0,1 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0-1-1,1 1 0,-1-1 0,1 1 0,0-1 1,5 3-1,25 7-4506</inkml:trace>
@@ -11016,7 +10598,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">32 3 4498,'0'0'7846,"-4"-1"-6658,-11 0-263,11 0 975,4 1-1449,-1 1-445,1-1 1,-1 1 0,1-1 0,0 1 0,-1-1-1,1 1 1,0 0 0,-1-1 0,1 1-1,0-1 1,0 1 0,0 0 0,-1-1-1,1 1 1,0-1 0,0 1 0,0 0-1,0-1 1,0 1 0,0 0 0,0-1-1,0 1 1,0 0 0,1 0 0,-1 1 2,-4 331 253,9-316-2388,-4-16 1912,-1-1 1,1 1-1,-1-1 1,1 1 0,0-1-1,-1 1 1,1-1-1,-1 0 1,1 1-1,0-1 1,0 0 0,-1 1-1,1-1 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,-1-1 1,1 1 0,0 0-1,0 0 1,-1-1-1,1 1 1,-1-1-1,1 1 1,0 0 0,-1-1-1,2 0 1,11-16-5699</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="342.17">99 51 3778,'0'0'6643,"13"0"-5971,42 3-162,-54-3-479,1 1 1,-1-1-1,0 1 0,1 0 1,-1-1-1,0 1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 1 1,0-1-1,0 0 1,-1 0-1,1 1 1,-1-1-1,1 0 1,-1 1-1,1-1 1,-1 1-1,0-1 0,0 1 1,0-1-1,0 0 1,0 3-1,-3 43 682,2-43-598,-2 13 185,-2 0-1,0 0 1,-11 26-1,10-31-100,1 1 0,0 0-1,1 0 1,1 0 0,0 0 0,0 1-1,0 14 1,6-27-188,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,4-1 0,-2 1 4,9-1-199,0 0-1,1-1 1,-1-1-1,-1 0 1,1-1 0,14-5-1,78-39-5370,-91 40 4253,31-15-4687</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="533.96">527 207 7555,'0'0'9541,"13"0"-9493,5 0 16,13-8 16,0 3-80,0 0-208,1 0-593,-6 5-863,1 0-2178,-5 0-1585</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="533.95">527 207 7555,'0'0'9541,"13"0"-9493,5 0 16,13-8 16,0 3-80,0 0-208,1 0-593,-6 5-863,1 0-2178,-5 0-1585</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -11143,11 +10725,11 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3968.88">2869 204 1953,'0'0'9623,"-5"-1"-8268,3 1-1239,-1-1-1,1 0 0,-1 1 0,0-1 1,1 1-1,-1 0 0,0-1 1,1 2-1,-1-1 0,1 0 1,-1 0-1,0 1 0,1-1 0,-1 1 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 0 0,0 1 1,-1-1-1,1 1 0,0-1 1,0 1-1,0 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,1 0 1,-3 5-1,-5 11-129,2 0 0,-1 1 0,2 0 0,1 0 0,0 1 0,2-1-1,0 1 1,1 0 0,1 0 0,2 22 0,-1-40 9,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,2 1 0,0 0-13,0-1 0,1 0 1,-1 1-1,0-1 0,0-1 0,1 1 0,-1 0 0,1-1 0,5 1 0,-3-1 8,1 0 0,-1-1 0,0 0 0,1 0 0,-1 0-1,0-1 1,0 1 0,0-1 0,0-1 0,10-5 0,-10 4 22,0-1 1,0 0-1,0 0 1,-1 0-1,0-1 1,0 1-1,-1-1 1,1 0-1,-1-1 1,0 1-1,-1-1 1,0 0 0,0 0-1,0 0 1,-1 0-1,0 0 1,-1-1-1,1 1 1,-1-1-1,-1 1 1,1-1-1,-2-7 1,2 9 3,-1-1 0,0 1 0,0 0-1,-1 0 1,0 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 1-1,0 0 1,-1 0 0,1 0 0,-1 1 0,0-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 1 0,0 0-1,-9-4 1,13 6-57,0 0-1,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 1,0 1-1,-1-1 0,1 1 0,0-1 0,-1 1 0,1 0 1,0-1-1,-1 1 0,1 0 0,-1 0 0,1 0 1,-1 0-1,1 1 0,0-1 0,-1 0 0,1 0 0,-1 1 1,1-1-1,-3 2 0,3 0-389,1 1 1,-1-1-1,0 1 0,1-1 1,-1 1-1,1-1 0,0 1 1,0-1-1,0 1 0,0-1 1,0 1-1,1 0 0,-1-1 1,2 4-1,2 9-3550</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4143.42">2856 204 4802</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5647.64">2856 191 4802,'107'80'2399,"-85"-64"-513,-21-9-1321,0 1 1,0-1-1,1 1 0,0-1 1,1 0-1,-1 0 0,1 0 1,5 8-1,-3-7-471,-2 0 0,1 1 0,-1-1 1,0 1-1,3 17 0,6 41 410,-12-83-61,1-1-1,0 1 1,1 0-1,1-1 1,1 1-1,7-20 0,-9 30-493,1 0-1,0-1 1,0 1-1,0 1 0,1-1 1,-1 0-1,1 1 1,1 0-1,-1 0 0,1 0 1,0 0-1,0 1 1,0 0-1,1 0 0,0 0 1,-1 1-1,1 0 0,0 0 1,13-4-1,-8 4-866,1 1-1,0 0 0,0 0 1,16 1-1,-25 1 565,1 0 0,-1 0 0,1 1-1,-1-1 1,0 1 0,1 0 0,-1 0-1,0 0 1,5 2 0,-7-2 331,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1 1 0,-1-1 0,0 0 0,0 1 1,1-1-1,-1 1 0,0 1 0,-9-3 4304,-26 0-2119,32 0-2092,0 0 1,1 0-1,-1 0 1,1 0 0,-1 0-1,0 1 1,1-1-1,-1 1 1,1 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,0 1-1,-3 1 1,2 0-75,1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,0 1 1,-1 4-1,0 1-5,0 0 0,0 0 0,1 0 0,0 0 1,1 1-1,0-1 0,0 0 0,3 12 0,-3-18-3,1-1-1,0 1 0,0 0 1,0-1-1,0 0 0,0 1 1,0-1-1,0 0 1,1 1-1,-1-1 0,1 0 1,0 0-1,0 0 0,-1 0 1,1-1-1,0 1 1,1 0-1,-1-1 0,0 0 1,0 1-1,1-1 0,-1 0 1,1 0-1,-1 0 1,1 0-1,-1-1 0,1 1 1,-1-1-1,1 1 0,0-1 1,-1 0-1,4 0 0,-4-1 33,1 0-1,-1 0 0,0 0 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0-1 0,0 1 0,-1-1 1,1 0-1,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 1,-1 0-1,1-4 0,12-63 299,-12-8 207,-1 77-151,0 8-742,0 9 350,-1-11 15,1 1 0,0 0 0,0 0 0,1 0 0,0-1 0,3 12-1,-3-16-45,0 0 0,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,1-1 1,-1 1 0,0-1-1,1 0 1,-1 1-1,1-1 1,-1 0-1,1 0 1,0 0 0,0 0-1,-1 0 1,1-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0 0,2 0-1,1-1 46,-1 0-1,1 0 0,-1 0 1,1-1-1,-1 1 1,0-1-1,1 0 1,-1 0-1,0 0 1,0-1-1,0 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1-1 1,0 1-1,0-1 1,-1 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 0,0-1 1,1-7-1,2 92-427,-5-6-53,0-74 461,0 0 0,0 1 1,0-1-1,0 0 0,0 1 1,1-1-1,-1 0 0,0 1 1,0-1-1,0 0 0,1 1 1,-1-1-1,0 0 0,1 0 1,-1 1-1,0-1 1,1 0-1,-1 0 0,0 0 1,1 1-1,-1-1 0,0 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,0 0 0,1 0 1,-1 0-1,0 0 0,1 0 1,-1 0-1,1-1 0,-1 1 1,0 0-1,1 0 0,-1 0 1,0 0-1,1-1 1,18-10-391,-1-14 389,0 0 1,21-42 0,-18 30-13,-21 37 57,0-1-1,0 1 1,1-1 0,-1 1-1,0 0 1,1-1-1,-1 1 1,1-1-1,-1 1 1,0 0 0,1-1-1,-1 1 1,1 0-1,-1-1 1,1 1 0,-1 0-1,1 0 1,-1 0-1,1-1 1,-1 1-1,1 0 1,-1 0 0,1 0-1,0 0 1,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0-1,-1 0 1,1 1-1,-1-1 1,1 0 0,-1 0-1,1 0 1,-1 1-1,1-1 1,-1 0 0,1 1-1,-1-1 1,1 1-1,23 23 87,-9-9 155,-13-13-265,1-1 1,0 1-1,0-1 1,-1 0-1,1 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 0,1-1 1,0 1-1,-1-1 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,2-3 1,0 0 8,0 0 0,0-1 1,-1 1-1,0-1 0,0 0 0,0 0 0,-1 0 1,1 0-1,-2-1 0,1 1 0,-1 0 1,0-1-1,1-10 0,-5-14 438,1 20 145,1 16-5,2 71-615,16 117 0,-12-141-261,-1 84-1,-4-127 276,1-9 22,-1 1 0,0 0 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,0 0 1,0 0-1,0-1 1,0 1-1,0 0 1,0-1-1,-1 1 1,1-1-1,0 1 0,0 0 1,-1-1-1,1 1 1,0-1-1,-1 1 1,1 0-1,-1-1 1,1 1-1,-1-1 1,1 1-1,-1-1 1,1 0-1,-1 1 0,1-1 1,-1 1-1,0-1 1,1 0-1,-1 0 1,1 1-1,-1-1 1,0 0-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,1 0 1,-1 0-1,-1-1 1,0 1 33,0-1 0,1 0 0,-1 0-1,0 0 1,0 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,0-1-1,0 1 1,-2-4 0,-1-3-22,1 0-1,1-1 0,-1 1 0,2 0 1,-1-1-1,1 1 0,0-1 0,1 0 1,0 1-1,0-1 0,1 0 0,0 1 1,2-10-1,1 4-23,1 1 0,0-1 1,1 1-1,0 0 0,1 1 0,0 0 1,12-15-1,11-9-49,3 1 0,1 1 1,61-46-1,-94 79 58,63-51 647,-64 51 419,-7 2-1027,0 0-1,-1 0 1,1 1-1,0 0 1,0 0-1,0 1 1,0 0-1,0 0 1,0 1-1,1 0 1,0 0-1,-1 0 1,2 1-1,-1 0 1,0 0 0,-7 9-1,8-8-69,1-1 1,-1 0-1,1 1 1,0 0-1,1 0 0,0 0 1,-1 0-1,2 1 0,-1-1 1,1 1-1,0 0 1,1-1-1,-1 1 0,1 0 1,0 0-1,1 0 0,1 14 1,-1-19 20,1 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0-1-1,1 1 0,-1 0 0,0 0 1,1-1-1,0 1 0,-1-1 1,1 0-1,0 1 0,-1-1 1,1 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,1-1 0,2 1 0,58 4-424,-59-5 362,19 0-376,-16 1 0,1 0 1,-1-1 0,0 0 0,0 0-1,1-1 1,-1 0 0,0 0 0,0-1-1,0 0 1,0 0 0,0-1 0,10-5 0,-8-2-2999</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7929.47">234 901 2977,'0'0'8231,"-2"-7"-7108,-5-22-171,2 21 51,1 11-882,-1 10-380,3 6 258,-10 65 877,0 95-1,12-178-863,1 0 1,-1 0 0,0-1-1,1 1 1,-1 0-1,1 0 1,-1-1-1,1 1 1,-1-1-1,1 1 1,0 0 0,-1-1-1,1 1 1,0-1-1,-1 1 1,1-1-1,0 0 1,0 1-1,-1-1 1,1 0-1,0 1 1,0-1 0,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,1 0-1,34 1 58,-27-1-12,8-1-12,0 0-1,0-1 1,0 0-1,-1-2 1,1 0 0,0-1-1,-1 0 1,0-2-1,-1 1 1,1-2 0,26-18-1,-40 25-41,0 0 0,1 0 0,-1-1 0,0 1 0,0-1-1,0 0 1,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0-1-1,1 1 1,-1-1 0,-1 1 0,1 0 0,0-1 0,0 0 0,-1 1 0,0-1 0,1-2-1,-3 26-320,1-18 315,0 1 1,1-1 0,0 0 0,-1 0-1,1 0 1,1 1 0,-1-1 0,0 0 0,2 4-1,-2-6-3,1 0 1,0 1-1,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 1,0 0-1,1-1 0,-1 1 0,0 0 0,0 0 0,1 0 1,-1-1-1,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 1,1 0-1,-1 0 0,1 0 0,1 0 0,3 1 5,-1-1 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 0 0,-1-1 0,1 1 0,9-5 1,-13 5 4,0 0 0,1-1 1,-1 1-1,0-1 0,0 0 0,-1 1 1,1-1-1,0 0 0,-1 0 1,1-1-1,-1 1 0,1 0 1,-1 0-1,0-1 0,0 1 1,0 0-1,0-1 0,0 1 1,-1-1-1,1 1 0,-1-1 1,0 0-1,0 1 0,0-5 1,1 3-10,-1 0-1,0 0 1,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,-1 1-1,1-1 1,-4-4 0,3 6-17,-1 0 0,1 0 0,-1 1 0,0-1 0,0 1 0,0 0-1,0-1 1,0 1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 1-1,1 0 1,0 0 0,-5 1 0,5-1 2,0 0-1,0-1 1,0 2 0,0-1-1,-1 0 1,1 1-1,0-1 1,0 1 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,1 1-1,-1 0 1,-5 3-1,6-2-19,0 0 1,1 0-1,-1 1 0,1-1 0,-1 1 0,1-1 0,0 1 1,0-1-1,1 1 0,-1 0 0,1-1 0,0 1 0,0 0 1,0 5-1,1-8 19,-1-1 0,0 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 1,0-1-1,1 1 0,-1 0 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 0 1,-1 1-1,1-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1 1 0,0-1 1,-1 0-1,1 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,1 0 0,30 0-413,-20-1 274,1 0 173,-1 0-1,1-1 1,-1 0 0,0-1 0,1-1-1,-2 0 1,1-1 0,0 0-1,11-7 1,8-3 15,-30 15-26,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 1 0,0-1 1,-1 0-1,1 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,-1-1 0,1 0 1,0 1-1,-1-1 0,1 1 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,-1 0 1,1-1-1,-1 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,1 0 0,14 41 267,-8-19-33,-4-18-215,0 0-1,0 0 1,0 0-1,0 0 1,1 0-1,0-1 0,0 1 1,6 4-1,-9-8-22,0 0-1,1 0 0,-1 0 0,0 0 0,0 0 1,1-1-1,-1 1 0,0 0 0,1-1 0,-1 1 1,1-1-1,-1 1 0,1-1 0,-1 0 0,1 0 1,-1 1-1,1-1 0,-1 0 0,1 0 0,-1-1 1,1 1-1,-1 0 0,1 0 0,-1-1 0,1 1 1,-1-1-1,1 1 0,-1-1 0,1 0 0,-1 1 1,0-1-1,0 0 0,1 0 0,-1 0 0,0 0 1,0 0-1,0 0 0,2-3 0,7-14-17,0 0-1,-2-1 0,0 0 1,6-22-1,-11 33-373,-4 11 386,1 1 0,0-1-1,1 0 1,-1 0-1,1 0 1,-1 0 0,1 0-1,0 0 1,0-1-1,0 1 1,0 0 0,1 0-1,-1-1 1,1 1 0,0 0-1,-1-1 1,1 0-1,0 1 1,0-1 0,1 0-1,-1 0 1,0 0 0,1 0-1,0-1 1,-1 1-1,1-1 1,0 1 0,-1-1-1,1 0 1,0 0-1,0 0 1,0-1 0,0 1-1,0-1 1,0 1 0,0-1-1,0 0 1,0 0-1,0-1 1,0 1 0,0 0-1,5-2 1,-5 0 7,0 1 1,-1-1-1,1 1 1,0-1 0,-1 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,0-1 1,0 1-1,0 0 1,0-1 0,-1 0-1,1 1 1,1-5-1,-1 2 5,1-1 1,-1 1-1,0-1 0,0 1 0,-1-1 0,1 0 0,0-9 1,-2 14 74,5 33-729,-2-24 702,-1 0 0,1 1 0,1-1 0,0-1-1,0 1 1,1 0 0,-1-1 0,2 0 0,-1 0 0,9 8-1,-11-12-39,0 0-1,0-1 1,1 1-1,-1-1 1,0 0-1,1 0 1,0 0-1,-1 0 1,1-1-1,0 1 1,0-1-1,0 0 1,0 0-1,0-1 1,0 1-1,0-1 1,0 0 0,1 0-1,-1 0 1,0 0-1,0-1 1,0 0-1,0 0 1,7-2-1,-8 1 3,-1 1 0,1-1 0,0 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,2-6 0,3-66 201,-5 73-216,0-3-3,-4-29-165,4 33 160,-1-1 0,0 1-1,1 0 1,-1 0-1,0 0 1,0 0 0,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1 0,0 0-1,0 1 1,0-1-1,0 1 1,-1-1-1,1 1 1,0 0 0,0 0-1,-1-1 1,1 1-1,0 0 1,-2 0-1,15 19-353,47 26 335,-48-38 31,-1 1 0,1 0 0,-1 0-1,-1 1 1,1 0 0,-2 1 0,1-1 0,7 13 0,-15-20-1,1 0 0,-1-1-1,0 1 1,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1-1 0,-1 1 0,0 0-1,1-1 1,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,0 0 0,-4 0 0,5-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1-1,1 1 1,-1 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0-1,0-1 1,1-2 0,2-35-230,0 27 170,2-1 0,0 1 0,1 0 1,0 0-1,0 0 0,2 1 0,12-17 0,-10 15 1,0-1 1,-1 0-1,-1 0 0,11-27 1,-14 26 41,-1-1 1,-1-1 0,-1 1-1,0 0 1,-1-25 0,-1 41 22,1-1 1,-1 1-1,0-1 1,0 1-1,0 0 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,0-1 1,0 1-1,0 0 1,0-1-1,-1 1 1,1-1-1,0 1 1,0 0-1,0-1 1,-1 1-1,1-1 1,0 1-1,0 0 1,-1 0-1,1-1 1,0 1-1,-1 0 1,1-1-1,0 1 1,-1 0-1,1 0 1,-1 0-1,1-1 1,0 1-1,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,0 0-1,-2 0 1,1 1 18,0 0 0,0-1 1,0 1-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,1 0 0,-1 0 1,1 1-1,-1-1 0,1 0 1,-1 2-1,-3 22 105,1 1 0,2-1 0,0 1 0,2 0 0,4 30 0,-3-45-145,1-1 0,0 0-1,1 0 1,0 0 0,0 0 0,1 0 0,1-1 0,-1 0 0,2 0 0,6 8 0,26 18-3356,-25-28-1026,-7-6-2545</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7929.46">234 901 2977,'0'0'8231,"-2"-7"-7108,-5-22-171,2 21 51,1 11-882,-1 10-380,3 6 258,-10 65 877,0 95-1,12-178-863,1 0 1,-1 0 0,0-1-1,1 1 1,-1 0-1,1 0 1,-1-1-1,1 1 1,-1-1-1,1 1 1,0 0 0,-1-1-1,1 1 1,0-1-1,-1 1 1,1-1-1,0 0 1,0 1-1,-1-1 1,1 0-1,0 1 1,0-1 0,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,1 0-1,34 1 58,-27-1-12,8-1-12,0 0-1,0-1 1,0 0-1,-1-2 1,1 0 0,0-1-1,-1 0 1,0-2-1,-1 1 1,1-2 0,26-18-1,-40 25-41,0 0 0,1 0 0,-1-1 0,0 1 0,0-1-1,0 0 1,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0-1-1,1 1 1,-1-1 0,-1 1 0,1 0 0,0-1 0,0 0 0,-1 1 0,0-1 0,1-2-1,-3 26-320,1-18 315,0 1 1,1-1 0,0 0 0,-1 0-1,1 0 1,1 1 0,-1-1 0,0 0 0,2 4-1,-2-6-3,1 0 1,0 1-1,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 1,0 0-1,1-1 0,-1 1 0,0 0 0,0 0 0,1 0 1,-1-1-1,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 1,1 0-1,-1 0 0,1 0 0,1 0 0,3 1 5,-1-1 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 0 0,-1-1 0,1 1 0,9-5 1,-13 5 4,0 0 0,1-1 1,-1 1-1,0-1 0,0 0 0,-1 1 1,1-1-1,0 0 0,-1 0 1,1-1-1,-1 1 0,1 0 1,-1 0-1,0-1 0,0 1 1,0 0-1,0-1 0,0 1 1,-1-1-1,1 1 0,-1-1 1,0 0-1,0 1 0,0-5 1,1 3-10,-1 0-1,0 0 1,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,-1 1-1,1-1 1,-4-4 0,3 6-17,-1 0 0,1 0 0,-1 1 0,0-1 0,0 1 0,0 0-1,0-1 1,0 1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 1-1,1 0 1,0 0 0,-5 1 0,5-1 2,0 0-1,0-1 1,0 2 0,0-1-1,-1 0 1,1 1-1,0-1 1,0 1 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,1 1-1,-1 0 1,-5 3-1,6-2-19,0 0 1,1 0-1,-1 1 0,1-1 0,-1 1 0,1-1 0,0 1 1,0-1-1,1 1 0,-1 0 0,1-1 0,0 1 0,0 0 1,0 5-1,1-8 19,-1-1 0,0 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 1,0-1-1,1 1 0,-1 0 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 0 1,-1 1-1,1-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1 1 0,0-1 1,-1 0-1,1 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,1 0 0,30 0-413,-20-1 274,1 0 173,-1 0-1,1-1 1,-1 0 0,0-1 0,1-1-1,-2 0 1,1-1 0,0 0-1,11-7 1,8-3 15,-30 15-26,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 1 0,0-1 1,-1 0-1,1 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,-1-1 0,1 0 1,0 1-1,-1-1 0,1 1 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,-1 0 1,1-1-1,-1 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,1 0 0,14 41 267,-8-19-33,-4-18-215,0 0-1,0 0 1,0 0-1,0 0 1,1 0-1,0-1 0,0 1 1,6 4-1,-9-8-22,0 0-1,1 0 0,-1 0 0,0 0 0,0 0 1,1-1-1,-1 1 0,0 0 0,1-1 0,-1 1 1,1-1-1,-1 1 0,1-1 0,-1 0 0,1 0 1,-1 1-1,1-1 0,-1 0 0,1 0 0,-1-1 1,1 1-1,-1 0 0,1 0 0,-1-1 0,1 1 1,-1-1-1,1 1 0,-1-1 0,1 0 0,-1 1 1,0-1-1,0 0 0,1 0 0,-1 0 0,0 0 1,0 0-1,0 0 0,2-3 0,7-14-17,0 0-1,-2-1 0,0 0 1,6-22-1,-11 33-373,-4 11 386,1 1 0,0-1-1,1 0 1,-1 0-1,1 0 1,-1 0 0,1 0-1,0 0 1,0-1-1,0 1 1,0 0 0,1 0-1,-1-1 1,1 1 0,0 0-1,-1-1 1,1 0-1,0 1 1,0-1 0,1 0-1,-1 0 1,0 0 0,1 0-1,0-1 1,-1 1-1,1-1 1,0 1 0,-1-1-1,1 0 1,0 0-1,0 0 1,0-1 0,0 1-1,0-1 1,0 1 0,0-1-1,0 0 1,0 0-1,0-1 1,0 1 0,0 0-1,5-2 1,-5 0 7,0 1 1,-1-1-1,1 1 1,0-1 0,-1 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,0-1 1,0 1-1,0 0 1,0-1 0,-1 0-1,1 1 1,1-5-1,-1 2 5,1-1 1,-1 1-1,0-1 0,0 1 0,-1-1 0,1 0 0,0-9 1,-2 14 74,5 33-729,-2-24 702,-1 0 0,1 1 0,1-1 0,0-1-1,0 1 1,1 0 0,-1-1 0,2 0 0,-1 0 0,9 8-1,-11-12-39,0 0-1,0-1 1,1 1-1,-1-1 1,0 0-1,1 0 1,0 0-1,-1 0 1,1-1-1,0 1 1,0-1-1,0 0 1,0 0-1,0-1 1,0 1-1,0-1 1,0 0 0,1 0-1,-1 0 1,0 0-1,0-1 1,0 0-1,0 0 1,7-2-1,-8 1 3,-1 1 0,1-1 0,0 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,2-6 0,3-66 201,-5 73-216,0-3-3,-4-29-165,4 33 160,-1-1 0,0 1-1,1 0 1,-1 0-1,0 0 1,0 0 0,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1 0,0 0-1,0 1 1,0-1-1,0 1 1,-1-1-1,1 1 1,0 0 0,0 0-1,-1-1 1,1 1-1,0 0 1,-2 0-1,15 19-353,47 26 335,-48-38 31,-1 1 0,1 0 0,-1 0-1,-1 1 1,1 0 0,-2 1 0,1-1 0,7 13 0,-15-20-1,1 0 0,-1-1-1,0 1 1,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1-1 0,-1 1 0,0 0-1,1-1 1,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,0 0 0,-4 0 0,5-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1-1,1 1 1,-1 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0-1,0-1 1,1-2 0,2-35-230,0 27 170,2-1 0,0 1 0,1 0 1,0 0-1,0 0 0,2 1 0,12-17 0,-10 15 1,0-1 1,-1 0-1,-1 0 0,11-27 1,-14 26 41,-1-1 1,-1-1 0,-1 1-1,0 0 1,-1-25 0,-1 41 22,1-1 1,-1 1-1,0-1 1,0 1-1,0 0 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,0-1 1,0 1-1,0 0 1,0-1-1,-1 1 1,1-1-1,0 1 1,0 0-1,0-1 1,-1 1-1,1-1 1,0 1-1,0 0 1,-1 0-1,1-1 1,0 1-1,-1 0 1,1-1-1,0 1 1,-1 0-1,1 0 1,-1 0-1,1-1 1,0 1-1,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,0 0-1,-2 0 1,1 1 18,0 0 0,0-1 1,0 1-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,1 0 0,-1 0 1,1 1-1,-1-1 0,1 0 1,-1 2-1,-3 22 105,1 1 0,2-1 0,0 1 0,2 0 0,4 30 0,-3-45-145,1-1 0,0 0-1,1 0 1,0 0 0,0 0 0,1 0 0,1-1 0,-1 0 0,2 0 0,6 8 0,26 18-3356,-25-28-1026,-7-6-2545</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8111.44">1398 975 7091,'0'0'4642,"108"-37"-4802,-54 34-1296,-1 3-1682,7 0-3025</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8409.33">1992 1021 8180,'0'0'6720,"-12"3"-6624,21-5-45,-1 1-1,1 1 0,0-1 0,-1 2 1,15 1-1,4-1 334,64-8 669,-37 0-2480,-16 6-3844,-28 1 516</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9075.56">2581 1003 4786,'0'0'8153,"0"5"-7886,0 136 1240,0-139-1008,-5-9 659,-3-22-1128,1-1-1,2 0 0,1 0 1,1-1-1,3-59 1,0 75 41,0-1-76,0 14-3,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,1-3 0,-1 4-6,0 0-1,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,4 0 0,-4 0-4,0 1 0,1-1-1,-1 0 1,0 1 0,0-1 0,1 1 0,-1-1-1,0 1 1,0-1 0,0 1 0,0 0-1,0-1 1,0 1 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,-1 1 0,1-1 0,-1 0-1,1 0 1,-1 1 0,0-1 0,1 0-1,-1 0 1,0 1 0,0 2 0,1 53-62,-2-38 236,0 3-5,1-15-157,-1-1-1,1 1 0,1 0 1,-1-1-1,4 12 1,-3-16-15,0 1 0,0-1 1,0 1-1,0-1 1,1 0-1,-1 1 1,1-1-1,0 0 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1-1,0 0 1,0-1-1,1 0 1,3 3-1,57 20-315,-46-19 309,0 2 1,23 12 0,-39-19 29,-1 0-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 0,1 1 1,-1-1-1,0 0 1,1 0-1,-1 0 1,0 1-1,1-1 1,-1 0-1,0 1 1,1-1-1,-1 0 1,0 0-1,0 1 1,1-1-1,-1 1 0,0-1 1,0 0-1,0 1 1,1-1-1,-1 0 1,0 1-1,0-1 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 0,0-1 1,0 0-1,0 1 1,0-1-1,0 1 1,-1-1-1,1 0 1,0 1-1,0-1 1,0 0-1,0 1 1,-1-1-1,1 0 1,0 1-1,-1-1 0,1 0 1,0 1-1,0-1 1,-1 0-1,1 0 1,-1 1-1,1-1 1,0 0-1,-1 0 1,1 0-1,0 1 1,-1-1-1,1 0 1,-1 0-1,0 0 0,-34 11 903,27-9-804,-8 2 28,-3 3-110,0-1-1,0-2 0,-1 0 1,1 0-1,-1-2 0,0-1 0,-35-1 1,55-1-150,-1 1 1,0-1-1,1 0 1,-1 1-1,0-1 1,1 0 0,-1 1-1,1-1 1,0 0-1,-1 0 1,1 0-1,-1 0 1,1 1-1,0-1 1,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,1 0-1,-1-1 1,5-25-4978,12 0-1008</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10017.97">2818 855 4818,'0'0'11411,"0"-8"-10116,0 4-1289,0 6 53,1 23 20,2-1-1,0 1 1,2-1-1,0 0 1,2 0-1,13 31 1,-19-52-76,0-1-1,0 1 1,0 0 0,0-1 0,1 1-1,0 0 1,-1-1 0,1 0 0,0 1-1,0-1 1,0 0 0,0 0-1,0 0 1,1 0 0,-1-1 0,1 1-1,-1-1 1,1 1 0,-1-1 0,1 0-1,0 0 1,0 0 0,0 0 0,0 0-1,-1-1 1,1 1 0,0-1-1,0 0 1,0 0 0,0 0 0,0 0-1,0-1 1,0 1 0,0-1 0,0 0-1,0 1 1,-1-1 0,1-1 0,0 1-1,0 0 1,2-2 0,7-3-5,-1 0 1,0-1 0,0 0 0,-1-1-1,0 0 1,0 0 0,17-20-1,-22 22 30,0 0 0,0-1-1,-1 1 1,0-1-1,0-1 1,-1 1 0,1 0-1,-2-1 1,1 0-1,-1 1 1,0-1 0,-1 0-1,2-16 1,-9 137-460,7-112 388,-1 1 0,0 0-1,0 0 1,1 0 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 1-1,1-1 1,-1 0 0,0 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,2 0 0,1 0-14,-1-1 0,0 1 0,0-1 1,0 1-1,0-1 0,1 0 0,-1 0 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,-1-1 0,1 1 0,5-6 0,-4 2 144,-1 0-1,1-1 1,-1 0-1,0 0 0,-1 0 1,1 0-1,-1 0 0,-1-1 1,0 0-1,0 1 1,0-1-1,-1 0 0,1-14 1,-2 21 183,1 30-706,-1-25 443,1 0 1,-1 0 0,1 0-1,0 0 1,0 0 0,1 0-1,-1 0 1,1-1 0,0 1-1,0 0 1,0-1 0,1 0-1,-1 1 1,1-1 0,0 0-1,0 0 1,6 4 0,-4-4-34,1 0 0,0 0 0,-1-1 0,1 0 0,0 0 0,0-1 0,0 0 1,0 0-1,1 0 0,-1-1 0,9 0 0,-5 0 31,1 0 1,-1-1-1,0 0 1,0-1-1,1 0 1,-1-1-1,-1 0 1,1-1-1,12-5 1,-18 6-12,1 1 0,-1-1 0,0 0 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,-1 0-1,0 0 1,0 0 0,1-6 0,-2-55-38,-22 67-283,18 3 329,-1-1 0,1 1-1,0 0 1,0 1 0,0-1 0,1 1 0,-1-1 0,1 1-1,0 0 1,1 0 0,-1 1 0,-1 6 0,-1 0 14,1 0 0,0 1-1,1 0 1,-2 18 0,4-27-38,1 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,2 5 0,-1-7 6,-1 0 1,1-1-1,0 1 1,-1 0 0,1-1-1,0 0 1,0 1-1,0-1 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,1 0 1,-1-1-1,0 1 1,1-1 0,-1 0-1,0 1 1,1-1-1,-1 0 1,3-1 0,9 2-393,0-1 0,1-1 1,-1-1-1,0 0 0,0-1 1,0 0-1,0-1 0,-1 0 1,1-1-1,20-12 0,10-10-5583</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10017.96">2818 855 4818,'0'0'11411,"0"-8"-10116,0 4-1289,0 6 53,1 23 20,2-1-1,0 1 1,2-1-1,0 0 1,2 0-1,13 31 1,-19-52-76,0-1-1,0 1 1,0 0 0,0-1 0,1 1-1,0 0 1,-1-1 0,1 0 0,0 1-1,0-1 1,0 0 0,0 0-1,0 0 1,1 0 0,-1-1 0,1 1-1,-1-1 1,1 1 0,-1-1 0,1 0-1,0 0 1,0 0 0,0 0 0,0 0-1,-1-1 1,1 1 0,0-1-1,0 0 1,0 0 0,0 0 0,0 0-1,0-1 1,0 1 0,0-1 0,0 0-1,0 1 1,-1-1 0,1-1 0,0 1-1,0 0 1,2-2 0,7-3-5,-1 0 1,0-1 0,0 0 0,-1-1-1,0 0 1,0 0 0,17-20-1,-22 22 30,0 0 0,0-1-1,-1 1 1,0-1-1,0-1 1,-1 1 0,1 0-1,-2-1 1,1 0-1,-1 1 1,0-1 0,-1 0-1,2-16 1,-9 137-460,7-112 388,-1 1 0,0 0-1,0 0 1,1 0 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 1-1,1-1 1,-1 0 0,0 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,2 0 0,1 0-14,-1-1 0,0 1 0,0-1 1,0 1-1,0-1 0,1 0 0,-1 0 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,-1-1 0,1 1 0,5-6 0,-4 2 144,-1 0-1,1-1 1,-1 0-1,0 0 0,-1 0 1,1 0-1,-1 0 0,-1-1 1,0 0-1,0 1 1,0-1-1,-1 0 0,1-14 1,-2 21 183,1 30-706,-1-25 443,1 0 1,-1 0 0,1 0-1,0 0 1,0 0 0,1 0-1,-1 0 1,1-1 0,0 1-1,0 0 1,0-1 0,1 0-1,-1 1 1,1-1 0,0 0-1,0 0 1,6 4 0,-4-4-34,1 0 0,0 0 0,-1-1 0,1 0 0,0 0 0,0-1 0,0 0 1,0 0-1,1 0 0,-1-1 0,9 0 0,-5 0 31,1 0 1,-1-1-1,0 0 1,0-1-1,1 0 1,-1-1-1,-1 0 1,1-1-1,12-5 1,-18 6-12,1 1 0,-1-1 0,0 0 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,-1 0-1,0 0 1,0 0 0,1-6 0,-2-55-38,-22 67-283,18 3 329,-1-1 0,1 1-1,0 0 1,0 1 0,0-1 0,1 1 0,-1-1 0,1 1-1,0 0 1,1 0 0,-1 1 0,-1 6 0,-1 0 14,1 0 0,0 1-1,1 0 1,-2 18 0,4-27-38,1 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,2 5 0,-1-7 6,-1 0 1,1-1-1,0 1 1,-1 0 0,1-1-1,0 0 1,0 1-1,0-1 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,1 0 1,-1-1-1,0 1 1,1-1 0,-1 0-1,0 1 1,1-1-1,-1 0 1,3-1 0,9 2-393,0-1 0,1-1 1,-1-1-1,0 0 0,0-1 1,0 0-1,0-1 0,-1 0 1,1-1-1,20-12 0,10-10-5583</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -11409,7 +10991,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="360.87">572 102 2513,'0'0'7737,"0"58"-4447,-3 7-1554,0-3-3544</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="566.68">509 214 5122,'0'0'9237,"-22"-2"-9237,31 2-385,13 0 129,10 0 16,9 0-1681,0-3-1328,4-1-2610</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="836.98">870 133 7780,'0'0'7331,"-3"61"-6803,-16 78 682,16-79-4573,3-54-1799</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1426.17">249 481 8580,'0'0'8222,"0"3"-8142,-2 17 248,0 0 1,-2 0-1,0 0 0,-9 23 0,6-23-604,2 1 0,0-1 0,1 1 1,-1 28-1,26-55-9355,-14-5 2566</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1426.16">249 481 8580,'0'0'8222,"0"3"-8142,-2 17 248,0 0 1,-2 0-1,0 0 0,-9 23 0,6-23-604,2 1 0,0-1 0,1 1 1,-1 28-1,26-55-9355,-14-5 2566</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1831.53">201 564 1873,'0'0'6787,"0"-11"-5667,-3-32-5700,2 37 3120,-1 2-359</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2285.06">115 483 1201,'0'0'12621,"-12"5"-12143,1 7-159,0 0 0,2 1 1,-1 0-1,-8 18 0,1-4 166,14-23-435,0 0 41,0 0 1,1 0 0,-1 1-1,1-1 1,0 0-1,0 1 1,0 0-1,1-1 1,-2 7 0,4-10-90,-1 0 1,0-1 0,1 1-1,-1-1 1,1 1 0,-1-1 0,1 1-1,-1-1 1,1 1 0,-1-1-1,1 0 1,0 1 0,-1-1 0,1 0-1,-1 1 1,1-1 0,0 0-1,-1 0 1,1 1 0,0-1 0,0 0-1,-1 0 1,1 0 0,0 0-1,-1 0 1,2 0 0,24 1 55,-23-1-37,20 0 10,49-1 274,-68 0-333,0 1 0,0-1 0,0 0 1,0 0-1,0 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,1-1 0,3-3 0,7 1-7205</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2595.99">538 667 11637,'0'0'7102,"23"-8"-6304,5 0-947,33-9 467,-21 13-3910</inkml:trace>
@@ -11520,7 +11102,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10299.71">2405 1947 10485,'0'0'5520,"5"9"-5280,7 26 880,13 66 1,-2-8-548,-21-85-431,0 0-1,-1 1 1,0-1-1,0 16 0,-1-23 153,-7-10 840,1-2-1118,1-1 0,0 1 0,1-1 1,0 0-1,0 0 0,1-1 0,1 1 1,0 0-1,1-1 0,0 0 0,1 1 1,1-1-1,2-15 0,-2 17-42,0 1-1,1 0 1,1 0-1,0 0 1,0 0 0,1 0-1,0 1 1,0 0-1,1 0 1,1 0 0,-1 0-1,1 1 1,1 0-1,0 0 1,0 1 0,12-11-1,-9 12-138,0 0 1,0 0-1,0 1 0,1 0 0,0 1 0,0 0 0,0 1 0,0 0 0,1 1 1,-1 0-1,1 1 0,-1 0 0,1 1 0,14 1 0,-25-1-64,1 1 0,-1-1 0,1 1-1,-1-1 1,1 1 0,-1-1 0,1 1 0,-1 0-1,1 0 1,-1 0 0,0 0 0,1 0 0,-1 0-1,0 0 1,0 0 0,0 0 0,0 0 0,1 3-1,6 18-5601,-7 0-1874</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10470.81">2561 2095 6659,'0'0'9877,"56"-23"-9845,-22 12-32,0 4-833,0 0-559,0 5-1282,1 0-1023,-4 2-1202</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11013.28">2888 2042 1553,'0'0'12672,"-12"6"-11116,-39 24-521,46-27-905,1 0 0,-1 1-1,1 0 1,0 0 0,0 0 0,1 1 0,-1-1 0,1 1 0,-4 8 0,5-11-87,1 1 1,-1-1 0,1 1-1,0 0 1,0-1 0,1 1 0,-1 0-1,0 0 1,1-1 0,0 1-1,-1 0 1,1 0 0,0 0-1,1-1 1,-1 1 0,0 0-1,1 0 1,0 2 0,1-3-35,-1-1 1,1 1-1,0-1 1,-1 0-1,1 1 1,0-1-1,0 0 1,0 0-1,0-1 1,0 1-1,0 0 1,0-1-1,0 1 1,0-1-1,1 1 1,-1-1-1,0 0 1,0 0-1,0 0 1,0 0-1,3-1 1,47-7 298,-51 7-271,1 1 0,0-1 0,0 1 0,0-1 1,0 0-1,0 1 0,-1-1 0,1 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 1,0 1-1,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,-1-3 0,0 2 11,0-1-1,-1 1 0,1 0 1,-1 0-1,0 0 0,0 0 1,0 0-1,-1 0 1,1 1-1,-1-1 0,1 1 1,-1 0-1,0-1 1,0 1-1,0 0 0,0 1 1,-5-3-1,-38-12-1570,50 16-2342,11-2 2904,2 1 1187,22-1-114,40 2 69,-74 1-138,1-1 1,-1 1 0,0 1 0,1-1 0,-1 0 0,0 1 0,0 0 0,0 1 0,0-1 0,0 1 0,5 4-1,-9-6-26,0 0-1,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,-1 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 1,0-1-1,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 1,0 1-1,-1-1 0,1 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,-2 1 0,-42 30 734,43-31-719,-2 1 52,1 0 0,-1 0 0,0 0 1,0 0-1,0-1 0,0 0 1,0 0-1,0 0 0,0 0 1,-5 0-1,9-40 1232,1 33-1312,1 0 0,-1 1 0,1-1-1,0 0 1,0 1 0,1-1 0,0 1 0,0 0 0,0 0-1,0 0 1,1 0 0,0 1 0,0-1 0,0 1-1,0 0 1,1 0 0,5-3 0,-3 2-440,0 1 0,0 0 0,0 0 0,16-5 1,-15 7-958,-1 0 0,1 0 1,0 1-1,-1 0 0,10 0 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11577.86">3111 2039 944,'0'0'13719,"9"14"-13287,-7-6-35,1 0 0,-1 1 1,-1-1-1,1 1 0,-2-1 0,1 1 0,-1 0 1,-1 12-1,5-32-226,1 0 1,0 1-1,13-19 1,-15 24-276,1 1 1,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,1 1-1,-1 0 1,1 0 0,8-4 0,-12 6 78,0 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,1-1 0,1 2 0,-2-1 13,1 0 1,-1 1-1,0-1 0,0 1 0,0-1 1,0 1-1,0 0 0,0-1 0,0 1 0,0 0 1,-1 0-1,1-1 0,0 1 0,-1 0 1,0 0-1,1 0 0,-1 3 0,0 36 845,0-41-558,17-10-179,-4-2-134,45-35-179,-54 44 203,1 0 0,-1 0-1,1 0 1,0 1 0,0 0-1,0 0 1,0 1-1,1-1 1,-1 1 0,0 0-1,8 0 1,-13 1 36,1 0 0,0 1 0,0-1 0,-1 1 1,1-1-1,-1 1 0,1-1 0,0 1 0,-1-1 1,1 1-1,-1 0 0,1-1 0,-1 1 0,1 0 1,-1-1-1,0 1 0,1 0 0,-1 0 0,0-1 0,0 1 1,1 0-1,-1 0 0,0 0 0,0-1 0,0 1 1,0 0-1,0 0 0,0 0 0,0 1 0,-1 32 514,1-27-441,0 1-193,1 10-1564,7-11-7151</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11577.85">3111 2039 944,'0'0'13719,"9"14"-13287,-7-6-35,1 0 0,-1 1 1,-1-1-1,1 1 0,-2-1 0,1 1 0,-1 0 1,-1 12-1,5-32-226,1 0 1,0 1-1,13-19 1,-15 24-276,1 1 1,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,1 1-1,-1 0 1,1 0 0,8-4 0,-12 6 78,0 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,1-1 0,1 2 0,-2-1 13,1 0 1,-1 1-1,0-1 0,0 1 0,0-1 1,0 1-1,0 0 0,0-1 0,0 1 0,0 0 1,-1 0-1,1-1 0,0 1 0,-1 0 1,0 0-1,1 0 0,-1 3 0,0 36 845,0-41-558,17-10-179,-4-2-134,45-35-179,-54 44 203,1 0 0,-1 0-1,1 0 1,0 1 0,0 0-1,0 0 1,0 1-1,1-1 1,-1 1 0,0 0-1,8 0 1,-13 1 36,1 0 0,0 1 0,0-1 0,-1 1 1,1-1-1,-1 1 0,1-1 0,0 1 0,-1-1 1,1 1-1,-1 0 0,1-1 0,-1 1 0,1 0 1,-1-1-1,0 1 0,1 0 0,-1 0 0,0-1 0,0 1 1,1 0-1,-1 0 0,0 0 0,0-1 0,0 1 1,0 0-1,0 0 0,0 0 0,0 1 0,-1 32 514,1-27-441,0 1-193,1 10-1564,7-11-7151</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12387.76">3608 2047 4114,'0'0'11514,"-12"-4"-11055,-43-10-133,52 14-308,0 0 0,1 0 1,-1 0-1,0 0 0,1 1 1,-1-1-1,1 1 0,-1-1 1,1 1-1,-1 0 0,1 0 1,-1 0-1,1 1 0,0-1 0,0 1 1,0-1-1,-1 1 0,1 0 1,1-1-1,-1 1 0,0 0 1,0 0-1,1 0 0,-1 1 1,1-1-1,0 0 0,-2 4 0,1-2-6,0 0 0,0 0-1,0 1 1,1-1 0,0 1-1,-1 0 1,2-1 0,-1 1-1,0 0 1,1-1 0,0 1-1,1 9 1,0-14-20,-1 1 0,1 0-1,0-1 1,0 1 0,-1 0-1,1-1 1,0 1 0,0-1-1,0 1 1,0-1 0,-1 0-1,1 1 1,0-1 0,0 0-1,0 0 1,0 1 0,0-1 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0-1 0,0 1-1,0 0 1,0 0 0,1-1-1,27-8-339,-23 6 385,-1-1 0,1-1 1,-2 1-1,1-1 0,0 0 1,-1 0-1,0 0 0,7-11 1,-11 15 551,4 38-714,-3-34 138,-1-1 1,1 0-1,0 0 0,0 1 1,0-1-1,1 0 0,-1 0 1,1 0-1,-1-1 1,1 1-1,-1 0 0,1-1 1,0 1-1,0-1 0,0 1 1,0-1-1,0 0 0,0 0 1,0 1-1,0-2 1,0 1-1,1 0 0,-1 0 1,0-1-1,1 1 0,-1-1 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1 0 1,0 0-1,1-1 0,-1 1 1,0-1-1,0 0 0,1 1 1,-1-1-1,0 0 1,0 0-1,4-3 0,2 0 26,0-1 0,-1 0 0,1 0 0,-1-1-1,0 0 1,0 0 0,-1 0 0,0-1 0,10-14 0,-6 2-103,-2 0 1,0 0-1,0-1 1,-2 0-1,-1 0 0,0 0 1,-2-1-1,0 0 1,-1 0-1,-1-24 1,-13 78-174,3-14 202,5-5 25,1-1 0,0 1 0,1 0 0,1 0 0,0 0 0,2 15 0,-1-26-11,0 0 1,0 0 0,0 1-1,0-1 1,1 0 0,-1 0-1,1 0 1,0 0 0,0 0-1,0 0 1,0 0-1,1 0 1,-1-1 0,1 1-1,0 0 1,-1-1 0,1 1-1,0-1 1,1 0 0,-1 1-1,0-1 1,1 0 0,-1-1-1,1 1 1,-1 0-1,1-1 1,0 1 0,0-1-1,0 0 1,0 0 0,0 0-1,4 1 1,48-5-2020,-54 3 2134,0 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1-1-1,1 1 0,-1 0 1,0-1-1,0 1 1,1-1-1,-1 0 1,0 1-1,0-1 0,0 0 1,0 0-1,0 0 1,0 0-1,0 1 1,0-2-1,0 1 0,0 0 1,0 0-1,0 0 1,-1 0-1,2-3 0,-2 7-81,0-1-1,0 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0 0 1,0-1-1,1 1 1,-1-1-1,1 1 1,-1-1-1,1 0 1,0 1-1,0-1 1,-1 0-1,1 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0-1 0,0 0 1,0 1-1,0-1 1,0 0-1,3 0 1,-1 0-150,0 0 1,1 0-1,-1-1 0,0 1 1,0-1-1,1 0 1,6-2-1,-9 2-259,1 0 0,0-1 0,-1 1-1,1-1 1,-1 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0-1,2-2 1,0-7-2816,-4-2-1235</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12591.62">3727 1941 3394,'0'0'12181,"31"-3"-12581,-3-5 80,0-1-2353,0 0-1425,-1 0-1873</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12716.32">3953 1840 8292,'0'0'8420,"0"-5"-12566,7 10-1633</inkml:trace>
@@ -11554,7 +11136,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 562 4082,'0'0'14735,"38"5"-14863,135-5 24,-172 0-427</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="356.24">355 465 6835,'0'0'6681,"0"36"-6319,-2-17 4,0 1 0,-1 0 0,-7 21 0,-5 37 198,12-60-260,0 0-436,3-5-3327,9-13-7415</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="694.46">555 588 2609,'0'0'8505,"72"3"-4356,-68-3-4556,32 0 950,-22-5-7853</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="694.45">555 588 2609,'0'0'8505,"72"3"-4356,-68-3-4556,32 0 950,-22-5-7853</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1006.43">634 489 4034,'0'0'6910,"-13"31"-4907,3 18-342,4-26-1432,1 1 0,2-1 0,-1 29 0,3-46-240,2 9-1759,5-9-2278,3-5 148</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1301.32">855 494 7251,'0'0'5219,"0"7"-5051,0 128 2748,0-75-4242</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1892.1">108 180 3089,'0'0'10072,"-10"-7"-7300,85 6-1934,21 1-635,-32 1-8544</inkml:trace>
@@ -11686,12 +11268,12 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8298.42">760 666 6019,'0'0'7270,"-1"-1"-7032,1 1 1,-1-1-1,1 1 1,0 0 0,-1-1-1,1 1 1,-1-1-1,0 1 1,1 0-1,-1 0 1,1-1 0,-1 1-1,1 0 1,-1 0-1,0-1 1,1 1-1,-1 0 1,0 0 0,1 0-1,-1 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,-2 1 0,-9 108-242,6-74 61,-1 44 1,4-61 953,1-10-2868</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9111.08">770 664 5923,'0'0'8385,"1"-22"-4773,7 17-3590,1 0 0,1 0 0,-1 1 0,0 0 0,1 1 0,0 0 0,0 0 0,0 1-1,0 0 1,1 1 0,-1 0 0,0 0 0,13 2 0,-21-1-27,0 0 1,0 1-1,-1-1 1,1 0-1,0 1 1,0-1-1,-1 1 1,1 0-1,0-1 1,-1 1-1,1 0 1,0 0-1,-1 0 1,1 0-1,-1 1 1,0-1-1,1 0 1,-1 0-1,0 1 1,0-1-1,0 1 0,0-1 1,0 1-1,0-1 1,0 1-1,-1 0 1,1 0-1,0-1 1,-1 1-1,0 0 1,1 2-1,0 0 13,-1-1-1,0 0 1,1 0 0,-1 0-1,0 0 1,-1 0-1,1 0 1,-1 0 0,1 1-1,-1-1 1,0 0-1,0 0 1,0-1 0,0 1-1,-1 0 1,1 0-1,-5 5 1,-8 7 14,-1-1 1,-1 0-1,0-1 1,-28 17-1,33-20-538,27-9-471,1-1 1177,-8 0-229,-2 0 11,-1-1 0,1 2-1,-1-1 1,1 1-1,-1 0 1,1 0-1,-1 0 1,0 1-1,0 0 1,0 1-1,0-1 1,0 1-1,5 3 1,-10-4 40,0-1 0,0 1 1,0-1-1,0 1 0,-1 0 1,1-1-1,-1 1 0,1 0 0,-1-1 1,0 1-1,0 0 0,0-1 0,0 1 1,0 0-1,0 0 0,0-1 1,0 1-1,-1 0 0,1-1 0,-1 1 1,1 0-1,-1-1 0,0 1 0,1-1 1,-1 1-1,0-1 0,0 1 0,0-1 1,0 0-1,-1 1 0,1-1 1,-2 2-1,-5 5 117,1-1 0,-1 0-1,-16 10 1,15-12-12,1 0-1,0-1 1,-1-1-1,0 1 1,0-1-1,0-1 1,0 0-1,0 0 1,-17 1-1,-22-1-1982,44-13-9940</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9855.18">1164 711 3586,'0'0'6408,"2"-4"-5533,0 3-669,-2-1-1,1 1 1,0-1-1,0 1 1,0-1-1,-1 1 1,1-1-1,-1 1 1,1-1-1,-1 0 1,0 1-1,1-1 1,-1 0-1,0 1 1,0-1 0,0 0-1,-1 0 1,1 1-1,0-1 1,-1-1-1,0 1-162,0 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,0-1 0,1 1-1,-1 0 1,0 0 0,0 0 0,-2 1 0,0-1-51,-1 0 0,1 0 1,0 0-1,0 0 0,0 1 0,-1 0 0,1 0 0,0 0 0,0 1 1,0-1-1,0 1 0,0 0 0,-6 4 0,8-3-4,-1-1 1,1 1-1,0-1 0,0 1 0,0 0 1,1-1-1,-1 1 0,1 0 0,0 0 0,-1 1 1,1-1-1,1 0 0,-1 0 0,0 0 1,1 1-1,0-1 0,-1 0 0,2 6 1,-1-8-13,1 0 1,0 0 0,-1 0-1,1 0 1,0 1 0,0-2 0,0 1-1,0 0 1,0 0 0,0 0-1,0 0 1,0-1 0,0 1-1,0 0 1,0-1 0,0 1 0,1-1-1,-1 1 1,0-1 0,0 0-1,1 1 1,-1-1 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0-1,1 0 1,1-1 0,1 2-43,-1-1 1,1 0 0,0-1 0,0 1-1,-1-1 1,1 1 0,0-1 0,-1 0-1,1-1 1,3 0 0,-3-2 24,0 1 0,-1-1 0,1 0-1,-1 0 1,0 0 0,0-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,3-9-1,-5 14 18,14 37-803,-12-23 877,0 0-1,-1 0 0,-1 0 1,-1 0-1,-3 26 0,3-36 75,1 0-1,-1 0 1,0 1-1,0-1 1,-1 0-1,1 0 1,-1 0-1,0-1 1,0 1-1,0 0 1,0-1-1,-1 1 1,1-1-1,-1 0 1,0 0-1,0 0 1,0 0-1,-1 0 1,1-1-1,-1 1 1,1-1-1,-1 0 1,-5 2 0,8-3-148,-1 0 1,1-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 0-1,0 1 1,0-1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,-1 1-1,1-1 1,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0-1,1 0 1,-1-1 0,1 1 0,-1 0 0,0-1 0,1-1-473,0 0 0,0 0 0,0 1 0,0-1 0,1 0 1,-1 0-1,1 1 0,-1-1 0,1 0 0,0 1 0,0-1 1,1 1-1,-1-1 0,0 1 0,1 0 0,-1-1 0,5-3 1,14-14-5335</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10236.88">1428 648 1313,'0'0'11103,"-5"-4"-10145,3 2-897,0 0 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1 0-1,1 0 1,-1 0 0,1 1 0,-1-1 0,1 1 0,-5-1 0,6 1-47,-1 1 0,0-1 0,1 0 1,-1 1-1,0-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 1,0 0-1,0 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 1,1-1-1,-1 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,-1 2 0,-1 1-16,1 0-1,0-1 0,0 1 1,0 0-1,1 0 0,0 0 1,-1 0-1,2 0 0,-1-1 1,1 1-1,-1 0 0,2 0 0,-1 0 1,0-1-1,1 1 0,0-1 1,3 6-1,2 2 124,2 0 0,0-1-1,0 0 1,17 14 0,-23-21-39,-2-4 5,0 1 0,-1-1 0,1 1 0,-1 0-1,1-1 1,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0-1,0 0 1,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1-1,0 0 1,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,-1-1 0,0 2-1,-21 18 800,-36 4-917,57-24 53,0 1-216,0-1 1,0 0 0,0 1 0,0-1-1,-1 1 1,1-1 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,-1 0-1,1 0 1,0-1 0,0 1 0,0 0-1,-2-2 1,3 1-337,-1 0-1,0-1 1,1 1-1,-1-1 1,1 1 0,-1-1-1,1 1 1,0-1-1,0 1 1,-1-1 0,1 0-1,0 1 1,1-4-1,-1-18-5319</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10454.96">1396 655 6307,'0'0'8692,"72"-58"-8516,-53 49 80,0 0 176,-3 2-80,-4 0-208,4 1-144,-7 1 0,4 5-48,-4 0-688,-3 0-1233,-2 9-1937,-4 5-1296</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10236.87">1428 648 1313,'0'0'11103,"-5"-4"-10145,3 2-897,0 0 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1 0-1,1 0 1,-1 0 0,1 1 0,-1-1 0,1 1 0,-5-1 0,6 1-47,-1 1 0,0-1 0,1 0 1,-1 1-1,0-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 1,0 0-1,0 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 1,1-1-1,-1 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,-1 2 0,-1 1-16,1 0-1,0-1 0,0 1 1,0 0-1,1 0 0,0 0 1,-1 0-1,2 0 0,-1-1 1,1 1-1,-1 0 0,2 0 0,-1 0 1,0-1-1,1 1 0,0-1 1,3 6-1,2 2 124,2 0 0,0-1-1,0 0 1,17 14 0,-23-21-39,-2-4 5,0 1 0,-1-1 0,1 1 0,-1 0-1,1-1 1,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0-1,0 0 1,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1-1,0 0 1,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,-1-1 0,0 2-1,-21 18 800,-36 4-917,57-24 53,0 1-216,0-1 1,0 0 0,0 1 0,0-1-1,-1 1 1,1-1 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,-1 0-1,1 0 1,0-1 0,0 1 0,0 0-1,-2-2 1,3 1-337,-1 0-1,0-1 1,1 1-1,-1-1 1,1 1 0,-1-1-1,1 1 1,0-1-1,0 1 1,-1-1 0,1 0-1,0 1 1,1-4-1,-1-18-5319</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10454.95">1396 655 6307,'0'0'8692,"72"-58"-8516,-53 49 80,0 0 176,-3 2-80,-4 0-208,4 1-144,-7 1 0,4 5-48,-4 0-688,-3 0-1233,-2 9-1937,-4 5-1296</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10854.02">1659 796 1825,'0'0'15351,"-3"0"-14767,118-43-325,-73 26-309,-31 12-330,0 0 0,0 1 0,1 0 0,0 0 0,-1 1-1,23-2 1,-46 5-10430</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11115.35">1809 627 1889,'0'0'12467,"0"5"-12310,-4 119 2261,0-42-2314,3-28-4560</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11115.34">1809 627 1889,'0'0'12467,"0"5"-12310,-4 119 2261,0-42-2314,3-28-4560</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11555.4">2258 575 4466,'0'0'4970,"-13"6"-3537,5-3-1300,1 0 0,-1 1 0,0 0 0,1 0 0,0 1 0,0-1 0,0 2 0,1-1 0,0 1 0,0 0 0,0 0 0,1 1 0,-9 13 0,5-3 437,1 0 0,-9 30-1,15-40-463,0-1 0,1 1-1,0-1 1,0 1-1,0 0 1,1 0-1,0-1 1,1 1 0,-1 0-1,4 12 1,-3-17-97,0 0 0,0 0 0,0 0 0,0 0 0,1 0 1,-1 0-1,1-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 1 1,1-1-1,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 1,0 0-1,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,1 0 1,-1 0-1,0-1 0,1 1 0,-1-1 0,3 0 0,3 0-68,0-1-1,1 0 0,-1-1 0,0 1 1,0-2-1,-1 1 0,11-6 1,10-12-4090,-18 11 427</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12143.85">2502 627 7555,'0'0'7607,"-3"-11"-7143,-14-32-72,16 42-373,1 0 0,-1 0 0,0 0 0,0 0-1,1-1 1,-1 1 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0-1,0 0 1,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1-1,1 0 1,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 1-1,-1-1 1,-1 1 0,0 0-14,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0-1,0 0 1,-2 4 0,0 0-24,1 1-1,0-1 1,1 1 0,0-1-1,0 1 1,0 0-1,1 0 1,0 1-1,0-1 1,1 0 0,0 1-1,0-1 1,1 10-1,0-17-1,0 1-1,0 0 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,1 0 0,-1-1-1,0 1 1,0-1-1,1 1 1,-1-1-1,0 1 1,1-1-1,-1 0 1,0 1-1,1-1 1,-1 1-1,1-1 1,-1 0-1,1 1 1,-1-1 0,1 0-1,-1 1 1,1-1-1,-1 0 1,1 0-1,-1 1 1,2-1-1,24-2-516,-21 1 446,1 0 0,-1-1-1,0 0 1,0 0 0,0-1-1,0 1 1,6-6 0,29-42 553,-40 50-463,1 0-1,-1 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0 0,1 0-1,-1 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 1-1,0-1 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 1-1,1-1 1,-1 0-1,0 0 1,0 1-1,0-1 1,0 0 0,1 0-1,-1 0 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 1 1,0-1-1,4 14-51,0 12 69,-1 0-1,-1 0 1,-2 1 0,0-1-1,-6 31 1,5-53 53,0-1 0,0 1 0,-1-1 0,1 1 0,-1-1-1,0 0 1,0 1 0,0-1 0,-1 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1-1 0,0 0-1,-1 1 1,1-1 0,-6 3 0,2-2 149,0 0 0,0-1 0,0 0 1,-1 0-1,1 0 0,0-1 0,-1 0 0,-11 0 0,18-1-281,1 0-1,-1 0 0,0-1 0,0 1 0,0 0 1,0-1-1,1 1 0,-1-1 0,0 1 1,0-1-1,1 1 0,-1-1 0,0 1 1,1-1-1,-1 0 0,1 1 0,-1-1 1,1 0-1,-1 1 0,1-1 0,-1 0 0,1 0 1,0 0-1,-1 1 0,1-1 0,0 0 1,0 0-1,0 0 0,-1 0 0,1 0 1,0 1-1,0-1 0,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0 1 0,1-1 1,-1 0-1,0 0 0,1 0 0,0-1 1,15-37-5869,2 12 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12143.84">2502 627 7555,'0'0'7607,"-3"-11"-7143,-14-32-72,16 42-373,1 0 0,-1 0 0,0 0 0,0 0-1,1-1 1,-1 1 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0-1,0 0 1,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1-1,1 0 1,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 1-1,-1-1 1,-1 1 0,0 0-14,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0-1,0 0 1,-2 4 0,0 0-24,1 1-1,0-1 1,1 1 0,0-1-1,0 1 1,0 0-1,1 0 1,0 1-1,0-1 1,1 0 0,0 1-1,0-1 1,1 10-1,0-17-1,0 1-1,0 0 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,1 0 0,-1-1-1,0 1 1,0-1-1,1 1 1,-1-1-1,0 1 1,1-1-1,-1 0 1,0 1-1,1-1 1,-1 1-1,1-1 1,-1 0-1,1 1 1,-1-1 0,1 0-1,-1 1 1,1-1-1,-1 0 1,1 0-1,-1 1 1,2-1-1,24-2-516,-21 1 446,1 0 0,-1-1-1,0 0 1,0 0 0,0-1-1,0 1 1,6-6 0,29-42 553,-40 50-463,1 0-1,-1 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0 0,1 0-1,-1 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 1-1,0-1 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 1-1,1-1 1,-1 0-1,0 0 1,0 1-1,0-1 1,0 0 0,1 0-1,-1 0 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 1 1,0-1-1,4 14-51,0 12 69,-1 0-1,-1 0 1,-2 1 0,0-1-1,-6 31 1,5-53 53,0-1 0,0 1 0,-1-1 0,1 1 0,-1-1-1,0 0 1,0 1 0,0-1 0,-1 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1-1 0,0 0-1,-1 1 1,1-1 0,-6 3 0,2-2 149,0 0 0,0-1 0,0 0 1,-1 0-1,1 0 0,0-1 0,-1 0 0,-11 0 0,18-1-281,1 0-1,-1 0 0,0-1 0,0 1 0,0 0 1,0-1-1,1 1 0,-1-1 0,0 1 1,0-1-1,1 1 0,-1-1 0,0 1 1,1-1-1,-1 0 0,1 1 0,-1-1 1,1 0-1,-1 1 0,1-1 0,-1 0 0,1 0 1,0 0-1,-1 1 0,1-1 0,0 0 1,0 0-1,0 0 0,-1 0 0,1 0 1,0 1-1,0-1 0,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0 1 0,1-1 1,-1 0-1,0 0 0,1 0 0,0-1 1,15-37-5869,2 12 5</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12501.19">2762 558 2481,'0'0'13193,"-11"0"-12782,-34 5-185,44-5-223,-1 1 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0-1,1 0 1,0 0 0,-1 0 0,1 1 0,0-1 0,0 1-1,0-1 1,0 1 0,0-1 0,0 1 0,0-1 0,1 1-1,-1 0 1,0-1 0,1 1 0,-1 0 0,1 0 0,0-1-1,0 1 1,0 3 0,-1 0-16,1 1 0,0-1 1,0 1-1,0-1 0,1 1 0,2 8 0,-1-9 20,1 0 0,0-1 1,0 1-1,0 0 0,1-1 0,-1 0 0,1 0 0,0 0 1,0 0-1,0-1 0,1 1 0,0-1 0,5 3 0,-4-2-5,0-1-1,-1 1 0,0 0 1,0 1-1,0-1 0,0 1 1,-1 0-1,4 6 0,-7-11 63,-1 1 1,0-1-1,1 1 0,-1-1 1,0 1-1,0 0 0,0-1 1,0 1-1,0-1 0,0 1 0,0-1 1,0 1-1,0-1 0,0 1 1,0 0-1,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,-1 1 1,1-1-1,0 1 0,0-1 1,-1 1-1,1-1 0,0 1 0,-1-1 1,1 1-1,0-1 0,-1 1 1,0-1-1,-23 13 746,-25-1-892,49-12 81,-4 1-267,-21 2-1664,9-6-3324,7-2-1505</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12721.07">2740 539 4258,'0'0'7780,"75"-44"-6756,-37 29-448,6 3-240,-4 1-192,-5 4 1,-16 2 655,-7 2-464,-40 3-1280,-7 1-4307,-5 8-3841</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14234.16">757 1077 5731,'0'0'9441,"0"0"-9398,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 1,-1 0-1,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 1,0 0-1,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,120-7 334,-1-4-1,123-29 0,-66 10-299,-157 28-85,-31 5-92,-14 4-109,-91 30-457,-2-6-1,-172 24 1,190-51 1214,82-4 70,18 0-15,10 0-541,58-13-150,267-43 144,-289 52-28,-24 3-15,1-1-1,-1-1 0,0-1 1,20-6-1</inkml:trace>
@@ -11785,7 +11367,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32686.5">2791 2042 2961,'0'0'7919,"-12"0"-7060,3 0-861,-44 0 1484,47 1-820,-1-1 1,1 1-1,0 0 0,0 0 1,0 0-1,0 1 0,-7 3 1,-2 1-324,9-2 631,25 1-825,48 2 181,131 0 0,-164-7-212,-51 0 516,-151 5-1333,43 0 725,125-5 106,26 0-352,245-18 346,-213 12-57,-58 6 137,-41-8-234,13 6-151,1 2-1,-1 0 0,1 2 0,0 1 1,0 1-1,-32 9 0,33-7 155,8-1 362,37-4-277,20-3 41,0-1-1,56-13 0,-23 0-7238,-65 14 2934,-1-1-751</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33520.91">2972 1881 2385,'0'0'10245,"-4"-4"-9098,0-1-438,0 0 1,0-1-1,1 1 0,0-1 0,0 0 1,-3-8-1,4 38-238,2 0 1,2 29-1,2-37-459,-1-1 0,2 1 1,0-1-1,1 0 0,1 0 0,0 0 1,13 17-1,-18-28-21,0-1 1,0 1 0,1-1 0,-1 0-1,1 0 1,0 0 0,0-1-1,0 1 1,1 0 0,-1-1 0,1 0-1,-1 0 1,1 0 0,0 0-1,-1-1 1,1 0 0,0 1 0,0-1-1,0 0 1,0-1 0,0 1-1,1-1 1,-1 0 0,0 0 0,0 0-1,0 0 1,0-1 0,0 0-1,0 0 1,0 0 0,0 0 0,0-1-1,0 1 1,5-4 0,-6 3 17,1-1-1,0 1 1,-1-1 0,0 0 0,0 0-1,0-1 1,0 1 0,0 0 0,-1-1-1,4-7 1,-5 10-3,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,-2-2 0,2 3-16,0 0-1,-1 0 1,1 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0-1,1-1 1,-1 1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1-1,-1 0 1,-1 1 0,-41 26-140,40-25 160,-28 21 36,1 2-1,1 0 0,2 2 1,0 1-1,-40 58 1,65-82-197,0-2 16,1 1-1,0-1 1,0 0 0,0 1-1,1-1 1,-1 1 0,1-1 0,0 1-1,0 0 1,0 0 0,-1 7-1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="43347.81">3536 2046 8036,'0'0'8462,"-1"-5"-7712,0-1-624,-4-10 1831,3 36-1324,-2 141-537,4-161-97,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,1-1-1,-1 1 1,0-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,0 0 0,20-4-60,17-19-22,-32 17 53,0 0 0,-1 0 0,1-1-1,-1 1 1,-1-1 0,1 0 0,-1-1 0,0 1-1,-1-1 1,0 1 0,0-1 0,-1 0 0,0 0 0,0 0-1,0-11 1,-1 32 23,0 0 1,0 0-1,1 0 0,5 15 0,-6-24-1,0 0-1,0 1 1,1-1 0,0 0-1,-1 0 1,1 0 0,1-1-1,-1 1 1,1 0 0,-1-1-1,1 0 1,0 1 0,0-1-1,0 0 1,1 0-1,4 3 1,-6-5 6,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,0-1 1,0 1 0,0-1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 0 1,0 1 0,0-1-1,2-2 1,-1 1 13,-1-1 0,1 1 1,-1-1-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0-1 1,-1 1-1,0-1 0,2-4 1,1-10 208,-1 0 1,-1 1 0,0-1-1,-1-20 1,-8 7 895,4 21-2513,4 18-7724,2-1 4434</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="43579.19">3957 1998 6163,'0'0'10351,"0"-2"-9929,0 8-505,-1 19 739,-9 45 1,3-21-1122,3 1-3678</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="43579.18">3957 1998 6163,'0'0'10351,"0"-2"-9929,0 8-505,-1 19 739,-9 45 1,3-21-1122,3 1-3678</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="43751.68">3966 1858 2017,'0'0'15255,"0"-30"-15431,7 30-625,8 7-655,1 5-1329,-1 1-2562</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="44435.92">4078 1886 7684,'0'0'7523,"0"16"-7003,7 94 420,2 83-362,-22-222-236,14 24-398,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,1 1 0,0-1 0,0 0 0,0 1 0,0 0 0,1 0 0,-1 0 0,5-6 0,52-48-983,-15 16 303,-41 38 800,35-45-650,-37 45 865,1 1-1,-1 0 1,0-1 0,1 1 0,-2 0-1,1-1 1,0 1 0,-1-1 0,1-4-1,-3 9-226,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 1 1,0-1-1,0 1 0,-2 2 0,-4 17-22,1 0 0,0 0 1,2 0-1,0 1 0,2 0 1,0 0-1,3 42 0,-1-52-3,0-11-25,0 0-1,-1-1 1,1 1-1,0 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1-1,0 0 1,0 0-1,1-1 0,-1 1 1,0 0-1,1 0 1,-1-1-1,0 1 1,1 0-1,-1-1 1,1 1-1,-1 0 0,1-1 1,-1 1-1,1-1 1,-1 1-1,1-1 1,0 1-1,-1-1 0,1 1 1,0-1-1,-1 0 1,1 1-1,0-1 1,0 0-1,-1 0 1,1 1-1,0-1 0,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 0,0-1 1,0 1-1,-1 0 1,1 0-1,0-1 1,0 1-1,-1 0 1,2-1-1,2-2 25,0 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,0-1 0,6-5 0,37-64-15,-46 73-19,1 0 0,-1-1 0,0 1 1,1 0-1,-1 0 0,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 0,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1 0 1,0 1-1,0-1 0,1 0 1,-1 0-1,0 0 0,0 1 1,0-1-1,1 0 0,-1 0 1,0 1-1,0-1 0,0 0 0,0 0 1,1 1-1,-1-1 0,0 0 1,0 0-1,0 1 0,0-1 1,0 0-1,0 1 0,0-1 1,0 0-1,0 0 0,0 1 0,5 16-8,-5-17 16,6 36 236,7 29 360,-12-61-573,0 1 0,1-1 0,-1 0 0,1 1-1,0-1 1,0 0 0,1-1 0,-1 1 0,1 0 0,6 6-1,-7-9-322,0 0-1,0 0 0,1 0 0,-1 0 1,0-1-1,1 1 0,-1-1 0,1 0 1,-1 1-1,1-1 0,-1 0 0,1 0 1,-1-1-1,5 0 0,6-2-5443</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="44794.68">4490 2062 6787,'0'0'9236,"13"-1"-8966,41-1-9,-52 3-250,0-1 0,0 1 0,-1 0-1,1 0 1,0 0 0,0 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 1 0,1-1-1,-1 0 1,0 1 0,1-1 0,-1 1-1,0 0 1,0-1 0,0 1 0,-1 0 0,1 0-1,0 0 1,-1-1 0,1 1 0,-1 0-1,1 2 1,4 47 239,-5-50-244,0 16 74,1-13-50,-1 1 0,1-1-1,-1 0 1,-1 1-1,1-1 1,-1 1-1,1-1 1,-1 1 0,-1-1-1,-1 5 1,3-8 6,0-1 1,0 0-1,0 0 0,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 1-1,0-1 0,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 0,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1-1,-1 1 0,1 0 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1-1,0 0 0,0 0 1,0 0-1,1 0 1,-1-1-1,-3-10 286,2 2-212,1 1-1,0-1 1,0 1-1,1-1 1,0 1-1,1-1 1,0 1 0,0 0-1,0 0 1,1 0-1,6-11 1,-7 15-314,0 1 0,1 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,5-3 0,-5 4-658,0 0 0,0 1 0,0-1 0,0 1 1,1 0-1,-1 1 0,0-1 0,0 0 0,1 1 0,-1 0 0,0 0 1,5 1-1,-2 1-5765</inkml:trace>
@@ -11806,17 +11388,17 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="55632.3">2944 2461 1777,'0'0'9423,"-6"-8"-7716,-17-25-234,15 28 1644,8 16-2603,7 17-725,-2-19 217,1-1 0,0 0 0,1-1 0,-1 1 0,2-1 0,-1-1 0,1 1 0,0-1 0,0 0 0,0-1 0,1 0 0,0-1 0,0 1 0,0-2 0,1 1 0,-1-1 0,1-1 0,0 1 0,0-2 0,0 1 0,0-2 0,0 1 0,0-1 0,14-2 0,-23 2 7,0 0 0,0 0 0,-1 0 0,1-1 1,0 1-1,0 0 0,0 0 0,-1-1 0,1 1 0,0 0 1,0-1-1,-1 1 0,1-1 0,0 1 0,-1-1 1,1 1-1,-1-1 0,1 1 0,0-1 0,-1 0 1,1 1-1,-1-1 0,0 0 0,1 0 0,-1 1 1,0-1-1,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 1,1 0-1,-1 0 0,0 1 0,0-1 0,0 0 1,-1-1-1,1 1-14,0 0 0,-1 0 0,1 1-1,0-1 1,-1 0 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1-1,0-1 1,0 1 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1-1,1-1 1,-1 1 0,0-1 0,0 2 0,-18 10-16,0 1-1,2 1 0,-1 0 1,2 1-1,0 1 1,-14 19-1,23-26 28,0-1 0,1 1 0,0 0 0,0 0 0,1 0 0,0 1 0,1 0 0,-4 12 0,3 1-3536,3 1-3784</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="64778.02">3702 2506 3410,'0'0'8243,"-6"-1"-3003,-21-3-5272,22 4 24,0 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 1 0,1 0 0,0 0 0,1 1 1,-1-1-1,0 1 0,1 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,0 0 0,1 0 0,-4 5 0,2-3 8,2 0-1,-1 0 1,1 0 0,-1 0 0,2 0-1,-1 1 1,1 0 0,0-1 0,0 1 0,1 0-1,0 0 1,0 0 0,1-1 0,0 15-1,0-20-2,1 0 1,-1 1-1,0-1 0,1 0 0,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,0 0 0,2 0 0,36 5 19,-25-6 35,-1-1 0,1 0 0,20-5 0,29-14-284,-49 14-3306,-3 0-3502,-5 3 2621</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="65154.16">3757 2603 1521,'0'0'10460,"0"-3"-8373,0 5-1583,-2 27 142,1-23-510,0 1 1,1 0-1,-1-1 1,1 1-1,3 13 1,-3-19-128,0 0 0,1-1 0,-1 1 1,1 0-1,-1 0 0,1-1 0,0 1 1,-1 0-1,1-1 0,0 1 0,-1-1 0,1 1 1,0-1-1,0 1 0,-1-1 0,1 1 1,0-1-1,0 0 0,0 1 0,0-1 1,0 0-1,-1 0 0,1 1 0,0-1 0,0 0 1,0 0-1,0 0 0,0 0 0,0-1 1,0 1-1,0 0 0,-1 0 0,1 0 1,0-1-1,0 1 0,0 0 0,0-1 1,1 0-1,2 0 52,-1-1 0,1 1 1,-1-1-1,0 0 1,1 0-1,-1 0 0,0 0 1,3-4-1,-4 4-4,0-1-1,0 1 1,0-1 0,0 0-1,-1 0 1,1 0-1,-1 0 1,0 0 0,0 0-1,0 0 1,0-1 0,-1 1-1,1 0 1,-1 0-1,0-1 1,0 1 0,0 0-1,0 0 1,0-1 0,-1 1-1,-1-4 1,1 5-51,0 0 1,0 0 0,0 0-1,0 1 1,0-1-1,0 0 1,-1 1 0,1-1-1,-1 1 1,0-1-1,1 1 1,-1 0 0,0 0-1,0 0 1,1 0-1,-1 0 1,0 0 0,0 0-1,0 0 1,0 1-1,0-1 1,-1 1 0,1 0-1,0-1 1,0 1-1,0 0 1,0 0-1,0 0 1,0 1 0,-1-1-1,1 0 1,0 1-1,-2 0 1,2 0-67,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,0 1 0,1-1 1,-1 1-1,0-1 1,0 1-1,1-1 0,-1 1 1,1 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,-2 4 1,-4 24-6481,7-23 2437</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="66080.93">3892 2619 7379,'0'0'7334,"2"4"-7254,2 10 125,0-1-1,0 1 1,-1 0-1,-1 0 1,-1-1-1,0 2 0,-1 13 1,1-27-198,-1-1-1,0 0 1,0 1-1,1-1 1,-1 0 0,0 0-1,1 1 1,-1-1 0,0 0-1,1 1 1,-1-1 0,1 0-1,-1 0 1,0 0 0,1 0-1,-1 1 1,1-1 0,-1 0-1,0 0 1,1 0 0,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0 0,0 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1-1 0,-1 1-1,0 0 1,1 0 0,-1 0-1,1 0 1,-1-1 0,0 1-1,1 0 1,-1-1 0,0 1-1,1 0 1,-1 0-1,0-1 1,1 0 0,19-12 154,19-33-148,-34 38-79,1 1-1,0-1 1,0 1 0,0 0-1,1 1 1,0-1 0,10-5-1,-16 11-53,-1 8 85,1 0 0,0 0-1,1 0 1,0 0 0,0 0-1,0-1 1,1 1 0,0-1-1,0 0 1,5 7 0,-7-11 45,-1 0-1,1-1 1,1 1-1,-1-1 1,0 1 0,0-1-1,1 1 1,-1-1 0,0 1-1,1-1 1,0 0-1,-1 0 1,1 0 0,0 0-1,-1 0 1,1 0 0,0 0-1,0-1 1,0 1-1,0-1 1,0 1 0,0-1-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0-1 1,0 1 0,0-1-1,0 0 1,0 1-1,-1-1 1,1 0 0,0 0-1,0 0 1,-1 0 0,2-2-1,0 0 17,1 1 0,-2-1 0,1 0 0,0 0 0,0-1 0,-1 1 0,0 0 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 0 0,0 0 0,2-6 0,1-56 269,-4 49-193,0 16-123,4 32-865,21 6 599,-20-31 207,-1 0-1,1 0 0,-1 1 1,0-1-1,-1 1 0,4 10 1,-6-16 82,-1 1 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,0-1 1,-1 1-1,1 0 1,0 0-1,-1 0 1,1 0-1,-1-1 1,1 1-1,-1 0 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,0-1 1,0 1-1,-1-1 1,1 0-1,-1 1 1,1-1-1,-1 0 1,1 0-1,-1 0 1,-2 1-1,-2 2 172,0 0 0,-1-1 0,1 1-1,0-1 1,-1-1 0,0 1-1,0-1 1,-12 2 0,18-4 135,7-22-410,6 7-375,0 1 1,1 0-1,1 1 1,18-13-1,-16 13 215,-1-1-1,0 0 1,15-19 0,-26 27 282,0 0 0,0 0 0,0 0 0,-1 0 1,0-1-1,-1 1 0,1-1 0,-1 0 0,0 0 0,-1 0 1,0 0-1,0 0 0,0-9 0,-1 12 61,-1-19 850,1 23-861,0-1-1,0 1 0,0-1 0,0 1 1,0-1-1,-1 1 0,1-1 0,0 1 1,0-1-1,0 1 0,-1-1 1,1 1-1,0-1 0,-1 1 0,1-1 1,0 1-1,-1-1 0,1 1 0,0 0 1,-1-1-1,1 1 0,-1 0 0,1-1 1,-1 1-1,1 0 0,-1 0 1,1-1-1,-1 1 0,1 0 0,-1 0 1,0 0-1,-6 37-174,0 63 564,7-92-776,0 0-1,1 0 1,0 0 0,0-1-1,0 1 1,1 0-1,1-1 1,-1 1 0,1-1-1,6 11 1,0-9-3870,0-3-1870</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="66080.92">3892 2619 7379,'0'0'7334,"2"4"-7254,2 10 125,0-1-1,0 1 1,-1 0-1,-1 0 1,-1-1-1,0 2 0,-1 13 1,1-27-198,-1-1-1,0 0 1,0 1-1,1-1 1,-1 0 0,0 0-1,1 1 1,-1-1 0,0 0-1,1 1 1,-1-1 0,1 0-1,-1 0 1,0 0 0,1 0-1,-1 1 1,1-1 0,-1 0-1,0 0 1,1 0 0,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0 0,0 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1-1 0,-1 1-1,0 0 1,1 0 0,-1 0-1,1 0 1,-1-1 0,0 1-1,1 0 1,-1-1 0,0 1-1,1 0 1,-1 0-1,0-1 1,1 0 0,19-12 154,19-33-148,-34 38-79,1 1-1,0-1 1,0 1 0,0 0-1,1 1 1,0-1 0,10-5-1,-16 11-53,-1 8 85,1 0 0,0 0-1,1 0 1,0 0 0,0 0-1,0-1 1,1 1 0,0-1-1,0 0 1,5 7 0,-7-11 45,-1 0-1,1-1 1,1 1-1,-1-1 1,0 1 0,0-1-1,1 1 1,-1-1 0,0 1-1,1-1 1,0 0-1,-1 0 1,1 0 0,0 0-1,-1 0 1,1 0 0,0 0-1,0-1 1,0 1-1,0-1 1,0 1 0,0-1-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0-1 1,0 1 0,0-1-1,0 0 1,0 1-1,-1-1 1,1 0 0,0 0-1,0 0 1,-1 0 0,2-2-1,0 0 17,1 1 0,-2-1 0,1 0 0,0 0 0,0-1 0,-1 1 0,0 0 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 0 0,0 0 0,2-6 0,1-56 269,-4 49-193,0 16-123,4 32-865,21 6 599,-20-31 207,-1 0-1,1 0 0,-1 1 1,0-1-1,-1 1 0,4 10 1,-6-16 82,-1 1 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,0-1 1,-1 1-1,1 0 1,0 0-1,-1 0 1,1 0-1,-1-1 1,1 1-1,-1 0 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,0-1 1,0 1-1,-1-1 1,1 0-1,-1 1 1,1-1-1,-1 0 1,1 0-1,-1 0 1,-2 1-1,-2 2 172,0 0 0,-1-1 0,1 1-1,0-1 1,-1-1 0,0 1-1,0-1 1,-12 2 0,18-4 135,7-22-410,6 7-375,0 1 1,1 0-1,1 1 1,18-13-1,-16 13 215,-1-1-1,0 0 1,15-19 0,-26 27 282,0 0 0,0 0 0,0 0 0,-1 0 1,0-1-1,-1 1 0,1-1 0,-1 0 0,0 0 0,-1 0 1,0 0-1,0 0 0,0-9 0,-1 12 61,-1-19 850,1 23-861,0-1-1,0 1 0,0-1 0,0 1 1,0-1-1,-1 1 0,1-1 0,0 1 1,0-1-1,0 1 0,-1-1 1,1 1-1,0-1 0,-1 1 0,1-1 1,0 1-1,-1-1 0,1 1 0,0 0 1,-1-1-1,1 1 0,-1 0 0,1-1 1,-1 1-1,1 0 0,-1 0 1,1-1-1,-1 1 0,1 0 0,-1 0 1,0 0-1,-6 37-174,0 63 564,7-92-776,0 0-1,1 0 1,0 0 0,0-1-1,0 1 1,1 0-1,1-1 1,-1 1 0,1-1-1,6 11 1,0-9-3870,0-3-1870</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="67212.35">4309 2626 7155,'0'0'5715,"10"-4"-5766,17-3-543,-1 1 0,1 1-1,0 1 1,35 0 0,-51 4 492,6-1 139,1-1 0,0 0 0,-1-1-1,1-1 1,24-12 6954,-54 13-5615,-15 4-1702,21 3 354,0 0 0,0 0 0,1 1 0,-1 0 0,1 0 0,1 0 0,-1 0 1,1 1-1,0 0 0,0 0 0,0 0 0,1 0 0,0 0 0,0 1 0,1 0 0,-1-1 0,2 1 0,-1 0 0,1 0 0,-1 8 0,3-14-39,-1 0-1,1 0 0,-1 0 0,1 0 1,0-1-1,-1 1 0,1 0 0,0 0 1,0-1-1,-1 1 0,1 0 0,0-1 1,0 1-1,0-1 0,0 1 0,0-1 1,0 0-1,0 1 0,0-1 0,0 0 0,0 0 1,0 1-1,0-1 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0-1 1,0 1-1,0 0 0,2-1 0,37-8-1176,-36 6 1070,0 0-1,0 0 1,-1 0 0,1-1 0,-1 0-1,0 1 1,0-1 0,-1 0 0,1 0-1,-1-1 1,0 1 0,0 0 0,0-1 0,2-8-1,4-29 3069,-9 47-2959,0 0 0,1 0 0,0 0 0,-1 0 0,2 1 0,-1-1-1,0 0 1,3 9 0,-2-12 2,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1-1,0-1 1,0 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,3-1 0,0 1-41,0-1 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1-1 0,1 0 0,-1 0 1,0 0-1,0 0 0,0-1 0,0 0 1,0 1-1,0-2 0,5-4 0,26-19 1234,-36 42-1189,1-9 24,0 0 1,0 0-1,0 0 0,1 0 0,0 1 1,0-1-1,2 8 0,-2-12-48,0-1 0,0 0 1,0 1-1,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 1,-1 0-1,1 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1-1 0,-1 1 0,1-1 1,2-1-1,4-1-111,-1 0 0,1-1 0,-1 0 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0-1 0,0 0 0,7-9 0,12 53 1055,-22-37-904,-1 1-1,1-1 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1-1,0-1 0,0 1 1,-1-1-1,1 0 1,0 0-1,0 0 1,0-1-1,0 1 1,6-2-1,44-16 185,-47 15-187,-1 0 0,1 1 0,-1-2 0,0 1 0,0-1 0,0 0 1,-1 0-1,1 0 0,-1 0 0,0-1 0,0 0 0,-1 0 0,1 0 0,-1 0 1,0 0-1,0-1 0,2-6 0,-2-3 54,1 0 0,-2 0 0,0 0-1,-1-1 1,-1-23 0,-4 12 153,0 20 107,0 18-200,1 0-161,-2 10 45,1 0 0,0 0 0,2 0 0,1 1 0,0-1-1,3 24 1,-2-43-105,1 0-1,-1-1 1,1 1 0,-1 0-1,1-1 1,0 1-1,-1-1 1,1 1 0,0-1-1,0 1 1,0-1-1,0 0 1,1 1 0,-1-1-1,0 0 1,0 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0-1,2 1 1,25 2-6966,-13-6-172</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="67418.51">5072 2538 2945,'0'0'12086,"65"5"-12086,-15-10-224,3-7-625,-3-3-1039,0 3 127,-9 0 336,-7 3-1264,-19 2-3506</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="67418.5">5072 2538 2945,'0'0'12086,"65"5"-12086,-15-10-224,3-7-625,-3-3-1039,0 3 127,-9 0 336,-7 3-1264,-19 2-3506</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="68418.69">5945 2545 4578,'0'0'13284,"-2"-3"-12553,2 2-726,0 1 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0 0 1,-1-1-1,1 1 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1-1,-1 0 1,1 0-1,0 0 1,0-1 0,0 1-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,-1-1-1,1 1 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0 0,-1 0-1,-5 10 3,1 14-34,4-20 29,0 0-1,1 0 1,-1 0 0,1 0-1,0 0 1,0 0-1,1 0 1,-1 0 0,1 0-1,0 0 1,0 0 0,2 5-1,-2-7-12,1-1 0,-1 1 0,0-1 0,1 0-1,-1 0 1,1 1 0,-1-1 0,1 0 0,-1 0-1,1 0 1,0 0 0,0-1 0,0 1 0,-1 0 0,1-1-1,0 1 1,0-1 0,0 0 0,0 1 0,0-1-1,0 0 1,0 0 0,0-1 0,0 1 0,0 0 0,-1 0-1,4-2 1,-2 1 19,0 0 1,0 0-1,0-1 0,0 1 0,0-1 1,-1 0-1,1 1 0,-1-1 0,1-1 1,-1 1-1,0 0 0,0 0 0,0-1 1,0 1-1,0-1 0,0 0 0,-1 1 1,1-1-1,-1 0 0,0 0 0,0 0 1,0 0-1,1-6 0,-2 8 13,1-1 0,-1 0 0,1 0 0,-1 0-1,0 1 1,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0-1,0 1 1,-1-1 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0-1,0 1 1,0-1 0,0 0 0,0 1 0,-1-1 0,1 1 0,0 0-1,-1-1 1,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0-1,0 0 1,1 1 0,-1-1 0,0 0 0,0 1 0,-3-1 0,-1 1-22,5 0-102,9-4-1586,12-1 1690,0 2 0,0 0 0,0 1 0,0 1 0,0 1 0,35 4 0,-51-3 5,0-1 0,1 1 1,-1 0-1,0 1 0,0-1 0,0 1 1,0-1-1,-1 1 0,1 0 1,0 1-1,-1-1 0,1 1 1,-1-1-1,0 1 0,0 0 0,0 0 1,0 0-1,0 1 0,-1-1 1,0 1-1,1-1 0,-1 1 1,-1 0-1,1 0 0,0 0 0,-1 0 1,0 0-1,0 0 0,0 0 1,-1 0-1,1 1 0,-1-1 0,0 0 1,0 0-1,0 1 0,-1-1 1,0 0-1,-1 6 0,1-6 10,0 0 0,0 0-1,-1 0 1,0 0 0,0 0-1,0 0 1,0-1 0,0 1-1,-1 0 1,1-1 0,-7 6-1,8-7 27,2-12 78,0 0 0,1 0 0,0 0 0,1 1 0,0-1 0,1 1 0,0 0 0,0-1 0,1 2 0,9-15 0,-7 13-302,1-1 0,0 1-1,0 1 1,1 0-1,0 0 1,1 0-1,0 1 1,11-7 0,3 7-2296,-10 9-4814,-11 5 542</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="69736.87">6842 2506 2625,'0'-2'16466,"-3"66"-16155,-13 72 0,12-120 255,0-13-91,-4-25 190,0-41-557,8 35-233,1 1 1,9-49-1,-8 67 89,0 0-1,0 1 1,1-1 0,0 1 0,1 0-1,0 0 1,0 0 0,0 0 0,1 1-1,1-1 1,-1 1 0,11-10-1,-10 13-65,-1 1 0,1-1 0,0 1-1,0 1 1,0-1 0,0 1 0,0 0-1,1 1 1,-1-1 0,1 1-1,12 0 1,-14 0-308,1 2 0,-1-1 0,1 0 0,0 1 0,-1 0 0,8 2 0,-10-2-99,-1 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,3 3 0,2 11-5571</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="69920.43">6823 2586 10309,'0'0'4498,"91"-23"-6163,-57 17-1088,-3 1-1569</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="69920.42">6823 2586 10309,'0'0'4498,"91"-23"-6163,-57 17-1088,-3 1-1569</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="70130.48">7100 2545 8196,'0'0'6691,"-28"65"-5267,19-40-399,0-2-321,6-2-336,0 1-304,-1-6-16,4-2-48,0-5-64,0-2-544,4-7-1009,8 0-1376,0 0-2273,1-9-2146</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="70271.37">7138 2491 992,'0'0'19049,"0"-47"-19049,0 55-688,7 8-721,5 6-1344,7-5-3122</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="70489.36">7331 2543 8132,'0'0'11605,"-72"64"-11445,54-39-32,2-2-112,1 1-16,-1-4-32,4-2-800,5-6-785,1-5-1120</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="70679.19">7225 2552 2145,'0'0'16023,"19"-29"-15879,-10 42-16,4 4 321,-1 3-225,-3 1-96,1-3-16,-1 1-112,0-5-656,1 2-1185,-4-5-2177,0-4-4306</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="71018.49">7409 2589 10421,'0'0'6507,"4"-1"-5987,4 1-483,0 0 0,0-1 0,0-1 0,0 1 0,0-1 0,-1 0 0,14-7 0,-18 8 2,-1-1 1,1 0-1,-1 0 0,1 0 1,-1 0-1,0 0 0,0-1 0,0 1 1,0-1-1,0 1 0,-1-1 0,1 0 1,-1 0-1,0 1 0,0-1 1,0 0-1,0 0 0,0 0 0,0 0 1,-1-1-1,0 1 0,1 0 0,-1 0 1,-1-3-1,1 5 476,-25 20 395,21-14-916,0 0 0,1 0 0,0 1 0,0-1 0,1 1 0,-1 0 0,-2 10 1,5-14-60,0-1 0,0 0 0,-1 1 1,1-1-1,1 1 0,-1-1 0,0 0 1,0 1-1,0-1 0,1 1 0,-1-1 1,1 0-1,-1 1 0,1-1 0,-1 0 1,1 0-1,0 1 0,0-1 0,-1 0 1,1 0-1,0 0 0,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,0-1 1,0 1-1,0 0 0,1-1 0,-1 1 1,0-1-1,1 1 0,-1-1 0,0 1 1,1-1-1,-1 0 0,1 0 0,-1 0 1,0 0-1,3 0 0,12 2-1794,0-1 0,0-1 0,1 0-1,-1-1 1,0-1 0,30-6 0,-14-4-2095</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="71018.48">7409 2589 10421,'0'0'6507,"4"-1"-5987,4 1-483,0 0 0,0-1 0,0-1 0,0 1 0,0-1 0,-1 0 0,14-7 0,-18 8 2,-1-1 1,1 0-1,-1 0 0,1 0 1,-1 0-1,0 0 0,0-1 0,0 1 1,0-1-1,0 1 0,-1-1 0,1 0 1,-1 0-1,0 1 0,0-1 1,0 0-1,0 0 0,0 0 0,0 0 1,-1-1-1,0 1 0,1 0 0,-1 0 1,-1-3-1,1 5 476,-25 20 395,21-14-916,0 0 0,1 0 0,0 1 0,0-1 0,1 1 0,-1 0 0,-2 10 1,5-14-60,0-1 0,0 0 0,-1 1 1,1-1-1,1 1 0,-1-1 0,0 0 1,0 1-1,0-1 0,1 1 0,-1-1 1,1 0-1,-1 1 0,1-1 0,-1 0 1,1 0-1,0 1 0,0-1 0,-1 0 1,1 0-1,0 0 0,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,0-1 1,0 1-1,0 0 0,1-1 0,-1 1 1,0-1-1,1 1 0,-1-1 0,0 1 1,1-1-1,-1 0 0,1 0 0,-1 0 1,0 0-1,3 0 0,12 2-1794,0-1 0,0-1 0,1 0-1,-1-1 1,0-1 0,30-6 0,-14-4-2095</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="71379.61">7727 2560 224,'0'0'16143,"-14"1"-14875,-44 4-420,55-4-822,1-1 1,0 1-1,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 1,1-1-1,-1 1 0,0-1 0,0 1 0,1-1 1,-1 1-1,0 0 0,1 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,-1 3 0,2-5-29,-1 1 0,1 0-1,-1-1 1,1 1 0,0 0 0,-1 0-1,1 0 1,0-1 0,-1 1 0,1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,1 0-1,-1-1 1,0 1 0,1 0 0,-1 0-1,0 0 1,1-1 0,-1 1 0,1 0-1,-1 0 1,1-1 0,-1 1-1,1-1 1,0 1 0,-1 0 0,1-1-1,0 1 1,0-1 0,-1 1 0,3 0-1,3-1-34,1-1 0,0 1 1,0-1-1,-1 0 0,1 0 0,0-1 0,-1 0 0,1 0 0,-1-1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 0 1,-1 0-1,0 0 0,1 0 0,-2-1 0,1 0 0,7-11 0,-1 3 56,-1-1 0,0 0 1,-1 0-1,-1-1 0,0-1 0,-1 1 0,6-23 0,-10 24-15,-1 0-1,0 0 1,-1 0-1,-1-21 1,0 16 355,-8 26 552,-1 11-963,-1 19 387,-12 75 0,20-102-585,1 1-1,0-1 0,1 0 1,0 1-1,1-1 1,0 0-1,1 0 1,0 1-1,0-1 1,1 0-1,0-1 1,8 16-1,1-10-5569,0-6-4528</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="71516.55">7961 2633 13974,'0'0'4739</inkml:trace>
 </inkml:ink>
@@ -11849,7 +11431,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">107 78 6675,'0'0'9684,"-10"-5"-8734,10 4-936,0 1 1,-1 0-1,1 0 0,0 0 1,0 0-1,0-1 0,-1 1 1,1 0-1,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 1,-1-1-1,1 1 0,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,-1 0 1,1 1-1,0-1 0,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 0,0 0 1,-1 0-1,1 0 0,0 1 1,0-1-1,0 0 0,-1 0 1,1 0-1,0 0 0,0 1 1,0-1-1,0 0 1,-1 1-1,-13 159 1296,-1 12-737,14-152-954,0 35 428,8-32-3013,-7-22 2539,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 1,0 0-1,0-1 0,0 1 0,0-1 0,0 1 0,1 0 1,8 0-6599</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="371.15">1 170 6915,'0'0'7081,"3"-5"-7036,0 2-33,-1 0-1,1 0 0,-1 1 1,1-1-1,0 1 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,1 1 1,-1-1-1,1 1 0,-1 0 1,1 0-1,0 0 1,4 0-1,75-2 161,-62 3-206,-15 0 28,-1 1-1,0 0 1,1 0-1,-1 1 1,0-1-1,0 1 1,0 0-1,0 0 1,0 1-1,0 0 1,0-1-1,-1 2 0,0-1 1,1 0-1,-1 1 1,0 0-1,-1 0 1,1 0-1,3 6 1,6 9-25,0 1 1,-2 0 0,11 23-1,-21-39 24,2 2-11,0 1-1,0 0 0,0 0 1,-1 0-1,0 0 0,-1 1 1,0-1-1,0 0 0,0 1 0,-1-1 1,0 1-1,0-1 0,-3 11 1,1-12 81,0 0 1,0 1 0,-1-2 0,1 1-1,-2 0 1,1 0 0,0-1-1,-1 0 1,0 0 0,-1 0 0,1 0-1,-1 0 1,0-1 0,0 0-1,-7 5 1,-10 6 195,0-1 0,-1-1 0,-1-1-1,0-1 1,-27 9 0,36-19-900,11-17-10897</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="659.7">552 106 7988,'0'0'5730,"0"3"-5604,0 22 168,1 28 561,-2 0 1,-3 0-1,-12 62 1,7-51-1016,9-35-3674,2-27 417,11-1-985</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1098.59">869 155 3810,'0'0'7491,"-8"8"-6634,1 0-612,0 0 0,0 0 1,1 1-1,0 0 1,1 0-1,-1 1 1,2-1-1,0 1 1,0 0-1,1 1 0,0-1 1,0 0-1,1 1 1,1 0-1,-1 13 1,2-21-243,-1-1 0,1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,3-1 0,0 1-4,-1 0-1,1 0 1,0-1 0,0 1-1,0-2 1,-1 1-1,1-1 1,0 1-1,-1-1 1,0-1-1,1 1 1,-1-1-1,6-4 1,-8 4-4,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-7 0,0-2 1,0 1 1,0 1 0,-1-1 1,0 1-1,-3-16 0,2 23 3,1-1-1,-1 0 0,0 1 1,-1 0-1,1-1 1,-1 1-1,0 0 0,0 0 1,0 0-1,0 1 1,-1-1-1,0 1 0,-4-4 1,5 5-9,0-1 0,0 1 0,-1 0 0,1 0 0,0 1 1,-1-1-1,1 1 0,-1-1 0,0 1 0,1 0 0,-1 0 1,0 1-1,0-1 0,1 1 0,-1 0 0,-5 0 0,6 1-212,1-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,-1 0-1,1-1 1,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,1-1 0,0 0 0,-1 2 0,1 13-3688</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1098.58">869 155 3810,'0'0'7491,"-8"8"-6634,1 0-612,0 0 0,0 0 1,1 1-1,0 0 1,1 0-1,-1 1 1,2-1-1,0 1 1,0 0-1,1 1 0,0-1 1,0 0-1,1 1 1,1 0-1,-1 13 1,2-21-243,-1-1 0,1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,3-1 0,0 1-4,-1 0-1,1 0 1,0-1 0,0 1-1,0-2 1,-1 1-1,1-1 1,0 1-1,-1-1 1,0-1-1,1 1 1,-1-1-1,6-4 1,-8 4-4,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-7 0,0-2 1,0 1 1,0 1 0,-1-1 1,0 1-1,-3-16 0,2 23 3,1-1-1,-1 0 0,0 1 1,-1 0-1,1-1 1,-1 1-1,0 0 0,0 0 1,0 0-1,0 1 1,-1-1-1,0 1 0,-4-4 1,5 5-9,0-1 0,0 1 0,-1 0 0,1 0 0,0 1 1,-1-1-1,1 1 0,-1-1 0,0 1 0,1 0 0,-1 0 1,0 1-1,0-1 0,1 1 0,-1 0 0,-5 0 0,6 1-212,1-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,-1 0-1,1-1 1,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,1-1 0,0 0 0,-1 2 0,1 13-3688</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1720.93">1342 17 5106,'0'0'9645,"0"-1"-9515,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,-1 0 1,1 1 0,0-1-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 1 1,1-1 0,-1-1-1,-4 4-118,0 0 1,0 0-1,1 1 0,-1-1 0,1 1 0,-1 0 0,1 0 1,0 1-1,0-1 0,1 1 0,-7 8 0,-34 48 149,37-49-113,0 0 1,0 1-1,1 0 0,1 0 1,0 1-1,1-1 1,0 1-1,1 0 0,1 0 1,0 0-1,0 0 1,1 1-1,1-1 0,2 20 1,-1-30-83,0 0 0,0 0 1,0 0-1,0-1 1,1 1-1,-1-1 0,1 1 1,-1-1-1,1 1 1,0-1-1,0 0 0,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 0,1-1 1,0 1-1,-1-1 1,1 0-1,0 1 0,-1-1 1,1-1-1,0 1 1,0 0-1,0-1 0,0 1 1,6-1-1,6 2-322,1-1 0,0-1-1,0 0 1,16-3 0,-27 3 245,-1-1 1,1 0-1,-1-1 0,0 1 1,1-1-1,-1 1 1,5-4-1,-8 4 106,1 0-1,-1 1 0,0-1 1,1 0-1,-1 0 0,0 0 1,0 0-1,0-1 1,0 1-1,0 0 0,0 0 1,0-1-1,0 1 0,0-1 1,-1 1-1,1 0 0,0-1 1,-1 1-1,1-1 1,-1 0-1,1-2 0,-2 4 47,1-1 1,0 0-1,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 1,1 0-1,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1 0 1,-1-1-1,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 1,1 0-1,-1 0 0,-1 0 0,-26 0 255,21 0-183,-14 0-84,-1 1 0,1 1 0,-1 1 0,1 0 0,0 2 0,-38 13 0,55-17-943</inkml:trace>
 </inkml:ink>
 </file>
@@ -11880,7 +11462,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">26 124 2177,'0'0'12550,"-4"1"-12001,-18 5 2682,37-3-2323,50-2-1330,-54-1 739,150-6-2398,-160 8 1655,0-1 0,0 1 1,0 0-1,-1-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,1 1 1,-1 0-1,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-2 3 0,2 1-999,0 11-2881</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="321.62">22 312 3762,'0'0'7563,"-1"1"-7528,1-1-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,-1 1-1,1-1 0,0 0 1,0 0-1,0 0 0,0 0 1,0 1-1,0-1 0,0 0 1,0 0-1,0 0 0,0 1 1,0-1-1,0 0 0,0 0 1,0 0-1,0 1 0,0-1 1,0 0-1,0 0 0,0 0 1,0 1-1,0-1 0,0 0 1,0 0-1,0 0 0,0 1 1,1-1-1,-1 0 0,0 0 1,0 0-1,0 0 0,0 1 1,0-1-1,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 1,0 1-1,0-1 0,0 0 1,1 0-1,-1 0 0,7 0 237,23 0 288,0 0-1,0-2 0,0-1 1,33-9-1,-24 1-509,-15 3 0,0 2-1,1 0 0,-1 2 1,35-3-1,-59 7-136,-4 41-5437,-1-29 336</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1162.86">668 106 7652,'0'0'6968,"9"24"-5450,-2 238 1072,-8-189-5903,1-394 4279,0 316-918,0 0 0,1 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 1 0,0 0 0,1-1-1,0 2 1,-1-1 0,6-3 0,-3 3-58,0 0-1,0 0 0,0 1 0,1-1 0,-1 1 1,1 1-1,-1-1 0,1 1 0,0 0 1,0 1-1,-1 0 0,1 0 0,0 0 0,11 3 1,-16-3 4,-1 1 1,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0 0,0 0 0,0 0 0,0 1-1,1-1 1,-2 0 0,1 1 0,0-1 0,0 1 0,0-1-1,-1 1 1,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 4-1,2 51 74,-3-41-39,1-7-18,-2 1 0,1-1 0,-1 1 0,0-1 0,-1 0 0,0 0-1,0 0 1,-1 0 0,-9 14 0,-12 30-11,26-50-46,-1 0 0,1 0 1,0 1-1,0-1 0,-1 0 0,2 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 1,1-1-1,0 1 0,-1 0 0,1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,3 1 0,11 10-27,-14-10 74,0 1 1,1-1-1,-1 1 0,0-1 1,0 1-1,0 0 0,-1 0 1,1-1-1,-1 1 0,1 1 0,-1-1 1,0 0-1,0 0 0,-1 0 1,1 1-1,-1-1 0,1 0 1,-1 0-1,0 1 0,0-1 0,0 0 1,-1 1-1,1-1 0,-1 0 1,-1 4-1,0-2 79,-1 0 0,0-1 0,1 1 0,-1-1 0,-1 0-1,1 0 1,-1 0 0,0 0 0,0 0 0,0-1 0,0 0 0,0 0 0,-1 0 0,-7 4 0,-3-1 19,-1-1 0,1 0 0,-1-1 0,0 0 1,0-1-1,0-1 0,-1-1 0,1 0 0,0-1 1,-21-3-1,36 3-171,1 0 0,-1-1 1,0 1-1,0-1 0,0 1 0,0-1 1,0 1-1,0-1 0,0 1 0,1-1 1,-1 0-1,0 1 0,0-1 0,1 0 1,-1 1-1,1-1 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 1 1,0-1-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,1-2 0,-1-1-520,1 0 0,0-1 0,0 1-1,0 0 1,1 0 0,-1 0-1,4-7 1,19-16-3500,9 2-44</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1162.85">668 106 7652,'0'0'6968,"9"24"-5450,-2 238 1072,-8-189-5903,1-394 4279,0 316-918,0 0 0,1 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 1 0,0 0 0,1-1-1,0 2 1,-1-1 0,6-3 0,-3 3-58,0 0-1,0 0 0,0 1 0,1-1 0,-1 1 1,1 1-1,-1-1 0,1 1 0,0 0 1,0 1-1,-1 0 0,1 0 0,0 0 0,11 3 1,-16-3 4,-1 1 1,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0 0,0 0 0,0 0 0,0 1-1,1-1 1,-2 0 0,1 1 0,0-1 0,0 1 0,0-1-1,-1 1 1,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 4-1,2 51 74,-3-41-39,1-7-18,-2 1 0,1-1 0,-1 1 0,0-1 0,-1 0 0,0 0-1,0 0 1,-1 0 0,-9 14 0,-12 30-11,26-50-46,-1 0 0,1 0 1,0 1-1,0-1 0,-1 0 0,2 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 1,1-1-1,0 1 0,-1 0 0,1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,3 1 0,11 10-27,-14-10 74,0 1 1,1-1-1,-1 1 0,0-1 1,0 1-1,0 0 0,-1 0 1,1-1-1,-1 1 0,1 1 0,-1-1 1,0 0-1,0 0 0,-1 0 1,1 1-1,-1-1 0,1 0 1,-1 0-1,0 1 0,0-1 0,0 0 1,-1 1-1,1-1 0,-1 0 1,-1 4-1,0-2 79,-1 0 0,0-1 0,1 1 0,-1-1 0,-1 0-1,1 0 1,-1 0 0,0 0 0,0 0 0,0-1 0,0 0 0,0 0 0,-1 0 0,-7 4 0,-3-1 19,-1-1 0,1 0 0,-1-1 0,0 0 1,0-1-1,0-1 0,-1-1 0,1 0 0,0-1 1,-21-3-1,36 3-171,1 0 0,-1-1 1,0 1-1,0-1 0,0 1 0,0-1 1,0 1-1,0-1 0,0 1 0,1-1 1,-1 0-1,0 1 0,0-1 0,1 0 1,-1 1-1,1-1 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 1 1,0-1-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,1-2 0,-1-1-520,1 0 0,0-1 0,0 1-1,0 0 1,1 0 0,-1 0-1,4-7 1,19-16-3500,9 2-44</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1546.66">1095 58 1665,'0'0'11981,"0"-5"-10137,0 8-934,0 309 1387,-5-265-5056,25-49-10394</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2027.83">1401 89 5170,'0'0'7233,"-14"-11"-7102,12 10-124,1 1 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 0-1,-1 0 1,1 0 0,0 0-1,-1 1 1,1-1 0,0 1-1,0-1 1,0 0 0,-1 1-1,1 0 1,0-1-1,0 1 1,0 0 0,0 0-1,0-1 1,0 1 0,0 0-1,0 0 1,-1 2 0,-25 31 715,22-27-447,-4 6-80,1 0 1,1 0-1,0 0 1,1 1-1,0-1 0,2 2 1,-1-1-1,1 0 1,1 1-1,1 0 1,0 0-1,1-1 1,1 22-1,0-35-194,0 1-1,0-1 1,0 0-1,0 0 0,1 0 1,-1 1-1,0-1 1,1 0-1,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 1 1,0-2-1,0 1 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,1 0 1,2 0-2,-1 0 1,0 0 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 0 0,1 0-1,3 0 1,0 0-4,0-1 0,0 0-1,0 0 1,-1 0 0,1-1 0,0 0-1,-1-1 1,0 1 0,7-4 0,-7 1-14,0 1 1,0-1 0,0 0 0,-1-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,0 0-1,0-1 1,-1 0 0,1 1 0,-1-1 0,-1-1 0,1 1 0,-1 0 0,-1 0 0,1-1 0,-1 1-1,-1-1 1,1 1 0,-1-1 0,-1 0 0,1 1 0,-1-1 0,-2-7 0,1 12-36,-1-1 0,1 1 0,0 0 0,-1 0 0,0 0 0,0 0 0,0 0 1,0 1-1,0-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 1,0-1-1,0 1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 1,0 1-1,0-1 0,0 1 0,-5 0 0,7 6-7082</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2446.94">1765 1 3970,'0'0'6456,"-17"14"-6194,-55 49 268,64-56-254,1 0-1,1 1 0,-1 0 0,1 0 0,1 1 1,-1 0-1,2 0 0,-1 0 0,1 0 0,0 0 0,-3 15 1,4-3 73,0 1 0,1-1 0,1 34 0,1-47-392,0-7 40,0 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,2 0 1,1 1-46,0 0 0,1-1 1,-1 1-1,1-1 1,-1-1-1,1 1 1,5 0-1,-1-1-108,0 1 0,1-2-1,-1 1 1,0-2 0,0 1 0,18-6 0,-23 6 145,0-1-1,0 0 1,-1 0 0,1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,0 0 0,-1 0 0,1 0 0,-1 0-1,0 0 1,0 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,-2-8 0,1 12 61,-1 0 0,1 0-1,-1-1 1,0 1 0,1 0 0,-1 0 0,0 0-1,0-1 1,0 1 0,0 0 0,0 0 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0 0,-1 1-1,1-1 1,0 0 0,-1 1 0,1-1 0,0 1-1,-1 0 1,1-1 0,0 1 0,-1 0 0,-1 0-1,-45-1 555,36 1-564,6 0-51,1 0 0,0 0 0,0 1-1,0-1 1,0 1 0,0 0 0,0 1 0,1-1-1,-1 1 1,0 0 0,1 0 0,-9 5 0,9-3-346,0-1 1,1 0 0,-1 1 0,1 0 0,0-1 0,0 1 0,0 1 0,-2 4-1,-5 9-3703</inkml:trace>
@@ -11948,13 +11530,13 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="366.16">282 51 6259,'0'0'8913,"-3"-5"-7611,-13-20 480,41 33-1787,1 4 38,-1 2 0,0 1 0,-2 1 0,36 31 0,-57-46-26,-1 0-1,1 1 0,-1-1 0,0 1 0,0-1 0,1 1 0,-1 0 0,-1-1 1,1 1-1,0 0 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0 0 1,0 0-1,1 0 0,-2 0 0,1 0 0,0-1 0,0 1 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,-3 1 0,-6 7 115,0-1-1,-1 0 1,0 0-1,-17 9 1,-2 2-65,17-7 99</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1715.31">896 141 9748,'0'0'4413,"-11"7"-4082,-71 36-91,82-42-219,-1-1 0,1 0 0,-1 0-1,0 1 1,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1-1,-1 0 1,0 0 0,1 0 0,-1 0 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1 0 0,0 0 0,1 0-1,-1 0 1,1-1 0,-1 1 0,1 0 0,-1 0 0,0-1-1,1 1 1,-1 0 0,1 0 0,-1-1 0,0 0 0,-8-21 153,5-30-29,4 48-40,1-3-65,0 0 1,1 0-1,-1 1 0,1-1 0,0 0 0,1 1 0,0-1 1,0 1-1,0 0 0,1 0 0,0 0 0,0 1 1,1-1-1,-1 1 0,1 0 0,10-8 0,-1 51 1094,-4-7-1022,-2 0 0,-1 1 0,-1 0 0,-2 0 0,-1 0 0,-2 35 0,-1-63-65,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0-1,0-1 1,0 1 0,0 0 0,0-1 0,-1 0 0,1 1 0,-1-1 0,0 0 0,0-1 0,0 1-1,0 0 1,-5 2 0,3-3 32,0 1 0,0-1 0,0 0 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1-1-1,1 1 1,-1-1 0,1 0 0,-1 0 0,1-1 0,-1 0 0,-7-1 0,13 2-166,0-1 0,0 1 0,1 0-1,-1 0 1,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0-1,0-1 1,0 1 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0-1-1,0 1 1,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0-1,0 0 1,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 1-1,0 0 1,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,26-10-5919,-20 8 5346,28-11-3374</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2025.28">1018 154 3362,'0'0'5461,"0"-11"-2487,3-54 4998,-5 141-7638,0-33 99,2-1 0,7 64 0,-6-102-444,-1-1 1,1 0 0,-1 0-1,1 0 1,0 1-1,0-1 1,0 0-1,1 0 1,-1 0 0,1 0-1,0-1 1,0 1-1,0 0 1,0-1 0,0 1-1,0-1 1,1 0-1,-1 1 1,1-1-1,0 0 1,0-1 0,4 3-1,-3-3-205,-1 0 0,1-1 1,-1 1-1,1-1 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1-1 1,-1 0-1,0 0 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 0 1,0 0-1,3-4 0,-4 5-538,1-1 0,-1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0-1 1,-1 1-1,3-5 0,-3-7-6583</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2189.2">983 309 7732,'0'0'8339,"85"-47"-8339,-45 33-512,4 7-977,-7 0-1088,-2 7-1633</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2189.19">983 309 7732,'0'0'8339,"85"-47"-8339,-45 33-512,4 7-977,-7 0-1088,-2 7-1633</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2807.94">1355 386 6323,'0'0'7942,"9"-3"-6880,-3 1-989,0 0 0,-1 0 0,1-1 1,-1 0-1,1 0 0,-1 0 0,0 0 0,0-1 0,0 0 0,-1 0 1,1 0-1,-1-1 0,0 0 0,0 1 0,-1-1 0,1-1 0,-1 1 1,0 0-1,-1-1 0,1 1 0,-1-1 0,0 0 0,1-9 0,0-30 349,-3 34 96,0 31-300,1-8-154,-1 0-1,2 0 0,0 0 0,0 0 0,1-1 1,1 1-1,4 11 0,-7-20-62,0-1 1,0 1-1,0-1 0,0 0 0,1 1 1,-1-1-1,1 0 0,-1 0 0,1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0-1 1,0 1-1,0-1 0,1 1 0,-1-1 1,0 0-1,1 0 0,-1 0 0,1 0 0,-1 0 1,1-1-1,0 1 0,-1-1 0,1 1 1,0-1-1,0 0 0,-1 0 0,1-1 0,0 1 1,-1 0-1,1-1 0,0 1 0,-1-1 1,1 0-1,-1 0 0,4-2 0,-1 0 18,0 0 1,-1 0-1,1 0 0,-1-1 0,0 1 0,0-1 0,0 0 0,-1 0 1,1-1-1,-1 1 0,0-1 0,0 0 0,-1 1 0,0-1 0,1 0 1,-2-1-1,1 1 0,1-7 0,0-3-28,0 1 1,-1-1-1,-1 0 1,-1 0-1,-1-23 0,1 39 12,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,-1 0 1,1 0 0,0 0-1,-1 0 1,1 0-1,-1-1 1,1 1-1,-1 0 1,1 0-1,-1 0 1,0-1-1,0 1 1,1 0-1,-1-1 1,0 1-1,0-1 1,0 1-1,1-1 1,-1 1-1,0-1 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1 0,0 0-1,0-1 1,0 1-1,1-1 1,-1 1-1,0-1 1,0 0-1,0 1 1,1-1-1,-1 0 1,0 0-1,1 1 1,-1-1-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,0 0-1,-1 1 1,1-1-1,0 0 1,0 0-1,-1-2 1,1 9-28,-1-1 1,0 1-1,1 0 0,0 0 1,0 0-1,1 0 0,0-1 1,0 1-1,0 0 0,1 0 1,0-1-1,0 1 0,0-1 1,6 9-1,2 0 65,0 1 0,2-2 0,19 20 0,-18-20 58,-12-12-75,0 0-1,0 0 1,0-1 0,0 1 0,-1 0-1,1 0 1,0 0 0,0 0 0,-1 0-1,1 0 1,-1 1 0,1-1 0,-1 0-1,1 0 1,-1 0 0,0 0 0,0 1-1,1-1 1,-1 0 0,0 0 0,0 0-1,0 1 1,0-1 0,-1 0 0,1 0-1,-1 2 1,0-1-20,0-1-1,0 1 1,0-1-1,-1 1 0,1-1 1,-1 1-1,1-1 1,-1 0-1,0 1 1,1-1-1,-1 0 1,0 0-1,0 0 1,-2 0-1,-9 4-1104,-1-1 0,1-1-1,-22 4 1,35-7 1005,-35 4-5709</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2986.36">1407 49 2753,'0'0'15063,"63"-2"-15767,-41 23-1361,0 4-2689,-4 4-4819</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3536.29">2000 327 11509,'0'0'4170,"0"-10"-2513,0 3-1427,-1-58 772,1 64-973,0-1 0,0 0 0,0 1 0,0-1 0,-1 1 0,1-1-1,0 0 1,-1 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,0-1-1,1 1 1,-4 0 0,4 1-31,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 3 0,-2 32-112,2-26 98,0 0 1,1 0 0,0-1 0,1 1-1,4 16 1,-5-25-13,-1 1 0,1 0-1,-1-1 1,1 1 0,0-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0 1 0,0-1-1,0 0 1,1 0 0,-1 1 0,0-1-1,1 0 1,-1 0 0,1 0-1,-1-1 1,1 1 0,0 0-1,-1-1 1,1 1 0,0-1-1,-1 1 1,1-1 0,0 0-1,0 1 1,-1-1 0,1 0-1,0 0 1,0 0 0,0-1 0,-1 1-1,1 0 1,0-1 0,-1 1-1,1-1 1,0 1 0,-1-1-1,3-1 1,0 0 9,-1 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 0 0,-1 0 0,0 1 1,1-1-1,-1-1 0,-1 1 0,1 0 0,0 0 0,-1-1 0,1 1 0,-1-1 0,0 1 0,0-5 0,2-5 144,0 0 1,-2 0-1,1-22 0,4 76 1203,-6-39-1320,0-1 1,1 0 0,-1 1-1,1-1 1,-1 0-1,1 1 1,0-1-1,0 0 1,-1 0 0,1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,0-1-1,1 1 1,-1 0-1,0-1 1,1 1 0,-1-1-1,1 1 1,-1-1-1,0 0 1,1 0 0,1 0-1,59-3-1636,-22-5-3152,-17 2-729</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4232.44">2362 199 8820,'0'0'9789,"1"17"-9408,0-10-263,0 0 0,1-1 1,-1 0-1,2 1 0,-1-1 0,1 0 0,0 0 0,0 0 1,6 9-1,-8-14-118,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0-1 1,0 1-1,0 0 0,1-1 1,-1 1-1,0-1 0,1 1 1,-1-1-1,0 0 1,1 1-1,-1-1 0,3 0 1,-3 0-1,1-1 0,0 0-1,0 0 1,-1 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,-1-1 0,0 1-1,1 0 1,-1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0-1,0 1 1,1-3 0,44-80 214,-46 93-78,1 0 0,1 0 0,0 0 0,0 0 0,1 0 0,7 16 0,-10-23-238,1 1 1,0-1-1,0 0 0,0 1 1,0-1-1,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0-1 0,0 0 0,1 1 1,-1-1-1,0 0 0,1 0 1,-1 0-1,1-1 0,-1 1 0,1-1 1,0 1-1,-1-1 0,1 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1-1 0,-1 1 0,1-1 1,-1 1-1,5-3 0,-3 1-24,0 0 0,0 0 1,0 0-1,-1-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 1,-1 1-1,1-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,0 0 0,1 0 0,-2 0 1,2-5-1,-6-31 2361,0 34 883,0 26-2330,4-16-789,-1 7 56,1 1 0,-1-1 0,2 1 0,2 17 0,-3-27-88,1-1 0,-1 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,1 0 0,-1 0 38,1-1 1,-1 1-1,0 0 0,0-1 0,0 0 1,0 1-1,0-1 0,0 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,0 0 0,1-1 1,-1 1-1,0 0 0,0-1 1,-1 1-1,1 0 0,0-1 0,-1 1 1,1-4-1,3-60 662,-4 53-490,-1 9-114,1-1 0,0 1 1,-1-1-1,0 1 1,0-1-1,0 1 0,-1-1 1,0 1-1,1 0 1,-1 0-1,-5-7 0,6 10-51,0-1-1,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 1,0 0-1,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-3 2 0,3 0-115,-1-1 1,1 1-1,-1 0 0,1 0 0,0 0 0,0 0 0,0 1 1,0-1-1,0 0 0,0 1 0,1-1 0,-1 1 0,1 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0 6 0,-7 54-8418,8-48 2524</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4232.43">2362 199 8820,'0'0'9789,"1"17"-9408,0-10-263,0 0 0,1-1 1,-1 0-1,2 1 0,-1-1 0,1 0 0,0 0 0,0 0 1,6 9-1,-8-14-118,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0-1 1,0 1-1,0 0 0,1-1 1,-1 1-1,0-1 0,1 1 1,-1-1-1,0 0 1,1 1-1,-1-1 0,3 0 1,-3 0-1,1-1 0,0 0-1,0 0 1,-1 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,-1-1 0,0 1-1,1 0 1,-1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0-1,0 1 1,1-3 0,44-80 214,-46 93-78,1 0 0,1 0 0,0 0 0,0 0 0,1 0 0,7 16 0,-10-23-238,1 1 1,0-1-1,0 0 0,0 1 1,0-1-1,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0-1 0,0 0 0,1 1 1,-1-1-1,0 0 0,1 0 1,-1 0-1,1-1 0,-1 1 0,1-1 1,0 1-1,-1-1 0,1 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1-1 0,-1 1 0,1-1 1,-1 1-1,5-3 0,-3 1-24,0 0 0,0 0 1,0 0-1,-1-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 1,-1 1-1,1-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,0 0 0,1 0 0,-2 0 1,2-5-1,-6-31 2361,0 34 883,0 26-2330,4-16-789,-1 7 56,1 1 0,-1-1 0,2 1 0,2 17 0,-3-27-88,1-1 0,-1 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,1 0 0,-1 0 38,1-1 1,-1 1-1,0 0 0,0-1 0,0 0 1,0 1-1,0-1 0,0 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,0 0 0,1-1 1,-1 1-1,0 0 0,0-1 1,-1 1-1,1 0 0,0-1 0,-1 1 1,1-4-1,3-60 662,-4 53-490,-1 9-114,1-1 0,0 1 1,-1-1-1,0 1 1,0-1-1,0 1 0,-1-1 1,0 1-1,1 0 1,-1 0-1,-5-7 0,6 10-51,0-1-1,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 1,0 0-1,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-3 2 0,3 0-115,-1-1 1,1 1-1,-1 0 0,1 0 0,0 0 0,0 0 0,0 1 1,0-1-1,0 0 0,0 1 0,1-1 0,-1 1 0,1 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0 6 0,-7 54-8418,8-48 2524</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4899.29">2945 9 4306,'0'0'16047,"-3"-3"-14793,3 3-1238,-1-1 0,1 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1 0 0,-1 0 0,1 0-1,-1 0 1,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 1-1,0-1 1,-1 0 0,1 1 0,0-1 0,-1 1 0,-5 32-44,5-21 13,-2 136 232,3-90-316,14-59-3406</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5086.94">2914 515 6995,'0'0'17464,"7"-21"-18232,-7 9-625,0 7-1872,-10 1-6276</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5086.93">2914 515 6995,'0'0'17464,"7"-21"-18232,-7 9-625,0 7-1872,-10 1-6276</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -11983,10 +11565,10 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">15 137 5346,'0'0'9423,"0"12"-8966,-7 111 1781,1-58-2662,4-1-5635</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="293.59">15 237 2353,'0'0'10186,"0"-13"-9351,1-39-483,-1 51-349,1 1 0,-1-1 0,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 1-1,-1-1 1,1 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1-1,1-1 1,0 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1-1,0 0 1,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0-1,0 1 1,5 0 16,10-3 24,-1 1-1,1 1 1,0 1 0,0 1-1,0 0 1,19 5 0,-31-5-12,-1-1 0,1 0 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 1-1,0-1 0,0 1 0,-1 0 0,0-1 0,1 1 0,-1 1 0,0-1 0,0 0 0,-1 0 0,1 1 0,-1-1 0,0 1 0,1 0 1,-1-1-1,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,-2 5 0,1-5 45,0 0 0,0-1 1,-1 1-1,1 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,1 0 1,-1-1-1,-5 4 0,-55 35 314,48-33-349,-13 7-286,-31 21-32,29-6-6431,25-24 1887</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="293.58">15 237 2353,'0'0'10186,"0"-13"-9351,1-39-483,-1 51-349,1 1 0,-1-1 0,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 1-1,-1-1 1,1 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1-1,1-1 1,0 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1-1,0 0 1,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0-1,0 1 1,5 0 16,10-3 24,-1 1-1,1 1 1,0 1 0,0 1-1,0 0 1,19 5 0,-31-5-12,-1-1 0,1 0 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 1-1,0-1 0,0 1 0,-1 0 0,0-1 0,1 1 0,-1 1 0,0-1 0,0 0 0,-1 0 0,1 1 0,-1-1 0,0 1 0,1 0 1,-1-1-1,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,-2 5 0,1-5 45,0 0 0,0-1 1,-1 1-1,1 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,1 0 1,-1-1-1,-5 4 0,-55 35 314,48-33-349,-13 7-286,-31 21-32,29-6-6431,25-24 1887</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="569.25">445 85 656,'0'0'11059,"3"-8"-9992,-3 8-1045,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 1 0,0-1 0,1 0 1,-1 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0-1 0,0 1 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-2 175 3439,0-86-4299,1-2-4450,2-75 729</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="940.79">766 242 3330,'0'0'11189,"-3"-7"-10424,3 6-746,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1-1,0 0 1,1-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,-2 0 0,0 1-5,1 0 0,0 1 1,-1-1-1,1 1 0,0-1 0,0 1 0,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,1 0 0,-1 1 1,1-1-1,-2 5 0,0-1-9,0 0-1,0 0 1,1 0-1,0 0 1,1 0-1,-1 0 1,0 11-1,1-15-23,1-1 0,0 0 0,0 1 0,0-1 0,-1 0 0,2 1 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 1-1,1-1 1,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,1 0 0,2 1 0,1-1-2,1 0 0,0-1 0,0 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1-2 0,-1 1 0,0 0 0,0-1 0,0 0 1,0 0-1,0-1 0,0 0 0,-1 1 0,0-1 0,0-1 0,0 1 0,0-1 0,4-6 0,-2 2 64,-1 1 0,0-1 0,0 0 0,-1 0 0,0-1 0,0 0 0,-1 1 0,0-1 0,-1 0 0,0 0 0,-1-1 0,1-9 0,-2 19-32,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,-1 0 1,1 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0-1,-1 0 1,1 1 0,-1-1-1,1 0 1,-1 0 0,0 0-1,1 1 1,-1-1-1,0 0 1,1 1 0,-1-1-1,0 0 1,0 1 0,0-1-1,0 1 1,-1-1-1,0 0-7,0 1-1,-1-1 0,1 1 0,-1 0 1,0 0-1,1 0 0,-1 0 0,1 0 1,-1 1-1,1-1 0,-3 1 0,0 1-188,0-1 0,1 1 0,-1-1 0,1 1 0,-1 1 0,1-1 1,-1 1-1,1 0 0,0 0 0,0 0 0,-6 7 0,8-7-641,0 1 1,0 0 0,0 0 0,0 0 0,1 0 0,0 0-1,0 0 1,-1 8 0,1 11-5350</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1468.17">1058 137 8756,'0'0'6371,"-10"5"-6243,6-3-97,0 0 0,0 0-1,0 1 1,0-1 0,1 1 0,-1 0 0,1 0-1,0 0 1,-1 0 0,1 1 0,0-1 0,1 1-1,-1 0 1,1 0 0,0 0 0,0 0 0,0 0-1,0 1 1,1-1 0,-1 1 0,0 5 0,0-1 63,0 1 0,1 1 0,0-1 0,1 0 1,1 19-1,-1-27-96,1 1 1,-1-1-1,1 0 0,0 0 1,0 1-1,-1-1 0,1 0 1,1 0-1,-1 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,1-1 0,-1 1 1,1-1-1,0 1 1,0-1-1,-1 1 0,1-1 1,0 0-1,0 0 1,1 0-1,-1 0 0,0 0 1,0-1-1,0 1 0,0 0 1,1-1-1,2 0 1,4 2-91,0-1 0,0 0 0,0-1 0,0 0 0,0 0 0,11-3 0,-18 3 91,0-1 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 0 0,0 1-1,1-1 1,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-2 0,-1-7 46,0 1 1,-1 0-1,-1 0 1,1 0-1,-1 0 1,-1 0-1,0 1 1,0-1-1,-1 1 0,-10-14 1,10 14-56,-1 0 1,1 0-1,0 0 1,1-1-1,0 0 1,1 0-1,0 0 0,0 0 1,1 0-1,-2-18 1,5 26-41,-1-1 0,0 1 1,1 0-1,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,1 0 1,-1 0-1,0 1 0,1-1 1,-1 0-1,1 1 0,-1-1 0,1 1 1,0 0-1,-1-1 0,1 1 1,0 0-1,0 0 0,0 0 0,0 0 1,0 1-1,0-1 0,0 0 0,0 1 1,1 0-1,-1-1 0,4 1 1,13-2-402,0 1 0,34 1 0,-29 1 137,-22-1 318,-1-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 1 1,1-1-1,0 0 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,-1 1 0,1 0 1,0-1-1,0 1 0,-1 0 0,1-1 0,-1 1 0,-1 2 0,0 2 64,-1 0 0,-1 0 1,1 0-1,-1-1 1,0 1-1,0-1 0,-1 0 1,1 0-1,-1 0 0,-7 5 1,-59 41-3241,33-28-1982</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1468.16">1058 137 8756,'0'0'6371,"-10"5"-6243,6-3-97,0 0 0,0 0-1,0 1 1,0-1 0,1 1 0,-1 0 0,1 0-1,0 0 1,-1 0 0,1 1 0,0-1 0,1 1-1,-1 0 1,1 0 0,0 0 0,0 0 0,0 0-1,0 1 1,1-1 0,-1 1 0,0 5 0,0-1 63,0 1 0,1 1 0,0-1 0,1 0 1,1 19-1,-1-27-96,1 1 1,-1-1-1,1 0 0,0 0 1,0 1-1,-1-1 0,1 0 1,1 0-1,-1 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,1-1 0,-1 1 1,1-1-1,0 1 1,0-1-1,-1 1 0,1-1 1,0 0-1,0 0 1,1 0-1,-1 0 0,0 0 1,0-1-1,0 1 0,0 0 1,1-1-1,2 0 1,4 2-91,0-1 0,0 0 0,0-1 0,0 0 0,0 0 0,11-3 0,-18 3 91,0-1 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 0 0,0 1-1,1-1 1,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-2 0,-1-7 46,0 1 1,-1 0-1,-1 0 1,1 0-1,-1 0 1,-1 0-1,0 1 1,0-1-1,-1 1 0,-10-14 1,10 14-56,-1 0 1,1 0-1,0 0 1,1-1-1,0 0 1,1 0-1,0 0 0,0 0 1,1 0-1,-2-18 1,5 26-41,-1-1 0,0 1 1,1 0-1,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,1 0 1,-1 0-1,0 1 0,1-1 1,-1 0-1,1 1 0,-1-1 0,1 1 1,0 0-1,-1-1 0,1 1 1,0 0-1,0 0 0,0 0 0,0 0 1,0 1-1,0-1 0,0 0 0,0 1 1,1 0-1,-1-1 0,4 1 1,13-2-402,0 1 0,34 1 0,-29 1 137,-22-1 318,-1-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 1 1,1-1-1,0 0 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,-1 1 0,1 0 1,0-1-1,0 1 0,-1 0 0,1-1 0,-1 1 0,-1 2 0,0 2 64,-1 0 0,-1 0 1,1 0-1,-1-1 1,0 1-1,0-1 0,-1 0 1,1 0-1,-1 0 0,-7 5 1,-59 41-3241,33-28-1982</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -12291,7 +11873,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">214 83 4130,'0'0'10239,"0"-42"-8035,-6 37-2187,0 0 1,0 1-1,0 0 0,0 1 1,-1-1-1,1 1 0,-1 1 1,0-1-1,1 1 0,-1 0 1,0 1-1,-1 0 0,1 0 1,0 1-1,0 0 0,0 0 1,-13 2-1,16 0-24,0 1 0,0-1 1,1 1-1,-1 0 0,1 0 0,0 1 0,-1-1 1,2 1-1,-1-1 0,0 1 0,1 0 0,-1 0 1,1 0-1,0 0 0,-2 9 0,-2 2-5,1 1 0,0-1 0,-3 22 0,6-24 2,0 1 0,1 0 1,0 0-1,1 0 1,1-1-1,3 28 1,-3-38-2,0 1 1,-1-1 0,1 1-1,1-1 1,-1 0 0,0 0-1,1 1 1,-1-1 0,1 0-1,0 0 1,0-1 0,0 1-1,0 0 1,1-1 0,-1 1-1,1-1 1,-1 0 0,1 0-1,0 0 1,0 0 0,0 0-1,0-1 1,0 0 0,0 1-1,0-1 1,0 0 0,1-1-1,-1 1 1,0 0 0,1-1-1,5 0 1,-2-1 30,-1-1 0,0 0 0,0 0-1,0 0 1,0-1 0,-1 0 0,1 0 0,-1-1-1,1 1 1,-1-1 0,0-1 0,-1 1 0,1-1 0,-1 0-1,6-8 1,15-12-577,-23 24-339</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="569.81">471 23 4770,'0'0'6024,"0"40"-5111,-1 12 191,-2-1 1,-17 100-1,19-137-1251,-2 3 483,-8-12-4695</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="569.8">471 23 4770,'0'0'6024,"0"40"-5111,-1 12 191,-2-1 1,-17 100-1,19-137-1251,-2 3 483,-8-12-4695</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1160.44">663 112 1665,'0'0'12603,"-2"-5"-12155,2 4-443,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0 0,0-1-1,0 1 1,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,1 0 0,-1-1 0,0 1-1,1 0 1,-1 0 0,1 1 0,-1-1 0,1 0-1,-1 0 1,1 0 0,0 0 0,-1 0-1,1 1 1,0-1 0,0 0 0,1-1-1,2 1-1,0-1 0,0 0 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0 0 0,8 0 0,-5 0-4,-2-1-10,0 1 0,0 0 0,0 0 1,0 1-1,0 0 0,0 0 1,0 0-1,7 3 0,-11-3 8,1 1 0,0-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,0 3 0,1-1 14,-1 0 1,0 0-1,0 1 0,-1-1 0,1 0 0,-1 0 1,0 0-1,0 0 0,-1-1 0,1 1 1,-1 0-1,0 0 0,0-1 0,0 1 1,-1-1-1,-3 5 0,-3 2 12,-1 0-1,-1 0 1,-22 17 0,23-20-25,0 0 0,1 0-1,0 1 1,1 0 0,-1 1 0,-10 17 0,18-26-6,1-1 1,-1 1-1,1 0 0,0-1 1,-1 1-1,1 0 1,0 0-1,-1 0 0,1-1 1,0 1-1,0 0 1,0 0-1,0 0 0,-1-1 1,1 1-1,0 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,0-1 0,0 1 1,0 0-1,1 0 1,-1 0-1,0-1 0,1 1 1,-1 0-1,1 0 1,0 0-1,0 0 4,1 1 1,0-1-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 1,4-1-1,68 2 166,-59-3-125,-10 1-23,1-1 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0-1 0,0 0 0,10-5 0,4-1 111,0 5-3014,-14 4 751,5-6-3339</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1654.84">934 169 9188,'0'0'6176,"0"-10"-6034,0 4-132,-1 4-4,1 0 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1-1,0 0 0,0 0 1,0 0-1,1 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 1,0 0-1,0 1 0,0-1 1,0 0-1,0 0 1,1 1-1,-1-1 1,0 1-1,1-1 0,-1 1 1,1 0-1,-1-1 1,1 1-1,0 0 0,0 0 1,-1 0-1,1 1 1,0-1-1,3-1 1,3 0-6,0 0 1,1 1 0,-1 0 0,0 0 0,0 1 0,0 0-1,1 0 1,13 3 0,-19-2-4,-1 0 0,0 0-1,1 1 1,-1-1 0,0 0 0,0 1-1,0-1 1,0 1 0,0 0 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 0-1,-1 1 1,0-1 0,1 0 0,-1 1-1,0-1 1,0 1 0,0 0 0,-1-1-1,1 1 1,-1 0 0,1-1-1,-1 1 1,0 0 0,0-1 0,0 1-1,0 4 1,-1-1 5,1 0-1,0-1 0,-1 1 1,0-1-1,-1 1 0,1-1 1,-1 1-1,0-1 0,0 0 1,0 0-1,-1 0 1,-5 9-1,-2-1 31,-1 0-1,-23 21 1,23-24 85,1 0 0,0 1-1,0 0 1,1 0 0,-8 15-1,21-24-120,1 0 0,-1-1 0,1 0 0,-1 0 0,1-1 0,0 1 0,0-1 0,-1 0 0,8-1 0,-10 1 7,16-1 2,1-1 1,-2-1 0,1 0 0,33-12 0,71-35-119,-95 38 72,42-22 3,-67 27 367</inkml:trace>
 </inkml:ink>
@@ -12438,7 +12020,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12462.31">3127 27 3602,'0'0'6728,"0"71"-4812,-9 34-448,4-69-980,-1 46-1,2-79-4416</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13540.13">3467 90 1088,'0'0'14159,"-1"29"-13729,-16 55 552,10-59-866,2 1 0,1-1 0,-1 37 0,2-48 463,1-10-1433,2-21-9223</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13817.14">3366 214 176,'0'0'13588,"0"0"-13575,0-1 0,0 1 1,0 0-1,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 0,0 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,70 0 381,84-11-1,-140 11-3033,-12 0 350</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15621.85">1192 195 2561,'0'0'8655,"-3"-3"-7324,0 0-976,-1 0 0,0 0 0,0 0 1,0 1-1,-1 0 0,1 0 0,0 0 0,-1 0 0,0 1 0,1 0 0,-1-1 1,0 2-1,0-1 0,-7 0 0,-87 2-998,55 1 991,-199-2-282,213-3-114,30 2 56,0-3-55,0-1 0,0 1-1,1-1 1,0 1 0,0-1-1,0 1 1,0 0 0,1-1-1,-1 1 1,1 0 0,0 0-1,1 0 1,4-6 0,1 1 49,0 0 0,0 1 0,17-12 0,-1 1-12,-22 16 18,-2 2-77,-16 27-345,-10-2 416,-1-1-1,-1-2 0,-44 26 1,71-46-10,0-1 1,0 0 0,0 1-1,1-1 1,-1 1 0,0 0 0,0-1-1,0 1 1,1-1 0,-1 1 0,0 0-1,0 0 1,1-1 0,-1 1 0,1 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,0 0 0,-1 0 0,1 1-1,0-1-10,0-1-1,1 1 0,-1 0 1,0 0-1,1-1 0,-1 1 0,1 0 1,-1-1-1,1 1 0,-1 0 0,1-1 1,-1 1-1,1-1 0,0 1 0,-1-1 1,1 1-1,0-1 0,-1 1 1,1-1-1,1 1 0,56 15-798,-41-12 709,3 1 74,1-1 0,0-1 0,29 1 0,-2-3-4353,-38-1 375</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15621.84">1192 195 2561,'0'0'8655,"-3"-3"-7324,0 0-976,-1 0 0,0 0 0,0 0 1,0 1-1,-1 0 0,1 0 0,0 0 0,-1 0 0,0 1 0,1 0 0,-1-1 1,0 2-1,0-1 0,-7 0 0,-87 2-998,55 1 991,-199-2-282,213-3-114,30 2 56,0-3-55,0-1 0,0 1-1,1-1 1,0 1 0,0-1-1,0 1 1,0 0 0,1-1-1,-1 1 1,1 0 0,0 0-1,1 0 1,4-6 0,1 1 49,0 0 0,0 1 0,17-12 0,-1 1-12,-22 16 18,-2 2-77,-16 27-345,-10-2 416,-1-1-1,-1-2 0,-44 26 1,71-46-10,0-1 1,0 0 0,0 1-1,1-1 1,-1 1 0,0 0 0,0-1-1,0 1 1,1-1 0,-1 1 0,0 0-1,0 0 1,1-1 0,-1 1 0,1 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,0 0 0,-1 0 0,1 1-1,0-1-10,0-1-1,1 1 0,-1 0 1,0 0-1,1-1 0,-1 1 0,1 0 1,-1-1-1,1 1 0,-1 0 0,1-1 1,-1 1-1,1-1 0,0 1 0,-1-1 1,1 1-1,0-1 0,-1 1 1,1-1-1,1 1 0,56 15-798,-41-12 709,3 1 74,1-1 0,0-1 0,29 1 0,-2-3-4353,-38-1 375</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16484.55">147 360 1809,'0'0'8620,"-9"-1"-8487,4 1-96,1-1-1,-1 1 0,0-1 1,0 1-1,0 1 0,0-1 1,1 1-1,-1 0 0,0 0 1,0 0-1,1 1 1,-1-1-1,1 1 0,-1 0 1,1 1-1,0-1 0,0 1 1,0 0-1,0 0 0,0 0 1,1 0-1,-1 1 1,1-1-1,0 1 0,0 0 1,-4 6-1,4-2 187,-1 0 0,2 0-1,-1 0 1,1 1 0,0-1 0,0 1 0,1-1-1,1 1 1,-1 0 0,2 13 0,-1-19-153,0-2-44,0 0 1,1 0-1,-1 0 0,1 0 0,-1-1 1,0 1-1,1 0 0,0 0 0,-1-1 0,1 1 1,-1 0-1,1-1 0,0 1 0,-1 0 1,1-1-1,0 1 0,0-1 0,0 1 1,-1-1-1,1 0 0,0 1 0,0-1 0,0 0 1,0 0-1,0 1 0,0-1 0,-1 0 1,1 0-1,0 0 0,0 0 0,1 0 1,38 0-234,-29-1 172,-3 1-396,0 0-1,1-1 1,-1-1 0,15-3 0,12-9-3790,-10 2-1392</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16605.92">134 347 5218</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16858.75">134 347 5218,'122'24'1932,"-98"-20"2918,-38 12-4138,-16 53-24,28-64-607,1 0-1,-1 1 0,1-1 0,0 0 0,1 1 0,-1-1 0,1 0 0,0 1 0,1-1 0,-1 0 0,1 1 0,1 5 0,-1-10-86,0 0 0,-1-1 0,1 1 0,0 0 1,0-1-1,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 1,1 1-1,25-8 225,-20 2-146,-1 0 1,1-1-1,-2 0 1,1 0-1,-1 0 1,7-12-1,-10 16-65,0 0 1,0 0-1,-1 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0-1 1,-1 1-1,1 0 0,-1 0 0,1-1 1,-1 1-1,0 0 0,0-1 1,-1 1-1,1 0 0,-1-1 0,0 1 1,1 0-1,-3-4 0,2 6-60,1 0 0,-1 0 0,0 0 1,0 0-1,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 1 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,-1 0 0,-16 0-5315,14 0 1974,0 0-1908</inkml:trace>
@@ -12567,7 +12149,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">131 132 1569,'0'0'13409,"0"-4"-11862,0-11-304,0 11 1156,0 7-2354,-12 230 989,0 4 562,12-235-317,0-7-830,0-21-1522,0-36-5318,0 29-214</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="278.29">4 176 6051,'0'0'11624,"-1"0"-11601,1 0 1,0-1-1,0 1 0,-1 0 1,1-1-1,0 1 0,0-1 1,0 1-1,0 0 1,0-1-1,-1 1 0,1-1 1,0 1-1,0 0 1,0-1-1,0 1 0,0-1 1,0 1-1,0 0 1,0-1-1,0 1 0,0-1 1,1 1-1,-1 0 0,0-1 1,0 1-1,0-1 1,0 1-1,1-1 0,32-11-26,-19 8 60,316-82-135,-330 86-41,1 0 0,-1 1 0,0-1 0,1 0-1,-1 0 1,0 0 0,0 0 0,1 0 0,-1 1-1,0-1 1,0 0 0,1 0 0,-1 0-1,0 1 1,0-1 0,1 0 0,-1 1 0,0-1-1,0 0 1,0 0 0,0 1 0,1-1 0,-1 0-1,0 1 1,0-1 0,0 0 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,0 0-1,0 1 1,0-1 0,0 0 0,0 1 0,0-1-1,0 0 1,0 0 0,-1 1 0,1-1 0,0 0-1,0 1 1,0-1 0,0 0 0,-1 1 0,-5 18-2429,-16 16-1251</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="278.28">4 176 6051,'0'0'11624,"-1"0"-11601,1 0 1,0-1-1,0 1 0,-1 0 1,1-1-1,0 1 0,0-1 1,0 1-1,0 0 1,0-1-1,-1 1 0,1-1 1,0 1-1,0 0 1,0-1-1,0 1 0,0-1 1,0 1-1,0 0 1,0-1-1,0 1 0,0-1 1,1 1-1,-1 0 0,0-1 1,0 1-1,0-1 1,0 1-1,1-1 0,32-11-26,-19 8 60,316-82-135,-330 86-41,1 0 0,-1 1 0,0-1 0,1 0-1,-1 0 1,0 0 0,0 0 0,1 0 0,-1 1-1,0-1 1,0 0 0,1 0 0,-1 0-1,0 1 1,0-1 0,1 0 0,-1 1 0,0-1-1,0 0 1,0 0 0,0 1 0,1-1 0,-1 0-1,0 1 1,0-1 0,0 0 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,0 0-1,0 1 1,0-1 0,0 0 0,0 1 0,0-1-1,0 0 1,0 0 0,-1 1 0,1-1 0,0 0-1,0 1 1,0-1 0,0 0 0,-1 1 0,-5 18-2429,-16 16-1251</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="484.5">80 631 7892,'0'0'11573,"79"0"-10853,-50-3-400,-4-3-304,-1-5-16,1 6-848,4-4-1361,-5 1-2369,6-3-2321</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1039.3">536 182 1681,'0'0'13737,"5"-14"-9661,-11 113-3471,3-63-208,1 0 0,4 54 0,-2-88-402,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,4 0 0,3 0-69,1 0-1,0 0 1,0-1 0,0 0 0,0-1 0,11-2 0,-12 0 62,0-1 1,0 0 0,-1 0 0,0 0-1,0-1 1,0 0 0,0-1-1,-1 0 1,0 0 0,-1 0-1,1-1 1,-1 0 0,-1 0-1,0-1 1,0 1 0,-1-1-1,1 0 1,-2 0 0,0-1 0,0 1-1,0-1 1,-1 0 0,-1 1-1,1-20 1,-2 28 662,0 18-582,-14 148 481,-1 7 170,15-94-2825,0-78 1845,1 1-1,0-1 1,-1 1-1,1-1 0,0 0 1,-1 1-1,1-1 1,0 0-1,0 0 1,-1 1-1,1-1 0,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,-1 0 0,1 0 1,0-1-1,1 1 1,-1-1-437,23-3-6167</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1444.82">957 198 7155,'0'0'10032,"-1"8"-9363,-2 21-548,0 0 0,2-1 1,1 1-1,5 32 0,-4-58-130,0 0 0,0 0 0,0 1-1,0-1 1,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1-1-1,0 0 1,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0-1,0 0 1,1 0 0,-1-1 0,1 0 0,-1 1 0,0-1 0,1-1 0,-1 1 0,1 0 0,-1-1 0,0 0-1,1 1 1,-1-1 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 0 0,-1 1 0,1-1 0,0 0-1,0-1 1,-1 1 0,4-4 0,4-9 151,0 0 0,-1-1 0,-1 0 0,-1 0 0,0-1 0,-1 0 0,-1 0 0,0 0 0,-2-1 0,0 1 0,0-1 0,-2-31 0,-1 48 621,0 26-344,-16 73-364,10-67-7,1-1-1,-2 44 1,6-41-289,1 36-1478,0-65 1519,0 0 0,1-1 0,0 1-1,-1-1 1,1 1 0,1-1 0,-1 0 0,0 1 0,1-1-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,3 2-1,31 15-6017</inkml:trace>
@@ -12606,8 +12188,8 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">144 150 3906,'0'0'12064,"0"-7"-8771,0-23-1714,-14-73 441,13 93-1031,-14 477-1149,16-338 197,-35-136 473,13-7-512,17 10-16,-1 1 0,0-1 1,0 1-1,0 0 0,0 1 1,0-1-1,-1 1 0,1 0 1,-8-2-1,12 4-54,5 0-2338</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1906.69">174 279 4818,'0'0'7924,"-17"0"-5480,72-3-2223,0-3 0,0-3 1,0-2-1,55-19 1,-108-7-260,-2 13 66,1 13 25,-1 1 0,0-1 0,0 1 1,-1-1-1,-1 1 0,0-1 1,-5-16-1,3 25 909,1 10-856,0 14-291,-3 63 351,-16 389 2773,44-473-6626,-19-2 3231,1 1 0,-1-1-1,1 0 1,-1-1-1,1 1 1,-1-1 0,0 1-1,0-1 1,1 0-1,-2 0 1,1-1 0,0 1-1,3-4 1,27-21-4610</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2229.28">732 143 3650,'0'0'10858,"0"-4"-9719,-1 11-203,-14 150 1199,5-100-1008,-7 108 1,15-68-8738,2-107 2904,0-12-990</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1906.68">174 279 4818,'0'0'7924,"-17"0"-5480,72-3-2223,0-3 0,0-3 1,0-2-1,55-19 1,-108-7-260,-2 13 66,1 13 25,-1 1 0,0-1 0,0 1 1,-1-1-1,-1 1 0,0-1 1,-5-16-1,3 25 909,1 10-856,0 14-291,-3 63 351,-16 389 2773,44-473-6626,-19-2 3231,1 1 0,-1-1-1,1 0 1,-1-1-1,1 1 1,-1-1 0,0 1-1,0-1 1,1 0-1,-2 0 1,1-1 0,0 1-1,3-4 1,27-21-4610</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2229.27">732 143 3650,'0'0'10858,"0"-4"-9719,-1 11-203,-14 150 1199,5-100-1008,-7 108 1,15-68-8738,2-107 2904,0-12-990</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2469.4">558 155 4818,'0'0'10234,"1"-17"-9295,9-56-426,-9 70-497,1 0 1,-1 0 0,1 0-1,-1 1 1,1-1 0,0 0-1,0 1 1,0-1 0,0 1-1,1 0 1,-1 0 0,0 0-1,1 0 1,0 0 0,-1 0 0,1 1-1,0-1 1,0 1 0,0 0-1,0 0 1,0 0 0,0 0-1,0 1 1,0-1 0,4 1-1,4-3-4,-2 0-99,0 1 0,1 0 0,-1 1 0,0-1 0,1 2 0,-1 0 0,0 0 0,1 0 0,-1 1 0,0 1 0,1 0 0,13 4 0,-18-4-189,-1 0 0,1 1 0,-1-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0 1 0,0-1 0,0 1 0,-1-1 1,0 1-1,0 0 0,0 0 0,0-1 0,-1 1 0,0 1 0,0-1 0,0 6 0,1 34-2259,-2 0-936</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2652.77">609 630 4210,'0'0'7795,"54"-6"-6786,-20-8-689,6-3-320,-1-6-80,-5 3-1072,1-3-1330,-6 0-575,-9 3-1617</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3117.25">938 200 5555,'0'0'10103,"0"-12"-9201,0 59-558,1 63 827,0-100-1121,0 1-1,1 0 0,0-1 1,1 1-1,0-1 0,0 0 0,10 18 1,-12-27-60,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0-1,0-1 1,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,0-1 0,3 0 0,-1-1-8,1 0 0,-1 0 0,0 0 0,0 0 1,0 0-1,0-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,3-5 0,0-5 79,0 1 0,-1-1 0,0 0 0,-1 0 0,0-1-1,-1 1 1,-1-1 0,0 0 0,-1 1 0,0-22 0,-3 122 22,0-24 149,7 70 0,-5-131-432,1 1 0,-1-1 0,1 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,2 2 0,-3-3-144,0 0 0,0-1-1,0 1 1,0 0 0,0-1-1,1 1 1,-1-1 0,0 1-1,0-1 1,0 1 0,0-1-1,1 0 1,-1 0 0,0 0-1,0 0 1,1 0-1,-1 0 1,0 0 0,0 0-1,0 0 1,1 0 0,-1-1-1,0 1 1,0 0 0,0-1-1,0 1 1,1-1 0,-1 1-1,1-2 1,13-15-4840</inkml:trace>
@@ -12645,7 +12227,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2224.94">3694 364 2993,'0'0'9952,"-5"-15"-8642,-13-43-507,18 58-800,0 0 1,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 0-1,1-1 1,0 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,-1 0-1,1-1 1,0 1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0-1-1,-1 1 1,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,-1 0 0,1 0-1,0 0 1,0 1 0,-1-1 0,1 0 0,0 0 0,-1 0 0,1 1 0,0-1-1,0 0 1,-1 1 0,1-1 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0-1,0 1 1,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1-1,0 1 1,-10 27 95,10-27-88,-7 31 153,2-1 0,1 1-1,1-1 1,2 35 0,1-64-163,1 0 0,-1 1 0,1-1-1,-1 0 1,1 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0-1,0 0 1,1-1 0,-1 1 0,0 0 0,1 0 0,-1-1-1,1 1 1,0-1 0,-1 1 0,1-1 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0-1 0,0 1 0,0 0-1,1-1 1,2 1 0,0 0 10,-1 0 1,1-1-1,-1 1 0,0-1 0,1 0 0,-1 0 1,1-1-1,-1 1 0,0-1 0,1 0 0,-1-1 1,0 1-1,0-1 0,1 1 0,4-4 1,-3 0 4,-1 1 1,0-1-1,0 0 1,0 0 0,-1 0-1,0 0 1,0-1-1,0 0 1,0 0-1,-1 0 1,0 0 0,-1-1-1,1 1 1,1-9-1,-1 3 17,-1 0 0,0 0-1,0 0 1,-2-1-1,1 1 1,-2 0 0,-1-17-1,1 25-32,-1 0 0,1 0 1,0 0-1,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 1,-1 1-1,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 1,-1 1-1,1-1 0,0 1 0,-1-1 0,0 1 0,0 0 1,1 1-1,-1-1 0,0 1 0,0 0 0,0-1 0,-1 2 0,1-1 1,0 0-1,0 1 0,0 0 0,-1 0 0,-6 1 0,9 0-68,0-1-1,0 1 1,0-1-1,0 1 1,0 0-1,0 0 1,1-1-1,-1 2 1,0-1-1,0 0 1,1 0-1,-1 0 0,1 1 1,-1-1-1,1 1 1,-1-1-1,1 1 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0 0 0,0 0 1,1 0-1,-1 0 1,0 2-1,0 3-989,-1 0-1,1 0 0,1 0 1,-1-1-1,1 1 0,0 0 0,1 8 1,3 0-4444</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2690.22">3888 299 3554,'0'0'10802,"3"0"-10155,2 11-515,2 63 1058,-7-62-1137,1 1 1,0 0 0,0-1-1,1 1 1,1-1 0,0 1-1,0-1 1,1 0-1,6 12 1,-9-24-42,-1 1-1,0 0 1,1 0 0,-1-1-1,1 1 1,-1 0 0,1-1-1,-1 1 1,1 0 0,0-1-1,-1 1 1,1-1 0,0 1-1,-1-1 1,1 1 0,0-1-1,0 0 1,-1 1 0,1-1 0,0 0-1,0 0 1,0 1 0,0-1-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 0 0,0 0-1,-1 0 1,1-1 0,0 1-1,0 0 1,0 0 0,-1-1-1,1 1 1,0 0 0,0-1-1,-1 1 1,1-1 0,0 1-1,-1-1 1,1 1 0,0-1-1,-1 1 1,1-1 0,-1 0-1,1 1 1,-1-1 0,1 0-1,0 0 1,25-41 647,-24 39-636,6-15 80,0 0 0,7-30 0,-3 10 68,-10 39-173,0 0 0,-1 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 1-1,0 0 1,0 0 0,0-1 0,0 1 0,0 0 0,0 4 0,2-2 20,0 2-19,2-1 0,-1 0 1,0 0-1,1 0 0,0-1 1,0 1-1,1-1 0,-1-1 1,1 1-1,0-1 1,0 0-1,0 0 0,0 0 1,0-1-1,1 0 0,-1 0 1,1-1-1,-1 0 1,13 1-1,-14-2 10,-1 1 1,0-1-1,1 0 0,-1-1 1,0 1-1,0-1 1,1 0-1,-1 0 0,0 0 1,0 0-1,0-1 1,0 0-1,0 1 0,-1-2 1,1 1-1,0 0 1,-1-1-1,0 1 0,1-1 1,-1 0-1,0 0 1,0-1-1,-1 1 0,1-1 1,-1 1-1,0-1 1,1 0-1,-2 0 0,1 0 1,0 0-1,1-5 1,-1 1 11,-1 0 1,0 0-1,0 0 0,0-1 1,-1 1-1,0 0 1,-1 0-1,0 0 1,0 0-1,0 0 0,-1 0 1,-1 0-1,1 0 1,-1 0-1,0 1 1,-1 0-1,0-1 1,0 1-1,0 0 0,-1 1 1,0-1-1,-1 1 1,1 0-1,-1 1 1,0-1-1,0 1 0,-10-6 1,15 10-93,0 0-1,0 1 1,0-1-1,0 0 1,1 0 0,-1 1-1,0-1 1,0 1-1,-1-1 1,1 1 0,0-1-1,0 1 1,0 0 0,0-1-1,0 1 1,0 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 0-1,0 1 1,0-1-1,0 0 1,0 0 0,-1 1-1,1-1 1,0 1-1,0-1 1,0 1 0,0-1-1,0 1 1,1 0 0,-1 0-1,-1 0 1,0 3-699,1 0 0,0 0 1,-1 0-1,1 0 0,1 1 1,-1-1-1,0 0 0,1 6 1,0-5 20,-1 25-4821</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3339.27">4658 217 1809,'0'0'14943,"-12"-4"-14015,-33-14-170,47 16 23,14 0-653,19-1-181,9 1 129,-1-1 0,-1-3 0,79-21 0,-119 26-46,-24 1 12,-2 3-100,0 0 0,1 1-1,-1 2 1,1 0 0,-26 11-1,-42 11-84,103-43 173,13-6-20,9 1-56,73-33 0,-45 34-3224,-57 18-219</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4638.23">3549 2426 5234,'0'0'10242,"-3"-9"-9009,-10-31-59,8 32 370,1 10-1189,-1 11-633,5-11 388,-19 63-102,3 1 0,2 1 0,4 0 0,-3 88 0,12-129 67,-1-38 232,0-45-94,2 5-265,2 0 0,11-70 0,-9 104 31,0-1 1,1 0-1,1 1 0,1 0 1,1 1-1,0-1 0,1 2 1,1-1-1,21-27 0,-26 38 1,1 1-1,0 0 0,0 0 0,0 0 0,0 1 0,1 0 0,0 0 0,0 1 0,0-1 0,0 2 0,12-4 0,-17 5 13,0 0 0,0 1-1,0-1 1,0 1 0,1 0-1,-1-1 1,0 1 0,0 0-1,1 0 1,-1 0 0,0 1-1,0-1 1,1 1 0,-1-1-1,0 1 1,0 0 0,0 0 0,0-1-1,0 2 1,0-1 0,0 0-1,0 0 1,0 1 0,-1-1-1,1 1 1,0-1 0,-1 1-1,1 0 1,-1-1 0,0 1 0,1 0-1,-1 0 1,0 0 0,0 0-1,0 0 1,-1 0 0,1 1-1,0-1 1,-1 0 0,1 0-1,-1 4 1,1 5-16,0 1-1,-1-1 0,-1 0 1,1 0-1,-2 0 0,0 0 1,0 0-1,-1 0 1,0-1-1,-1 1 0,0-1 1,0 1-1,-1-2 1,-13 20-1,3-8-371,-1-1 1,-1 0-1,-1-1 1,-1-1-1,-26 19 1,42-34 355,1-1 1,-1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,-1-1-1,1 0 1,0 1 0,-1-1-1,1 0 1,-1-1-1,1 1 1,-1-1 0,1 1-1,-7-1 1,10 0 52,0 0 0,-1 0-1,1 0 1,0-1 0,0 1 0,0 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,0-1 0,0 1 0,-1 0-1,1 0 1,0 0 0,0 0 0,0-1 0,0 1-1,0 0 1,-1 0 0,1 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0-1 0,0 1 0,0 0-1,0 0 1,0-1 0,0 1 0,0 0 0,0 0-1,0-1-4,0 1-1,1-1 1,-1 1-1,0-1 1,1 1-1,-1-1 1,0 1-1,1 0 1,-1-1 0,0 1-1,1 0 1,-1-1-1,0 1 1,1 0-1,-1 0 1,1-1-1,-1 1 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1-1-1,-1 1 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,11 1-7,-1 0 1,0 1-1,0 0 0,0 0 0,0 1 0,0 1 0,-1-1 0,1 2 0,-1 0 0,14 9 0,8 7-194,51 46 0,-41-32-1073,-38-32 449,0 0 1,0 0-1,1-1 0,-1 0 1,0 0-1,1 0 0,-1 0 1,1-1-1,9 2 0,11-1-5273</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4638.22">3549 2426 5234,'0'0'10242,"-3"-9"-9009,-10-31-59,8 32 370,1 10-1189,-1 11-633,5-11 388,-19 63-102,3 1 0,2 1 0,4 0 0,-3 88 0,12-129 67,-1-38 232,0-45-94,2 5-265,2 0 0,11-70 0,-9 104 31,0-1 1,1 0-1,1 1 0,1 0 1,1 1-1,0-1 0,1 2 1,1-1-1,21-27 0,-26 38 1,1 1-1,0 0 0,0 0 0,0 0 0,0 1 0,1 0 0,0 0 0,0 1 0,0-1 0,0 2 0,12-4 0,-17 5 13,0 0 0,0 1-1,0-1 1,0 1 0,1 0-1,-1-1 1,0 1 0,0 0-1,1 0 1,-1 0 0,0 1-1,0-1 1,1 1 0,-1-1-1,0 1 1,0 0 0,0 0 0,0-1-1,0 2 1,0-1 0,0 0-1,0 0 1,0 1 0,-1-1-1,1 1 1,0-1 0,-1 1-1,1 0 1,-1-1 0,0 1 0,1 0-1,-1 0 1,0 0 0,0 0-1,0 0 1,-1 0 0,1 1-1,0-1 1,-1 0 0,1 0-1,-1 4 1,1 5-16,0 1-1,-1-1 0,-1 0 1,1 0-1,-2 0 0,0 0 1,0 0-1,-1 0 1,0-1-1,-1 1 0,0-1 1,0 1-1,-1-2 1,-13 20-1,3-8-371,-1-1 1,-1 0-1,-1-1 1,-1-1-1,-26 19 1,42-34 355,1-1 1,-1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,-1-1-1,1 0 1,0 1 0,-1-1-1,1 0 1,-1-1-1,1 1 1,-1-1 0,1 1-1,-7-1 1,10 0 52,0 0 0,-1 0-1,1 0 1,0-1 0,0 1 0,0 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,0-1 0,0 1 0,-1 0-1,1 0 1,0 0 0,0 0 0,0-1 0,0 1-1,0 0 1,-1 0 0,1 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0-1 0,0 1 0,0 0-1,0 0 1,0-1 0,0 1 0,0 0 0,0 0-1,0-1-4,0 1-1,1-1 1,-1 1-1,0-1 1,1 1-1,-1-1 1,0 1-1,1 0 1,-1-1 0,0 1-1,1 0 1,-1-1-1,0 1 1,1 0-1,-1 0 1,1-1-1,-1 1 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1-1-1,-1 1 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,11 1-7,-1 0 1,0 1-1,0 0 0,0 0 0,0 1 0,0 1 0,-1-1 0,1 2 0,-1 0 0,14 9 0,8 7-194,51 46 0,-41-32-1073,-38-32 449,0 0 1,0 0-1,1-1 0,-1 0 1,0 0-1,1 0 0,-1 0 1,1-1-1,9 2 0,11-1-5273</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4945.7">3934 2614 608,'0'0'4997,"-1"-19"-1713,-4-57-293,5 73-2701,0 1-1,0-1 1,-1 1 0,1-1-1,-1 0 1,0 1 0,0-1-1,1 1 1,-2-1 0,1 1-1,0 0 1,0-1 0,-3-2-1,3 4-214,1 1-1,-1 0 1,1-1-1,-1 1 1,0 0-1,1-1 1,-1 1-1,0 0 0,1 0 1,-1 0-1,0 0 1,1-1-1,-1 1 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 1-1,1-1 1,-1 0-1,0 0 1,1 0-1,-1 1 0,0-1 1,1 0-1,-1 0 1,1 1-1,-1-1 1,0 1-1,-3 2-18,0 1-1,0-1 0,1 1 1,-1 0-1,1 0 0,0 0 1,1 0-1,-5 7 0,2 4-47,0 0 0,1 1-1,0 0 1,1 0 0,1 0-1,1 0 1,0 32 0,1-45-8,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 1,1 0-1,0-1 0,0 1 0,0 0 0,0-1 1,1 1-1,-1-1 0,1 0 0,-1 1 0,1-1 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,1-1 1,-1 1-1,0-1 0,1 0 0,-1 1 0,1-1 0,0 0 1,-1-1-1,1 1 0,0 0 0,0-1 0,-1 0 1,1 1-1,0-1 0,3-1 0,1 2 11,-1-1-1,1-1 1,0 1-1,-1-1 1,1 0 0,-1-1-1,0 0 1,1 0-1,-1 0 1,0-1 0,0 0-1,0 0 1,-1 0-1,11-8 1,-11 6 11,0 0 1,-1-1-1,0 1 0,0-1 0,0 1 1,-1-1-1,1 0 0,-1-1 0,-1 1 1,1-1-1,-1 1 0,0-1 1,-1 0-1,0 1 0,0-1 0,0 0 1,-1 0-1,0 0 0,0 0 0,-1-7 1,0 9-14,0 0 0,0-1 1,-1 1-1,0 0 0,0 0 1,0 1-1,0-1 1,-1 0-1,0 1 0,0-1 1,0 1-1,0 0 0,-1 0 1,1 0-1,-1 1 0,0-1 1,0 1-1,-1 0 0,1 0 1,-1 1-1,1-1 1,-1 1-1,0 0 0,0 0 1,0 0-1,-6 0 0,6 0-72,0 1 1,-1 0-1,1 0 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 1 0,0 0 0,-10 3 1,12-3-181,0 1 1,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,1 0-1,-1 1 1,0 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 4-1,-1 20-4700,2-3-2300</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5455.72">4211 2505 6563,'0'0'9292,"0"12"-8942,-1 39-270,-1-4 61,6 77 1,-4-123-144,0 0 1,1 0 0,-1 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,1 0-1,0 0 1,-1 0 0,1 0-1,-1 0 1,1-1 0,0 1 0,0 0-1,-1 0 1,1-1 0,0 1 0,0 0-1,0-1 1,0 1 0,0-1 0,0 1-1,0-1 1,0 1 0,0-1 0,0 0-1,0 0 1,0 1 0,0-1-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0-1 0,2 1-1,0-1 7,0 0 0,0 1 0,1-1-1,-1-1 1,0 1 0,0 0 0,0-1 0,0 0-1,0 1 1,-1-1 0,5-4 0,6-9 21,-2 0 0,0 0 1,-1-1-1,0-1 1,-1 0-1,-1 0 1,-1 0-1,0-1 1,-1 0-1,4-24 0,-11 55 93,1-1-1,0 1 1,0-1-1,2 0 0,-1 1 1,2-1-1,5 18 1,-7-25-120,1 0 1,0 0-1,0 1 1,0-1-1,1 0 1,0-1-1,0 1 1,0-1-1,0 1 0,1-1 1,-1 0-1,1 0 1,0 0-1,1-1 1,-1 1-1,0-1 1,1 0-1,0-1 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0-1 1,7 1-1,-8-1 9,-1-1-1,0 1 1,0-1-1,0 0 1,0 0-1,1-1 1,-1 1-1,0-1 1,0 0-1,0 1 1,0-1 0,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,-1-1 1,1 0-1,-1 0 1,4-3-1,-3 1 23,0 0 0,-1 1 0,0-1 0,0 0 0,0 0 1,0 0-1,0-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,0-1 0,-1-5 0,1 1 25,-1 1 1,-1 0 0,1-1 0,-1 1-1,-1 0 1,1 0 0,-2 0-1,1 0 1,-1 0 0,0 0 0,0 0-1,-1 1 1,0 0 0,-1 0-1,-10-13 1,13 17-126,0 1 0,-1 0 0,1-1 1,-1 1-1,0 0 0,0 0 0,1 1 0,-1-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,0 0 0,-1 0 1,-5 0-1,7 1-175,1 1 1,-1-1 0,1 1-1,-1 0 1,1-1-1,-1 1 1,1 0 0,-1 0-1,1 0 1,0 0 0,0 0-1,0 0 1,-1 0-1,1 1 1,0-1 0,0 0-1,1 1 1,-1-1 0,0 0-1,0 1 1,1-1-1,-1 1 1,0 0 0,1-1-1,0 1 1,-1-1 0,1 1-1,0 0 1,0-1-1,0 1 1,0 0 0,0 2-1,-1 24-4864</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5747.34">4843 2645 8100,'0'0'9972,"-11"-4"-9339,-31-11-244,42 15-385,0 0 1,-1 0-1,1 0 0,0 0 0,0 0 1,-1 0-1,1 1 0,0-1 1,0 0-1,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,-1-1 1,1 1-1,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,1-1 1,0 1-1,0 0 0,0 0 0,0 0 1,-1 0-1,1-1 0,0 1 1,0 0-1,0 0 0,0 0 0,0-1 1,0 1-1,0 0 0,0 0 0,0 0 1,0-1-1,-1 1 0,1 0 1,0 0-1,0 0 0,0-1 0,0 1 1,0 0-1,1 0 0,-1-1 0,0 1 1,0 0-1,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 1,0 0-1,0-1 0,1 1 0,-1 0 1,12-4-24,-11 3 43,51-11-10,0 2 0,1 2 0,82-2 0,-71 9-3902,0 0-4016</inkml:trace>
@@ -12814,7 +12396,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1439.93">9 620 4130,'0'0'6024,"-9"5"-2598,14-3-3261,0 0 1,-1 0 0,1-1-1,0 0 1,0 0-1,0 0 1,0-1 0,9 1-1,-3-1 97,48 3 83,0-3-1,0-3 0,-1-2 0,62-14 0,-111 19-6912</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3369.27">1945 88 1649,'0'0'6051,"-8"-3"-5056,-12-3 200,0 0 0,0 1 0,-1 1 1,-37-3-1,37 8-1144,1 1 1,0 1 0,0 0 0,-36 12 0,-79 37 125,60-22-93,-486 153 740,388-148-694,7-2 7,105-19-117,40-11 16,1 1 1,1 2 0,-1 0 0,1 0-1,-22 12 1,111-15 198,36-7-175,0-5 1,170-36-1,-183 29 2,135-7 0,94 18-58,-270 5 7,-26 4 7,-19-3 130,-21-11-180,5 3 55,0 0 1,-1 1 0,0 1 0,0-1-1,0 2 1,0-1 0,-1 2 0,1-1-1,-1 1 1,-15-1 0,25 4 88,5-1-386,-1 0 269,1 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 1 0,0 0 0,0 0 0,5 3 0,-5-3-1,1 1-1,-1-1 1,0 1 0,0-1 0,0 1-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 1 0,0-1-1,0 1 1,0 0 0,-1-1-1,1 1 1,-1 0 0,0 0-1,1 5 1,-2-4 14,-1-1 1,1 1-1,-1-1 0,0 1 0,0-1 0,0 0 1,0 1-1,-1-1 0,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,1 0 0,-1-1 1,-5 5-1,-4 3 40,0-1 1,0 0-1,-21 11 0,19-13-585,1 1 1,0 0-1,-13 13 0,36-22-7675</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6356.51">1804 77 1169,'0'0'8603,"-5"0"-7421,-124-11 2868,102 10-3979,13 0 1,1 1-1,0 0 1,-1 0 0,1 1-1,0 1 1,0 1 0,0 0-1,0 0 1,0 1 0,-13 7-1,0 2-44,-1-2 1,-36 11-1,9-3 43,0 14-45,5-3 6,34-20-9,0 0-1,0 0 0,1 1 1,1 1-1,-12 14 0,14-16 17,-25 24 21,0 0 164,-49 59-1,53-56-97,-2-2 0,-1-1 0,-45 32 0,7-5 146,45-33-249,23-22-21,-1 0 0,0 0 0,0 0 0,0-1 1,-1 0-1,1 0 0,-1-1 0,-8 4 0,-70 35 159,48-23-104,36-18-21,1-2 346,34 0-383,164-22 130,98-4-742,110 26 441,-372 6 146,-33-6 323,-41 0-248,23-1-31,0-1 0,0 0 0,0-2-1,-28-8 1,41 11-15,-5 0 78,8 1-131,18 4-288,28 12 372,-29-12-28,0 2 0,0 0 1,0 1-1,-1 0 0,19 13 0,-33-19-1,0 0-1,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,0 0 1,1 1-1,-1-1 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 0,0 1 1,-1-1-1,1 0 1,0 0-1,-1 0 1,1 0-1,-2 3 1,0-1 25,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,-3 1 0,-4 2-13,0 0 1,0-1 0,0 0 0,-11 3 0,8-5-3644,1-2-3763</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8832.38">1381 111 1665,'0'0'4845,"-33"9"1123,23-2-5691,0 0 0,0 1 0,1 1 0,1-1 0,-11 14 0,9-11-4,0 0-1,0-1 1,-18 14 0,15-14-208,1 1 0,0 0-1,0 1 1,1 0 0,1 1 0,-14 21 0,-46 91 440,68-121-466,-39 53 731,32-46-681,1 0 1,0 0-1,0 1 0,-6 14 0,-83 147 680,22 14-409,54-142-85,-3 0-1,-1-2 1,-2-1 0,-34 41 0,-83 77 506,143-160-786,0 1-1,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 0,0 0 1,-1 1-1,1-1 1,0 0-1,0 2 0,1-3 1,-1 1 0,1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0-1-1,1 1 1,247-20-29,-227 21 29,-1 1 0,27 6-1,-26-3 28,0-2-1,27 1 0,4-3-24,-30 0 18,0 0 0,0-2-1,-1-1 1,1 0-1,26-8 1,-34 7-14,-1 1-1,1 0 1,-1 1 0,29 1-1,-17 0 90,-26 0-80,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1-1-1,0 1 1,1 0 0,-1-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-2 0,-9-17 95,-25-15-170,-19-2 100,32 23-136,18 13-131,8 3-177,24 16 362,43 31-42,-67-46 77,0 0 0,-1 1 0,1-1 1,-1 1-1,0 0 0,0 0 0,-1 0 0,0 1 1,0-1-1,0 1 0,3 7 0,-6-9 23,1 0 1,-1 0-1,1 0 0,-1 0 0,0-1 1,0 1-1,-1 0 0,1 0 0,-1 0 1,0 0-1,0-1 0,0 1 0,-1 0 0,1-1 1,-1 1-1,0-1 0,1 0 0,-2 1 1,1-1-1,0 0 0,-5 4 0,3-2-20,-1 0 0,0-1-1,0 0 1,0 0-1,0 0 1,0-1 0,-1 0-1,0 0 1,0 0 0,0 0-1,0-1 1,-7 1 0,9-3-1279,3-8-7540,2 5 8456,8-14-5081</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8832.37">1381 111 1665,'0'0'4845,"-33"9"1123,23-2-5691,0 0 0,0 1 0,1 1 0,1-1 0,-11 14 0,9-11-4,0 0-1,0-1 1,-18 14 0,15-14-208,1 1 0,0 0-1,0 1 1,1 0 0,1 1 0,-14 21 0,-46 91 440,68-121-466,-39 53 731,32-46-681,1 0 1,0 0-1,0 1 0,-6 14 0,-83 147 680,22 14-409,54-142-85,-3 0-1,-1-2 1,-2-1 0,-34 41 0,-83 77 506,143-160-786,0 1-1,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 0,0 0 1,-1 1-1,1-1 1,0 0-1,0 2 0,1-3 1,-1 1 0,1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0-1-1,1 1 1,247-20-29,-227 21 29,-1 1 0,27 6-1,-26-3 28,0-2-1,27 1 0,4-3-24,-30 0 18,0 0 0,0-2-1,-1-1 1,1 0-1,26-8 1,-34 7-14,-1 1-1,1 0 1,-1 1 0,29 1-1,-17 0 90,-26 0-80,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1-1-1,0 1 1,1 0 0,-1-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-2 0,-9-17 95,-25-15-170,-19-2 100,32 23-136,18 13-131,8 3-177,24 16 362,43 31-42,-67-46 77,0 0 0,-1 1 0,1-1 1,-1 1-1,0 0 0,0 0 0,-1 0 0,0 1 1,0-1-1,0 1 0,3 7 0,-6-9 23,1 0 1,-1 0-1,1 0 0,-1 0 0,0-1 1,0 1-1,-1 0 0,1 0 0,-1 0 1,0 0-1,0-1 0,0 1 0,-1 0 0,1-1 1,-1 1-1,0-1 0,1 0 0,-2 1 1,1-1-1,0 0 0,-5 4 0,3-2-20,-1 0 0,0-1-1,0 0 1,0 0-1,0 0 1,0-1 0,-1 0-1,0 0 1,0 0 0,0 0-1,0-1 1,-7 1 0,9-3-1279,3-8-7540,2 5 8456,8-14-5081</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11500.51">1153 277 1777,'0'0'5130,"-39"-4"-3524,31 9-1415,1 1 0,0 0-1,0 0 1,1 1 0,-1 0 0,1 0-1,1 0 1,0 1 0,0 0-1,0 0 1,-7 17 0,-1 9 563,-16 57-1,29-89-723,-31 150 1498,4-13 268,-33 122-609,55-242-1024,-2 0-1,0 0 0,-1-1 0,-1 0 1,-14 23-1,9-19-64,2 1 0,-14 37 0,9-12 33,-45 154 375,46-148-251,-3-1-1,-1 0 0,-45 80 1,38-78-104,19-37-137,2-1 0,0 1 0,-4 19-1,-5 18 49,11-47 77,2-12 182,3 3-312,-1-1 0,1 0 1,-1 1-1,1-1 1,-1 1-1,1-1 0,0 1 1,-1-1-1,1 1 1,0-1-1,0 1 0,3-3 1,8-7 9,2 0 1,-1 1 0,1 1-1,1 0 1,-1 1-1,2 1 1,-1 0 0,1 1-1,0 1 1,0 0 0,28-4-1,14 2-9,0 2 1,60 4-1,-78 1-7,-9 2 2,-1 2-1,1 0 1,43 13-1,-45-9 62,2-1-1,-1-2 1,46 2-1,-75-7 354,-2-2-426,0-1-1,0 0 1,0 1 0,0-1-1,0 1 1,0-1-1,-1 1 1,1 0-1,-1 0 1,1-1 0,-1 1-1,0 0 1,-3-2-1,-32-28-388,31 26 363,-79-47 115,124 61-599,14 10 473,-38-14-83,0 1 1,-1 0-1,1 1 0,-1 1 0,0 0 0,19 13 1,-32-19 119,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,0 1 1,1 0-1,-1-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,-1 0 0,1-1 0,-1 1 0,0 1 1,-19 34 303,-5-9-162,-3-1 0,-50 39 1,70-62-162</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="89361.13">3044 396 448,'0'0'4247,"2"-4"-3910,-2 3-262,1 1 1,0-1 0,-1 0-1,1 0 1,-1 0 0,0 0-1,1 0 1,-1 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,-1-1-1,-13 9 3775,-11 19-697,13-11-4472,-7 16 1640,-1-1-1,-1-1 1,-2-1-1,-1 0 1,-42 35-1,20-24-91,-2-3 0,-80 46-1,98-65-162,-78 46 56,-120 50 0,164-80-122,48-24-15,-1 0 0,-32 11 0,44-15 11,4-5 5,1 1 0,-1-1-1,0 1 1,1-1 0,-1 1-1,1-1 1,-1 1 0,0-1-1,1 0 1,-1 1 0,1-1-1,-1 0 1,0 1 0,0-1-1,1 0 1,-1 0 0,0 0-1,0 0 1,1 0 0,-2 0-1,1 0 46,25 0-70,2-1 34,-1-2-1,34-7 1,22-4 6,-33 10 15,0-2-1,0-2 1,52-17 0,72-21 6,-161 43-34,0 1-1,1 0 1,-1 0 0,0 1-1,16 1 1,-27 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,1 1 0,-1-1 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 1,1 0-1,-1 0 0,0-1 0,1 1 0,-1 0 1,1 0-1,-1-1 0,1 1 0,-1 0 0,0-1 1,1 1-1,-1 0 0,0-1 0,1 1 0,-1-1 1,0 1-1,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 1,0-1-1,0 1 0,0-1 0,0 1 0,0-1 1,0 1-1,1-1 0,-2 1 0,1-1 0,0 1 1,0-1-1,0 1 0,0-1 0,0 1 0,0-1 1,0 1-1,-1-1 0,1 1 0,0-1 0,-1 0 0,-18-18 126,3 14-143,25 6-183,27 11-43,-35-11 226,0 0 0,0-1-1,0 1 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 1 0,-1-1-1,1 0 1,0 0 0,-1 0-1,1 1 1,-1-1 0,1 0-1,-1 1 1,0-1 0,0 0 0,1 1-1,-1-1 1,0 1 0,0-1-1,0 0 1,0 1 0,-1-1-1,1 3 1,-2-1 11,0 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,0 0 0,-1-1-1,1 1 1,-1-1 0,1 1-1,-5 1 1,-3 4-32,0-2-1,-1 0 1,1 0-1,-1-1 1,-23 8-1,22-12-1031</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="91291.3">3046 907 1697,'0'0'5215,"-7"0"-4750,4-1-467,-1 1 99,-1 0 0,1-1 0,-1 2 0,1-1 0,-1 0 0,1 1-1,-1 0 1,1 0 0,0 0 0,-1 1 0,1-1 0,0 1-1,0 0 1,-4 3 0,-28 22 81,1 1-1,-35 38 1,45-40 41,-1-2 0,-1-1 0,-1-1 0,-51 31-1,-275 105 2134,281-128-1785,-48 11-39,110-36-272,19-5-315,9-1 81,5 1 23,61 0 61,145-17-1,-153 5-98,128-5 0,-196 17-23,0-1 0,0 0 0,-1 0 1,1-1-1,0 0 0,-1 0 1,0-1-1,10-5 0,-12 6 27,-3-1 0,-1 3 26,0-1-40,0 0 0,0 1 0,0-1 0,0 0 0,0 0 1,0 1-1,0-1 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,-1 1 1,1-1-1,0 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,0-1 0,-1 1 0,1-1 1,-1 1-1,0-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,0 0 1,1 0-1,-1 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,-1 0 0,-31-5-243,31 5 232,-63-5 182,99 3-704,-30 4 533,1 0-1,0 0 0,-1 0 1,0 1-1,1-1 1,-1 1-1,0 0 1,0 0-1,0 1 0,-1-1 1,1 1-1,-1 0 1,0 0-1,5 8 1,-7-10 3,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 1,0 1-1,1-1 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 1,0 0-1,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 1,0 0-1,0 1 0,0-1 0,0 0 0,0-1 0,0 1 0,-1 0 1,1 0-1,-1 0 0,1-1 0,-1 1 0,0-1 0,1 1 1,-1-1-1,0 0 0,0 0 0,-2 2 0,-11 8-166,-15 11-237,12-16-4793,13-6 348</inkml:trace>
@@ -12961,9 +12543,9 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">184 383 4978,'0'0'8972,"11"0"-4756,47 0-4206,-13 0 179,46-7-1,-25-7-1604,-5-13-4708</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="307.42">239 470 5250,'0'0'8474,"0"1"-8393,1 0-1,-1-1 1,0 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,1-1-1,0 1 1,-1-1 0,1 0 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 0 0,1 0-1,0 1 1,-1-1 0,1 0 0,0 0 0,1 0 0,39 1 196,1-3 0,-1-1 0,0-2 0,44-11 0,-56 9-674,9-1-1276,-15 5-3031,-16 3-403</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="307.41">239 470 5250,'0'0'8474,"0"1"-8393,1 0-1,-1-1 1,0 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,1-1-1,0 1 1,-1-1 0,1 0 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 0 0,1 0-1,0 1 1,-1-1 0,1 0 0,0 0 0,1 0 0,39 1 196,1-3 0,-1-1 0,0-2 0,44-11 0,-56 9-674,9-1-1276,-15 5-3031,-16 3-403</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="988.75">839 231 5715,'0'0'9809,"0"-1"-9747,0 0-1,0 0 1,0 0-1,1 0 1,-1 0 0,0 1-1,0-1 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,-1 1-1,0-2 1,-2 3-60,-1 0 0,0 0 0,1 1-1,-1-1 1,1 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-5 7 0,-34 60 61,35-58-37,0 1 0,2 0 0,-1 0 0,1 0 0,1 1 0,0 0 0,1-1 0,1 1 0,0 0 0,0 0 0,3 25 0,-1-37-28,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,1 0 0,67-3-146,-64 2 96,-3 1 53,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,0-1 1,-1 1-1,1-1 0,0 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,0-1 0,-1 0 1,1 0-1,0 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,-1-1 0,1 0 0,0 0 0,-1 1 1,0-1-1,0 0 0,0 0 0,0 0 0,0-6 0,-7-2-1071,10 9-597,8 0 1731,18-5-546,0 0 1,1 2-1,57-3 1,-88 9 505,1 1-1,0-1 1,0 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1-1,-1 1 1,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,1 32 661,-1-28-466,0 8-205,0 0 0,-1 0 0,0 0 0,-1 0 0,-1 0 0,0-1 0,-1 1 0,0-1 0,-1 0 0,-10 19 0,10-14-4778,5-12 548</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1404.18">1297 277 1857,'0'0'10522,"0"-5"-7816,0 7-663,-3 48-1779,-2-1 1,-3 0 0,-1 0-1,-19 56 1,24-89-980,1 0 0,0 0 0,-2 24 0,11-38-5164,-5-2 4667,16 0-3974</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1404.17">1297 277 1857,'0'0'10522,"0"-5"-7816,0 7-663,-3 48-1779,-2-1 1,-3 0 0,-1 0-1,-19 56 1,24-89-980,1 0 0,0 0 0,-2 24 0,11-38-5164,-5-2 4667,16 0-3974</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1792.25">1521 296 4690,'0'0'8737,"-4"-4"-8246,2 2-458,1 0-1,-1 1 1,0-1-1,0 1 1,1-1-1,-1 1 1,0-1-1,0 1 1,-1 0-1,1 0 1,-4-1-1,5 2-31,0 0 1,0 0-1,0 1 0,0-1 0,0 0 1,0 1-1,0-1 0,0 0 1,0 1-1,0-1 0,0 1 1,1 0-1,-1-1 0,0 1 0,0 0 1,1-1-1,-1 1 0,0 0 1,1 0-1,-1 0 0,0 0 0,1 0 1,0 0-1,-1 0 0,1 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 0 1,0 0-1,0 0 0,0 0 1,1 2-1,-2 2-2,0-1 0,1 2 0,0-1 0,0 0 0,1 0 1,-1 0-1,1-1 0,0 1 0,0 0 0,0 0 0,1 0 0,0-1 0,0 1 0,0-1 0,0 1 1,1-1-1,-1 0 0,6 6 0,3 2 12,1 1 1,1-2 0,27 20-1,-18-15-35,-21-15 39,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 1,-1 1-1,0-1 0,1 0 0,-1 1 1,0-1-1,0 1 0,0-1 0,0 1 0,0-1 1,-1 1-1,1 0 0,0 0 0,-1-1 1,1 1-1,-1 0 0,0 0 0,1 0 1,-1 0-1,0-1 0,0 1 0,0 0 0,0 0 1,-1 2-1,0-1 26,0-1 0,-1 0 0,1 0 0,0 1 1,-1-1-1,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 1,-1-1-1,1 0 0,0 0 0,-3 1 0,-44 15-561,16-17-4872,22-5-333</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1975.26">1529 262 6739,'0'0'8804,"87"-41"-8756,-63 41-48,1 0-224,-1 0-1105,0 0-1248,5 3-464,-5 3-881,5 0-480</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2410.39">1879 236 3922,'0'0'12248,"-11"-8"-11352,-38-23-306,47 30-575,0 0 1,-1 0-1,1 1 0,-1-1 1,1 0-1,-1 1 1,1 0-1,-1-1 0,1 1 1,-1 0-1,1 1 0,-1-1 1,1 0-1,-1 1 0,1-1 1,-1 1-1,1 0 0,-1 0 1,1 0-1,0 0 0,-1 0 1,1 0-1,0 1 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 0,1 0 1,-3 3-1,-1 1-15,1 0 1,0 0-1,0 1 1,0-1-1,1 1 1,0 0-1,1-1 1,-4 12-1,5-13-17,0-1 0,1 1 0,-1-1 0,1 1-1,-1-1 1,2 1 0,-1-1 0,0 1 0,1-1 0,1 9-1,-1-12-23,0 1 0,0 0 0,0-1-1,0 1 1,0-1 0,0 0-1,0 1 1,0-1 0,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0 0,1 0-1,-1 0 1,1-1 0,-1 1-1,1 0 1,-1-1 0,1 1 0,0-1-1,-1 0 1,1 1 0,0-1 0,0 0-1,-1 0 1,3-1 0,2 1-7,-1 0 0,1 0 1,-1-1-1,1 0 0,-1 0 1,0 0-1,1-1 0,-1 0 1,0 0-1,0 0 0,0-1 1,0 1-1,-1-1 1,1-1-1,-1 1 0,1-1 1,-1 1-1,0-1 0,-1 0 1,1-1-1,-1 1 0,1-1 1,-1 0-1,0 0 0,-1 0 1,1 0-1,-1 0 0,2-8 1,-2 7 105,-2 4-21,0 1 0,0-1 0,1 0 0,-1 0 1,1 1-1,-1-1 0,1 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,1 0 0,-1 0 0,3-2 0,6 24-461,-5-6 417,-1 1-1,0-1 1,-1 1 0,-1 0-1,2 27 1,-7 82 182,2-119-115,0 1 1,0-1 0,0 0 0,-1 1-1,0-1 1,0 0 0,-1 0 0,1 0-1,-1-1 1,0 1 0,-1-1-1,-3 6 1,4-8-7,0 0-1,0 1 1,0-1 0,0 0-1,0-1 1,-1 1 0,1-1-1,-1 1 1,1-1 0,-1 0-1,0-1 1,0 1 0,0-1-1,0 0 1,0 1 0,0-2-1,0 1 1,-6 0-1,9-2-158,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,1-1 0,6-28-4284,14-1-1739</inkml:trace>
@@ -12984,7 +12566,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8841.29">2397 1011 2577,'0'0'11880,"-8"-1"-11055,-15-5-397,28 3 34,49 4 210,-19-1-676,56-4-421,-53-4-4441,-37 5 1537,-1-5-825</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9195.61">2464 839 4338,'0'0'11717,"-4"5"-11372,-2 3-187,1 0 1,0 0-1,0 1 1,0-1 0,2 1-1,-1 0 1,1 1 0,0-1-1,1 0 1,-1 1-1,0 17 1,-1 19-504,1 54 0,3-91 36,1-8 32,0-1 1,0 1 0,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,1 0 1,-1 0 0,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 0 1,1 0 0,-1-1-1,0 1 1,0 0-1,0 0 1,0-1-1,0 1 1,0-1 0,0 1-1,1-2 1,3-2-295,0-1 1,-1 0-1,0 0 1,0-1-1,0 1 1,0-1-1,-1 0 1,0 0-1,0 0 0,-1-1 1,0 1-1,0-1 1,2-12-1,4-39 1273,-7 4 5877,-7 49-1207,-8 8-4241,-8 6-1408,6 3 271,2 1-1,-1 1 1,2 1-1,-1 0 1,-12 21-1,2-6-378,-23 23-5023,31-39-1195</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9403.78">2281 839 1313,'0'0'14806,"48"40"-14373,-24-8 239,5-3-400,-5 0-208,5 0-64,-9-1-112,9-5-1057,5 0-1504,4-11-3137</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9946.3">3089 951 12086,'0'0'7499,"-4"10"-7419,-6 23 242,1 1 0,-6 43-1,9-10-2252,7-66 1665,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 1,-1 0-1,1 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 1 0,0-2 0,2-2-34,-1 1-1,0-1 1,0 0 0,0 0 0,0 0 0,-1 0 0,0 0-1,0 0 1,0 0 0,0-1 0,0 1 0,-1-6 0,2-61 2459,-3 51-827,1-115 8827,0 135-10129,1-1 1,-1 0-1,0 0 0,0 0 0,0 0 1,0 1-1,1-1 0,-1 0 0,0 0 1,1 0-1,-1 1 0,1-1 0,-1 0 1,1 1-1,-1-1 0,1 0 0,-1 1 1,1-1-1,0 0 0,-1 1 0,1-1 1,0 1-1,-1 0 0,1-1 0,0 1 0,0-1 1,-1 1-1,1 0 0,0 0 0,0 0 1,0-1-1,-1 1 0,1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,-1 0 1,1 1-1,0-1 0,0 0 0,0 0 1,-1 1-1,1-1 0,0 0 0,1 1 1,2 1-58,1-1 0,-1 1 1,1 0-1,-1 0 1,1 0-1,6 6 0,-2 0 26,-2 1 0,1 0 0,-1 0 0,0 0-1,0 1 1,-1 0 0,-1 1 0,0-1 0,0 1 0,-1 0-1,0 0 1,0 1 0,-2-1 0,1 1 0,-1 0-1,-1-1 1,0 19 0,-1-28 21,-1 1-1,0 0 1,1-1-1,-1 1 1,0-1-1,-1 0 1,1 1 0,0-1-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,0 0 0,0 0-1,0-1 1,0 1-1,0-1 1,0 0-1,-1 1 1,1-1-1,0 0 1,-1 0 0,1 0-1,0-1 1,-5 2-1,-7 2 153,-1-1 0,1 0 1,-19 1-1,-74-3-733,106-1 464,1 0-1,-1 0 1,0 0-1,1 0 0,-1 0 1,1-1-1,-1 1 1,0 0-1,1 0 0,-1-1 1,1 1-1,-1 0 1,1 0-1,-1-1 0,1 1 1,-1-1-1,1 1 1,-1 0-1,1-1 0,-1 1 1,1-1-1,-1 1 1,1-1-1,0 0 0,-1 1 1,1-1-1,0 1 1,0-1-1,-1 0 0,1 1 1,0-1-1,0 1 1,0-1-1,0-1 0,3-27-7301,9 1-1048</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9946.29">3089 951 12086,'0'0'7499,"-4"10"-7419,-6 23 242,1 1 0,-6 43-1,9-10-2252,7-66 1665,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 1,-1 0-1,1 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 1 0,0-2 0,2-2-34,-1 1-1,0-1 1,0 0 0,0 0 0,0 0 0,-1 0 0,0 0-1,0 0 1,0 0 0,0-1 0,0 1 0,-1-6 0,2-61 2459,-3 51-827,1-115 8827,0 135-10129,1-1 1,-1 0-1,0 0 0,0 0 0,0 0 1,0 1-1,1-1 0,-1 0 0,0 0 1,1 0-1,-1 1 0,1-1 0,-1 0 1,1 1-1,-1-1 0,1 0 0,-1 1 1,1-1-1,0 0 0,-1 1 0,1-1 1,0 1-1,-1 0 0,1-1 0,0 1 0,0-1 1,-1 1-1,1 0 0,0 0 0,0 0 1,0-1-1,-1 1 0,1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,-1 0 1,1 1-1,0-1 0,0 0 0,0 0 1,-1 1-1,1-1 0,0 0 0,1 1 1,2 1-58,1-1 0,-1 1 1,1 0-1,-1 0 1,1 0-1,6 6 0,-2 0 26,-2 1 0,1 0 0,-1 0 0,0 0-1,0 1 1,-1 0 0,-1 1 0,0-1 0,0 1 0,-1 0-1,0 0 1,0 1 0,-2-1 0,1 1 0,-1 0-1,-1-1 1,0 19 0,-1-28 21,-1 1-1,0 0 1,1-1-1,-1 1 1,0-1-1,-1 0 1,1 1 0,0-1-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,0 0 0,0 0-1,0-1 1,0 1-1,0-1 1,0 0-1,-1 1 1,1-1-1,0 0 1,-1 0 0,1 0-1,0-1 1,-5 2-1,-7 2 153,-1-1 0,1 0 1,-19 1-1,-74-3-733,106-1 464,1 0-1,-1 0 1,0 0-1,1 0 0,-1 0 1,1-1-1,-1 1 1,0 0-1,1 0 0,-1-1 1,1 1-1,-1 0 1,1 0-1,-1-1 0,1 1 1,-1-1-1,1 1 1,-1 0-1,1-1 0,-1 1 1,1-1-1,-1 1 1,1-1-1,0 0 0,-1 1 1,1-1-1,0 1 1,0-1-1,-1 0 0,1 1 1,0-1-1,0 1 1,0-1-1,0-1 0,3-27-7301,9 1-1048</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10192.39">3300 839 9780,'0'0'9173,"0"63"-8981,0-19 304,0-1-368,0 0-32,0-3-48,-10-5-48,5-9-224,5-3-1073,0-9-1312,0-8-1793</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10547.93">3563 810 8388,'0'0'7923,"-6"9"-7461,-7 14-124,0 0-1,2 1 1,-14 40-1,21-52-348,1 0 1,0 0-1,0 1 0,1 0 1,1-1-1,0 1 0,0 0 1,1 0-1,1-1 0,3 22 1,-3-32-31,0 0 1,0 0 0,0 0-1,0-1 1,0 1-1,0 0 1,1 0 0,-1-1-1,0 1 1,1-1 0,-1 1-1,1-1 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0-1 1,0 1-1,0-1 1,0 0 0,0 0-1,0 1 1,0-1 0,0 0-1,3-1 1,0 1-40,-1 0 0,1-1 0,0 0 1,-1 1-1,1-2 0,-1 1 0,1 0 0,-1-1 0,1 0 0,-1 0 0,0 0 0,5-4 1,-4 1 205,0 0 0,0 0 0,-1 0 0,1 0 0,-1-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0-1 0,-1 0 0,1 1 0,-1-1 0,-1 0 0,1 0 0,-1 0 1,0 0-1,-1 0 0,1-9 0,-2 15-84,1 0 1,0 0 0,-1 0 0,0-1-1,1 1 1,-1 0 0,1 0 0,-1 0-1,0 0 1,0 0 0,1 0-1,-1 0 1,0 1 0,0-1 0,0 0-1,0 0 1,0 1 0,0-1 0,0 1-1,0-1 1,-1 1 0,1-1 0,0 1-1,0 0 1,0-1 0,0 1-1,-1 0 1,1 0 0,0 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,-2 1-1,-2-1-139,1 0-1,-1 1 1,1 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 1 0,-5 2 1,5 0-669,-1 1 0,0-1 0,1 1 0,0 0 0,0 0 0,1 0 0,-1 1 0,1 0 0,-3 7 0,0 2-4385</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11341.48">3809 919 5555,'0'0'10455,"5"13"-10170,-4 17 118,0 0-1,-2 0 1,0 0-1,-3 0 1,0 0-1,-11 39 1,11-49-325,1 2 1,1-1 0,0 36 0,2-56-274,0-16-2791,0-5-1485,0 0-3207</inkml:trace>
@@ -12995,15 +12577,15 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13979.84">1132 1486 7571,'0'0'9544,"0"-17"-8037,0 220 690,0-67-7081,1-125 941</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14461.11">1400 1417 6819,'0'0'9783,"-10"-6"-9150,-34-19-233,43 24-387,0 1 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 1,0 1-1,0-1 0,0 0 1,0 1-1,0-1 1,0 1-1,0-1 0,0 1 1,0-1-1,1 1 0,-1 0 1,0-1-1,0 1 0,0 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 2-1,-10 31 202,9-25-205,0 0-1,1 0 1,0 0-1,0 0 1,1 0-1,0 0 1,1 0-1,0 0 0,0 0 1,1 0-1,0 0 1,0 0-1,1 0 1,0-1-1,1 0 1,0 1-1,0-1 0,1-1 1,-1 1-1,2-1 1,-1 0-1,1 0 1,10 10-1,4-2-47,-16-13 24,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 1-1,0-1 0,-1 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 1,0 1-1,0-1 0,-1 0 0,3 7 0,-5-8-9,0-1 0,-1 1 0,1-1 0,0 0 1,-1 1-1,1-1 0,0 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,1 1 1,-1 0-1,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,-2 0 1,-44 4-663,47-4 656,-1 1-109,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1-1,0-1 1,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,1-1 0,-1 1-1,1-1 1,-4-2 0,4 0-58,-1 0-1,1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,1-1 1,-1 1-1,1 0 1,1-7-1,-1-3-146,-1 2 541,1 0 0,0 0 1,1 0-1,1 1 0,5-24 1,-6 31-83,1 1 0,-1 0 0,1-1 0,0 1 0,0 0-1,0 0 1,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,0 1 0,0 0 0,0-1 0,0 2 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1 1 0,1 0 0,6-1 0,24-6 194,18-4-954,-17 8-2941,-11 4-703</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14891.67">1787 1349 7331,'0'0'9997,"-20"2"-9730,-1 0-209,0 1 1,-23 6 0,41-7-41,-1-1 0,0 1-1,0 0 1,0 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,0 1-1,0-1 1,1 0 0,-1 1 0,1 0 0,-1-1 0,1 1 0,1 0 0,-1 0-1,-2 7 1,1 0-14,0 0-1,1 0 1,0 1 0,0-1-1,1 19 1,1-28-47,1-1 1,-1 1 0,0-1-1,1 1 1,-1-1 0,1 1-1,0-1 1,-1 0 0,1 1-1,0-1 1,0 0 0,0 0-1,0 1 1,0-1 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,1-1 0,-1 1-1,0 0 1,0 0 0,1-1-1,-1 1 1,1-1-1,-1 1 1,1-1 0,-1 0-1,1 0 1,-1 0 0,0 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0 0,1-1-1,3 0-75,0 1 1,-1-1-1,1 0 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1-1 0,7-3 0,-3-2 5,0-1 0,-1 0-1,0 0 1,0-1 0,-1 0 0,7-11-1,19-27 315,-32 48-202,-1-1 0,1 1 0,-1 0 0,0 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 1 1,1-1-1,-1 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 1,-1 0-1,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 1 1,0-1-1,0 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 1 1,0-1-1,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 1,6 21-89,-4-4 274,-1-1 0,-1 1-1,-1 0 1,-4 31 0,4-41-11,-2 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,-1-1 1,0 1-1,-1-1 0,1 0 1,-1 0-1,-1-1 0,-5 7 1,5-7-167,0 0-1,-1 0 1,1 0 0,-1-1 0,0 0 0,-1-1 0,1 1-1,-1-2 1,1 1 0,-1-1 0,0 0 0,0-1 0,-1 1-1,-9 0 1,17-3-1942,15-18-9346</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15204.86">2368 1545 3730,'0'0'13617,"-2"0"-12900,17 1-644,0 0 0,0-1 1,21-3-1,10 1-8,-22 3-263,58-5-174,-76 4-238,-1-2 0,0 1 0,0 0-1,0-1 1,0 0 0,-1 0 0,10-6 0,-6-3-3352,-6-3-1029</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15204.85">2368 1545 3730,'0'0'13617,"-2"0"-12900,17 1-644,0 0 0,0-1 1,21-3-1,10 1-8,-22 3-263,58-5-174,-76 4-238,-1-2 0,0 1 0,0 0-1,0-1 1,0 0 0,-1 0 0,10-6 0,-6-3-3352,-6-3-1029</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15402.77">2542 1383 5106,'0'0'10997,"-49"92"-9444,35-49-801,9-2-319,0-4-129,0-8-160,5 0-96,0-3-48,0-9-448,0-6-1009,5-11-1744,10 0-3362</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15714.86">2584 1433 8628,'0'0'6229,"-20"5"-6095,-18 7-262,1 2 0,-46 22 0,40-14-4248,43-65 6255,1 42-1793,-1 0 1,1 1-1,0-1 1,0 0 0,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1 0,0 1-1,0 0 1,0-1-1,0 1 1,0 0 0,1-1-1,-1 1 1,0 0-1,0 0 1,0 0 0,0 0-1,1 0 1,-1 1-1,0-1 1,0 0 0,0 0-1,0 1 1,0-1-1,0 1 1,0-1 0,1 1-1,-1-1 1,-1 1-1,1 0 1,0 0-1,0-1 1,0 1 0,1 2-1,32 34 917,-33-35-1027,21 31 816,20 40 0,-37-63-1694,0 1 0,-1 0 0,-1-1-1,1 1 1,1 12 0,-4-8-5178</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15714.85">2584 1433 8628,'0'0'6229,"-20"5"-6095,-18 7-262,1 2 0,-46 22 0,40-14-4248,43-65 6255,1 42-1793,-1 0 1,1 1-1,0-1 1,0 0 0,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1 0,0 1-1,0 0 1,0-1-1,0 1 1,0 0 0,1-1-1,-1 1 1,0 0-1,0 0 1,0 0 0,0 0-1,1 0 1,-1 1-1,0-1 1,0 0 0,0 0-1,0 1 1,0-1-1,0 1 1,0-1 0,1 1-1,-1-1 1,-1 1-1,1 0 1,0 0-1,0-1 1,0 1 0,1 2-1,32 34 917,-33-35-1027,21 31 816,20 40 0,-37-63-1694,0 1 0,-1 0 0,-1-1-1,1 1 1,1 12 0,-4-8-5178</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16227.07">3379 1412 448,'0'0'16605,"0"-4"-15474,0-12-397,0 13-315,0 20-198,-7 107 949,1-46-3234,4-25-4907</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16524.33">3374 1436 2145,'0'0'3492,"-3"-18"-608,-17-87 2842,19 105-5618,1-1 1,0 0 0,0 1 0,0-1 0,0 1 0,0-1-1,0 0 1,-1 1 0,1-1 0,0 1 0,1-1-1,-1 0 1,0 1 0,0-1 0,0 0 0,0 1 0,0-1-1,1 1 1,-1-1 0,0 1 0,0-1 0,1 1 0,-1-1-1,0 1 1,1-1 0,-1 1 0,1-1 0,-1 1 0,0-1-1,1 1 1,-1 0 0,1-1 0,0 1 0,21 3 477,23 26-892,-18-8 327,-3-3-9,0 2 0,24 26 0,-43-41-14,0 0-1,-1 1 1,0-1-1,0 1 1,0 0 0,0 0-1,-1 1 1,0-1-1,0 1 1,-1 0 0,0-1-1,0 1 1,0 0-1,-1 1 1,1 7 0,-3-13 28,1-1-1,-1 0 1,1 1 0,-1-1 0,0 0 0,1 0-1,-1 1 1,0-1 0,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0-1-1,-1 1 1,1 0 0,0-1 0,0 1 0,-1-1 0,1 1-1,-2-1 1,-42 12 627,33-9-511,-31 5-282,-32 9 713,41-3-3018,9 6-3733</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16524.32">3374 1436 2145,'0'0'3492,"-3"-18"-608,-17-87 2842,19 105-5618,1-1 1,0 0 0,0 1 0,0-1 0,0 1 0,0-1-1,0 0 1,-1 1 0,1-1 0,0 1 0,1-1-1,-1 0 1,0 1 0,0-1 0,0 0 0,0 1 0,0-1-1,1 1 1,-1-1 0,0 1 0,0-1 0,1 1 0,-1-1-1,0 1 1,1-1 0,-1 1 0,1-1 0,-1 1 0,0-1-1,1 1 1,-1 0 0,1-1 0,0 1 0,21 3 477,23 26-892,-18-8 327,-3-3-9,0 2 0,24 26 0,-43-41-14,0 0-1,-1 1 1,0-1-1,0 1 1,0 0 0,0 0-1,-1 1 1,0-1-1,0 1 1,-1 0 0,0-1-1,0 1 1,0 0-1,-1 1 1,1 7 0,-3-13 28,1-1-1,-1 0 1,1 1 0,-1-1 0,0 0 0,1 0-1,-1 1 1,0-1 0,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0-1-1,-1 1 1,1 0 0,0-1 0,0 1 0,-1-1 0,1 1-1,-2-1 1,-42 12 627,33-9-511,-31 5-282,-32 9 713,41-3-3018,9 6-3733</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16797.37">3711 1360 7652,'0'0'7955,"0"121"-7042,0-84-353,0-2-224,0-1-240,0-5-32,0-3-64,0-3-688,0-3-929,10-8-2065,-1-6-2016</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17176.24">3977 1415 3410,'0'0'13435,"-10"4"-12245,2 4-1062,1 0 1,1 1-1,0 0 1,0 0-1,0 0 1,1 1-1,0-1 0,1 1 1,0 1-1,-3 12 1,2-3-125,1 0 1,0 1-1,2-1 1,-1 33-1,4-51-41,-1 0-1,1 0 0,0-1 1,-1 1-1,1 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0-1 1,0 1-1,1-1 0,-1 0 1,1 1-1,-1-1 1,0 0-1,1 0 0,0 0 1,-1 0-1,1 0 1,0 0-1,-1-1 0,1 1 1,0 0-1,0-1 1,0 1-1,-1-1 0,1 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,2-1-1,-1 1 16,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-1-1 1,1 0-1,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,4-5 0,-5 5 102,0-1 0,0 1 0,0 0 0,0-1 0,0 1 1,-1-1-1,1 0 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,-1 1 0,0-1 1,0 1-1,-1-3 0,0 3-27,1 0 1,-1 0-1,0 1 1,0-1 0,0 1-1,0-1 1,-1 1-1,1 0 1,0 0-1,-1 0 1,1 0 0,0 0-1,-1 0 1,1 1-1,-1-1 1,1 1-1,-1 0 1,0 0 0,1 0-1,-4 0 1,1 0-94,-1 0 1,1 0 0,-1 1 0,1-1-1,-1 1 1,1 1 0,-8 2-1,11-3-206,0 0-1,0 0 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,1 3 0,-1 6-5345</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17538.77">4132 1389 6307,'0'0'11547,"16"0"-11473,-12 0-81,6 0 4,0 1 1,-1-1-1,1 1 0,0 1 1,15 4-1,-21-5-4,-1 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1 0 0,0 0 0,0 0 1,0 0-1,-1 1 0,1-1 0,-1 0 0,1 1 0,-1 0 0,0-1 0,0 6 0,1-1 9,-1 0 0,0 0 0,-1 0 0,1 0 0,-2 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,-1 0 0,0-1 0,0 1 0,-7 11 0,5-12 151,-10 15 594,15-21-732,0-1 1,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0-1,0 1 1,0-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 1-1,0-1 1,0 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1-1,0 0 1,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,1 0-1,-1 1 1,0-1 0,1 0 0,-1 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0-1,0 0 1,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,0 0-1,1 0 1,46-4-103,0-1 0,0-3-1,73-22 1,-35 8-1431,-73 19 803,17-4-538,-15-1-5372</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19859.65">595 35 1121,'0'0'18555,"-9"36"-18763,-2 49 220,-47 269 80,31-243 38,-76 197 1,63-186-56,-8 18 45,40-115-108,0 1 0,2 1 0,1 0 0,1-1-1,1 1 1,1 1 0,2 40 0,-6 66 149,-8-74 73,11-50-179,-1 0 0,2 1 0,0 0-1,0 0 1,0 15 0,2-26-28,11 0 9,39 1 128,0-3 1,65-11 0,-180 15 395,51-3-578,0 1 0,-1 0 0,1 1 0,0 1-1,-22 5 1,25-4 8,6-3-1,1 1 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1 0 0,1 0 0,-4 4 0,8-6-42,24 0-737,-10 1 807,1-2 1,0 0 0,-1 0-1,1-2 1,-1 0-1,24-8 1,-29 6-2103,-9-11-7118,-4 4 858</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19859.64">595 35 1121,'0'0'18555,"-9"36"-18763,-2 49 220,-47 269 80,31-243 38,-76 197 1,63-186-56,-8 18 45,40-115-108,0 1 0,2 1 0,1 0 0,1-1-1,1 1 1,1 1 0,2 40 0,-6 66 149,-8-74 73,11-50-179,-1 0 0,2 1 0,0 0-1,0 0 1,0 15 0,2-26-28,11 0 9,39 1 128,0-3 1,65-11 0,-180 15 395,51-3-578,0 1 0,-1 0 0,1 1 0,0 1-1,-22 5 1,25-4 8,6-3-1,1 1 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1 0 0,1 0 0,-4 4 0,8-6-42,24 0-737,-10 1 807,1-2 1,0 0 0,-1 0-1,1-2 1,-1 0-1,24-8 1,-29 6-2103,-9-11-7118,-4 4 858</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20571.36">611 0 896,'0'0'13420,"-6"0"-12265,-20 0-344,20 0 470,22 0-1191,132 0 1711,-155 10-5347,-1 0-3144,-1-9-1311</inkml:trace>
 </inkml:ink>
 </file>
@@ -13037,12 +12619,12 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2064.8">540 239 5282,'0'0'9359,"0"-6"-8177,0-19-64,-3 14 1927,2 11-3013,1-1-1,0 1 1,0 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1-1,0 0 1,0 0 0,0-1 0,0 1 0,0 0 0,0-1-1,0 1 1,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0-1,0-1 1,0 1 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0-1,0-1 1,0 1 0,1 0 0,-1 0 0,0-1 0,0 1-1,1 0 1,-1 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0-1 0,1 1 0,-1 0-1,0 0 1,1 0 0,-1 0 0,1 0 0,55-26-261,2 3 1,113-31-1,-169 54-25,-1-1 1,0 1-1,0-1 0,0 1 0,1 0 0,-1 0 0,0-1 1,0 1-1,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 1,0 1-1,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 1,0 1-1,0 0 0,2 0 0,-3 0 53,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 0,-1-1 0,-1 2 0,-49 46-6244,14-24 2488</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2203.92">527 239 800</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2312.15">540 253 800,'-22'60'1620,"8"-42"12897,26-18-14318,16-3-43,0-2-1,0-1 1,0 0 0,-1-3-1,0 0 1,48-25 0,-4 3-398,-52 25-227,26-11-38,-43 16 244,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1-1,-1 1 1,1-1 0,0 1 0,-1-1 0,1-2 0,-2-4-2253,-7-3-1635</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2604.24">637 11 5122,'0'0'8370,"4"-3"-8242,-2 2-111,0 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 1 1,-1-1-1,1 1 0,-1 0 1,1 0-1,0 0 0,-1 0 1,1 0-1,4 1 0,50 17 202,46 36 79,-95-49-230,1 1 1,-2-1-1,1 1 1,-1 1-1,1-1 1,-2 1 0,1 1-1,-1-1 1,0 1-1,6 11 1,-10-16-10,-1 0 1,1 0-1,-1 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0 0-1,-1-1 1,0 1-1,1 0 1,-1-1-1,-1 1 1,1 0-1,0-1 1,-1 1-1,0-1 1,0 1-1,0 0 1,0-1-1,0 0 1,-1 1-1,1-1 1,-1 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,-3 2-1,-18 16 253,0-2 1,-40 27-1,-23 19-4055,80-59 53</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2604.23">637 11 5122,'0'0'8370,"4"-3"-8242,-2 2-111,0 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 1 1,-1-1-1,1 1 0,-1 0 1,1 0-1,0 0 0,-1 0 1,1 0-1,4 1 0,50 17 202,46 36 79,-95-49-230,1 1 1,-2-1-1,1 1 1,-1 1-1,1-1 1,-2 1 0,1 1-1,-1-1 1,0 1-1,6 11 1,-10-16-10,-1 0 1,1 0-1,-1 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0 0-1,-1-1 1,0 1-1,1 0 1,-1-1-1,-1 1 1,1 0-1,0-1 1,-1 1-1,0-1 1,0 1-1,0 0 1,0-1-1,0 0 1,-1 1-1,1-1 1,-1 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,-3 2-1,-18 16 253,0-2 1,-40 27-1,-23 19-4055,80-59 53</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3052.35">1212 158 5987,'0'0'10154,"0"-2"-7775,0 10-2194,0 378 2354,1-385-2594,-1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,1 1-1,-2 0 1,1-13-8997,1-13 979</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4338.09">1425 136 3009,'0'0'10715,"-5"-11"-10118,-19-34-237,22 42-300,0 1 0,0 0 0,0 0 0,0-1 0,0 2 0,-1-1-1,1 0 1,0 0 0,-1 1 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0-1,0 0 1,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,-4 0-1,2 1-37,-1-1 0,1 0 0,0 1-1,0 0 1,0 1 0,0-1-1,0 1 1,0 0 0,-6 3-1,3 2-7,-1-1 0,1 2-1,0-1 1,1 1-1,0 0 1,0 1-1,1 0 1,0 0-1,0 0 1,1 1 0,0 0-1,1 0 1,0 0-1,1 1 1,-3 11-1,0 3 100,2 1-1,0-1 0,2 1 1,1 0-1,2 36 1,0-55-97,0 0 0,0 0 1,1 0-1,-1 0 1,2-1-1,-1 1 1,1-1-1,0 1 1,0-1-1,1 0 0,-1 0 1,1-1-1,1 1 1,-1-1-1,1 0 1,0 0-1,0 0 1,0-1-1,0 0 0,1 0 1,0 0-1,0-1 1,0 0-1,0 0 1,0 0-1,1-1 1,-1 0-1,1 0 0,-1-1 1,10 1-1,-8-1 5,0 0 0,-1 0 0,1-1 0,0 0 0,0 0 0,-1-1 0,1 0 0,0-1 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 0-1,0-1 1,0 0 0,-1 0 0,1 0 0,-1-1 0,0 0 0,0 0 0,0-1 0,-1 1 0,0-1 0,0-1 0,0 1 0,5-11 0,-8 16-6,-1-1 1,0 0-1,0 1 1,0-1-1,-1 0 1,1 0 0,0 0-1,0 0 1,-1 1-1,1-1 1,-1 0-1,0 0 1,0 0 0,0 0-1,1 0 1,-2 0-1,1 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,0 0-1,1 1 1,-1-1-1,0 0 1,0 1-1,-1-1 1,1 0 0,0 1-1,0-1 1,-3-1-1,-2 0 51,-1-1-1,1 2 1,-1-1-1,0 1 1,0 0-1,0 0 1,-9-1-1,5 1-53,9-2-447,11-1-155,14-3-450,8 0 728,-1 2 0,1 1 0,44-2 0,-73 8 351,-1-1 0,1 0 1,-1 1-1,1-1 1,-1 1-1,1 0 0,-1-1 1,0 1-1,1 0 1,-1 0-1,0 0 0,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 0,-1 1 1,1-1-1,0 0 1,0 1-1,0-1 0,-1 1 1,1-1-1,0 1 1,-1-1-1,0 1 0,1-1 1,-1 1-1,0-1 0,0 1 1,1-1-1,-2 3 1,2 65 1122,-2-50-860,1 48-16,0-39-2899,11-28-3523,2-3 1008</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4587.06">1746 261 3458,'0'0'12098,"0"-5"-11441,3-12-354,2 38 373,2 47 719,-7-61-1326,0 42 273,-9 79 0,9-126 63,-1 9-2153,1-11 1527,0 1-1,0-1 0,0 1 1,1-1-1,-1 1 0,0-1 1,0 0-1,1 1 0,-1-1 1,0 0-1,0 1 0,1-1 1,-1 0-1,0 1 1,1-1-1,-1 0 0,0 0 1,1 1-1,-1-1 0,1 0 1,-1 0-1,0 0 0,1 0 1,-1 0-1,1 1 0,-1-1 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1-1 0,21 1-4623</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5018.23">2117 216 6275,'0'0'9610,"0"-9"-8653,-1 8-944,2-2 45,-2 1 1,1-1-1,0 1 1,0-1-1,-1 1 1,0 0-1,1-1 0,-1 1 1,0-1-1,0 1 1,-2-4-1,1 4-24,0 1 0,0 0 0,0 0-1,0-1 1,1 1 0,-1 1 0,-1-1 0,1 0-1,0 0 1,0 1 0,0-1 0,0 1 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0 0,0 0 0,-3 1-1,2 0-28,0-1-1,1 1 0,-1 0 0,0-1 0,0 1 1,1 1-1,-1-1 0,0 0 0,1 1 1,-1 0-1,1-1 0,0 1 0,-1 0 0,1 0 1,0 0-1,0 1 0,0-1 0,1 0 0,-1 1 1,0-1-1,1 1 0,0 0 0,-1-1 1,1 1-1,0 0 0,0 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,0 0 1,0 0-1,0 3 0,0 0-8,0 0 0,0 0 0,1 0-1,0 0 1,0 0 0,0 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1-1,1-1 1,0 0 0,0 0 0,1 0 0,6 8 0,2-4-87,1 0 1,0 0 0,0-2-1,23 11 1,33 19-315,-68-37 415,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,0 0 0,0 0 34,-1 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1-1,0 0 1,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,-1 0-1,1 0 1,-2 1 0,-6 3 102,1 0-1,-1-1 1,0 0-1,-15 3 1,19-5-301,1-1 0,-1 0-1,0 0 1,1-1 0,-1 1 0,0-1 0,-7-1 0,10 1-117,1 0-1,0-1 1,-1 1 0,1-1-1,0 0 1,-1 1 0,1-1-1,0 0 1,0 0 0,0 1 0,-1-1-1,1 0 1,0 0 0,0-1-1,0 1 1,1 0 0,-1 0 0,0 0-1,0-1 1,1 1 0,-1 0-1,0-1 1,1 1 0,0-1-1,-1 1 1,1 0 0,0-1 0,-1-1-1,-4-28-5148</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5206.48">2056 250 4834,'0'0'11381,"97"-61"-10948,-73 56-241,0 5-192,-4 0-224,-1 0-641,0 0-896,1 5-1216,-6 7-753,6 0-1488</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5018.22">2117 216 6275,'0'0'9610,"0"-9"-8653,-1 8-944,2-2 45,-2 1 1,1-1-1,0 1 1,0-1-1,-1 1 1,0 0-1,1-1 0,-1 1 1,0-1-1,0 1 1,-2-4-1,1 4-24,0 1 0,0 0 0,0 0-1,0-1 1,1 1 0,-1 1 0,-1-1 0,1 0-1,0 0 1,0 1 0,0-1 0,0 1 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0 0,0 0 0,-3 1-1,2 0-28,0-1-1,1 1 0,-1 0 0,0-1 0,0 1 1,1 1-1,-1-1 0,0 0 0,1 1 1,-1 0-1,1-1 0,0 1 0,-1 0 0,1 0 1,0 0-1,0 1 0,0-1 0,1 0 0,-1 1 1,0-1-1,1 1 0,0 0 0,-1-1 1,1 1-1,0 0 0,0 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,0 0 1,0 0-1,0 3 0,0 0-8,0 0 0,0 0 0,1 0-1,0 0 1,0 0 0,0 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1-1,1-1 1,0 0 0,0 0 0,1 0 0,6 8 0,2-4-87,1 0 1,0 0 0,0-2-1,23 11 1,33 19-315,-68-37 415,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,0 0 0,0 0 34,-1 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1-1,0 0 1,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,-1 0-1,1 0 1,-2 1 0,-6 3 102,1 0-1,-1-1 1,0 0-1,-15 3 1,19-5-301,1-1 0,-1 0-1,0 0 1,1-1 0,-1 1 0,0-1 0,-7-1 0,10 1-117,1 0-1,0-1 1,-1 1 0,1-1-1,0 0 1,-1 1 0,1-1-1,0 0 1,0 0 0,0 1 0,-1-1-1,1 0 1,0 0 0,0-1-1,0 1 1,1 0 0,-1 0 0,0 0-1,0-1 1,1 1 0,-1 0-1,0-1 1,1 1 0,0-1-1,-1 1 1,1 0 0,0-1 0,-1-1-1,-4-28-5148</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5206.47">2056 250 4834,'0'0'11381,"97"-61"-10948,-73 56-241,0 5-192,-4 0-224,-1 0-641,0 0-896,1 5-1216,-6 7-753,6 0-1488</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5636.27">2424 188 4466,'0'0'11002,"-20"-5"-9761,-66-13-371,83 17-835,-1 0 0,1 1 0,-1 0 0,1 0 0,0 0 1,-1 1-1,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 1,0 1-1,0 0 0,0-1 0,0 1 0,0 1 0,0-1 0,0 0 1,1 1-1,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,-2 4 1,1-2-35,1 0 1,0 0 0,0-1 0,1 1-1,-1 0 1,1 0 0,0 0 0,1 1-1,-1-1 1,1 0 0,0 0 0,0 0-1,1 1 1,-1-1 0,1 0 0,1 5 0,0-8-21,-1-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 0 0,4-1 0,0 2-23,1-1 1,-1 0 0,1-1-1,-1 1 1,1-1 0,8-3 0,-8 0 92,-1 0 0,0-1 1,0 1-1,-1-1 1,1 0-1,-1-1 1,0 1-1,0-1 1,-1 0-1,0-1 0,0 1 1,0-1-1,-1 0 1,1 0-1,-2 0 1,1 0-1,-1 0 1,0-1-1,0 1 1,0-16-1,6 210-362,-2 76 980,-6-258-600,-1 0 1,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,0 0-1,0 0 1,0 0 0,0-1 0,-1 1 0,0-1 0,0 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,-1-1 0,0 0 0,0 0 0,0 0-1,-6 3 1,3-2-56,0-1 1,1-1-1,-1 1 0,-1-1 0,1 0 0,0-1 1,0 0-1,-1 0 0,1-1 0,-1 0 0,1 0 0,0 0 1,-1-1-1,-10-3 0,14 3-260,1-1 0,0 1 0,-1-1 1,1 0-1,0 1 0,0-1 0,0-1 0,0 1 0,1 0 1,-1-1-1,0 0 0,-2-4 0,-16-22-5292,20 27 4929,-18-29-10247</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6442.51">898 1207 3778,'0'0'9639,"-8"-4"-8404,-24-13-202,23 12-142,60-1 960,220-8-511,-91 11-5873,-175 3 3579,9 1-1313,-8 5-2164,-5 5-926</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6660.56">996 1382 5731,'0'0'10356,"-14"12"-10244,38-12 321,10 0-129,9 0 64,15-6-272,10-17-96,5-3-512,-1 0-1121,1 0-1248,-15 0-769,-19 3-1857</inkml:trace>
@@ -13054,7 +12636,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9171.04">3566 1150 8820,'0'0'9199,"-13"-15"-8519,-42-45-141,52 58-502,0 0-1,1 0 1,-1 1-1,0-1 1,1 0 0,-1 1-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 1-1,0-1 1,0 1 0,0 0-1,0 0 1,-1 0-1,1 0 1,0 1-1,-5 1 1,1 0 7,0 0 0,1 1 0,-1 0 0,1 1-1,0-1 1,-8 7 0,7-4-26,0 0-1,0 0 0,1 1 0,0 0 0,0 0 1,0 0-1,1 1 0,0 0 0,0 0 1,1 1-1,0-1 0,-4 14 0,6-17-10,1 0-1,0 0 0,0 1 0,0-1 1,0 1-1,1-1 0,0 0 1,0 1-1,0-1 0,1 1 0,0-1 1,0 1-1,0-1 0,1 0 0,-1 0 1,1 0-1,0 0 0,1 0 0,-1 0 1,1 0-1,0-1 0,6 8 0,4 0-22,1 0 0,0-1-1,0 0 1,1-2-1,0 0 1,1 0 0,0-2-1,26 9 1,-26-10 0,1 0 0,-1 2 0,-1-1 0,1 2 0,-1 0 0,-1 1 0,0 1 0,0 0 1,13 14-1,-26-24 17,0 0 1,0 0 0,0 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,0 0 0,-1 0-1,0 0 1,1 0 0,-1 1 0,1-1 0,-1 0-1,0 0 1,0 0 0,0 1 0,0-1-1,0 0 1,0 0 0,0 0 0,0 1-1,0-1 1,-1 0 0,1 0 0,0 0 0,-1 2-1,-1 0 28,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0-1,-1 0 1,1 0 0,-1-1 0,-4 4 0,-8 2 189,0 1 1,-33 8 0,43-14-197,-12 3-199,1-1 0,-1-1 0,0 0 0,-32 0 0,49-3 82,-1 0 0,0 0 1,1-1-1,-1 1 1,0 0-1,1 0 0,-1 0 1,0-1-1,1 1 0,-1 0 1,0-1-1,1 1 0,-1-1 1,1 1-1,-1 0 0,1-1 1,-1 1-1,1-1 1,-1 0-1,1 1 0,0-1 1,-1 1-1,1-1 0,-1 0 1,1 1-1,0-1 0,0 0 1,-1 1-1,1-1 0,0 0 1,0 1-1,0-2 1,-1-27-3102,1 20 1893,0-32-4967</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9511.02">3474 1082 3185,'0'0'13879,"-2"-8"-13020,-1-1-777,-3-11 620,3 43-232,6 166 784,52 347 0,-43-426-417,-7-60-5807,-13-73-438,-6-12-3871</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10056.31">3927 1094 3874,'0'0'12667,"0"-11"-11603,0-23-214,0 31-241,0 31-416,0 565 3761,0-593-4344,4-2-2118,15-11-159,0 0 0,-2-1 0,22-22-1,4-7-5375</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10386.36">4276 1163 4978,'0'0'10861,"-8"-7"-10100,-26-19-337,33 26-420,1 0 0,0 0 1,-1-1-1,1 1 0,-1 0 0,1 0 0,-1 0 1,1-1-1,-1 1 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 1,-1 1-1,1-1 0,-1 0 0,1 0 1,-1 0-1,1 1 0,-1-1 0,1 0 0,-1 1 1,1-1-1,0 0 0,-1 1 0,1-1 1,-1 0-1,1 1 0,0-1 0,-1 1 1,1-1-1,0 1 0,0-1 0,-1 1 1,1-1-1,0 1 0,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,-1 1 0,1 0 1,1 0-1,-3 32 70,2-30-55,0 9 54,0-1 1,1 0-1,1 1 0,0-1 0,0 0 0,1 0 1,0-1-1,1 1 0,0-1 0,1 1 0,0-1 1,0-1-1,1 1 0,0-1 0,15 16 0,13 17 182,21 28 226,-52-64-394,0-1-1,0 1 1,0 0-1,0-1 1,-1 2-1,0-1 1,0 0-1,-1 0 1,1 1 0,-1-1-1,0 8 1,-2-11-80,1-1 0,-1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0 1,1 0-1,-1-1 0,1 1 0,-1-1 0,0 0 0,0 0 1,1 1-1,-1-1 0,0 0 0,0 0 0,0-1 1,0 1-1,0 0 0,-1-1 0,1 1 0,0-1 0,0 0 1,0 0-1,0 0 0,-4 0 0,2 1-402,0-1-1,0 0 1,0 1 0,0-2-1,0 1 1,0 0-1,0-1 1,0 0 0,0 0-1,0 0 1,0 0 0,0-1-1,0 0 1,1 0-1,-1 0 1,-5-4 0,-10-25-4949</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10386.35">4276 1163 4978,'0'0'10861,"-8"-7"-10100,-26-19-337,33 26-420,1 0 0,0 0 1,-1-1-1,1 1 0,-1 0 0,1 0 0,-1 0 1,1-1-1,-1 1 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 1,-1 1-1,1-1 0,-1 0 0,1 0 1,-1 0-1,1 1 0,-1-1 0,1 0 0,-1 1 1,1-1-1,0 0 0,-1 1 0,1-1 1,-1 0-1,1 1 0,0-1 0,-1 1 1,1-1-1,0 1 0,0-1 0,-1 1 1,1-1-1,0 1 0,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,-1 1 0,1 0 1,1 0-1,-3 32 70,2-30-55,0 9 54,0-1 1,1 0-1,1 1 0,0-1 0,0 0 0,1 0 1,0-1-1,1 1 0,0-1 0,1 1 0,0-1 1,0-1-1,1 1 0,0-1 0,15 16 0,13 17 182,21 28 226,-52-64-394,0-1-1,0 1 1,0 0-1,0-1 1,-1 2-1,0-1 1,0 0-1,-1 0 1,1 1 0,-1-1-1,0 8 1,-2-11-80,1-1 0,-1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0 1,1 0-1,-1-1 0,1 1 0,-1-1 0,0 0 0,0 0 1,1 1-1,-1-1 0,0 0 0,0 0 0,0-1 1,0 1-1,0 0 0,-1-1 0,1 1 0,0-1 0,0 0 1,0 0-1,0 0 0,-4 0 0,2 1-402,0-1-1,0 0 1,0 1 0,0-2-1,0 1 1,0 0-1,0-1 1,0 0 0,0 0-1,0 0 1,0 0 0,0-1-1,0 0 1,1 0-1,-1 0 1,-5-4 0,-10-25-4949</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10568.12">4190 1149 6275,'0'0'13926,"58"-67"-13894,-38 62-32,-1 5-112,5 0-240,1 0-688,-1 5-1073,5 16-1489,-10 2-2241</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11027.8">4636 1092 4898,'0'0'12134,"-17"-16"-11022,-56-50-349,71 64-733,-1 0 0,1 0 0,-1 0 1,0 1-1,1-1 0,-1 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 2 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 1,1 1-1,-1 0 0,-4 2 0,1 2-17,0-1 0,1 1 1,0 0-1,0 0 1,0 0-1,1 1 0,0 0 1,-5 11-1,4-6-7,0 0 0,1 0 0,1 1 0,0-1 0,0 1 0,1 0 0,1-1 0,0 1 0,1 0 0,0 0 0,3 17 0,-2-27-21,0 1 0,0-1 0,1 0 0,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,1 0 0,-1 0 0,1-1 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 0-1,0 0 1,0-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,-1 1-1,7-1 1,-3 1-50,1 0 0,-1-1 0,1 0 1,-1-1-1,0 1 0,1-1 0,-1-1 0,0 1 0,0-2 0,0 1 0,0-1 0,8-4 0,-7 1 137,-1-2 0,-1 1 0,1-1 1,-1 0-1,0 0 0,-1 0 0,0-1 0,0 0 1,-1 0-1,0 0 0,-1-1 0,1 0 0,-2 1 0,0-1 1,0 0-1,0 0 0,-1-12 0,-1 22-65,1 1-1,-1-1 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0 1-1,1-1 0,-1 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 0,0 0 1,0-1-1,0 1 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,6 14-86,8 52 67,-2 1 1,-3 0-1,-3 0 1,-3 1-1,-6 89 1,2-144 87,-1 0 1,0 0-1,-1 0 1,0 0-1,-1 0 1,0-1-1,-11 21 1,13-28-5,0 0 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 0 1,-1 0-1,0-1 0,1 1 0,-1-1 0,-1 0 0,1 0 1,0 0-1,-1-1 0,1 0 0,-1 1 0,1-2 0,-1 1 0,0-1 1,0 1-1,-9 0 0,10-2-84,1 0 0,-1 0 1,1 0-1,-1 0 0,0-1 0,1 1 1,-1-1-1,1 0 0,0 0 0,-1 0 1,1-1-1,0 1 0,0-1 0,-1 0 1,1 0-1,-5-4 0,2-1-821,0-1-1,0 0 0,0 0 0,1 0 1,-5-10-1,10 18 807,-15-29-6783</inkml:trace>
 </inkml:ink>
@@ -13116,7 +12698,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">65 256 1777,'0'0'8817,"0"-8"-7341,1 0-997,0 6-349,-1 0-1,0 0 1,0-1 0,1 1-1,-1 0 1,0 0 0,-1-1 0,1 1-1,0 0 1,-1 0 0,1-1-1,-1 1 1,0 0 0,0 0-1,1 0 1,-1 0 0,-1 0 0,1 0-1,-2-2 1,-3 45 1260,-5 62-1260,-2 55 241,13-156-335,1-1 0,-1 1 0,0-1 0,0 1 0,-1-1-1,1 1 1,0-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 0-1,-1 1 1,0-1 0,-1 3 0,1-4-17,0-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,1-2 0,-4-22-61,-2-26-165,2-99 1,4 136 191,0 0-1,1 0 1,0 0-1,1 0 1,0 0-1,1 0 1,1 1-1,0 0 0,0 0 1,1 0-1,1 1 1,14-20-1,-17 27 12,1 1 0,0-1 0,-1 1 0,1 0 0,0 0-1,0 0 1,1 1 0,-1-1 0,0 1 0,1 1 0,10-3-1,-15 3-4,1 1 0,0-1-1,-1 1 1,1 0 0,-1 0-1,1-1 1,0 1-1,-1 0 1,1 1 0,0-1-1,-1 0 1,1 0-1,0 1 1,-1-1 0,1 0-1,-1 1 1,1 0 0,-1-1-1,1 1 1,-1 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,1 0-1,-1 0 1,0 0 0,0 1-1,0-1 1,0 0 0,0 1-1,0-1 1,-1 1-1,1-1 1,0 1 0,-1-1-1,1 1 1,-1-1 0,0 1-1,1-1 1,-1 1-1,0 0 1,0-1 0,0 3-1,0 8-55,1-1 51,-1 0 0,-1 0-1,0 0 1,0 0 0,-4 13 0,3-19-7,0-1 0,0 0-1,0 1 1,-1-1 0,1 0-1,-1 0 1,0 0 0,0 0-1,0-1 1,-1 1 0,1-1 0,-1 0-1,0 0 1,0 0 0,-7 4-1,10-7 361,2 8-622,2 4 289,1 1-1,0-1 0,1-1 1,1 1-1,0-1 0,0 0 0,13 16 1,-6-9-430,1-2 1,1 0-1,29 26 1,-42-41-16,-1 0-1,1 0 1,-1 0-1,1 0 1,0 0 0,-1 0-1,1 0 1,0-1-1,0 1 1,0 0 0,-1-1-1,4 1 1,5-1-3894</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="202.24">398 315 6019,'0'0'12053,"0"-23"-12053,10 29-4690,5 5 1681,-1-5-1633</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="202.23">398 315 6019,'0'0'12053,"0"-23"-12053,10 29-4690,5 5 1681,-1-5-1633</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="815.71">588 152 6547,'0'0'9527,"-1"-4"-9060,-18 224 93,10-125 1350,9-138-1444,-1-5-296,2 1 0,11-74 0,-10 109-183,1-1-1,0 1 1,0 0 0,2-1 0,-1 2-1,1-1 1,1 1 0,0-1-1,1 2 1,0-1 0,1 1 0,0 0-1,0 0 1,17-13 0,-21 20 5,0 1-1,0-1 1,0 1 0,0 0 0,0 0 0,0 1 0,0-1 0,1 1-1,-1 0 1,1 0 0,-1 0 0,1 1 0,-1 0 0,1 0-1,-1 0 1,1 0 0,4 1 0,-8 1-14,0-1 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,-1 1 0,-3 32-98,2-27 107,-1-1 0,-1 1-1,1-1 1,-1 0 0,0 0 0,-1 0 0,0-1 0,0 1 0,-8 7 0,-59 51-549,50-47 206,-22 14-84,43-31 426,1 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 0 0,0 1 1,0-1-1,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,1 0 1,-1 0-1,1 0 0,0 2 1,15 21-250,5-4 282,0-1-1,2-1 1,0 0-1,1-2 1,1-1-1,40 18 1,46 30 462,-108-61-498,-1 0-1,0 0 1,1 0-1,-1 1 1,0-1-1,-1 1 1,1-1-1,0 1 1,-1-1-1,1 1 1,1 5-1,-3-6-259,1-1 0,-1 0 0,1 0 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0-1,0 1 1,-1-1 0,1 0 0,0 1 0,-1-1 0,1 0 0,-2 2 0,-10 9-5203</inkml:trace>
 </inkml:ink>
 </file>
@@ -13156,9 +12738,9 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3403.36">2360 297 5955,'0'0'9060,"-6"-10"-9076,28 4 16,9-2 0,3-1-544,1 0-1873,-10 0-1169,-13 1-2609</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3623.61">2329 141 6419,'0'0'10085,"100"-58"-9861,-60 53-224,-2 3 0,-1 2-128,-2 0-993,-10 11-1232,-4 8-1345,-5 4-752</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4252.67">2801 299 1969,'0'0'10103,"-3"-11"-7424,2 4-2314,-1-1 1,-1 1 0,1 0 0,-1 0-1,-1 0 1,1 0 0,-1 0 0,0 1-1,-6-7 1,8 11-315,0-1 1,0 1-1,0 0 0,0 0 1,-1 1-1,1-1 0,-1 0 1,1 1-1,-1-1 0,0 1 1,0 0-1,0 0 1,1 0-1,-1 0 0,0 0 1,0 1-1,0-1 0,0 1 1,0 0-1,0 0 0,0 0 1,0 0-1,0 1 0,0-1 1,0 1-1,0-1 0,0 1 1,0 0-1,0 0 0,0 1 1,1-1-1,-4 2 1,1 0-71,-1 0 1,1 1-1,0-1 1,0 1 0,1 0-1,-1 0 1,1 0 0,0 1-1,0-1 1,0 1 0,0 0-1,1 0 1,0 1-1,0-1 1,1 1 0,0-1-1,-1 1 1,2 0 0,-1 0-1,1 0 1,0 0-1,0 0 1,1 0 0,-1 0-1,2 9 1,-1-13-24,0 0 0,1 0 0,-1-1-1,1 1 1,-1 0 0,1 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1-1,0-1 1,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,1 0-1,-1 0 1,0 1 0,4 0 0,-1 0-46,0 0 0,0-1 1,0 1-1,0-1 0,1 0 0,-1 0 0,0-1 0,1 1 1,4-1-1,0 0-13,-1 0 1,1-1-1,-1 0 1,1 0 0,0-1-1,-1 0 1,0-1-1,0 0 1,10-4 0,-10 2 55,-1 1 1,0-2 0,0 1-1,0-1 1,0 0-1,-1-1 1,0 1 0,-1-1-1,1 0 1,-1-1 0,-1 1-1,1-1 1,4-11-1,-4 4 273,-1 0-1,0-1 1,-1 1-1,-1-1 1,0 1-1,-1-27 1,-1 41 47,0 15-473,-1 16 60,0-17 156,0 1 0,1-1-1,1 0 1,0 1-1,6 22 1,-6-34-25,-1 0 1,1 1-1,0-1 0,0 0 1,1 0-1,-1 1 0,0-1 1,1 0-1,0 0 1,-1 0-1,1-1 0,0 1 1,0 0-1,0-1 0,0 1 1,0-1-1,0 0 1,0 1-1,1-1 0,-1 0 1,0 0-1,1-1 0,-1 1 1,1 0-1,-1-1 1,1 1-1,-1-1 0,1 0 1,0 0-1,-1 0 0,1 0 1,-1-1-1,1 1 1,-1 0-1,1-1 0,3-1 1,-3 1-6,-1 0 1,1 1-1,0-2 1,0 1-1,-1 0 1,1 0-1,-1-1 1,1 1-1,-1-1 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,-1 0 1,1-1-1,0 1 1,-1-1-1,1 1 1,0-4-1,2-2 333,-2 1 1,1-2-1,-1 1 0,2-12 1,-4 17 31,-10 47-466,7-33 127,0-1 1,1 1-1,0 0 0,1 0 1,0 0-1,1 0 0,0 0 1,2 13-1,-1-23-89,-1 0 1,1 1-1,0-1 1,0 1-1,0-1 1,0 0 0,0 0-1,1 0 1,-1 1-1,0-1 1,1 0-1,-1 0 1,0-1-1,1 1 1,-1 0-1,1 0 1,0-1-1,-1 1 1,1-1-1,-1 1 1,1-1-1,0 0 1,-1 0 0,1 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,-1 0 1,4-1-1,2 0-788,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 0-1,10-4 1,13-15-4600</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4395.23">3131 1 11557,'0'0'7716,"-16"10"-9317,16 8-800,12-1-3506</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4395.22">3131 1 11557,'0'0'7716,"-16"10"-9317,16 8-800,12-1-3506</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4657.63">3334 43 7187,'0'0'10987,"-3"12"-10705,-8 28 294,-20 86 1197,27-109-1661,2 1-1,0-1 1,1 1-1,0 0 0,4 24 1,-3-40-200,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,0 0 0,-1 0 0,1 0 1,0-1-1,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,4 0 0,-4-1-225,-1 0 0,1 0-1,0 0 1,0 1 0,0-2 0,0 1-1,-1 0 1,1 0 0,0-1-1,0 1 1,0 0 0,-1-1-1,1 0 1,0 0 0,-1 1 0,1-1-1,0 0 1,-1 0 0,1 0-1,-1 0 1,0-1 0,3-1-1,9-18-5120</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4832.43">3218 162 5859,'0'0'10196,"25"-28"-10452,22 18 256,6-3-112,0 3-880,-3-1-993,-13 3-96,-15 1-768,-9 0-1137</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4832.42">3218 162 5859,'0'0'10196,"25"-28"-10452,22 18 256,6-3-112,0 3-880,-3-1-993,-13 3-96,-15 1-768,-9 0-1137</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6405.17">2005 425 3522,'0'0'11077,"-35"2"-8265,-550 33-1505,584-35-1128,27-13-289,16-21 737,-42 34-628,-17 20 33,-1-1 1,-33 27-1,34-34-28,0 2-1,-24 25 1,45-37-63,0-1-1,-1 0 1,1 0-1,0 0 1,0-1 0,0 1-1,7-1 1,125-9-736</inkml:trace>
 </inkml:ink>
 </file>
@@ -13252,7 +12834,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2466.63">353 3039 6563,'0'0'10845,"-8"-6"-10013,8 6-830,-7-5 142,1 1 0,-1-1 0,-1 2 1,1-1-1,-9-2 0,14 5-126,1 0 0,-1 1 0,0-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,1 0-1,-1 1 1,0-1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1-1,0-1 1,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 3 0,0 0-5,-1 0 0,2 0-1,-1 0 1,0 0 0,1 0 0,-1 0 0,1 0 0,0 1-1,1-1 1,-1 0 0,1 0 0,-1 0 0,1 0-1,1 0 1,-1 0 0,0 0 0,1-1 0,0 1-1,0 0 1,0-1 0,4 6 0,2 0 23,1 0 1,1-1-1,-1 0 0,1 0 0,18 9 1,-15-9 8,0 1 0,-1 0 0,14 13 0,-25-22-48,0 1-1,0 0 1,0-1-1,-1 1 0,1 0 1,0-1-1,-1 1 0,1 0 1,0 0-1,-1 0 1,1-1-1,-1 1 0,1 0 1,-1 0-1,0 0 0,1 0 1,-1 0-1,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,-1 0 1,1 0-1,-1 0 0,1 0 1,-1-1-1,1 1 0,-1 0 1,0 0-1,0-1 1,1 1-1,-1 0 0,0-1 1,0 1-1,0 0 0,1-1 1,-1 0-1,0 1 1,0-1-1,0 1 0,0-1 1,0 0-1,0 0 0,-1 1 1,-6 1-355,1 0 0,-1 0 1,1 0-1,-1-1 0,-11 0 0,16-1-75,-1 0-1,1 0 0,-1-1 0,1 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1-1 0,0 1 0,0-1 1,0 0-1,0 0 0,0 0 0,1 0 0,-1-1 1,0 1-1,1-1 0,0 0 0,-1 1 0,-2-7 1,2 3-244,0 0 0,0 0 1,0 0-1,1 0 0,0 0 0,-1-9 1,-1-21 1553,5 33-599,-1 0-1,1 0 1,0 0 0,0 0 0,0 0 0,0 0 0,1 0-1,-1 0 1,1 0 0,0 0 0,0 1 0,0-1-1,0 1 1,0-1 0,0 1 0,1 0 0,-1 0-1,1 0 1,2-2 0,63-35 2071,-42 26-1117,211-121 5502,-224 129-6432,-13 12-1914,-17 21-2900,11-20 3819,-21 33-4336</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3009.49">344 3482 5346,'0'0'11414,"-1"-7"-10734,1 4-582,-5-21 297,-2 18-281,-6 18-73,0 7 70,1 1 0,1 0 0,1 1 0,1 1 0,0 0 0,2 0 0,1 0 0,0 1 1,1 0-1,2 0 0,0 0 0,2 45 0,0-65-109,1 0 1,0 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0 0,0-1-1,0 1 1,0 0-1,0 0 1,0-1 0,1 1-1,-1-1 1,1 1 0,0-1-1,-1 0 1,1 0-1,0 0 1,5 4 0,-4-4 1,1 1 0,0-1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,1 0 0,-1-1-1,0 1 1,1-1 0,6 0 0,-3-1 10,1 1-1,0-2 0,-1 1 1,1-1-1,-1 0 0,0-1 1,1 0-1,-1-1 0,0 1 1,-1-2-1,1 1 0,-1-1 1,10-8-1,-12 9 20,-1-1 0,0 1-1,0-1 1,0 0 0,-1 0 0,0-1 0,0 1-1,0-1 1,-1 1 0,1-1 0,-1 0 0,-1 0-1,1 0 1,-1 0 0,0 0 0,0-7 0,-1 12 16,0 0 1,0 0-1,0 0 0,0 0 1,-1 0-1,1 1 1,0-1-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 1 0,0-1 1,1 0-1,-1 1 1,0-1-1,1 0 1,-1 1-1,0-1 1,0 1-1,0-1 1,-1 0-1,-32-7 423,-34 9-564,61 0-7,1 1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,0 1 0,0 1 0,0-1 0,0 1 0,1 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,-4 7 0,-25 41-3273,13 1-4467,19-30-421</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3400">232 4124 9588,'0'0'10061,"12"-18"-9562,-4 4-468,-3 5-29,0 0 0,1 0 0,0 0 1,0 1-1,1 0 0,0 0 0,0 1 0,1 0 0,0 0 0,0 1 0,14-8 0,-6 5-12,38-18 62,-51 26-62,-1 0-1,1 0 1,0 0-1,-1 1 1,1-1-1,0 1 1,0-1-1,-1 1 1,1 0-1,0 0 1,0 0-1,0 1 1,-1-1-1,1 1 1,0-1-1,-1 1 1,4 1-1,-4 2 15,0 1-1,0-1 1,0 0-1,-1 1 1,1-1-1,-1 1 1,0-1-1,-1 1 1,1 0-1,-1-1 1,1 1-1,-2 7 1,1-4 89,1 19 107,-1 0 0,-1 0 0,-1 0 0,-2 0 0,0 0 0,-2 0 1,-11 29-1,13-36-440,-6 18 220,9-37-334,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,-1 1 0,-3 0-4808</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4113.93">484 4544 10293,'0'0'5549,"-20"12"-4503,-65 40-54,80-48-899,0-1 0,0 1 0,0 0 0,0 0 0,1 1 1,0-1-1,0 1 0,0 0 0,0 0 0,1 1 0,-1-1 0,1 1 0,1 0 0,-1 0 0,1-1 0,0 2 0,0-1 0,1 0 0,0 0 0,0 1 0,0-1 0,1 0 0,0 1 1,1 9-1,-1-15-88,0 0 0,0 1 0,1-1 0,-1 0-1,0 0 1,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,2 0 0,50 1 99,-38-1-60,-3 0-31,-1-1-1,1 0 1,0 0 0,12-4 0,-22 4-13,0 1 0,0 0 0,0-1 1,0 1-1,-1-1 0,1 1 0,0-1 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1-1 0,0 1 0,1-1 1,-1 1-1,0-1 0,0 1 0,0-1 0,0 1 1,0-1-1,0 0 0,-1 0 0,1 0 1,-1 1-1,1-1 0,-1 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 0,0 0 1,-1-2-1,-1 1 8,0-1 0,-1 1 0,1 0 0,-1 0 0,0 1 1,0-1-1,0 1 0,0-1 0,0 1 0,-1 0 0,1 0 1,-1 1-1,1-1 0,-1 1 0,1-1 0,-5 0 0,1 0-5,-15-7 1,-67-31-24,82 37 24,0-1 0,0-1 0,1 1 0,0-1-1,0 0 1,0 0 0,1-1 0,0 0 0,0 0 0,-5-8 0,8 13-11,1-1 1,0 1-1,0-1 1,1 0-1,-1 1 1,0-1-1,0 0 0,1 1 1,-1-1-1,1 0 1,0 0-1,-1 0 1,1 1-1,0-1 1,0 0-1,0 0 0,0 0 1,0 0-1,0 1 1,1-1-1,-1 0 1,1 0-1,-1 0 1,1 1-1,0-1 0,-1 0 1,1 1-1,0-1 1,0 1-1,0-1 1,0 1-1,1-1 1,-1 1-1,0 0 0,0-1 1,1 1-1,-1 0 1,1 0-1,-1 0 1,4-1-1,5-3-35,1 1 0,0 0 0,0 0-1,1 1 1,12-1 0,-8 1 28,29-4-63,-1 2 1,78 2-1,-112 3 56,-9 0 13,0 0 1,0 1-1,0-1 0,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,-1 0-1,1-1 0,0 1 1,0 0-1,0 0 1,-1 0-1,1 0 0,0-1 1,-1 1-1,1 0 1,-1 0-1,1 0 1,-1 0-1,0 1 0,1-1 1,-1 0-1,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 1,0 0-1,0 1 1,-1-1-1,1 0 0,0 0 1,-1 1-1,-8 45-2,-4-26-255,-1 0 1,0 0-1,-1-2 1,-2 0-1,-32 30 1,15-15-2959,4-2-2908</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4113.92">484 4544 10293,'0'0'5549,"-20"12"-4503,-65 40-54,80-48-899,0-1 0,0 1 0,0 0 0,0 0 0,1 1 1,0-1-1,0 1 0,0 0 0,0 0 0,1 1 0,-1-1 0,1 1 0,1 0 0,-1 0 0,1-1 0,0 2 0,0-1 0,1 0 0,0 0 0,0 1 0,0-1 0,1 0 0,0 1 1,1 9-1,-1-15-88,0 0 0,0 1 0,1-1 0,-1 0-1,0 0 1,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,2 0 0,50 1 99,-38-1-60,-3 0-31,-1-1-1,1 0 1,0 0 0,12-4 0,-22 4-13,0 1 0,0 0 0,0-1 1,0 1-1,-1-1 0,1 1 0,0-1 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1-1 0,0 1 0,1-1 1,-1 1-1,0-1 0,0 1 0,0-1 0,0 1 1,0-1-1,0 0 0,-1 0 0,1 0 1,-1 1-1,1-1 0,-1 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 0,0 0 1,-1-2-1,-1 1 8,0-1 0,-1 1 0,1 0 0,-1 0 0,0 1 1,0-1-1,0 1 0,0-1 0,0 1 0,-1 0 0,1 0 1,-1 1-1,1-1 0,-1 1 0,1-1 0,-5 0 0,1 0-5,-15-7 1,-67-31-24,82 37 24,0-1 0,0-1 0,1 1 0,0-1-1,0 0 1,0 0 0,1-1 0,0 0 0,0 0 0,-5-8 0,8 13-11,1-1 1,0 1-1,0-1 1,1 0-1,-1 1 1,0-1-1,0 0 0,1 1 1,-1-1-1,1 0 1,0 0-1,-1 0 1,1 1-1,0-1 1,0 0-1,0 0 0,0 0 1,0 0-1,0 1 1,1-1-1,-1 0 1,1 0-1,-1 0 1,1 1-1,0-1 0,-1 0 1,1 1-1,0-1 1,0 1-1,0-1 1,0 1-1,1-1 1,-1 1-1,0 0 0,0-1 1,1 1-1,-1 0 1,1 0-1,-1 0 1,4-1-1,5-3-35,1 1 0,0 0 0,0 0-1,1 1 1,12-1 0,-8 1 28,29-4-63,-1 2 1,78 2-1,-112 3 56,-9 0 13,0 0 1,0 1-1,0-1 0,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,-1 0-1,1-1 0,0 1 1,0 0-1,0 0 1,-1 0-1,1 0 0,0-1 1,-1 1-1,1 0 1,-1 0-1,1 0 1,-1 0-1,0 1 0,1-1 1,-1 0-1,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 1,0 0-1,0 1 1,-1-1-1,1 0 0,0 0 1,-1 1-1,-8 45-2,-4-26-255,-1 0 1,0 0-1,-1-2 1,-2 0-1,-32 30 1,15-15-2959,4-2-2908</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4770.74">426 4967 9012,'0'0'7313,"-23"-1"-6862,-73 2-27,87 0-359,1 0 0,0 1-1,-1 0 1,1 1 0,0-1 0,0 2 0,1-1 0,-1 1-1,1 0 1,0 1 0,0 0 0,0 0 0,0 0-1,1 1 1,0 0 0,0 0 0,0 1 0,1 0 0,-9 14-1,13-19-66,0-1-1,0 1 0,1 0 1,-1 0-1,0 0 0,1 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 1,2 2-1,-1-1-10,1-1 0,-1 1 0,1-1 0,0 0 1,0 0-1,-1 0 0,1-1 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-2 0,4 2 1,13 1-130,0 0 1,-1-2 0,37-1-1,-53-1 115,1 1 15,-1 0 0,1 0 0,0 0 0,0-1-1,0 0 1,0 0 0,-1 0 0,1 0 0,0-1 0,-1 0 0,1 1-1,-1-1 1,1 0 0,-1-1 0,0 1 0,0-1 0,3-2 0,-2-1 32,0 1 1,-1-1 0,0 0 0,0 0 0,0 0-1,-1 0 1,0 0 0,0-1 0,2-6-1,0 6-145,1 18-45,1 19 7,-1 12 211,-1-1 1,-2 1 0,-5 72-1,2-109 15,0 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,-8 0 0,-11 1 42,0 0 1,0-2-1,0-1 1,-37-4-1,61 4-111,-40-9-729,14 3-2012,8 5-3431</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5143.55">235 5649 8100,'0'0'10821,"0"-8"-9986,1-19-415,1 54-194,0 68 544,0-7-284,-4 103-313,-4-170-338,2-5-817,14-23-8972,15-21 1545</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5513.09">487 5616 8244,'0'0'10066,"-2"3"-9687,-2 4-283,0 0 1,1 1 0,0-1 0,0 1 0,0-1-1,1 1 1,0 0 0,1 0 0,-2 12 0,0 78 604,3-97-698,-1 1 1,1 1 1,1-1-1,-1 1 0,0-1 0,0 1 0,1-1 0,0 1 1,-1-1-1,1 0 0,0 1 0,0-1 0,0 0 0,1 0 1,-1 1-1,0-1 0,1 0 0,-1-1 0,1 1 0,0 0 0,-1 0 1,1-1-1,0 1 0,0-1 0,0 1 0,0-1 0,1 0 1,-1 0-1,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,1-1 1,4 1-1,0-1 5,-1 1 1,1-1-1,0-1 1,-1 0-1,1 0 1,-1 0 0,1-1-1,-1 0 1,1 0-1,-1 0 1,0-1-1,7-4 1,0-1-5,0-1 0,0-1 0,-1 0 0,0-1 0,-1 0 0,11-13 0,-18 19 3,-1 0 0,1 0 0,-1 0 0,0-1 0,0 0-1,0 1 1,-1-1 0,0 0 0,0 0 0,0 0-1,-1-1 1,0 1 0,0 0 0,0 0 0,-1-1-1,0 1 1,0 0 0,-2-10 0,1 13 19,0 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 1 0,-4-1 0,-10-1-3,1 1 0,-1 0 0,-22 3-1,31-1-95,1 0 0,0 0 0,-1 1-1,1 0 1,0 1 0,0-1 0,0 1-1,1 1 1,-1-1 0,1 1 0,-1 0 0,1 1-1,0-1 1,-7 9 0,9-9-824,1 0 1,0 0-1,0 0 1,1 0-1,-1 1 1,1-1-1,0 1 1,-2 7-1</inkml:trace>
@@ -13268,13 +12850,13 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15815.04">1759 1078 1008,'-37'9'5563,"37"-9"-5392,0 0 0,0 0 0,-1 0 1,1 0-1,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 1,0 0-1,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,0 0 1,0 0-1,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,0-1 1,0 1-1,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 1,0 0-1,0-1 0,3-2-510,19-8 340,1 2 0,0 0 0,37-8 0,-21 7 19,-17 3-16,-8 2 55,0 1 1,0 0-1,0 1 1,18-1-1,-31 4-155</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17827.46">1662 490 5410,'0'0'4005,"-3"11"-3487,-6 1 215,-1 0 0,0-1 0,-1-1 0,0 0 0,-18 12 0,-29 27 156,-29 49-622,48-53 455,-71 65-1,71-78-592,-30 28 139,-144 93 0,-140 41 145,343-190-314,0 1-1,0 0 1,0 1-1,1 0 1,0 1-1,0 0 1,1 0-1,-1 1 0,2 0 1,-13 16-1,18-22-19,0-1 0,0 0-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0 0,0-1-1,0 0 1,0 1 0,0-1-1,0 0 1,0 0 0,0 0-1,0 0 1,-1 0 0,1-1-1,-2 0 1,-6 1 14,-17 3-148,0 1 0,1 2 0,-1 1 0,1 1-1,1 2 1,-43 21 0,40-19-2,10-4 8,1 0 1,-1 1-1,1 0 0,1 2 1,0 0-1,0 1 1,2 0-1,-24 26 0,34-32 39,1-1 0,0 1 0,1 0 0,-1 1 0,1-1 0,0 0 0,1 1 0,-1-1 0,1 1 0,0 0 0,1-1-1,0 1 1,0 0 0,0-1 0,1 1 0,0 0 0,0-1 0,1 1 0,-1-1 0,1 0 0,1 1 0,-1-1 0,1 0 0,0 0-1,1-1 1,6 10 0,-1-6 17,1 0-1,0 0 0,0-1 0,1-1 0,0 0 1,1 0-1,-1-1 0,1-1 0,0 0 1,1 0-1,-1-1 0,1-1 0,14 2 1,16 0 45,0-2 0,70-5 0,-78 1-37,-10-1-1,0 0 0,-1-2 0,1 0 0,0-2 0,-1-1 0,32-14 0,-43 16 5,0-2 0,-1 1 0,1-1 0,-2-1-1,1 0 1,-1-1 0,0 0 0,-1-1 0,0 0 0,-1-1 0,0 0 0,15-24 0,-19 23-13,0 1 1,-1-1-1,0 0 0,-1-1 0,-1 1 0,0 0 0,1-25 1,-2 5-37,-6-61 0,4 85 31,0-1 0,-1 1 0,0 0 1,0 0-1,-1 1 0,0-1 1,0 0-1,-7-11 0,8 16 17,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0 1 0,0-1 0,0 0 0,-1 1 0,1 0 1,0-1-1,-1 1 0,1 1 0,0-1 0,-1 0 0,1 1 0,-6 0 0,-9-1-133,11 1 71,1 0 0,-1 0 0,0 0 0,0 1 0,1 0 0,-13 3 0,17-3-107,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0 0 0,1-1 0,-1 1-1,1 0 1,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 5-1,0-7 144,-1 3-587,1 0 1,-1 1 0,1-1-1,0 1 1,0-1-1,0 0 1,1 1 0,-1-1-1,1 0 1,1 5-1,14 10-4207</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18741.96">957 1611 1425,'0'0'9167,"-5"2"-7399,-18 5-167,18-5-147,42 2 1364,36-6-2723,-19 0 25,92-7-2,13-2 527,-154 7-509,-10-6-212,-14-9-245,18 18 305,-4-4 36,-1 0 0,-1 0 0,1 0 1,-1 1-1,0 0 0,0 0 0,0 0 0,-12-3 0,33 5-373,17 6 274,-7 3 72,-15-5 1,0 1 0,1 0 0,-1 0 0,0 1 0,-1 0 0,1 0 0,-1 1 0,1 0 0,10 10 1,-18-13 5,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 0 1,0 0-1,-2 2 0,-6 5 87,-1-1 1,0 0 0,0 0 0,-11 5 0,12-7-88,-4 2-316,-18 10 400,21-3-6514</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19165.17">1805 1532 7940,'0'0'9156,"0"3"-8892,-1 26 251,-2-1 0,-1 1 0,-10 36 1,-6 39 270,19-49-2419,22-55-3508,7-2 555,5-13-1796</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19165.16">1805 1532 7940,'0'0'9156,"0"3"-8892,-1 26 251,-2-1 0,-1 1 0,-10 36 1,-6 39 270,19-49-2419,22-55-3508,7-2 555,5-13-1796</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19553.77">2043 1628 5010,'0'0'11240,"0"-1"-11185,0 1-1,0-1 1,0 1 0,0-1-1,0 1 1,0-1 0,0 0-1,0 1 1,0-1 0,0 1-1,0-1 1,0 1-1,-1-1 1,1 0 0,0 1-1,0-1 1,0 1 0,-1-1-1,1 1 1,0-1 0,-1 1-1,1-1 1,-1 1 0,1 0-1,0-1 1,-1 1 0,1 0-1,-2-1 1,-3 6-7,-1 0-1,0 1 1,1 0 0,0 0 0,0 0 0,1 1-1,0-1 1,0 1 0,0 0 0,1 1 0,0-1-1,0 1 1,1-1 0,0 1 0,0 0-1,1-1 1,0 1 0,0 0 0,1 0 0,0 0-1,0 0 1,2 9 0,-1-15-45,0 0-1,0 0 1,0-1 0,0 1-1,0-1 1,0 1 0,1-1 0,-1 1-1,1-1 1,-1 1 0,1-1-1,-1 0 1,1 0 0,0 0-1,0 0 1,-1 0 0,1-1 0,0 1-1,0 0 1,0-1 0,0 1-1,0-1 1,2 0 0,53 2 169,-44-2-100,-9 0-35,0-1-1,0 1 0,0-1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 0 0,0 1 0,0-1 0,0-1 0,0 1 0,-1 0 0,0-1 0,1 1 0,-1-1 0,0 0 0,-1 0 0,1 1 0,1-6 0,-2 6 17,0-1 1,0 1-1,0-1 0,0 1 0,0-1 1,-1 1-1,0-1 0,0 1 0,0-1 0,0 0 1,0 1-1,-1-1 0,1 1 0,-1-1 1,0 1-1,0-1 0,0 1 0,-1 0 0,1-1 1,-1 1-1,1 0 0,-1 0 0,0 0 0,-1 0 1,1 0-1,0 1 0,-1-1 0,1 1 1,-1 0-1,-5-4 0,-2 1-168,-1 0 1,1 1-1,-1 0 0,0 1 0,-1 0 1,1 0-1,0 2 0,-20-2 0,-11 5-3078,5 6-3666,22-2-112</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21715.95">1642 430 208,'0'0'8004,"-5"0"-7657,-1 0-152,0 1 1,0 0 0,0 0-1,-1 0 1,1 1 0,1 0-1,-1 1 1,0-1 0,0 1 0,1 0-1,-1 1 1,1-1 0,0 1-1,0 0 1,-6 7 0,-16 15 915,-32 40-1,49-54-1076,-251 332 2527,72-74-2265,122-174-265,-99 136 66,158-220-100,1 1 0,0-1-1,1 1 1,-7 21 0,-14 27-7,-3-3 120,-18 29 679,45-83-684,1-1 1,-1 1-1,0-1 0,0 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-7 2 1,9-5 891,-42 0-271,29-1-744,0 1-1,0 0 1,-1 1-1,1 1 1,1 0-1,-1 1 1,0 0-1,1 1 1,-1 1-1,1 0 1,0 1-1,-17 10 1,-124 81-22,140-88 33,2 2-1,-1-1 1,1 2 0,1 0 0,0 0 0,0 1-1,2 0 1,-1 1 0,2 0 0,-1 0-1,2 1 1,0 0 0,1 1 0,0 0-1,2 0 1,-1 0 0,2 0 0,0 1-1,1-1 1,0 26 0,2-23 6,-1-4 0,2-1-1,-1 1 0,5 24 0,-3-33 2,0 0 1,0 0-1,1-1 1,-1 1-1,1 0 1,1-1-1,-1 0 0,1 1 1,-1-2-1,1 1 1,7 6-1,-1-3 11,-1-1 0,1 0 0,0-1 0,0 0 0,1-1-1,0 0 1,0-1 0,0 0 0,0-1 0,1 0 0,17 1 0,17 2 67,69-2 1,-96-3-57,0-1 0,1 0 0,-1-1 0,0-2-1,0 0 1,0-1 0,0 0 0,-1-2 0,1 0 0,19-11-1,-20 7 6,0-1-1,0-1 0,32-27 0,-43 33-26,-1-1 0,0 1 0,0-1 0,-1-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,0-1 0,-1 1 0,0-1 0,2-8 0,4-26-80,-3 0 1,-1 0 0,-2-1 0,-2 1 0,-5-57 0,3 97 95,0-1 1,0 1-1,0-1 1,-1 1 0,1-1-1,-1 1 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,-1 0 0,1 1-1,-1-1 1,1 1-1,-1-1 1,0 1 0,0 0-1,0 0 1,-1 1 0,1-1-1,0 1 1,-1-1-1,1 1 1,0 0 0,-1 0-1,1 1 1,-6-1 0,-13-3-12,-1 2 0,0 0 0,-30 3 1,29-1-141,23 1 36,0-1 1,-1 0 0,1 0-1,0 1 1,0-1-1,-1 1 1,1-1-1,0 1 1,0-1 0,0 1-1,0 0 1,0-1-1,-1 1 1,1 0 0,1 0-1,-1 0 1,0 0-1,0 0 1,0 0 0,0 0-1,1 0 1,-1 1-1,0-1 1,1 0-1,-1 0 1,1 1 0,-1-1-1,1 0 1,0 1-1,0-1 1,-1 2 0,0 44-8014,5-27 2624</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22416">977 2209 4498,'0'0'10949,"-4"0"-9832,5 0-505,56 7 217,112-2-1,-150-6-677,0-1-1,0-1 0,-1 0 1,1-1-1,-1-1 0,0-1 0,0-1 1,-1 0-1,0-2 0,17-10 1,-33 19-161,0-1 0,0 1 0,0-1 0,0 1 0,0-1 1,0 0-1,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,-1 0 0,0-1 1,1 1-1,-1 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 1,0 0-1,0 0 0,0 0 0,0-1 0,0-1 0,-2 1-8,1-1 1,-1 1-1,1 0 0,-1 0 0,0-1 0,1 1 1,-1 0-1,0 1 0,0-1 0,-1 0 0,1 0 1,-4-1-1,-7-5 64,-1 1 0,0 1 0,-23-7 1,52 16-587,-5 0 465,0-1-1,1 1 1,-1 1 0,18 9-1,-25-11 78,-1-1 0,1 1 0,0 0-1,-1 0 1,1 0 0,-1 1-1,1-1 1,-1 0 0,0 1 0,0 0-1,0-1 1,-1 1 0,1 0-1,-1 0 1,1 0 0,-1 0 0,0 0-1,0 1 1,0-1 0,-1 0-1,1 0 1,-1 1 0,1 4-1,-2-2 30,1 1-1,-1-1 1,-1 1-1,1-1 0,-1 0 1,0 0-1,0 1 1,-1-1-1,0-1 0,0 1 1,0 0-1,0-1 1,-1 0-1,0 1 0,0-2 1,-9 9-1,2-1-154,2 9-1121,26-16-11127</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22720.12">1730 2079 8052,'0'0'8649,"0"-18"-6320,-2 55-1914,-2 1 0,-16 71 0,-2 12-315,21-83-2144,1-25-1779,19-9-7580</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23076.28">2011 2052 4786,'0'0'10450,"-10"-2"-10090,-29-10-304,29 9-74,10 11-190,1 0 221,0 0 1,1 1-1,0-1 1,0 0-1,1 0 1,-1-1-1,2 1 1,-1-1-1,1 1 1,0-1 0,1 0-1,-1 0 1,1-1-1,1 0 1,10 11-1,-7-7 141,0 1 1,0-1-1,-1 1 0,-1 1 0,9 17 1,-15-26-45,0 0 1,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,0-1-1,0 0 1,0 0 0,0 0 0,-1 1 0,0-1 0,1 0-1,-1 0 1,0 0 0,0 0 0,0 0 0,-1 0 0,1 0-1,-1 0 1,0-1 0,1 1 0,-1-1 0,0 1 0,-1-1 0,1 0-1,0 1 1,-1-1 0,1-1 0,-1 1 0,1 0 0,-6 2-1,0 1-338,0 0-1,-1-1 0,1 0 0,-1-1 0,0 1 0,0-2 0,-1 1 0,1-1 0,-18 1 0,27-3 88,-1 0 0,1 0-1,-1 0 1,1 0 0,0 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,-1-1 0,1 1-1,-1 0 1,1 0 0,0 0 0,-1-1-1,1 1 1,0 0 0,-1 0 0,1-1-1,0 1 1,0 0 0,-1 0 0,1-1-1,0 1 1,0 0 0,-1-1 0,1 1-1,0-1 1,0 1 0,0 0 0,0-1-1,0 1 1,-1-1 0,1 1 0,0 0-1,0-1 1,0 1 0,0-1 0,0 1-1,0 0 1,0-1 0,0 1 0,1-1-1,-1 1 1,0 0 0,0-1 0,0 1-1,1-1 1,-1-22-8420</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23328.13">1952 2064 1153,'0'0'16063,"13"-5"-15914,61-17 361,85-13-1,-146 34-307</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23328.12">1952 2064 1153,'0'0'16063,"13"-5"-15914,61-17 361,85-13-1,-146 34-307</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13304,14 +12886,14 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">383 936 3025,'0'0'12342,"-1"-8"-11758,-3-51 1631,4 58-1180,-1 9-955,-9 43 37,-22 153 334,26-92-104,2-140-6387,8 8-609</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="675.16">192 1551 7988,'0'0'10943,"-2"-8"-10260,-7-26-226,9 33-440,0 0 0,0-1 1,0 1-1,0 0 1,0 0-1,0 0 0,0 0 1,1 0-1,-1-1 1,0 1-1,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,0 0-1,-1 0 1,1 0-1,0 1 0,0-1 1,-1 0-1,1 0 1,0 0-1,2 0 0,25-13 169,-22 11-121,11-4 0,0 1-1,1 1 1,-1 1-1,1 0 1,0 1 0,0 1-1,0 1 1,0 1-1,21 1 1,-36 0-64,0 0 0,0-1 1,1 1-1,-1 0 0,0 1 0,0-1 1,0 1-1,-1-1 0,1 1 1,0 0-1,-1 0 0,1 0 0,-1 0 1,1 1-1,-1-1 0,0 0 0,0 1 1,0 0-1,0 0 0,0-1 0,-1 1 1,1 0-1,-1 0 0,0 1 1,0-1-1,0 0 0,0 0 0,-1 1 1,1-1-1,-1 0 0,0 6 0,1-2 3,-1 0 0,0 0 0,0 1 0,-1-1-1,0 0 1,0 0 0,-1 0 0,0 0-1,0 0 1,-1 0 0,1-1 0,-1 1-1,-8 11 1,-20 18-106,-1-1 0,-3-1-1,0-2 1,-2-1 0,-56 35 0,91-65 88,0 1 0,-1 0 0,1-1 0,0 0 0,0 0 0,-1 1 0,1-1 0,0-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1-1 1,-4 1-1,5-2-5,1 1 1,0 0 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1-1,0-1 1,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 0-1,0 0 1,0 0 0,0 1 0,0-1 0,1-2 0,-1-4-82,-1 5 69,1 0-1,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,1-3 0,-1 5 34,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,0 0 0,1 1 1,-1-1-1,1 0 1,-1 1-1,1-1 0,-1 1 1,1-1-1,0 1 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 1,3 0-1,6 0 33,1 1-1,-1-1 1,1 2-1,-1 0 1,0 0-1,1 1 1,-1 0 0,-1 1-1,1 1 1,0 0-1,-1 0 1,0 1-1,0 0 1,-1 0-1,1 1 1,-2 1 0,1 0-1,12 14 1,-20-20-282,1 1-1,-1 0 1,1 0 0,-1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1 3 0,-4 39-7580,-8-13-181</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1235.64">155 2263 9268,'0'0'8948,"2"-17"-8209,12-54-256,-12 67-424,0-1 0,1 1 1,0 0-1,-1 0 0,1 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,1 0 0,0 1 0,0-1 1,0 1-1,1 0 0,-1 0 0,0 0 0,1 1 0,6-2 0,-1-1 56,-9 4-106,11-5 75,-1 0 1,1 0-1,0 2 0,0-1 0,0 2 0,0 0 0,1 0 0,-1 1 0,1 0 0,15 2 0,-27 1-89,0 1 1,0-1-1,0 0 1,0 1-1,0-1 1,-1 1-1,1-1 1,-1 0 0,0 1-1,1-1 1,-1 1-1,0-1 1,0 1-1,-1-1 1,0 6 0,1 1 11,-1-1 8,0 1 1,0 0-1,-1-1 1,0 1 0,0 0-1,-1-1 1,0 0-1,0 0 1,-1 0 0,-6 10-1,-4 4-43,-2 0-1,-20 23 0,36-45-22,0 1 0,0 0 1,0-1-1,0 1 0,0 0 0,0-1 1,0 1-1,0-1 0,0 1 0,0 0 1,1-1-1,-1 1 0,0-1 0,0 1 1,1-1-1,-1 1 0,0-1 0,1 1 1,-1-1-1,1 1 0,-1-1 0,0 1 1,1-1-1,-1 1 0,1-1 0,-1 0 1,1 1-1,-1-1 0,1 0 0,0 0 1,-1 1-1,1-1 0,-1 0 0,1 0 1,0 0-1,0 0 0,36 17 57,-20-9-199,-12-6 171,-1 0 0,0 1 0,0-1 0,0 1 0,0 0 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,3 5 0,-5-8 54,0 1 0,-1-1 0,1 1-1,-1-1 1,1 1 0,-1-1 0,0 1 0,0 0 0,1-1 0,-1 1-1,0-1 1,0 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1-1-1,-1 1 1,1-1 0,-1 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,-3 1 0,-13 7-72,1-1 1,-1-1-1,-1 0 0,1-1 0,-1 0 0,0-2 1,0 0-1,-1-2 0,1 0 0,-34 0 1,50-2-144,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,-1-3 0,-9-13-4915</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1235.63">155 2263 9268,'0'0'8948,"2"-17"-8209,12-54-256,-12 67-424,0-1 0,1 1 1,0 0-1,-1 0 0,1 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,1 0 0,0 1 0,0-1 1,0 1-1,1 0 0,-1 0 0,0 0 0,1 1 0,6-2 0,-1-1 56,-9 4-106,11-5 75,-1 0 1,1 0-1,0 2 0,0-1 0,0 2 0,0 0 0,1 0 0,-1 1 0,1 0 0,15 2 0,-27 1-89,0 1 1,0-1-1,0 0 1,0 1-1,0-1 1,-1 1-1,1-1 1,-1 0 0,0 1-1,1-1 1,-1 1-1,0-1 1,0 1-1,-1-1 1,0 6 0,1 1 11,-1-1 8,0 1 1,0 0-1,-1-1 1,0 1 0,0 0-1,-1-1 1,0 0-1,0 0 1,-1 0 0,-6 10-1,-4 4-43,-2 0-1,-20 23 0,36-45-22,0 1 0,0 0 1,0-1-1,0 1 0,0 0 0,0-1 1,0 1-1,0-1 0,0 1 0,0 0 1,1-1-1,-1 1 0,0-1 0,0 1 1,1-1-1,-1 1 0,0-1 0,1 1 1,-1-1-1,1 1 0,-1-1 0,0 1 1,1-1-1,-1 1 0,1-1 0,-1 0 1,1 1-1,-1-1 0,1 0 0,0 0 1,-1 1-1,1-1 0,-1 0 0,1 0 1,0 0-1,0 0 0,36 17 57,-20-9-199,-12-6 171,-1 0 0,0 1 0,0-1 0,0 1 0,0 0 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,3 5 0,-5-8 54,0 1 0,-1-1 0,1 1-1,-1-1 1,1 1 0,-1-1 0,0 1 0,0 0 0,1-1 0,-1 1-1,0-1 1,0 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1-1-1,-1 1 1,1-1 0,-1 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,-3 1 0,-13 7-72,1-1 1,-1-1-1,-1 0 0,1-1 0,-1 0 0,0-2 1,0 0-1,-1-2 0,1 0 0,-34 0 1,50-2-144,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,-1-3 0,-9-13-4915</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1884.46">218 2752 6019,'0'0'11768,"0"0"-11753,-1 0 1,1 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,-1 0-1,1 0 1,-1 0-1,1 1 1,0-1-1,-1 0 1,1 0-1,0 0 1,-1 1-1,1-1 1,0 0 0,-1 0-1,1 1 1,0-1-1,0 0 1,-1 0-1,1 1 1,0-1-1,0 0 1,-1 1-1,1-1 1,0 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0 0-1,-1 1 1,1-1-1,0 1 1,0-1-1,0 0 1,0 1-1,-9 79 1805,6-66-1709,1 0-1,0 1 1,1-1 0,0 1-1,1-1 1,1 0 0,3 18 0,-3-31-114,-1 0 0,1 0 1,0 0-1,0 0 0,1 0 0,-1 0 1,0 0-1,0-1 0,0 1 1,1 0-1,-1-1 0,0 1 1,0-1-1,1 1 0,-1-1 0,1 1 1,-1-1-1,0 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,3 0 1,36-4-139,-34 1 98,1 0 0,-1-1 0,0 1 0,0-1 0,-1 0 0,1-1 0,-1 1 0,0-1-1,0 0 1,0-1 0,-1 1 0,5-8 0,-3 4 29,-1 1-1,1-1 1,-2 0 0,1-1-1,-1 1 1,-1-1 0,5-19-1,-7 250 957,-1-216-1021,0-1-1,0 1 1,-1 0-1,0-1 1,0 1-1,0-1 1,-3 7-1,3-10-371,1 1-1,-1 0 1,0-1-1,0 1 1,0 0 0,-1-1-1,1 1 1,0-1-1,-1 0 1,1 1 0,0-1-1,-3 1 1,-10 4-5672</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2300.82">375 3302 10965,'0'0'7561,"-15"3"-7145,-45 15-133,57-17-267,1 0 0,0 1 1,0-1-1,0 1 0,0 0 0,0-1 1,1 1-1,-1 0 0,0 0 0,1 0 1,0 0-1,-1 1 0,1-1 0,0 0 1,0 0-1,0 1 0,0-1 0,0 1 1,0 3-1,-1 49 233,2-40-196,0-12-45,0 1-1,0-1 1,0 1 0,1-1 0,-1 0 0,1 1-1,0-1 1,0 0 0,0 1 0,0-1 0,1 0-1,-1 0 1,1 0 0,0 0 0,0 0 0,0-1-1,4 6 1,0-4 7,0 1-1,1-1 1,-1 0-1,1 0 1,0-1-1,7 3 1,-5-3 7,-1 1 0,1 0 0,-1 0-1,0 1 1,9 8 0,-16-13-19,0 1 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 1 0,-1 1 1,0-1 15,0 1 0,0-1 1,-1-1-1,1 1 1,-1 0-1,0 0 0,1-1 1,-1 1-1,0-1 1,0 1-1,0-1 0,0 0 1,0 0-1,-5 2 1,3-1-208,0-1 1,-1 1-1,1-1 1,0 0-1,-1 0 1,1-1 0,-1 0-1,-5 1 1,8-1-92,1 0 1,-1-1 0,0 1-1,1 0 1,-1 0 0,0-1-1,1 1 1,-1-1 0,0 0-1,1 1 1,-1-1 0,1 0-1,-1 0 1,1 0 0,0 0-1,-1 0 1,1 0 0,0 0-1,0-1 1,-2-1 0,-6-26-4861,7-7-1386</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2484.81">316 3399 4898,'0'0'7348,"23"-17"-5593,72-53 49,-81 60-1037,0 0 0,1 1 0,1 1 0,-1 0 0,1 1 0,25-7 0,-13 4-635,4 4-946,-24 8-8524</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3197.92">614 3814 8004,'0'0'9516,"-5"-4"-8748,3 2-687,0 0-1,0 1 1,0-1-1,0 1 1,0 0 0,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,-1 1-1,1-1 1,-1 1-1,1 0 1,-1 0-1,-4 0 1,3 1-17,0 0 0,0 0 0,0 1 1,-1-1-1,1 1 0,0 0 0,1 0 0,-1 1 1,0-1-1,1 1 0,-7 5 0,-13 13 62,1 2 0,1 0 0,1 1 0,1 1 0,-26 45 1,35-52-105,1 0 1,1 1 0,0 0 0,2 0 0,0 0-1,1 1 1,1 0 0,1 0 0,-2 37 0,5-51-25,0 0 1,0-1-1,1 1 1,-1 0-1,1-1 1,0 1 0,1-1-1,-1 1 1,1-1-1,0 0 1,1 0 0,-1 0-1,5 7 1,-4-9-5,0 0 1,0 0-1,0 0 1,1-1-1,-1 1 0,1-1 1,-1 0-1,1 0 1,0-1-1,0 1 1,0-1-1,0 1 0,0-1 1,0-1-1,0 1 1,0 0-1,0-1 1,6 0-1,-1 0-21,0 0 0,0 0 1,-1-1-1,1 0 0,0 0 0,0-1 0,-1-1 0,1 1 1,12-7-1,-16 6 22,0 0-1,-1 0 1,1 0 0,-1 0 0,0-1-1,0 0 1,0 0 0,-1 0 0,1 0-1,-1-1 1,0 0 0,0 1 0,0-1-1,-1 0 1,0 0 0,4-11 0,-5 14 32,-1 0 0,1 0 1,0-1-1,-1 1 0,1 0 1,-1-1-1,1 1 0,-1 0 1,0-1-1,0 1 0,0 0 1,-1-1-1,1 1 0,0 0 1,-1-1-1,0 1 0,1 0 1,-1 0-1,0 0 0,0 0 1,0-1-1,0 1 0,-1 0 1,1 1-1,0-1 0,-1 0 1,1 0-1,-1 1 1,0-1-1,0 1 0,1-1 1,-1 1-1,0 0 0,0-1 1,-5 0-1,1 0-30,0 0 0,0 0 0,0 1 0,0 0 0,-1 1 0,1-1-1,0 1 1,-1 0 0,1 1 0,0 0 0,0 0 0,-10 3 0,14-3-150,-1 0 0,1 0 0,-1 0 0,1 0 1,0 1-1,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 1,-3 5-1,-13 42-7107,15-45 6383,-6 22-6179</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3619.23">265 4553 11109,'0'0'8295,"5"-6"-8069,6-3-216,0 0 0,0 0 0,0 1 0,1 0 0,0 1 0,1 1 0,-1 0 0,28-8 0,-18 7 35,1 1 0,0 1 0,0 1 0,45-1 0,-66 6-39,-1-1 1,1 1-1,0-1 0,0 1 0,0 0 1,-1-1-1,1 1 0,0 0 0,-1 0 1,1 1-1,-1-1 0,1 0 0,-1 0 1,0 1-1,1-1 0,-1 1 1,0-1-1,0 1 0,0-1 0,0 1 1,0 0-1,0-1 0,-1 1 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1-1 1,-1 1-1,0 4 0,5 68 534,-6-64-420,2 12 309,-2 0 0,-1 1 0,-7 31 0,8-47-610,-1 0 0,-1 0-1,1 0 1,-1-1 0,0 1 0,0-1 0,-1 0 0,-6 8-1,8-11-488,-1 0 1,0 0-1,0 0 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,-7 3 0,-8 1-7528</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4261.72">370 5073 13158,'0'0'5288,"-8"16"-4517,-25 56-160,30-63-455,0 1 0,1-1 0,0 0 1,1 1-1,0 0 0,1-1 0,-1 1 1,2 0-1,2 19 0,-1-14-16,-2-12-127,0 0 0,0 0 0,1 1-1,0-1 1,0 0 0,-1 0 0,2 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,1-1-1,0 1 1,-1-1 0,1 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0-1,1 0 1,0-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0-1,0-1 1,0 0 0,0 1 0,5-1 0,0 0-27,1-1 0,-1 0 0,1 0 0,-1 0 0,0-1-1,1-1 1,-1 1 0,0-1 0,0-1 0,14-8 0,-1-1-300,-1-2-1,23-21 1,-39 33 236,1-1-1,-1 0 0,-1 0 1,1-1-1,-1 1 1,1-1-1,-1 1 1,0-1-1,-1 0 1,1-1-1,-1 1 0,0 0 1,0-1-1,-1 1 1,0-1-1,1-6 1,-2 10 80,0 0 1,-1 0 0,1 0 0,-1 1-1,1-1 1,-1 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 1 0,0-1 0,0 1-1,-1-1 1,1 1 0,0 0 0,-1-1-1,1 1 1,-1 0 0,0 0 0,1 0-1,-1 0 1,0 1 0,-3-2 0,-51-15-1,40 13-9,-1-1-1,-2 1 63,0-1 0,0-1 0,0 0 0,1-2 0,0 0 0,1-1 0,-25-17 0,41 25-60,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,1 1 0,-1 0 1,1-1-1,0 1 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 1,-1-1-1,1 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,2-1 0,7-6-23,-1 1-1,1-1 1,18-9-1,-21 14 46,25-15-35,1 1 0,58-21-1,-76 33 14,-1 1 0,1 0-1,0 1 1,0 1-1,0 0 1,0 1-1,0 1 1,0 0-1,19 3 1,-32-2 14,-1 0 0,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1-1,1 1 1,0-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 1-1,0 0 1,1-1 0,-2 1 0,1-1 0,0 3 0,-5 46 535,1-38-407,-1 1 0,-1-1 0,0 0 0,0-1-1,-1 1 1,-1-1 0,-13 15 0,-68 68-1272,85-90 256,-1 0 0,1 0 0,-1-1-1,0 1 1,0-1 0,0 0 0,0-1 0,-7 3-1,-17 6-10984</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5153.77">866 5625 384,'0'0'8663,"-14"-5"-7201,-3 0-661,0 0 1,-1 1-1,0 1 1,1 0-1,-1 1 0,0 2 1,-1-1-1,1 2 1,-28 5-1,28-1-581,0 0 0,0 2 1,1 0-1,0 1 0,1 1 0,-20 13 0,30-17-178,-1 0 0,1 0 0,0 1-1,1-1 1,-1 2 0,1-1 0,0 0 0,0 1-1,1 0 1,0 0 0,0 0 0,1 1 0,0-1-1,0 1 1,1 0 0,-3 14 0,3-14-45,1-1-1,0 1 1,0-1 0,1 1-1,0 0 1,1-1 0,-1 1 0,1-1-1,3 10 1,-3-14-5,1 0 0,0-1 0,-1 1-1,1-1 1,0 1 0,0-1 0,0 0 0,0 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1-1 0,-1 0-1,1 1 1,0-1 0,0 0 0,0 0 0,-1 0-1,1-1 1,0 1 0,0-1 0,0 1 0,0-1 0,5 0-1,2 0-38,0 0-1,1 0 1,-1 0-1,0-2 1,0 1-1,0-1 1,0-1-1,0 0 1,0 0-1,-1-1 1,1 0-1,-1-1 1,0 0-1,0 0 0,-1-1 1,0 0-1,0-1 1,0 0-1,-1 0 1,1 0-1,-2-1 1,1-1-1,-1 1 1,-1-1-1,1 0 1,7-17-1,-10 16 150,0 1-1,0-1 0,-1 0 1,0 0-1,1-19 0,-3 29-79,2 2-36,-1 0-1,1 0 1,-1 0 0,0 0 0,0 1 0,0-1 0,0 0-1,0 1 1,0-1 0,0 1 0,-1 0 0,1-1 0,-1 1-1,0-1 1,0 1 0,0 3 0,1 4-12,11 83 245,0 179 0,-12-264-140,0 0 0,-1-1 0,1 1 0,-2 0 1,1-1-1,-1 1 0,0-1 0,-1 0 1,1 0-1,-2 1 0,1-2 0,-1 1 0,0 0 1,0-1-1,0 0 0,-1 0 0,0 0 1,0 0-1,-1-1 0,0 0 0,0 0 0,0-1 1,0 1-1,-1-1 0,1-1 0,-1 1 1,0-1-1,0-1 0,0 1 0,0-1 0,-1 0 1,1-1-1,-1 0 0,1 0 0,-10 0 0,-41-7-67,20 1-1545,2 6-3794,22 4-78</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5153.76">866 5625 384,'0'0'8663,"-14"-5"-7201,-3 0-661,0 0 1,-1 1-1,0 1 1,1 0-1,-1 1 0,0 2 1,-1-1-1,1 2 1,-28 5-1,28-1-581,0 0 0,0 2 1,1 0-1,0 1 0,1 1 0,-20 13 0,30-17-178,-1 0 0,1 0 0,0 1-1,1-1 1,-1 2 0,1-1 0,0 0 0,0 1-1,1 0 1,0 0 0,0 0 0,1 1 0,0-1-1,0 1 1,1 0 0,-3 14 0,3-14-45,1-1-1,0 1 1,0-1 0,1 1-1,0 0 1,1-1 0,-1 1 0,1-1-1,3 10 1,-3-14-5,1 0 0,0-1 0,-1 1-1,1-1 1,0 1 0,0-1 0,0 0 0,0 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1-1 0,-1 0-1,1 1 1,0-1 0,0 0 0,0 0 0,-1 0-1,1-1 1,0 1 0,0-1 0,0 1 0,0-1 0,5 0-1,2 0-38,0 0-1,1 0 1,-1 0-1,0-2 1,0 1-1,0-1 1,0-1-1,0 0 1,0 0-1,-1-1 1,1 0-1,-1-1 1,0 0-1,0 0 0,-1-1 1,0 0-1,0-1 1,0 0-1,-1 0 1,1 0-1,-2-1 1,1-1-1,-1 1 1,-1-1-1,1 0 1,7-17-1,-10 16 150,0 1-1,0-1 0,-1 0 1,0 0-1,1-19 0,-3 29-79,2 2-36,-1 0-1,1 0 1,-1 0 0,0 0 0,0 1 0,0-1 0,0 0-1,0 1 1,0-1 0,0 1 0,-1 0 0,1-1 0,-1 1-1,0-1 1,0 1 0,0 3 0,1 4-12,11 83 245,0 179 0,-12-264-140,0 0 0,-1-1 0,1 1 0,-2 0 1,1-1-1,-1 1 0,0-1 0,-1 0 1,1 0-1,-2 1 0,1-2 0,-1 1 0,0 0 1,0-1-1,0 0 0,-1 0 0,0 0 1,0 0-1,-1-1 0,0 0 0,0 0 0,0-1 1,0 1-1,-1-1 0,1-1 0,-1 1 1,0-1-1,0-1 0,0 1 0,0-1 0,-1 0 1,1-1-1,-1 0 0,1 0 0,-10 0 0,-41-7-67,20 1-1545,2 6-3794,22 4-78</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5411.76">427 6460 6115,'0'0'10943,"1"25"-9774,12 334 1488,-13-234-2488,0-70-5535,25-63-9665</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5783.09">692 6657 400,'0'0'19113,"-3"12"-18841,-5 21 60,1 1-1,2 0 1,-1 51-1,5-73-301,1-6-16,0 0-1,0 0 1,0 0-1,0 0 0,1 0 1,2 6-1,-3-11-7,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,-1-1 0,1 1 0,0 0 1,0-1-1,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 0 0,1 0 0,5-4 22,0 0 1,-1 0 0,1-1-1,-1 0 1,0 0-1,0 0 1,-1-1-1,9-14 1,-2 2 8,-2 1 0,13-30 0,-21 42-5,1 0 0,-1 0 1,-1 0-1,1 0 0,-1-1 0,0 1 0,0 0 0,0-1 1,-1 1-1,0 0 0,-1-1 0,1 1 0,-1-1 0,0 1 1,-3-9-1,2 11 10,0 0 1,-1-1 0,1 1-1,-1 0 1,0 0 0,0 0 0,0 1-1,0-1 1,-1 1 0,0 0-1,1 0 1,-1 0 0,0 0-1,-1 1 1,1 0 0,0-1 0,-1 2-1,1-1 1,-9-2 0,6 2-299,1 0 0,-1 1 0,1-1 0,-1 1 0,0 1 0,0-1 0,1 1 0,-1 1 0,0-1 0,0 1 0,1 0 0,-1 1 0,0-1 0,1 1 0,0 1 0,-1-1 0,1 1 0,0 0 1,0 1-1,0 0 0,1 0 0,0 0 0,-1 0 0,1 1 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,1 0 0,-1 0 0,-4 11 0,-2 6-6408</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7006.79">2382 294 8644,'0'0'8057,"-3"-4"-6918,3 2-1078,-1 1 0,0-1-1,0 1 1,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0-1 0,-1 1-1,1 0 1,0 0 0,-1 1 0,1-1-1,0 0 1,-1 0 0,1 1 0,-1-1-1,1 1 1,-1-1 0,0 1 0,1 0-1,-1-1 1,1 1 0,-1 0 0,0 0-1,1 0 1,-1 0 0,1 1 0,-1-1-1,0 0 1,1 1 0,-1-1 0,1 1-1,-1-1 1,1 1 0,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0-1,-1 2 1,-3 5-64,-1 0 0,2-1-1,-1 1 1,1 1-1,0-1 1,1 1 0,0 0-1,0-1 1,-2 15 0,1 1-6,2 1 1,1 33-1,1-51 9,1 0-1,1 1 0,-1-1 0,1 0 0,0 0 0,1 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,1-1 0,1 0 1,-1 0-1,1 0 0,0-1 0,0 0 0,9 8 0,11 7-3,1-1-1,45 25 1,-70-44 4,0 1 14,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1 1,1 1-1,-1 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 1,0 0-1,0-1 0,-1 1 0,1-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 1,0 1-1,-1-1 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,-29 23 80,26-21-48,-7 6-321,-1 0 0,1-1 0,-2-1-1,1 0 1,-1-1 0,-20 6 0,32-12-162,0-1-1,0 1 1,1-1-1,-1 0 1,0 1 0,1-1-1,-1 0 1,1 0 0,-1 1-1,1-1 1,0 0-1,0 0 1,0 1 0,0-1-1,0 0 1,0 0 0,0 0-1,1-2 1,0-3-1082,-1-36-5508</inkml:trace>
@@ -13327,14 +12909,14 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17329.59">671 1465 4178,'0'0'11637,"-3"-8"-10458,2 8-1173,0-4 80,0 1 0,-1 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 1-1,-1-1 1,1 1 0,-1-1-1,1 1 1,-1 0 0,0 0-1,0 1 1,0-1 0,0 0 0,-1 1-1,1 0 1,0 0 0,-5-1-1,-9-1-34,0 0-1,1 2 0,-1 0 1,0 1-1,0 1 0,1 1 1,-1 0-1,0 1 1,1 1-1,0 0 0,-25 11 1,-14 9-35,-95 56 1,134-68-13,1 0 0,0 1 0,2 0 1,-1 2-1,1-1 0,1 1 0,1 1 0,-16 29 0,21-35 24,2 0 0,-1 1 0,1-1 0,1 1 0,0 0 0,1 0 0,0 0 0,-1 18-1,1-1 68,2 0-1,4 36 0,-3-59-85,0-1-1,0 0 1,0 1 0,1-1-1,0 0 1,-1 0 0,1 0 0,1 0-1,-1 0 1,0-1 0,1 1-1,0-1 1,0 1 0,0-1 0,0 0-1,0 0 1,1-1 0,-1 1-1,1-1 1,0 0 0,0 1-1,0-2 1,0 1 0,0 0 0,0-1-1,0 0 1,6 1 0,12 3 31,0-2 1,0 0 0,43-2 0,-60-1-35,22-1 21,0-2-1,0 0 0,0-2 1,0-1-1,43-17 0,-25 6-3,-1-3 0,59-36 0,-89 47-12,0 0-1,0 0 1,-1-2-1,-1 1 1,0-2-1,19-21 1,-26 25 7,0 1 0,0-1 0,-1-1 0,0 1 0,0-1 0,-1 1 0,0-1 0,0 0 0,-1 0 0,0 0 0,-1-1 0,0 1 0,0-13 0,-1 13-18,-1 1 1,0 0-1,0 0 0,-1 0 1,0 0-1,0 0 1,-1 0-1,0 0 1,0 1-1,-1-1 1,1 1-1,-2 0 0,1 0 1,-1 1-1,0-1 1,-1 1-1,1 0 1,-1 1-1,0-1 1,-1 1-1,1 0 0,-1 1 1,0 0-1,0 0 1,0 0-1,-1 1 1,1 0-1,-1 0 1,-11-2-1,12 3-76,-1 1 0,1-1 0,0 1 0,0 0-1,-1 1 1,1 0 0,0 0 0,0 0 0,-1 1 0,-7 2 0,12-2-239,0 0 1,0 0 0,1 0-1,-1 1 1,0-1 0,1 1-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 1 0,0-1-1,1 1 1,-1-1 0,1 1-1,-1 0 1,1 0 0,0-1-1,0 1 1,1 0 0,-1 0-1,1 0 1,-1 6 0,0 14-4750</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18175.88">749 1730 10741,'0'0'4938,"3"8"-4908,1-5 31,0-1 1,0 0 0,1 0 0,-1 0 0,0 0-1,1-1 1,-1 0 0,1 0 0,0 0 0,4 0 0,56 3 1042,-53-4-912,425 2 1514,-226-3-1611,-141-3-43,84-14 0,-129 14-49,-24 4-5,-1 0 1,0 0 0,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0-1-1,0 1 1,1 0-1,-1 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0-1-1,0 1 1,0 0-1,0 0 1,1 0-1,-1-1 1,0 1 0,0 0-1,0 0 1,0 0-1,0-1 1,0 1-1,0 0 1,0 0-1,1-1 1,-1 1-1,0 0 1,0 0-1,0-1 1,0 1-1,0 0 1,0 0-1,0-1 1,0 1-1,0 0 1,-1 0-1,1-1 1,0 1-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0-1,0 0 1,-1 0-1,1-1 1,0 1-1,0 0 1,0 0-1,0 0 1,-1 0-1,1-1 1,0 1-1,-22-20-197,-33-16-73,36 27 401,-4-3 139,25 8-346,15 2-292,-5 2 312,1 1 0,0 0 0,-1 0-1,1 1 1,23 8 0,-32-9 47,-1 0 1,0 0 0,0 0-1,0 1 1,0 0-1,0-1 1,-1 1 0,1 0-1,-1 1 1,1-1 0,-1 0-1,1 1 1,-1-1-1,0 1 1,0 0 0,0 0-1,-1 0 1,1 0-1,-1 0 1,1 0 0,-1 0-1,0 0 1,0 0-1,-1 1 1,1-1 0,-1 0-1,1 1 1,-1 3-1,0-2 17,-1-1-1,1 1 1,-1-1-1,0 1 1,0-1-1,0 1 1,-1-1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,-1 0 1,0 0-1,-3 3 1,-7 6-6,-1 0 0,-24 17 0,28-23-118,0 1-1,0-1 1,0 2-1,1 0 1,1 0-1,-15 20 1,21-24-1594</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18508.38">2365 1609 10181,'0'0'8534,"0"3"-8323,-1 19 133,-2 0 0,0-1 0,-2 1 0,-9 29 0,7-30-664,1 1-1,1 0 1,1 1-1,-1 32 0,6-54-122,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,3-1-1,-3 1-232,19-5-7501</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18919.83">2518 1615 7395,'0'0'10987,"0"0"-10963,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 1,-1-1-1,1 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,-1 0 1,1 0-1,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,-7 12 74,0 0 0,1 0 0,0 1 1,1-1-1,0 1 0,1 0 0,1 1 0,0-1 0,0 1 0,1 0 1,1-1-1,1 1 0,1 22 0,-1-35-98,1 1 1,0-1-1,0 0 0,0 0 1,-1 1-1,1-1 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 1,0 0-1,0-1 0,1 1 1,-1 0-1,0-1 0,1 1 1,-1 0-1,1-1 0,-1 0 0,1 1 1,-1-1-1,0 0 0,1 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,1 0 0,47-7 100,-42 4-89,1-1-1,-1 0 0,0 0 1,0-1-1,0 0 0,0 0 1,-1 0-1,0-1 1,0-1-1,9-10 0,-12 13 23,0-1 0,0 0 0,-1 0-1,0 0 1,0 0 0,0-1 0,-1 1 0,0-1-1,0 0 1,0 1 0,-1-1 0,0 0 0,0 0 0,0 0-1,0 0 1,-1 0 0,-1-11 0,0 15-25,0-1-1,0 0 1,0 1 0,0-1 0,-1 1-1,1-1 1,-1 1 0,1 0 0,-1 0-1,0-1 1,0 1 0,0 0 0,0 1 0,0-1-1,0 0 1,-1 1 0,1-1 0,0 1-1,-1 0 1,0-1 0,1 1 0,-1 0 0,1 1-1,-1-1 1,0 0 0,0 1 0,-3 0-1,1-1-189,-1 0 0,1 0 0,-1 1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1 0-1,1 1 1,-1-1 0,1 1 0,-6 3 0,-51 51-8358,42-38 2721</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18919.82">2518 1615 7395,'0'0'10987,"0"0"-10963,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 1,-1-1-1,1 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,-1 0 1,1 0-1,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,-7 12 74,0 0 0,1 0 0,0 1 1,1-1-1,0 1 0,1 0 0,1 1 0,0-1 0,0 1 0,1 0 1,1-1-1,1 1 0,1 22 0,-1-35-98,1 1 1,0-1-1,0 0 0,0 0 1,-1 1-1,1-1 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 1,0 0-1,0-1 0,1 1 1,-1 0-1,0-1 0,1 1 1,-1 0-1,1-1 0,-1 0 0,1 1 1,-1-1-1,0 0 0,1 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,1 0 0,47-7 100,-42 4-89,1-1-1,-1 0 0,0 0 1,0-1-1,0 0 0,0 0 1,-1 0-1,0-1 1,0-1-1,9-10 0,-12 13 23,0-1 0,0 0 0,-1 0-1,0 0 1,0 0 0,0-1 0,-1 1 0,0-1-1,0 0 1,0 1 0,-1-1 0,0 0 0,0 0 0,0 0-1,0 0 1,-1 0 0,-1-11 0,0 15-25,0-1-1,0 0 1,0 1 0,0-1 0,-1 1-1,1-1 1,-1 1 0,1 0 0,-1 0-1,0-1 1,0 1 0,0 0 0,0 1 0,0-1-1,0 0 1,-1 1 0,1-1 0,0 1-1,-1 0 1,0-1 0,1 1 0,-1 0 0,1 1-1,-1-1 1,0 0 0,0 1 0,-3 0-1,1-1-189,-1 0 0,1 0 0,-1 1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1 0-1,1 1 1,-1-1 0,1 1 0,-6 3 0,-51 51-8358,42-38 2721</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20302.74">2756 1354 3986,'0'0'8815,"0"-5"-8111,0-21 1238,-43 25 739,15 2-2433,0 1-1,0 1 1,0 1 0,-51 15-1,6 0-117,32-9 34,-54 21 1,74-20-157,2 1-1,0 0 1,0 1 0,1 1-1,-27 28 1,9-9-3,28-25 29,1-1 1,0 2 0,1-1-1,0 1 1,0-1-1,1 2 1,0-1 0,0 1-1,1-1 1,0 1 0,1 0-1,0 1 1,-3 19-1,1 11 184,2-1 0,3 55 0,0-55-169,1-36-18,0 1 0,0-1 0,0 1-1,1-1 1,-1 0 0,1 1 0,0-1 0,1 0 0,-1-1 0,1 1-1,-1 0 1,1-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 0-1,0 0 1,-1-1 0,6 3 0,2 2 142,0-1-1,0 0 1,1-1 0,0 0-1,0-1 1,14 3 0,-3-4-69,-1-1-1,1-1 1,0-1 0,-1-1 0,1-1 0,-1-1-1,32-8 1,-6-3-41,0-1 0,58-28 0,-89 35-45,1-1 1,-1-1-1,-1-1 1,0 0-1,0-1 1,-1-1-1,-1-1 1,0 0-1,-1 0 1,0-2-1,-1 0 1,-1 0-1,14-27 1,-14 19 12,0-2 0,-2 1 0,0-2 1,-2 1-1,-1-1 0,-1 0 0,-1 0 0,-1 0 1,-1-32-1,-3 55-18,0 0 1,0 1-1,0-1 0,0 0 1,0 1-1,-1-1 0,0 1 1,1 0-1,-1 0 0,-1-1 1,1 1-1,0 0 0,-1 1 1,1-1-1,-1 0 0,0 1 1,0 0-1,0-1 0,0 1 1,0 0-1,0 1 0,-8-4 1,-9-4-53,-1 0 0,-32-8 1,47 15 39,2 1-129,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 1 0,0-1-1,0 1 1,1 1-1,-1-1 1,0 1 0,1-1-1,-1 1 1,1 1-1,-1-1 1,1 1 0,-1-1-1,-6 5 1,1 2-977,0 0-1,0 0 1,1 1 0,1 0 0,-10 12-1,-4 5-2511,-7 5-3963</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21450.42">2128 1778 4578,'0'0'9735,"-35"-1"-6552,-3 10-2164,-62 25 0,18-5-592,3-4-161,-48 15 328,-146 27 0,199-51-504,0 4-1,1 3 0,-110 52 1,147-60 112,0-2 1,-72 17 0,101-27-201,-1-1-1,1 1 1,0 0 0,0 1-1,1-1 1,-1 1 0,1 1-1,0-1 1,-7 7-1,6-5 17,0 0-1,-1-1 1,1 0-1,-17 8 1,-13 5 201,31-14-155,0-1 0,0 0 0,0 0 0,-1 0 0,0-1 0,1 0 0,-1 0 0,-12 1 0,17-2-694,-7 4 2990,6-5-5072,11-17-12223</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22150.24">700 2039 4626,'0'0'6715,"-10"-6"-5586,-4-1-675,0 0 0,0 1 0,0 1 0,0 0 0,-1 1 1,0 0-1,0 1 0,-22-1 0,16 5-403,1 2 0,-1 0 0,1 1 0,0 1 0,0 1 0,0 1 0,1 1 0,0 0 1,0 2-1,1 0 0,0 1 0,-24 20 0,10-5 95,1 2 0,1 1 0,1 1-1,2 1 1,-34 51 0,54-71-111,1-1 0,0 2 0,1-1 0,0 1 0,0 0 1,1 0-1,1 0 0,0 0 0,0 1 0,1-1 0,1 1 0,0 0 0,1-1 0,3 26 0,-2-32-9,1 0-1,-1-1 1,2 1 0,-1 0 0,1 0 0,-1-1-1,1 0 1,1 1 0,-1-1 0,1 0-1,0-1 1,0 1 0,0-1 0,1 0 0,0 0-1,10 7 1,-4-4 38,0 0 1,0 0-1,1-1 0,0 0 1,1-1-1,22 5 0,-11-6-30,1-1-1,1-1 0,-1-1 1,0-2-1,0 0 0,0-2 1,0-1-1,-1-1 0,1-1 1,-1-1-1,0-1 0,-1-1 1,0-1-1,0-2 0,-1 0 1,0-1-1,-2-1 1,1-1-1,-2-1 0,0-1 1,22-24-1,-35 33-22,1 0 1,-1-1 0,-1 1-1,1-1 1,-1 0-1,-1-1 1,0 1-1,0-1 1,-1 0-1,3-14 1,-2-2 46,-1 0 0,-1-49 0,-2 68-56,-1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,0 0 0,-1 1 0,1 0 0,-1-1 0,-1 1 0,1 1 0,-1-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 1 0,0 0 0,1 0 0,-1 1 0,0 0 0,0 0 0,-1 1 0,-10-2 0,17 4-100,0-1 1,0 0-1,0 1 1,0-1-1,0 0 0,1 1 1,-1-1-1,0 1 1,0 0-1,0-1 1,0 1-1,1 0 0,-1-1 1,0 1-1,1 0 1,-1 0-1,1-1 1,-1 1-1,0 0 0,1 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 1 1,-2 41-5535,3-34 2796,-1 11-4004</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23060.51">770 2330 6659,'0'0'9252,"46"0"-6947,1-3-1789,-1-2 0,0-2 0,0-2 0,76-26 0,346-85-449,-413 110-90,1 3 0,91 1 0,-147 6 20,1 0 1,-1 1 0,0-1 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,1 0 0,-1 0-1,0 0 1,0 0 0,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0-1 0,0 1 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,-10-8 16,-14-6 5,6 6-16,11 6 63,1-1 1,0 0 0,-1 0 0,1 0-1,1-1 1,-7-5 0,45 7-582,-27 2 499,0 1-1,0 0 0,0 0 1,0 1-1,0-1 1,0 2-1,-1-1 0,1 0 1,-1 1-1,1 0 1,-1 1-1,0-1 0,0 1 1,0 0-1,6 7 1,-10-10 26,1 1 0,0 0 0,0 0 0,-1 0 0,1 0 1,-1 0-1,0 1 0,1-1 0,-1 0 0,0 1 0,-1-1 0,1 0 1,0 1-1,0-1 0,-1 1 0,0 0 0,1-1 0,-1 1 1,0-1-1,0 1 0,-1-1 0,1 1 0,0 0 0,-1-1 1,0 1-1,1-1 0,-1 1 0,0-1 0,0 0 0,0 1 1,-1-1-1,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 1,0 0-1,-2 2 0,-8 7-80,0-1 1,0 0 0,-1-1-1,0 0 1,-1-1 0,-19 8-1,27-15-1013,0-1-3347</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23649.52">2229 2138 4162,'0'0'10727,"0"14"-9702,-4 44 621,-1-1 1,-27 114-1,30-159-1591,1-12-152,1 1 0,0-1-1,0 1 1,-1-1 0,1 0 0,0 1-1,0-1 1,0 1 0,0-1 0,0 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0 1 0,0-1 0,0 1-1,0-1 1,0 1 0,0-1 0,0 0-1,0 1 1,0-1 0,1 1-1,-1-1 1,0 1 0,0-1 0,1 0-1,-1 1 1,0-1 0,0 0 0,1 1-1,-1-1 1,0 0 0,1 0-1,-1 1 1,0-1 0,1 0 0,-1 0-1,1 1 1,0-1 0,17-6-4462,7-14-774</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24101.28">2465 2134 9060,'0'0'8124,"-14"7"-7620,-43 23-114,55-28-376,0 0 0,0-1 0,0 2 1,0-1-1,0 0 0,0 0 0,1 0 1,-1 1-1,1-1 0,0 1 0,0-1 1,0 1-1,0 0 0,0-1 0,0 1 0,1 0 1,-1 0-1,0 5 0,5 48 71,-3-46-67,-1-7-12,1 0-1,-1-1 0,1 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,1-1-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 0,0-1 1,4 3-1,4 1 10,-1 0-1,1-1 0,18 5 1,20 10 122,-47-19-68,0 1 1,0 0-1,-1 0 0,1 0 0,0 0 0,0 0 0,-1 1 0,1-1 1,-1 0-1,1 0 0,-1 0 0,1 1 0,-1-1 0,0 0 0,1 0 1,-1 1-1,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 1,-1 1-1,1-1 0,0 0 0,0 0 0,-1 1 0,1-1 0,-2 1 1,2 2-45,-2-1 0,1 0 1,0 0-1,-1 0 0,1 0 1,-1-1-1,0 1 0,0 0 1,0-1-1,-3 4 0,-19 7-981,23-14 542,1 0 0,-1 0 0,0 0-1,1 0 1,-1 0 0,1 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,0-1 0,0 1 0,1-2 0,-1-19-5792</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24853.63">2048 2180 5074,'0'0'11392,"-1"-6"-10733,1 5-627,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1-1 1,1 1-1,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,2-1 0,2 0 115,-1 1 1,1-1 0,0 1-1,0 0 1,-1 1-1,1-1 1,0 1 0,7 0-1,-6 0-84,-1 0-1,0 0 1,0 0-1,0 1 1,1 0 0,-1 0-1,0 0 1,0 1-1,0 0 1,0 0-1,-1 0 1,6 3-1,-8-3-41,1 1-1,0 0 0,-1-1 0,1 1 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 1 1,-1-1-1,1 1 0,-1-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1 4 0,1-2 18,0 1 1,-1-1-1,0 1 0,0 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,-8 10 0,8-13-19,-1 11 32,3-13-134,3-1-1248,24-1 1031,-17 0 246,0 0-1,0 1 0,1 0 0,-1 1 0,0 0 1,16 4-1,-24-4 61,-1 0 1,1 0-1,0 0 0,-1 1 1,0-1-1,1 0 1,-1 1-1,0 0 0,1-1 1,-1 1-1,0 0 1,0-1-1,0 1 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 1,-1 0-1,1 0 0,-1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 3 0,1-1 77,-1 0-1,1-1 0,-1 1 0,0 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,-1 1 1,0-1-1,0 0 0,0 0 0,0 0 0,-3 4 0,-4 0 67,-1 1-1,0-2 1,0 1 0,-1-1 0,0-1-1,0 0 1,0 0 0,0-1-1,-1-1 1,0 0 0,1-1-1,-1 0 1,0 0 0,-20-1-1,32-2-202,-1 1-1,0 0 0,0-1 0,1 1 0,-1-1 0,0 1 1,1-1-1,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 1 1,-1-1-1,1 0 0,-1 0 0,1 1 0,0-1 0,-1 0 1,1 0-1,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 1,0 1-1,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 1 1,0-1-1,0 0 0,0 0 0,1 0 0,-1 1 0,1-2 1,12-36-3053,18 4-1220,3 0-1131</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24853.62">2048 2180 5074,'0'0'11392,"-1"-6"-10733,1 5-627,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1-1 1,1 1-1,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,2-1 0,2 0 115,-1 1 1,1-1 0,0 1-1,0 0 1,-1 1-1,1-1 1,0 1 0,7 0-1,-6 0-84,-1 0-1,0 0 1,0 0-1,0 1 1,1 0 0,-1 0-1,0 0 1,0 1-1,0 0 1,0 0-1,-1 0 1,6 3-1,-8-3-41,1 1-1,0 0 0,-1-1 0,1 1 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 1 1,-1-1-1,1 1 0,-1-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1 4 0,1-2 18,0 1 1,-1-1-1,0 1 0,0 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,-8 10 0,8-13-19,-1 11 32,3-13-134,3-1-1248,24-1 1031,-17 0 246,0 0-1,0 1 0,1 0 0,-1 1 0,0 0 1,16 4-1,-24-4 61,-1 0 1,1 0-1,0 0 0,-1 1 1,0-1-1,1 0 1,-1 1-1,0 0 0,1-1 1,-1 1-1,0 0 1,0-1-1,0 1 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 1,-1 0-1,1 0 0,-1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 3 0,1-1 77,-1 0-1,1-1 0,-1 1 0,0 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,-1 1 1,0-1-1,0 0 0,0 0 0,0 0 0,-3 4 0,-4 0 67,-1 1-1,0-2 1,0 1 0,-1-1 0,0-1-1,0 0 1,0 0 0,0-1-1,-1-1 1,0 0 0,1-1-1,-1 0 1,0 0 0,-20-1-1,32-2-202,-1 1-1,0 0 0,0-1 0,1 1 0,-1-1 0,0 1 1,1-1-1,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 1 1,-1-1-1,1 0 0,-1 0 0,1 1 0,0-1 0,-1 0 1,1 0-1,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 1,0 1-1,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 1 1,0-1-1,0 0 0,0 0 0,1 0 0,-1 1 0,1-2 1,12-36-3053,18 4-1220,3 0-1131</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25268.24">2448 2140 5346,'0'0'12996,"-5"0"-12391,2 0-564,0 0-1,0 1 0,0-1 0,0 1 0,0 0 1,1 0-1,-1 0 0,0 0 0,1 1 0,-1-1 1,1 1-1,-1-1 0,1 1 0,0 0 0,-1 0 1,-1 3-1,-2 2 58,0 0 0,0 0 0,1 1 0,1 0 0,-6 10 0,0 5 153,1 0 0,1 0 0,-7 37 0,13-47-139,-1-2-45,1 0 0,0-1-1,1 1 1,0 21 0,1-29-69,1-1 1,-1 0-1,0 1 0,1-1 1,0 0-1,-1 1 1,1-1-1,0 0 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1-1 1,-1 1-1,1 0 1,0-1-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,5 1 1,4 1-46,1-1 0,0 0-1,0 0 1,0-2 0,0 1 0,1-2 0,-1 0 0,0 0 0,0-1 0,-1 0-1,1-1 1,0-1 0,-1 0 0,1 0 0,-1-1 0,0-1 0,-1 0-1,0 0 1,0-1 0,0-1 0,0 1 0,-1-2 0,-1 1 0,1-1 0,-1 0-1,10-17 1,-15 20 130,0 0 0,-1 0-1,1-1 1,-1 1 0,-1-1 0,1 1-1,-1-1 1,-1 1 0,1-1-1,-1 0 1,0 0 0,0 1 0,-1-1-1,0 0 1,0 1 0,-1-1-1,1 1 1,-1-1 0,-1 1 0,1 0-1,-1 0 1,0 0 0,-1 0 0,1 1-1,-7-9 1,6 9-164,0 0 0,-1 0 1,1 0-1,-1 0 0,0 1 0,0 0 0,-1 0 1,1 0-1,-1 1 0,0 0 0,-9-4 1,11 6-277,0-1 1,-1 1 0,1 1 0,0-1 0,-1 0 0,1 1 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 1-1,-4 3 1,-16 10-5209</inkml:trace>
 </inkml:ink>
 </file>
@@ -13401,8 +12983,8 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">45 32 6163,'0'0'12387,"-1"-5"-11808,-3-13 258,4 32 126,-1 22-992,-2 18 244,-13 288 613,16-341-614,-4-45 223,-4-16-791,3 0 0,3-1 0,8-89 0,7 113 298,-13 36 47,0 0-1,0 1 1,1-1-1,-1 0 1,1 1-1,-1-1 0,0 0 1,1 1-1,-1-1 1,1 1-1,0-1 1,-1 0-1,1 1 1,-1 0-1,1-1 1,0 1-1,-1-1 1,1 1-1,0 0 0,-1-1 1,1 1-1,0 0 1,0 0-1,-1 0 1,1-1-1,0 1 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,-1 1 0,1-1 1,0 0-1,0 0 1,-1 0-1,1 1 1,0-1-1,0 0 1,-1 1-1,1-1 1,-1 0-1,1 1 1,0-1-1,-1 1 0,1-1 1,-1 1-1,1 0 1,7 8 11,-1 1 0,0-1-1,0 1 1,-1 1 0,-1-1 0,9 22 0,18 73 252,-30-98-230,14 84 224,-13-68-131,0 0-1,13 40 0,-10-98-312,14-44 0,-7 35-197,-3 7 52,1 1-1,2 0 1,26-51 0,-38 86 332,-1 1 0,0-1 0,0 0-1,1 1 1,-1-1 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 1-1,1-1 1,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,-1 0 0,1-1 0,0 1-1,0 0 1,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,1 0-1,-1 1 11,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 1 1,-1-1-1,1 0 1,0 0-1,0 4 0,16 65 439,-15-56-305,7 46 459,-3 1 0,-2 1 0,-5 66 0,0-43-9,1-84-629,1-9-7425,3-12-681</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="496.44">620 115 1873,'0'0'12235,"0"-5"-10565,0 7-1263,0 58 3591,-10 189-2230,0-74-674,10-174-1507,0-9-1748,3-32-4736,9 18 1023</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1174.61">829 207 288,'0'0'15327,"-5"-7"-14294,-20-21-198,25 27-801,-1 0 0,0 0 1,0 1-1,0-1 0,0 0 1,0 0-1,0 1 1,0-1-1,0 1 0,0-1 1,0 1-1,0-1 0,0 1 1,0-1-1,0 1 0,0 0 1,0 0-1,-1 0 1,1-1-1,0 1 0,0 1 1,0-1-1,-1 0 0,1 0 1,0 0-1,0 0 0,0 1 1,0-1-1,0 1 0,0-1 1,0 1-1,0-1 1,0 1-1,0-1 0,0 1 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 0,1 0 1,-1 0-1,0 0 1,1 0-1,-2 1 0,0 2-18,0 0 1,0 0-1,0 0 0,0 0 0,1 1 0,-1-1 0,1 0 1,-1 9-1,2-7 6,-1 1 1,2-1 0,-1 1-1,1-1 1,0 0 0,0 0-1,1 1 1,0-1 0,0 0-1,0 0 1,5 7 0,-2-6-3,0-1-1,1 0 1,0 0 0,0-1 0,0 1 0,1-1 0,-1-1 0,12 6 0,18 10 9,-23-14 54,0 1-1,-1 0 1,18 15 0,-27-20-2,0 1 1,-1-1 0,1 1 0,-1 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,-1 1 0,1-1 0,-1 0-1,1 1 1,-1-1 0,0 1 0,-1 0-1,1-1 1,0 1 0,-1 5 0,0-6-28,-1 0 1,1 1-1,-1-1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 1,0-1 0,1 1-1,-1 0 1,0-1-1,0 1 1,0-1-1,-1 0 1,1 1-1,-1-1 1,1 0 0,-1-1-1,1 1 1,-1 0-1,0-1 1,0 1-1,-5 0 1,-2 2-56,0 0 1,0-1-1,-1-1 0,1 0 1,-1 0-1,-20 0 1,29-3-81,1 1 1,-1-1 0,1 1-1,-1-1 1,1 1 0,-1-1 0,1 0-1,-1 0 1,1 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0-1 0,0 1-1,0-1 1,0 1 0,1 0 0,-1-1-1,0 1 1,1-1 0,0 1 0,-1-1-1,1 0 1,0 1 0,-1-1 0,1 1-1,0-1 1,0-2 0,0-67-3103,1 50 1902,0-48-6076,15-91-1,-8 111 8945,2 1 4375,-10 45-5144,1 1 1,-1-1-1,1 1 0,0-1 1,0 1-1,0-1 0,1 1 1,-1 0-1,1 0 0,2-4 1,0 3-556,0 0 0,0 0-1,0 0 1,0 1 0,1 0 0,-1 0 0,1 0 0,5-2 0,1 0-112,14-7-73,1 2 1,-1 0 0,2 2-1,-1 1 1,1 1 0,33-2 0,-59 10-866,1 1 1,0-1-1,-1 1 1,0-1 0,0 1-1,0 0 1,0 7 0,1 8-4817,2 1-2497</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1699.19">1171 120 4690,'0'0'12889,"-7"-9"-11779,-21-28-275,26 36-787,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 1,0-1-1,0 1 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 1 1,0-1-1,-1 1 0,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 1-1,0-1 0,0 1 0,-2 2 0,-2 2-27,1 1 0,-1-1 0,1 1 0,0 1 0,1-1 0,0 1-1,0 0 1,0 0 0,1 0 0,-3 13 0,2-2-18,1 0 0,1 0 1,0 33-1,2-51-14,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 1,0-1-1,0 1 0,1 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1-1 0,1 1 1,-1 0-1,1 0 0,0-1 1,0 1-1,-1 0 0,1-1 1,0 1-1,0-1 0,0 1 0,-1-1 1,3 1-1,0 0-15,-1-1 0,1 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1-1 0,5 0 0,-1-1-5,0 1-1,-1-1 0,1 0 1,0-1-1,-1 0 0,0 1 0,1-2 1,-1 1-1,7-7 0,-2-4 9,-1 0-1,0 0 1,-1-1-1,-1 0 0,0-1 1,-1 0-1,4-17 1,2-5 273,-12 37-242,1 1 1,-1 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0-1-1,1 1 1,-1 0-1,0 0 0,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 0,0 1 1,0-1-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 0,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 1 0,0-1 1,1 0-1,-1 0 1,0 0-1,0 1 1,0-1-1,0 0 0,0 0 1,0 0-1,0 1 1,6 11-136,7 45 153,6 72 0,-8-44-14,-5-31 158,-1 85 1,-5-136-91,0 0 1,-1 0-1,1 1 0,-1-1 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,-1 0 0,0 0 1,1 0-1,-1 0 0,0-1 0,0 1 1,-1-1-1,1 0 0,0 1 0,-1-1 0,0 0 1,1 0-1,-1-1 0,0 1 0,0 0 0,0-1 1,0 0-1,-5 2 0,1-1 86,-1 0 0,0 0 0,0 0 0,0-1 0,0 0 0,0-1 0,-1 0-1,1 0 1,0-1 0,-10-1 0,15 0-229,0 1 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,0 0 0,-1 0-1,1-1 1,0 1 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,-1-4 0,2 5-190,0 0-1,0-1 1,0 1 0,0-1-1,1 1 1,-1-1 0,1 1-1,0-1 1,-1 1 0,1-1-1,0 1 1,0-1 0,1 1-1,-1-1 1,0 1 0,1-1-1,0 1 1,-1 0 0,1-1-1,0 1 1,0 0 0,1-1-1,-1 1 1,2-3 0,27-16-4517,9 1-3061</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1174.6">829 207 288,'0'0'15327,"-5"-7"-14294,-20-21-198,25 27-801,-1 0 0,0 0 1,0 1-1,0-1 0,0 0 1,0 0-1,0 1 1,0-1-1,0 1 0,0-1 1,0 1-1,0-1 0,0 1 1,0-1-1,0 1 0,0 0 1,0 0-1,-1 0 1,1-1-1,0 1 0,0 1 1,0-1-1,-1 0 0,1 0 1,0 0-1,0 0 0,0 1 1,0-1-1,0 1 0,0-1 1,0 1-1,0-1 1,0 1-1,0-1 0,0 1 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 0,1 0 1,-1 0-1,0 0 1,1 0-1,-2 1 0,0 2-18,0 0 1,0 0-1,0 0 0,0 0 0,1 1 0,-1-1 0,1 0 1,-1 9-1,2-7 6,-1 1 1,2-1 0,-1 1-1,1-1 1,0 0 0,0 0-1,1 1 1,0-1 0,0 0-1,0 0 1,5 7 0,-2-6-3,0-1-1,1 0 1,0 0 0,0-1 0,0 1 0,1-1 0,-1-1 0,12 6 0,18 10 9,-23-14 54,0 1-1,-1 0 1,18 15 0,-27-20-2,0 1 1,-1-1 0,1 1 0,-1 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,-1 1 0,1-1 0,-1 0-1,1 1 1,-1-1 0,0 1 0,-1 0-1,1-1 1,0 1 0,-1 5 0,0-6-28,-1 0 1,1 1-1,-1-1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 1,0-1 0,1 1-1,-1 0 1,0-1-1,0 1 1,0-1-1,-1 0 1,1 1-1,-1-1 1,1 0 0,-1-1-1,1 1 1,-1 0-1,0-1 1,0 1-1,-5 0 1,-2 2-56,0 0 1,0-1-1,-1-1 0,1 0 1,-1 0-1,-20 0 1,29-3-81,1 1 1,-1-1 0,1 1-1,-1-1 1,1 1 0,-1-1 0,1 0-1,-1 0 1,1 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0-1 0,0 1-1,0-1 1,0 1 0,1 0 0,-1-1-1,0 1 1,1-1 0,0 1 0,-1-1-1,1 0 1,0 1 0,-1-1 0,1 1-1,0-1 1,0-2 0,0-67-3103,1 50 1902,0-48-6076,15-91-1,-8 111 8945,2 1 4375,-10 45-5144,1 1 1,-1-1-1,1 1 0,0-1 1,0 1-1,0-1 0,1 1 1,-1 0-1,1 0 0,2-4 1,0 3-556,0 0 0,0 0-1,0 0 1,0 1 0,1 0 0,-1 0 0,1 0 0,5-2 0,1 0-112,14-7-73,1 2 1,-1 0 0,2 2-1,-1 1 1,1 1 0,33-2 0,-59 10-866,1 1 1,0-1-1,-1 1 1,0-1 0,0 1-1,0 0 1,0 7 0,1 8-4817,2 1-2497</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1699.18">1171 120 4690,'0'0'12889,"-7"-9"-11779,-21-28-275,26 36-787,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 1,0-1-1,0 1 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 1 1,0-1-1,-1 1 0,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 1-1,0-1 0,0 1 0,-2 2 0,-2 2-27,1 1 0,-1-1 0,1 1 0,0 1 0,1-1 0,0 1-1,0 0 1,0 0 0,1 0 0,-3 13 0,2-2-18,1 0 0,1 0 1,0 33-1,2-51-14,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 1,0-1-1,0 1 0,1 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1-1 0,1 1 1,-1 0-1,1 0 0,0-1 1,0 1-1,-1 0 0,1-1 1,0 1-1,0-1 0,0 1 0,-1-1 1,3 1-1,0 0-15,-1-1 0,1 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1-1 0,5 0 0,-1-1-5,0 1-1,-1-1 0,1 0 1,0-1-1,-1 0 0,0 1 0,1-2 1,-1 1-1,7-7 0,-2-4 9,-1 0-1,0 0 1,-1-1-1,-1 0 0,0-1 1,-1 0-1,4-17 1,2-5 273,-12 37-242,1 1 1,-1 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0-1-1,1 1 1,-1 0-1,0 0 0,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 0,0 1 1,0-1-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 0,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 1 0,0-1 1,1 0-1,-1 0 1,0 0-1,0 1 1,0-1-1,0 0 0,0 0 1,0 0-1,0 1 1,6 11-136,7 45 153,6 72 0,-8-44-14,-5-31 158,-1 85 1,-5-136-91,0 0 1,-1 0-1,1 1 0,-1-1 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,-1 0 0,0 0 1,1 0-1,-1 0 0,0-1 0,0 1 1,-1-1-1,1 0 0,0 1 0,-1-1 0,0 0 1,1 0-1,-1-1 0,0 1 0,0 0 0,0-1 1,0 0-1,-5 2 0,1-1 86,-1 0 0,0 0 0,0 0 0,0-1 0,0 0 0,0-1 0,-1 0-1,1 0 1,0-1 0,-10-1 0,15 0-229,0 1 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,0 0 0,-1 0-1,1-1 1,0 1 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,-1-4 0,2 5-190,0 0-1,0-1 1,0 1 0,0-1-1,1 1 1,-1-1 0,1 1-1,0-1 1,-1 1 0,1-1-1,0 1 1,0-1 0,1 1-1,-1-1 1,0 1 0,1-1-1,0 1 1,-1 0 0,1-1-1,0 1 1,0 0 0,1-1-1,-1 1 1,2-3 0,27-16-4517,9 1-3061</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1976.48">1530 340 5234,'0'0'14626,"-17"9"-14042,30-5-499,0-1 0,0-1 0,1 0 0,0 0 0,-1-1 0,1-1 0,16-2 0,9-1-5,49-12 0,-17-2-442,-7 1-1708,-21 8-3266,-36 7-64</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2226.16">1627 520 6243,'0'0'14433,"-14"0"-13833,39-4-618,-1 0-1,0-1 1,0-2-1,-1 0 1,0-1-1,32-17 1,-5 3-682,74-34-3170,-46 14-2113,-48 20 2147,-13-2-553</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2492.27">1905 82 1024,'0'0'16875,"-15"-5"-16200,-49-18-595,119 49-37,-1 2 1,-2 2-1,59 45 0,-98-65-3,0 1 1,-1 0-1,0 0 0,-1 1 0,-1 0 0,0 1 0,0 1 0,7 14 1,-14-24 34,-1 0 1,0 1 0,0-1 0,0 1 0,0-1-1,-1 1 1,0 0 0,0 0 0,0-1-1,-1 1 1,1 0 0,-1 0 0,0 0 0,-1 0-1,1 0 1,-1-1 0,0 1 0,0 0-1,0 0 1,-1-1 0,0 1 0,0-1 0,0 1-1,0-1 1,-1 0 0,1 0 0,-1 0 0,0 0-1,0 0 1,-5 3 0,-16 13-65,0-1 1,-1-1-1,-40 22 1,-35 7-4049,41-24-2369</inkml:trace>
@@ -13619,7 +13201,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">57 163 448,'0'0'737</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1973.17">138 261 800,'0'0'6334,"4"-15"-118,-8 11-6222,-1 0-1,1 0 1,-1 0 0,0 1-1,0 0 1,0 0-1,-1 0 1,1 1-1,-12-3 1,15 4-8,-1 0 0,0 0 0,0 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 1 1,0-1-1,1 0 0,-1 1 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-4 5 0,3-2-14,1 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 7-1,0-12 23,1 1 0,-1-1-1,0 1 1,0-1-1,0 1 1,0 0-1,0-1 1,1 1 0,-1-1-1,0 1 1,0-1-1,1 1 1,-1-1-1,0 0 1,1 1 0,-1-1-1,1 1 1,-1-1-1,0 0 1,1 1-1,-1-1 1,1 0 0,-1 1-1,1-1 1,-1 0-1,1 0 1,-1 1-1,1-1 1,0 0 0,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,-1 0 0,1-1-1,-1 1 1,1 0-1,-1 0 1,1-1-1,-1 1 1,1-1 0,24-13 142,-20 4-137,0 1 1,0-1 0,-1-1 0,0 1-1,-1 0 1,0-1 0,-1 0-1,1-12 1,1-90-221,-4 88 287,-11-21 166,9 88-661,1-21 414,0-1 1,2 0 0,3 32 0,-3-47 20,0 0 0,1 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,1-1 0,-1 1 1,1 0-1,0-1 0,0 1 0,1-1 0,-1 0 0,1 0 0,0-1 0,0 1 0,0-1 0,8 5 1,-11-7-5,1-1 0,-1 1 1,1 0-1,-1-1 1,1 1-1,0-1 1,-1 0-1,1 1 0,0-1 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,0-1 0,-1 1 1,1 0-1,0-1 1,-1 1-1,1-1 1,-1 0-1,1 1 1,-1-1-1,1 0 0,-1 0 1,1 0-1,-1 0 1,2-2-1,5-4 15,-1-1 1,0 0-1,11-17 0,-15 19-37,1 0 0,0 1-1,0 0 1,0 0 0,1 0-1,8-7 1,-12 11 10,0 1-1,0-1 1,0 1 0,0-1 0,0 1-1,-1 0 1,1 0 0,0-1 0,0 1 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0 0,-1 1-1,1-1 1,0 1 0,0-1 0,0 1-1,0-1 1,-1 1 0,1 0 0,0-1-1,-1 1 1,1 0 0,0-1 0,-1 1 0,1 0-1,-1 0 1,1 0 0,-1-1 0,1 1-1,-1 0 1,0 0 0,1 2 0,-1-2 32,1 0 1,-1 0 0,1 0 0,0 1-1,-1-1 1,1 0 0,0 0-1,0 0 1,-1 0 0,1 0-1,0-1 1,0 1 0,0 0 0,0 0-1,0 0 1,1-1 0,-1 1-1,0-1 1,0 1 0,0-1 0,1 1-1,1-1 1,-4-40 233,0 38-264,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 0-1,1-1 1,-1 1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,1 0 0,-3 1 0,2-1-4,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,0 1-1,0 0 1,0 0 0,1 0-1,-1 0 1,0 0 0,1 0-1,-1 0 1,1 0 0,-1 1 0,1-1-1,-1 0 1,1 1 0,0 0-1,0-1 1,0 1 0,0 0 0,0-1-1,0 1 1,0 0 0,-1 3-1,1 1 0,1 0 0,-1 0-1,1 0 1,0-1 0,0 1-1,1 0 1,1 10 0,-1-15 9,-1 0 0,1 1 1,0-1-1,0 0 0,0 0 1,-1 1-1,1-1 0,1 0 1,-1 0-1,0 0 0,0 0 1,0 0-1,0 0 0,1-1 1,-1 1-1,0 0 1,1-1-1,-1 1 0,0-1 1,1 1-1,-1-1 0,1 1 1,-1-1-1,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 0 0,-1-1 1,1 1-1,-1 0 0,2-1 1,0 0 9,0 0 0,0 0 0,0 0 1,0 0-1,0-1 0,-1 1 0,1-1 0,0 1 1,-1-1-1,1 0 0,-1 0 0,0 0 0,1-1 1,-1 1-1,0 0 0,0-1 0,-1 1 1,1-1-1,-1 0 0,1 0 0,-1 1 0,0-1 1,0 0-1,0 0 0,0 0 0,0 0 0,0-4 1,1-11-4,0 0 0,-1 0 1,-2-30-1,0 21 36,2 24-37,-1 3-1,0-1 0,0 0 0,1 1 0,-1-1 1,0 0-1,0 1 0,0-1 0,0 0 0,0 0 0,0 1 1,-1-1-1,1 0 0,0 1 0,0-1 0,0 1 0,-1-1 1,1 0-1,0 1 0,0-1 0,-1 0 0,1 1 0,-1-1 1,0 0-1,1 0-52,0 26-605,-1-1 713,1-5 219,0 0 1,5 33-1,-4-47-246,0 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,1-2 0,6 7 0,-7-8-74,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,-1 0 0,1 1 0,0-1 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 0 0,5-1 0,-5 1-387,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,4-4 0,2-7-4275</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1973.16">138 261 800,'0'0'6334,"4"-15"-118,-8 11-6222,-1 0-1,1 0 1,-1 0 0,0 1-1,0 0 1,0 0-1,-1 0 1,1 1-1,-12-3 1,15 4-8,-1 0 0,0 0 0,0 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 1 1,0-1-1,1 0 0,-1 1 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-4 5 0,3-2-14,1 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 7-1,0-12 23,1 1 0,-1-1-1,0 1 1,0-1-1,0 1 1,0 0-1,0-1 1,1 1 0,-1-1-1,0 1 1,0-1-1,1 1 1,-1-1-1,0 0 1,1 1 0,-1-1-1,1 1 1,-1-1-1,0 0 1,1 1-1,-1-1 1,1 0 0,-1 1-1,1-1 1,-1 0-1,1 0 1,-1 1-1,1-1 1,0 0 0,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,-1 0 0,1-1-1,-1 1 1,1 0-1,-1 0 1,1-1-1,-1 1 1,1-1 0,24-13 142,-20 4-137,0 1 1,0-1 0,-1-1 0,0 1-1,-1 0 1,0-1 0,-1 0-1,1-12 1,1-90-221,-4 88 287,-11-21 166,9 88-661,1-21 414,0-1 1,2 0 0,3 32 0,-3-47 20,0 0 0,1 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,1-1 0,-1 1 1,1 0-1,0-1 0,0 1 0,1-1 0,-1 0 0,1 0 0,0-1 0,0 1 0,0-1 0,8 5 1,-11-7-5,1-1 0,-1 1 1,1 0-1,-1-1 1,1 1-1,0-1 1,-1 0-1,1 1 0,0-1 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,0-1 0,-1 1 1,1 0-1,0-1 1,-1 1-1,1-1 1,-1 0-1,1 1 1,-1-1-1,1 0 0,-1 0 1,1 0-1,-1 0 1,2-2-1,5-4 15,-1-1 1,0 0-1,11-17 0,-15 19-37,1 0 0,0 1-1,0 0 1,0 0 0,1 0-1,8-7 1,-12 11 10,0 1-1,0-1 1,0 1 0,0-1 0,0 1-1,-1 0 1,1 0 0,0-1 0,0 1 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0 0,-1 1-1,1-1 1,0 1 0,0-1 0,0 1-1,0-1 1,-1 1 0,1 0 0,0-1-1,-1 1 1,1 0 0,0-1 0,-1 1 0,1 0-1,-1 0 1,1 0 0,-1-1 0,1 1-1,-1 0 1,0 0 0,1 2 0,-1-2 32,1 0 1,-1 0 0,1 0 0,0 1-1,-1-1 1,1 0 0,0 0-1,0 0 1,-1 0 0,1 0-1,0-1 1,0 1 0,0 0 0,0 0-1,0 0 1,1-1 0,-1 1-1,0-1 1,0 1 0,0-1 0,1 1-1,1-1 1,-4-40 233,0 38-264,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 0-1,1-1 1,-1 1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,1 0 0,-3 1 0,2-1-4,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,0 1-1,0 0 1,0 0 0,1 0-1,-1 0 1,0 0 0,1 0-1,-1 0 1,1 0 0,-1 1 0,1-1-1,-1 0 1,1 1 0,0 0-1,0-1 1,0 1 0,0 0 0,0-1-1,0 1 1,0 0 0,-1 3-1,1 1 0,1 0 0,-1 0-1,1 0 1,0-1 0,0 1-1,1 0 1,1 10 0,-1-15 9,-1 0 0,1 1 1,0-1-1,0 0 0,0 0 1,-1 1-1,1-1 0,1 0 1,-1 0-1,0 0 0,0 0 1,0 0-1,0 0 0,1-1 1,-1 1-1,0 0 1,1-1-1,-1 1 0,0-1 1,1 1-1,-1-1 0,1 1 1,-1-1-1,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 0 0,-1-1 1,1 1-1,-1 0 0,2-1 1,0 0 9,0 0 0,0 0 0,0 0 1,0 0-1,0-1 0,-1 1 0,1-1 0,0 1 1,-1-1-1,1 0 0,-1 0 0,0 0 0,1-1 1,-1 1-1,0 0 0,0-1 0,-1 1 1,1-1-1,-1 0 0,1 0 0,-1 1 0,0-1 1,0 0-1,0 0 0,0 0 0,0 0 0,0-4 1,1-11-4,0 0 0,-1 0 1,-2-30-1,0 21 36,2 24-37,-1 3-1,0-1 0,0 0 0,1 1 0,-1-1 1,0 0-1,0 1 0,0-1 0,0 0 0,0 0 0,0 1 1,-1-1-1,1 0 0,0 1 0,0-1 0,0 1 0,-1-1 1,1 0-1,0 1 0,0-1 0,-1 0 0,1 1 0,-1-1 1,0 0-1,1 0-52,0 26-605,-1-1 713,1-5 219,0 0 1,5 33-1,-4-47-246,0 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,1-2 0,6 7 0,-7-8-74,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,-1 0 0,1 1 0,0-1 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 0 0,5-1 0,-5 1-387,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,4-4 0,2-7-4275</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2311.6">532 0 4018,'0'0'4180,"-4"12"-3779,-3 64 714,-6 137 689,12-179-1676,3 0 0,0 1 0,3-1 0,8 36 0,-12-67-169,-1-1 1,1 1-1,0-1 1,0 1-1,0-1 1,0 1 0,1-1-1,-1 0 1,1 0-1,-1 1 1,3 1-1,10 0-3851,-6-6 2</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3031.17">666 222 4322,'0'0'6398,"0"-4"-5980,0-4-216,3 11 92,4 26 441,6 46 366,-13-53-935,-1-16-110,1-1 0,0 1 0,0 0 0,1 0 0,-1-1 0,4 11 0,-2-14-32,-1-2-18,0-1 1,-1 1 0,1 0-1,-1 0 1,1-1 0,0 1 0,-1-1-1,1 1 1,-1 0 0,1-1-1,-1 1 1,1-1 0,-1 1-1,0-1 1,1 1 0,-1-1-1,1 0 1,-1 1 0,0-1-1,0 1 1,1-1 0,-1 0-1,0 1 1,0-1 0,0 0-1,0 1 1,0-2 0,8-25-18,-7 23 6,6-19-76,-3 13 15,-1 0 0,0-1 0,-1 1 0,2-20 0,-1 29-472,3 10 428,4 12 195,-8-16-72,-1-1 1,1 1-1,0-1 0,0 1 1,0-1-1,1 0 0,-1 0 1,1 0-1,5 6 1,-8-10-14,1 0-1,-1 1 1,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1-1,1 0 1,-1 0 0,1-1 0,-1 1 0,1-1 0,16-28-77,-13 17 18,2 0-6,-1-1 0,-1 0 0,0-1 1,-1 1-1,2-18 0,-4 46 406,1 0-1,1 0 1,7 23 0,1 3-266,-10-33-374,5 18 421,-6-25-384,0-1 0,1 1 0,-1 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,0 1 1,1 0-1,0-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0-1 1,-1 0-1,1 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,1 0 0,5 0-5116</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3607.24">1040 167 5122,'0'0'5296,"0"6"-4824,-1 14 200,0-9-393,0-1 0,0 0 1,2 0-1,-1 1 0,1-1 0,0 0 0,1 0 0,0 0 0,6 16 0,-8-26-278,1 0 0,-1 1 0,0-1 0,0 0-1,0 0 1,0 1 0,1-1 0,-1 0 0,0 0 0,0 1-1,1-1 1,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0-1,1 0 1,-1 0 0,0 0 0,1 0 0,-1 1 0,0-1-1,1 0 1,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1 0 0,0-1 0,1 1-1,-1 0 1,0 0 0,1 0 0,-1 0 0,0 0 0,1-1-1,-1 1 1,0 0 0,0 0 0,1-1 0,-1 1 0,0 0-1,0 0 1,1-1 0,-1 1 0,0 0 0,0-1 0,0 1-1,1-1 1,5-14 5,-6 15-7,3-9-8,0 0 1,-1 0-1,0 0 1,1-17-1,-3 25 4,0 1 0,0 0 0,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0-1 0,0 1 0,0 0 0,0 0-1,1-1 1,-1 1 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1-1,0 0 1,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1-1,1 0 1,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0-1,0 0 1,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,1 0-1,-1 0 1,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0-1,0 0 1,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 1 0,1-1 0,12 16-67,14 70 649,-27-86-585,1 1 0,-1-1 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 1-1,0-1 1,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,10-17-330,-2 2-230,-6 13 441,0 1 0,-1-1 0,1 1 0,-1-1 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,-1 0-1,1 0 1,-1 0 0,0-4 0,0 6 202,4 31 800,-4 1-478,-1-27-551,1-1 1,-1 1-1,1 0 1,0 0-1,1 0 0,-1-1 1,0 1-1,1 0 1,0 0-1,0-1 1,0 1-1,1 0 1,-1-1-1,1 0 1,2 4-1,0-4-3071,3-3-2503</inkml:trace>
@@ -13776,7 +13358,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">103 20 5699,'0'0'6416,"-6"-4"-5696,5 3-629,-1-1 0,0 1 0,0-1 0,0 1-1,0 0 1,0-1 0,0 1 0,0 0 0,-1 1-1,1-1 1,0 0 0,-1 1 0,1-1 0,-4 0 0,5 2-61,-1-1 1,0 1-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,1 1 1,-1-1 0,1 0-1,0 1 1,0-1-1,0 1 1,-1 0-1,1-1 1,1 1-1,-3 3 1,-2 6 54,1-1-1,-1 1 1,2 0 0,0 0 0,0 0 0,1 1-1,0-1 1,1 0 0,0 1 0,1-1 0,0 1-1,1-1 1,3 15 0,-3-23-90,1 0 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1-1,1-1 0,-1 0 1,1 1-1,-1-1 1,1 0-1,0-1 1,0 1-1,0 0 1,0-1-1,0 0 0,0 1 1,1-1-1,-1-1 1,0 1-1,1 0 1,-1-1-1,0 1 0,1-1 1,3-1-1,1 2 6,-1-1 0,1 0-1,-1 0 1,1-1-1,-1 0 1,1 0 0,-1-1-1,0 0 1,1 0-1,9-5 1,-13 4 13,1 0 0,-1 0 1,0 0-1,-1-1 0,1 0 0,0 1 0,-1-2 1,0 1-1,0 0 0,0 0 0,-1-1 0,1 0 1,-1 1-1,0-1 0,-1 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,0-1 0,-1 1 1,0 0-1,0 0 0,0-1 0,-1 1 0,1 0 1,-1 0-1,0 0 0,-1 0 0,0 0 1,1 0-1,-1 0 0,-1 1 0,1-1 0,-1 0 1,0 1-1,0 0 0,0 0 0,0 0 0,-1 0 1,0 0-1,0 1 0,0 0 0,0-1 1,0 1-1,0 1 0,-1-1 0,0 1 0,1 0 1,-1 0-1,0 0 0,0 0 0,0 1 0,-10-1 1,12 1-155,1 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 1 1,0 0-1,-1-1 0,1 1 0,0 0 0,0 0 0,0 1 0,-2 0 0,3 0-99,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 0,1 0 1,-1 0-1,1 1 0,-1-1 0,1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,1 0 0,0 4 1,2 7-4266</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="384.53">439 5 960,'0'0'9970,"-13"19"-8180,5-3-1198,-18 39 264,3 0 0,-17 59-1,36-58-2249,4-48-226,7-9-7259</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="605.46">272 3 4834,'0'0'4402,"19"0"-4402,-8 4-576,8 9-1297,-8 0-1488</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="605.45">272 3 4834,'0'0'4402,"19"0"-4402,-8 4-576,8 9-1297,-8 0-1488</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="791.93">483 259 7123,'0'0'5123,"11"-13"-9493,-7 0-2738</inkml:trace>
 </inkml:ink>
 </file>
@@ -13868,7 +13450,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="532.89">307 81 7091,'0'0'5203,"-3"13"-4777,-7 41-57,10-52-361,-1-1 0,1 1 0,0-1 0,0 1 1,-1-1-1,1 1 0,0-1 0,0 0 0,1 1 0,-1-1 1,0 1-1,0-1 0,1 1 0,-1-1 0,1 0 0,-1 1 1,1-1-1,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 1,0 0-1,0 0 0,0 1 0,0-1 0,0-1 0,0 1 1,1 0-1,-1 0 0,0 0 0,0-1 0,1 1 0,-1 0 1,1-1-1,-1 0 0,0 1 0,1-1 0,-1 0 0,1 1 1,-1-1-1,1 0 0,-1 0 0,2-1 0,3 1 17,0 0-1,-1 0 0,1-1 1,0 0-1,-1-1 0,1 1 1,-1-1-1,10-4 1,-11 3 12,1 0 0,-1 0 0,1 0 0,-1-1 0,0 1 1,-1-1-1,1 0 0,-1 0 0,1-1 0,-1 1 0,-1-1 0,1 1 1,0-1-1,-1 0 0,0 0 0,0 0 0,-1 0 0,0-1 1,1 1-1,-2 0 0,1 0 0,-1-1 0,1 1 0,-1-1 0,-1 1 1,-1-11-1,1 14-25,-1-1 0,1 0 0,-1 1-1,0-1 1,1 1 0,-1 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1 0 0,0 0-1,0 0 1,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0 1 0,-4 0 0,3-1-111,0 0-1,0 0 1,0 0 0,-1 1 0,1 0-1,0 0 1,0 0 0,0 0 0,0 1-1,0-1 1,0 1 0,1 0 0,-1 0-1,0 1 1,1-1 0,0 1 0,-1-1-1,1 1 1,0 0 0,-4 6 0,2 25-5883,5-22 1300</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="753.5">596 27 4578,'0'0'9252,"-53"76"-8499,34-39-433,3 0 0,5 0-208,3-7-112,5-2 64,-1-4-64,4-4-80,0-5-448,0-4-833,0-7-1280</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="939.65">423 1 5426,'0'0'4322,"23"21"-4962,-8-1-336,0 4-1842</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1109.39">744 268 7203,'0'0'4770</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1109.38">744 268 7203,'0'0'4770</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13962,7 +13544,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="198.31">64 133 4370,'0'0'9412,"88"-31"-8467,-50 14-433,8-3-224,-4 1-96,-8 1-80,-4 3-112,-3 7 0,-4 3-576,-4 5-1313,-4 0-1424,0 11-1265</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="541.99">471 178 3410,'0'0'13035,"-4"13"-12376,2-7-565,-16 45 355,17-47-413,0 0-1,0 1 1,0-1-1,1 0 1,-1 1 0,1-1-1,0 0 1,1 1-1,-1-1 1,1 0-1,0 1 1,1 3 0,-1-6-33,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 1,0 1-1,0-1 0,0 1 0,0-1 0,0 1 0,0-1 1,0 0-1,0 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1-1 1,0 1-1,1-1 0,-1 0 0,1 0 0,-1 0 0,0 0 1,1 0-1,-1-1 0,5 0 0,0 0 0,0 0 0,0-1 0,0 0 0,-1 0 0,1 0 0,-1-1-1,1 0 1,6-5 0,-4 1-16,0 0-1,-1 0 1,0-1-1,-1 0 1,13-17 0,-17 21 14,0-1 0,-1 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,0 0 1,-1-1-1,0 1 0,0 0 1,0-1-1,-1 1 1,0-9-1,0 12 9,-1 0-1,0 0 1,1-1-1,-1 1 1,0 0 0,0 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0 0,-1 1-1,0-1 1,0 1 0,0-1-1,0 1 1,0 0-1,0 0 1,0-1 0,0 2-1,0-1 1,0 0 0,0 0-1,-1 1 1,1-1-1,-3 0 1,-9-1 44,0 0 0,0 1 0,-20 0-1,26 1-83,6 0-37,0 0-1,0 1 0,0-1 1,0 0-1,-1 1 1,1-1-1,0 1 0,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,1 0 1,-1 1-1,0-1 0,1 1 1,-1-1-1,1 1 0,0 0 1,0-1-1,-1 1 1,0 4-1,0-3-524,1 1 0,-1-1 1,1 1-1,0-1 0,1 1 0,-1 0 0,1 0 0,-1 5 1,1 10-3961</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="897.58">786 165 6979,'0'0'10042,"0"8"-9956,-1 11 13,0-9-58,0 1-1,1-1 1,1 1 0,-1-1 0,3 11 0,-2-19-39,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,4-1 0,-2 0 7,-1 0 1,1-1-1,-1 1 1,1-1-1,0 1 1,-1-1-1,1 0 1,-1-1-1,1 1 1,-1 0-1,0-1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1-1,-1-1 1,5-5-1,-5 3 19,1 0 0,-1 1 0,1-1 0,-1 0 0,-1 0 1,1-1-1,-1 1 0,0 0 0,0-1 0,0 1 0,-1 0 0,0-1 0,0-9 0,-1 13 14,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0-1,-1 1 1,1-1 0,-1 1 0,0-1 0,1 1 0,-1 0 0,-3-2 0,0 1 59,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,-1 0-1,1 0 1,-10-1 0,10 2-133,-1 0 0,1 1 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,-10 5 0,13-5-103,-1 0-1,1 0 1,0 0 0,0 1-1,0-1 1,1 0 0,-1 1-1,0 0 1,0-1 0,1 1-1,-1 0 1,1 0 0,0 0-1,-1 0 1,1 0-1,0 0 1,0 0 0,0 0-1,-1 5 1,2 24-8338,3-21 765</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1258.12">1136 139 4882,'0'0'13438,"-14"14"-13080,-39 46-102,51-57-242,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,1 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,0 0 0,0 0 0,2 5 0,0 10 8,-2-17-31,0 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 1,1 0-1,-1 0 0,1-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,0 0 0,1 1 0,-1-1 0,0-1 0,0 1 0,0 0 0,1 0 0,-1-1 0,0 0 0,0 1 0,1-1 0,-1 0 1,0 0-1,4 0 0,3 0-42,0 0 1,-1 0-1,1-1 1,0 0-1,-1-1 1,1 0-1,-1 0 1,15-6-1,-16 4 15,1-1 0,-1 1 0,0-1 0,-1 0 0,1-1 0,-1 0 0,0 0 0,0 0 0,-1 0 0,0-1 0,7-12 0,-10 17 80,-1-1 0,0 1 0,1-1 0,-1 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,0 0-1,0 0 1,0 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,-1 0 0,1 0-1,0 1 1,-1-1 0,1 1 0,-5-3 0,-3-1 35,0 0 0,0 1-1,0 0 1,0 1 0,-1 0 0,1 1-1,-1 0 1,0 0 0,0 1-1,0 1 1,-20 1 0,29-1-150,1 0-1,-1 1 1,1-1 0,-1 0 0,1 1 0,-1 0 0,1-1-1,-1 1 1,1 0 0,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,-1 0 0,1 1 0,0-1-1,1 0 1,-1 1 0,0-1 0,0 0 0,1 1 0,-1-1-1,0 3 1,-3 24-4703,4-12-652</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1258.11">1136 139 4882,'0'0'13438,"-14"14"-13080,-39 46-102,51-57-242,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,1 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,0 0 0,0 0 0,2 5 0,0 10 8,-2-17-31,0 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 1,1 0-1,-1 0 0,1-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,0 0 0,1 1 0,-1-1 0,0-1 0,0 1 0,0 0 0,1 0 0,-1-1 0,0 0 0,0 1 0,1-1 0,-1 0 1,0 0-1,4 0 0,3 0-42,0 0 1,-1 0-1,1-1 1,0 0-1,-1-1 1,1 0-1,-1 0 1,15-6-1,-16 4 15,1-1 0,-1 1 0,0-1 0,-1 0 0,1-1 0,-1 0 0,0 0 0,0 0 0,-1 0 0,0-1 0,7-12 0,-10 17 80,-1-1 0,0 1 0,1-1 0,-1 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,0 0-1,0 0 1,0 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,-1 0 0,1 0-1,0 1 1,-1-1 0,1 1 0,-5-3 0,-3-1 35,0 0 0,0 1-1,0 0 1,0 1 0,-1 0 0,1 1-1,-1 0 1,0 0 0,0 1-1,0 1 1,-20 1 0,29-1-150,1 0-1,-1 1 1,1-1 0,-1 0 0,1 1 0,-1 0 0,1-1-1,-1 1 1,1 0 0,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,-1 0 0,1 1 0,0-1-1,1 0 1,-1 1 0,0-1 0,0 0 0,1 1 0,-1-1-1,0 3 1,-3 24-4703,4-12-652</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13991,7 +13573,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">27 132 2497,'0'0'6846,"0"-6"-6014,0-15-71,0 15 394,1 20 1986,7 56-3225,3 2 103,26 135 963,-33-197-2390,-1-17-3418,2-4 2352,2-5-2278</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1112.37">151 119 3298,'0'0'6186,"0"-1"-5965,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,0-1 0,1 1 0,-1 0-1,0 0 1,1 0 0,-3-2 0,-3 4-210,0-1 0,-1 1 0,1 1 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 1 0,0 0 0,1 0 0,-1 0 0,1 1 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,1 0-1,0 1 1,1-1 0,0 1 0,-1-1 0,2 1 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,1 0 0,0 1 0,0-1 0,1 0 0,0 1 0,0-1 0,2 13 0,-1-16-13,0 0 1,1 0-1,-1 1 1,1-1 0,0 0-1,-1 0 1,1 0-1,1-1 1,-1 1-1,0 0 1,1-1-1,-1 0 1,1 1-1,0-1 1,0 0 0,0 0-1,0-1 1,0 1-1,0-1 1,0 1-1,1-1 1,3 1-1,-3-1 10,0 1-1,0-1 0,0 1 1,0 0-1,-1 1 1,1-1-1,-1 0 0,1 1 1,-1 0-1,0 0 1,0 0-1,0 0 0,0 0 1,2 5-1,-5-7 47,0 1-1,0-1 1,1 1 0,-1 0-1,-1-1 1,1 1 0,0-1-1,0 1 1,-1 0-1,1-1 1,0 1 0,-1-1-1,0 1 1,1-1 0,-1 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0 0-1,0 0 1,0 1 0,0-1-1,0 0 1,-1 0 0,1 0-1,-2 0 1,-44 31-20,35-25 2,11-7-235,-15 10 337,9-8-5117,7-8 1716</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1112.36">151 119 3298,'0'0'6186,"0"-1"-5965,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,0-1 0,1 1 0,-1 0-1,0 0 1,1 0 0,-3-2 0,-3 4-210,0-1 0,-1 1 0,1 1 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 1 0,0 0 0,1 0 0,-1 0 0,1 1 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,1 0-1,0 1 1,1-1 0,0 1 0,-1-1 0,2 1 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,1 0 0,0 1 0,0-1 0,1 0 0,0 1 0,0-1 0,2 13 0,-1-16-13,0 0 1,1 0-1,-1 1 1,1-1 0,0 0-1,-1 0 1,1 0-1,1-1 1,-1 1-1,0 0 1,1-1-1,-1 0 1,1 1-1,0-1 1,0 0 0,0 0-1,0-1 1,0 1-1,0-1 1,0 1-1,1-1 1,3 1-1,-3-1 10,0 1-1,0-1 0,0 1 1,0 0-1,-1 1 1,1-1-1,-1 0 0,1 1 1,-1 0-1,0 0 1,0 0-1,0 0 0,0 0 1,2 5-1,-5-7 47,0 1-1,0-1 1,1 1 0,-1 0-1,-1-1 1,1 1 0,0-1-1,0 1 1,-1 0-1,1-1 1,0 1 0,-1-1-1,0 1 1,1-1 0,-1 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0 0-1,0 0 1,0 1 0,0-1-1,0 0 1,-1 0 0,1 0-1,-2 0 1,-44 31-20,35-25 2,11-7-235,-15 10 337,9-8-5117,7-8 1716</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1710.88">434 145 5747,'0'0'4516,"-1"-12"-2248,-5 16-2219,0 0-1,0 1 1,1 0-1,0 0 1,0 1-1,0-1 1,1 1-1,-8 12 1,-2 2 72,-2 2 155,0 0 1,-21 41-1,16-4-1324,18-47-563,1-1-1,1 1 1,-1 18-1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1942.36">267 247 5747,'0'0'6397,"0"0"-6390,0 0 1,0 0-1,0 0 0,-1-1 0,1 1 0,0 0 1,0 0-1,0 0 0,0 0 0,0-1 1,0 1-1,0 0 0,0 0 0,0 0 0,0 0 1,0-1-1,-1 1 0,1 0 0,0 0 0,0 0 1,0-1-1,1 1 0,-1 0 0,0 0 1,0 0-1,0 0 0,0-1 0,0 1 0,0 0 1,0 0-1,0 0 0,0 0 0,0-1 0,0 1 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,0 0 0,0 0 1,1 0-1,-1-1 0,0 2 0,0-1 1,0 0-1,0 0 0,1 0 0,-1 0 0,0 0 1,0 0-1,7 5 154,0 0 0,0 0-1,-1 1 1,0 0 0,0 0 0,-1 0 0,1 1 0,-1 0 0,-1 0 0,0 0 0,6 13 0,29 40-623,-36-57 80,0 1 1,0-1-1,0-1 0,0 1 1,0 0-1,1-1 1,-1 0-1,1 1 0,0-1 1,0-1-1,0 1 0,0 0 1,7 1-1,15-2-3404</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2192.6">653 132 6659,'0'0'5997,"-1"9"-5908,-13 229 924,14-230-968,-1 32-1225,2-39 997,-1 0 1,0 0 0,0 0-1,0 0 1,1 0 0,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0 0,1 0-1,-1-1 1,1 1 0,0 0-1,-1 0 1,1-1 0,0 1-1,0 0 1,0-1-1,-1 1 1,1 0 0,0-1-1,0 1 1,0-1 0,0 0-1,0 1 1,0-1 0,0 0-1,0 1 1,0-1-1,1 0 1,14 0-3516</inkml:trace>
@@ -14149,14 +13731,14 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">127 404 3073,'0'0'10341,"-4"-10"-9420,-10-35-57,13 44-824,0-1 0,-1 1 0,1-1 1,0 1-1,0 0 0,-1 0 0,1-1 0,-1 1 1,1 0-1,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 1,0 1-1,1-1 0,-1 1 0,0-1 0,0 1 0,0 0 1,0 0-1,1 0 0,-1 0 0,-3 0 0,2 0-11,0 0 0,-1 0 0,1 1 0,0-1-1,0 1 1,-1 0 0,1 0 0,0 0 0,0 0-1,0 0 1,-3 3 0,4-2-28,-1 1-1,1 0 1,-1 0 0,1 0-1,0 1 1,1-1 0,-1 1-1,0-1 1,1 1 0,0-1 0,0 1-1,0-1 1,0 1 0,1 0-1,-1 0 1,1 0 0,0-1-1,0 1 1,0 0 0,1 0-1,-1-1 1,1 1 0,2 5 0,-2-3-4,2 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,1-1 0,-1 1 0,1-1 0,0 1 0,1-1 0,0-1 1,6 6-1,41 21 91,-41-26-76,0 1 1,0 0 0,15 12-1,-25-17 1,0 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 1-1,-1-1 1,1 0 0,-1 0-1,1 0 1,-1 1-1,0-1 1,0 0 0,1 1-1,-1-1 1,0 0-1,0 1 1,0-1 0,0 0-1,0 1 1,-1-1-1,1 0 1,0 1 0,-1-1-1,1 0 1,-1 0-1,1 1 1,-1-1 0,1 0-1,-1 0 1,0 0-1,0 0 1,0 0 0,1 0-1,-1 0 1,0 0-1,-2 2 1,-36 30 50,33-29-279,-13 7-590,5-8-3174,6-3-318</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="230.74">35 354 8404,'0'0'6355,"103"-58"-6115,-57 40-96,-1 3 48,-7 6-64,-15 1-128,-8 6-32,-15 15-1297,0 8-207,-15 3-1730,0 0-1296</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="230.73">35 354 8404,'0'0'6355,"103"-58"-6115,-57 40-96,-1 3 48,-7 6-64,-15 1-128,-8 6-32,-15 15-1297,0 8-207,-15 3-1730,0 0-1296</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="611.97">379 361 2113,'0'0'7107,"0"-11"-7059,0 15-3153,0 7-1057</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1106.32">385 478 5426,'0'0'9514,"-1"-6"-8559,-5-25 345,6 32-1458,0 0 121,0 0 55,1-13 127,-2 5-45,-3 13-67,3 12-152,2-29 273,-1 9-148,0 0 1,0-1 0,0 1 0,1-1-1,-1 1 1,1-1 0,-1 1-1,1 0 1,0-1 0,1-1 0,8-2-9427,-3 6 3532</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1428.8">558 289 5378,'0'0'9087,"-1"-9"-8036,1-2-863,-2-11 490,1 50-391,13 337 1300,-12-364-2264,5-14-7540,5-8 648</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1850.13">695 409 6275,'0'0'5304,"0"-13"-2941,0-78 943,0 90-3276,0 0 0,0-1 1,0 1-1,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 0,0 0 1,1 0-1,0 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,0 0 1,0 1-1,-1-1 0,1 0 0,0 0 1,0 1-1,0-1 0,2 0 1,31-8 102,-26 8-163,0 1 0,1 0-1,-1 0 1,0 1 0,0 0-1,11 3 1,-16-3 20,0 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,0 0-1,1-1 1,-1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 1-1,1-1 1,-1 1 0,2 3 0,-1-1 4,-1 1-1,1-1 1,-1 1-1,0-1 0,-1 1 1,0 0-1,0-1 1,0 1-1,-1 6 1,-1 2 9,-1 0 0,-1 0-1,0 0 1,0-1 0,-2 1 0,-11 20 0,6-14 75,-1 0 1,-1-1 0,0 0 0,-2-2-1,-22 23 1,52-52 8,0 1 0,0 0 0,1 1 0,0 1 0,1 1-1,31-12 1,-24 13-1972,-1 0 0,42-4-1,-24 4-2361,-3-1-1468</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2108.86">1378 246 7203,'0'0'9677,"-6"-3"-8946,5 3-708,0-1 0,-1 0 0,1 1 0,-1-1 1,1 1-1,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 1,-1 0-1,1 1 0,-1-1 0,1 1 0,0 0 0,-1-1 0,-1 2 1,-29 33 293,25-27-302,-15 24-88,1 0-1,1 2 0,2 0 1,1 1-1,2 1 1,-18 61-1,29-74-1277,3-9-5416</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2360.29">1165 268 6835,'0'0'9316,"5"1"-9217,2 1-24,0 2 0,0-1-1,-1 1 1,1 0 0,-1 0 0,0 1-1,0 0 1,-1 0 0,1 0 0,-1 1-1,0-1 1,-1 1 0,6 9 0,9 13 382,26 52 0,-32-48-1379,-10-24 174,0 0 1,0 0 0,1 0-1,-1-1 1,2 0-1,-1 0 1,1 0 0,9 10-1,-3-11-5924</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2609.72">1618 241 8836,'0'0'7780,"-23"79"-7220,19-40-160,0 0-144,-3 0-112,-1 0-80,4-4-64,0-5 0,4-4-224,0-6-816,8-9-913,15-7-2225,0-4-224</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2609.71">1618 241 8836,'0'0'7780,"-23"79"-7220,19-40-160,0 0-144,-3 0-112,-1 0-80,4-4-64,0-5 0,4-4-224,0-6-816,8-9-913,15-7-2225,0-4-224</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2949.98">1802 311 5010,'0'0'11843,"-6"0"-11552,4 0-281,0 0 0,0 1 0,0-1 0,1 1 0,-1-1-1,0 1 1,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,-1 1 0,1 0-1,0-1 1,-1 4 0,-1 1 9,1 1-1,-1 0 0,1 0 1,0 0-1,1 0 0,0 0 1,-1 9-1,1-9-16,1-1 0,0 1-1,0-1 1,0 1 0,0-1 0,1 1-1,0-1 1,1 0 0,-1 1 0,1-1-1,1 0 1,-1 0 0,1 0 0,0-1 0,0 1-1,0 0 1,1-1 0,7 8 0,-7-10 5,0-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 1,0 0-1,-1-1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,0-1 1,1 0-1,-1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0-1 0,0 0 0,0 1 1,0-1-1,0 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-1-6 1,0 3 40,0 1 1,-1 0 0,0 0 0,0 0-1,0 1 1,-1-1 0,0 0 0,-1 0-1,1 1 1,-1 0 0,-1-1 0,1 1 0,-1 0-1,0 1 1,0-1 0,-1 1 0,0-1-1,0 1 1,0 1 0,0-1 0,-1 1-1,0 0 1,0 0 0,-12-6 0,3 3-354,0 0 0,0 1 0,0 0 0,-20-3 0,17 5-1742,1 1 0,-1 1-1,-22-1 1,17 3-5559</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5614.87">2112 78 4738,'0'0'11499,"-9"-5"-10259,-26-15-306,34 19-897,0 1-1,1 0 1,-1 0-1,1 0 1,-1-1-1,0 1 1,1 0-1,-1-1 1,1 1-1,-1-1 1,1 1-1,-1-1 1,1 1-1,-1-1 1,1 1-1,0-1 1,-1 1-1,1-1 0,0 1 1,-1-1-1,1 0 1,0 1-1,0-1 1,-1 0-1,1 1 1,0-1-1,0 1 1,0-1-1,0 0 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 0 1,1 1-1,-1-1 1,0 0-1,0 1 1,1-1-1,-1 0 1,0 1-1,1-1 1,-1 1-1,0-1 1,1 1-1,-1-1 1,1 0-1,22-14-191,-22 15 227,2-2-83,-1 1-1,0 0 1,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 1 0,1-1-1,-1 1 1,1 0 0,0-1 0,4 2 0,-6-1-1,0 1 0,0 0 1,0 0-1,0-1 1,0 1-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1 1-1,-1-1 1,1 0-1,-1 0 0,1 0 1,-1 1-1,0-1 1,0 0-1,0 0 1,1 1-1,-1-1 1,0 0-1,0 0 1,-1 1-1,1 1 1,-1 2 22,1-1 1,-1 1-1,0 0 1,-1-1-1,1 1 1,-1-1-1,0 0 0,0 1 1,0-1-1,0 0 1,-1 0-1,-3 4 1,3-5-38,0 1 0,1 0 0,-1 0 0,1 0 1,0 1-1,0-1 0,0 0 0,1 1 0,0-1 0,-1 1 1,2 0-1,-2 4 0,3-7-13,-1-1 0,1 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0-1-1,1 1 0,-1 0 0,0-1 1,0 1-1,0-1 0,1 1 0,-1-1 1,0 0-1,1 1 0,1-1 1,35 7-522,-37-7 528,7 1-161,25 3-102,-32-4 294,-1 0 1,1 0-1,0 0 0,0 0 0,0 1 0,0-1 1,0 0-1,-1 0 0,1 1 0,0-1 0,0 1 1,-1-1-1,1 1 0,0-1 0,0 1 0,-1-1 1,1 1-1,-1-1 0,1 1 0,0 0 0,-1-1 1,1 1-1,-1 0 0,1 0 0,-1-1 0,1 3 1,-3-1 67,0 0 1,0 1 0,0-1 0,0 0-1,0 0 1,-1 0 0,1 0 0,-1 0-1,1-1 1,-1 1 0,0-1 0,1 0-1,-1 0 1,-5 2 0,-2 1 84,-28 16-205,-54 26 110,30-20-5455,31-16-3665</inkml:trace>
 </inkml:ink>
@@ -14307,7 +13889,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">81 85 4994,'0'0'11688,"-1"-7"-10831,-6-24-105,4 33-131,-2 13-523,-2 16-147,-6 46 237,-29 97 0,40-160-649,6-11-2077,16-13-2435,-16 8 4840,26-19-6073</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="460">313 65 6675,'0'0'8033,"-16"-11"-7467,-52-33 58,67 43-590,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 0 1,0 1-1,1-1 0,-1 0 1,0 1-1,1-1 0,-1 1 0,0 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,0 0 1,1 1-1,-1-1 0,0 0 1,1 1-1,-1 0 0,0-1 0,1 1 1,-1 0-1,-2 2 0,0 0-37,1 1-1,1-1 0,-1 1 1,0 0-1,1 0 1,0 0-1,0 0 0,-2 4 1,-1 3 108,2-5-107,1 0 1,0 1-1,0-1 0,1 1 0,-1-1 1,1 1-1,1-1 0,-1 1 0,1 0 0,1 8 1,-1-5-39,0-9 23,0 0 1,0 0-1,0-1 0,0 1 0,1 0 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1-1 1,-1 1-1,1 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,0-1 0,-1 0 1,1 1-1,0-1 0,0 0 0,28 4-652,-22-4 487,-1 0 0,1-1 1,-1 0-1,1 0 0,-1-1 1,11-3-1,-12 1 151,0 1 1,0-1-1,0 0 1,-1 0-1,1 0 1,-1-1-1,6-8 1,-9 12 93,-1 0 0,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 1 1,0-1-1,0 0 0,0 1 0,0-1 0,-1 1 0,1-1 0,2 1 0,-2 2-28,0 0-1,-1 0 0,1 1 0,0-1 1,-1 1-1,1-1 0,-1 0 0,0 1 1,0-1-1,0 1 0,0-1 0,-1 4 1,1 22 36,-1-1 0,-1 1 0,-2-1-1,-1 0 1,0 0 0,-3-1 0,0 0 0,-1 0 0,-15 28 0,18-43-728,12-20-2440,8-11-1030,11-9-2545</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="922.02">562 78 8228,'0'0'7334,"-11"-12"-6793,-35-36-87,45 47-440,1 0 1,-1 0-1,0 0 0,1 0 0,-1 0 1,0 1-1,0-1 0,0 0 1,0 0-1,1 0 0,-1 1 1,0-1-1,0 1 0,-1-1 0,1 1 1,0-1-1,0 1 0,0 0 1,0-1-1,0 1 0,0 0 1,-1 0-1,1 0 0,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,0 1 1,0-1-1,0 1 0,0-1 0,0 1 1,-1-1-1,1 1 0,1-1 1,-1 1-1,-2 1 0,0 2-21,1 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,-1 8-1,1-5 51,-1 0-49,1-1 1,0 1-1,1 0 0,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,2 1 0,-1-1 1,3 12-1,-2-19-16,0 1 0,0 0 0,0 0-1,0 0 1,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,1 1-1,-1-1 1,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0-1,0 0 1,1-1 0,0 0 0,33-14-484,-28 8 543,0 0-1,-1 0 1,1-1-1,-1 0 0,-1-1 1,1 1-1,6-17 1,6-8 1075,-19 78-475,3-23-583,-5 9 52,-1 0 1,-2 0 0,0 0-1,-3 0 1,-18 46 0,24-71-348,-5 9 116,9-10-2593,7-7-3546,8-6 424</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1277.65">736 121 5987,'0'0'11976,"0"0"-11926,0-1 1,-1 0-1,1 1 0,-1-1 1,1 1-1,-1-1 0,1 1 1,-1-1-1,1 1 0,-1 0 0,0-1 1,1 1-1,-1-1 0,1 1 1,-1 0-1,0 0 0,1-1 1,-1 1-1,0 0 0,0 0 1,0 0-1,0 0-44,-1 1 1,1-1-1,0 1 0,0-1 0,-1 1 1,1 0-1,0-1 0,0 1 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,1 0 1,-1 1-1,0-1 0,0 2 0,-15 29 64,13-23-17,-1 0-43,1 1 0,0 1 0,0-1-1,1 0 1,1 0 0,0 1 0,0-1-1,1 15 1,0-24-12,1-1 0,-1 1-1,1 0 1,-1 0 0,1-1-1,-1 1 1,1 0 0,-1 0 0,1-1-1,-1 1 1,1-1 0,0 1-1,0-1 1,-1 1 0,1-1 0,0 1-1,0-1 1,-1 1 0,1-1-1,0 0 1,0 0 0,0 1 0,0-1-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0-1-1,0 1 1,-1 0 0,1 0 0,1-1-1,35-12-65,-33 9 78,0 0-1,0 0 0,0-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,-1 0 1,0 1-1,0-1 0,0 0 0,-1-6 0,0 9-7,1 0 1,-1 0-1,0 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 1 1,-1-1-1,0 0 1,0 0-1,0 1 0,-1-1 1,1 0-1,0 1 1,-1-1-1,0 1 1,0 0-1,1-1 0,-1 1 1,-1 0-1,1 0 1,0 0-1,0 1 1,-1-1-1,1 0 0,-1 1 1,1 0-1,-1-1 1,0 1-1,1 0 1,-1 1-1,0-1 0,0 0 1,-4 0-1,-25 5-1604,30-3 1167,0 0 0,0 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,1 1 0,-1-1-1,1 1 1,-1-1-1,1 1 1,0 0 0,-2 3-1,-7 15-6855</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1277.64">736 121 5987,'0'0'11976,"0"0"-11926,0-1 1,-1 0-1,1 1 0,-1-1 1,1 1-1,-1-1 0,1 1 1,-1-1-1,1 1 0,-1 0 0,0-1 1,1 1-1,-1-1 0,1 1 1,-1 0-1,0 0 0,1-1 1,-1 1-1,0 0 0,0 0 1,0 0-1,0 0-44,-1 1 1,1-1-1,0 1 0,0-1 0,-1 1 1,1 0-1,0-1 0,0 1 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,1 0 1,-1 1-1,0-1 0,0 2 0,-15 29 64,13-23-17,-1 0-43,1 1 0,0 1 0,0-1-1,1 0 1,1 0 0,0 1 0,0-1-1,1 15 1,0-24-12,1-1 0,-1 1-1,1 0 1,-1 0 0,1-1-1,-1 1 1,1 0 0,-1 0 0,1-1-1,-1 1 1,1-1 0,0 1-1,0-1 1,-1 1 0,1-1 0,0 1-1,0-1 1,-1 1 0,1-1-1,0 0 1,0 0 0,0 1 0,0-1-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0-1-1,0 1 1,-1 0 0,1 0 0,1-1-1,35-12-65,-33 9 78,0 0-1,0 0 0,0-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,-1 0 1,0 1-1,0-1 0,0 0 0,-1-6 0,0 9-7,1 0 1,-1 0-1,0 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 1 1,-1-1-1,0 0 1,0 0-1,0 1 0,-1-1 1,1 0-1,0 1 1,-1-1-1,0 1 1,0 0-1,1-1 0,-1 1 1,-1 0-1,1 0 1,0 0-1,0 1 1,-1-1-1,1 0 0,-1 1 1,1 0-1,-1-1 1,0 1-1,1 0 1,-1 1-1,0-1 0,0 0 1,-4 0-1,-25 5-1604,30-3 1167,0 0 0,0 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,1 1 0,-1-1-1,1 1 1,-1-1-1,1 1 1,0 0 0,-2 3-1,-7 15-6855</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5880">625 37 6915,'0'0'5883,"-5"0"-1813,-18 0-3690,13 1-404,0 1 0,0-1-1,-1 2 1,1-1 0,1 1 0,-1 1 0,0 0-1,-13 7 1,19-7 12,-1-1 0,1 1 0,0 0-1,0 0 1,0 0 0,0 0 0,1 1-1,-1-1 1,1 1 0,0 0 0,1 0 0,-1 0-1,1 1 1,0-1 0,1 0 0,-1 1 0,0 5-1,-4 27 79,2 0 0,0 66 0,9-104 1,0 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 0 0,6-2 0,-5-1-15,0-1-1,0 0 1,-1 0-1,1 0 0,-1-1 1,-1 1-1,1-1 1,-1 0-1,5-10 1,30-62 42,-36 69-84,1 0-4,0 0 1,-1 0-1,0 0 0,-1-1 1,0 1-1,-1-1 1,0 1-1,0-1 0,-1 1 1,0-1-1,0 0 0,-3-10 1,2 18-23,0 0 0,-1 0 1,1 0-1,0 1 1,-1-1-1,0 0 0,1 1 1,-1-1-1,0 1 0,0-1 1,0 1-1,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,-1 1 1,1-1-1,0 1 0,-1-1 1,1 1-1,0 0 0,-1 0 1,-3 0-1,3 0-10,0 0 1,0 0-1,1 1 0,-1-1 0,0 0 0,0 1 1,1 0-1,-1 0 0,0-1 0,1 2 1,-1-1-1,1 0 0,-1 0 0,1 1 0,0-1 1,-1 1-1,1 0 0,0 0 0,0 0 0,0 0 1,-2 3-1,-5 17 18,0 2 0,1-1 0,2 1 0,0 1 0,2-1 0,0 1 0,2 0 0,1-1 0,1 27 0,0-50 10,0 1 1,0-1-1,1 1 1,-1 0 0,0-1-1,0 1 1,1 0-1,-1-1 1,1 1-1,0-1 1,-1 1-1,1-1 1,0 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0 0-1,0 0 1,0 1-1,1-1 1,-1 0-1,0 0 1,1-1-1,-1 1 1,1 0 0,-1 0-1,1-1 1,-1 1-1,1-1 1,-1 1-1,1-1 1,0 1-1,-1-1 1,1 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,-1 0-1,1-1 1,2 0-1,2 0 11,0 0 0,0 0 0,0-1 0,0 0 0,-1 0-1,1 0 1,-1-1 0,1 0 0,-1 0 0,7-6 0,-8 4 11,0 0 0,0-1 0,0 1 0,-1-1 0,0 0 0,0 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,-1-12 0,0 12-19,-1-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,0 1 1,-1-1-1,0 1 0,0 0 0,0 0 0,-7-13 0,8 19-30,1 0-1,0 1 0,-1-1 1,1 0-1,-1 1 0,1-1 1,-1 0-1,1 1 0,-1-1 1,1 1-1,-1-1 0,0 1 1,1-1-1,-1 1 0,0-1 1,1 1-1,-1-1 0,0 1 1,0 0-1,1 0 0,-1-1 1,-1 1-1,-8 11-2809,1 31-5067,9-41 7720,-1 15-5237</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6846.38">870 159 4130,'0'0'6451,"-6"-28"-921,2 27-5509,0 0 0,-1 1 0,1-1-1,-1 1 1,1 0 0,-1 1 0,1-1-1,-1 1 1,1 0 0,-1 0 0,1 0-1,0 1 1,0-1 0,0 1-1,0 0 1,0 0 0,-5 4 0,3-1-50,0 0 0,0 1 0,0 0 1,1 0-1,0 0 0,0 1 1,1 0-1,-7 12 0,9-12 26,0-1 1,1 1-1,-1-1 0,2 1 0,-1-1 1,1 1-1,0 0 0,0 0 0,2 6 1,-1 11 8,-1-22 2,0-1-1,0 1 1,1 0 0,-1 0 0,1-1 0,0 1-1,-1 0 1,1-1 0,0 1 0,0-1 0,0 1-1,0-1 1,0 1 0,0-1 0,1 0 0,-1 0 0,0 1-1,1-1 1,-1 0 0,1 0 0,-1 0 0,1-1-1,-1 1 1,1 0 0,0 0 0,-1-1 0,1 1-1,0-1 1,0 0 0,-1 1 0,1-1 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 0 0,3-1 0,-1 0 24,1 1 1,-1 0 0,1-1-1,-1 0 1,0 0 0,1 0-1,-1 0 1,0-1 0,0 0-1,0 0 1,0 0 0,0 0-1,0-1 1,5-4 0,-5 1 2,0-1 1,0 1 0,0-1-1,-1 0 1,0 0 0,-1 0-1,0 0 1,0 0-1,0-1 1,-1 1 0,0 0-1,0-1 1,-1 1 0,0-1-1,-2-11 1,2 16-37,0 0 0,-1 0 0,1 0 0,-1 0-1,0-1 1,0 1 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,-1 0 0,1 0-1,0 0 1,-1 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0 0-1,0-1 1,0 1 0,-1 0 0,1 0 0,0 1 0,-4 0 0,2 0-14,0 1 1,0 0-1,0-1 1,0 2-1,0-1 1,1 1-1,-1-1 1,1 1-1,-1 0 1,1 1-1,0-1 0,1 1 1,-1 0-1,0 0 1,1 0-1,0 0 1,0 0-1,0 1 1,-3 8-1,4-10 4,0 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,4 5 0,-3-5 20,1 0-1,0 0 0,1-1 1,-1 0-1,1 0 1,0 0-1,-1 0 0,1-1 1,0 1-1,1-1 0,-1-1 1,0 1-1,0-1 0,1 0 1,-1 0-1,1 0 0,-1-1 1,1 0-1,-1 0 0,1 0 1,-1-1-1,10-2 1,-13 2-283,0-1 1,0 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0-1 0,-1 1-1,1 0 1,-1-1 0,0 1-1,0-1 1,0 1-1,0-1 1,0 0 0,-1 1-1,1-4 1,0 1-996,4-11-3733</inkml:trace>
 </inkml:ink>
@@ -14366,7 +13948,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">0 23 7347,'0'0'8575,"0"-5"-6836,1 10-1731,-1 0-1,0 0 1,1 0-1,0 1 1,0-1-1,1 0 0,-1 0 1,1 0-1,0-1 1,0 1-1,1 0 0,0-1 1,-1 1-1,1-1 1,1 0-1,-1 0 1,1 0-1,-1-1 0,1 1 1,0-1-1,1 0 1,-1 0-1,0 0 0,1 0 1,0-1-1,7 3 1,-6-3-53,-1 0 1,1-1-1,0 1 0,-1-1 1,1-1-1,0 1 1,0-1-1,0 0 0,0 0 1,-1-1-1,1 0 1,0 0-1,0 0 1,-1-1-1,1 1 0,-1-1 1,1-1-1,-1 1 1,0-1-1,0 0 0,0 0 1,0 0-1,7-7 1,-9 6 44,-1 0 1,1 0 0,-1 0 0,0 0 0,0 0-1,0-1 1,-1 1 0,1 0 0,-1-1 0,0 1-1,-1-1 1,1 0 0,-1 1 0,0-1 0,0 1-1,0-1 1,-1-7 0,0-6 123,-12 60 394,-11 228 101,21-152-5883,3-108-400</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="668.84">303 568 2113,'0'0'7737,"-8"-11"-3741,-5 7-3390,-2 5-6542,11 3 2446</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="668.83">303 568 2113,'0'0'7737,"-8"-11"-3741,-5 7-3390,-2 5-6542,11 3 2446</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14857,8 +14439,8 @@
   </sheetPr>
   <dimension ref="B2:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -14961,7 +14543,7 @@
     <row r="24" spans="3:4">
       <c r="C24" s="2">
         <f ca="1">TODAY()</f>
-        <v>45606</v>
+        <v>45648</v>
       </c>
     </row>
     <row r="25" spans="3:4">
@@ -15055,32 +14637,32 @@
       </c>
     </row>
     <row r="45" spans="3:7">
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="46" spans="3:7">
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="47" spans="3:7">
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="48" spans="3:7">
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="49" spans="3:3">
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="50" spans="3:3">
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -15150,7 +14732,2429 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BA661D-1006-40B7-A624-479FA009495E}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="B2:C29"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="58.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" s="1" customFormat="1">
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="C4" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="C5" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="C6" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="C8" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="C9" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6742E61-5425-446D-A2A7-9D6BFDDA594C}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="B2:B133"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="161.9296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="17.649999999999999">
+      <c r="B2" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="17.649999999999999">
+      <c r="B8" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" ht="17.649999999999999">
+      <c r="B14" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="17.649999999999999">
+      <c r="B20" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="17.649999999999999">
+      <c r="B26" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" ht="17.649999999999999">
+      <c r="B32" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="17.649999999999999">
+      <c r="B38" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" ht="17.649999999999999">
+      <c r="B44" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="17.649999999999999">
+      <c r="B50" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="17.649999999999999">
+      <c r="B56" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" ht="17.649999999999999">
+      <c r="B62" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" ht="17.649999999999999">
+      <c r="B68" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" ht="17.649999999999999">
+      <c r="B74" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" ht="17.649999999999999">
+      <c r="B80" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" ht="17.649999999999999">
+      <c r="B86" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" ht="17.649999999999999">
+      <c r="B92" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" ht="17.649999999999999">
+      <c r="B98" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" ht="17.649999999999999">
+      <c r="B104" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" ht="17.649999999999999">
+      <c r="B110" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" ht="17.649999999999999">
+      <c r="B116" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" ht="17.649999999999999">
+      <c r="B122" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" ht="17.649999999999999">
+      <c r="B128" s="12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585878B7-2485-40E2-A062-2ECFB32AC954}">
+  <dimension ref="B2:N186"/>
+  <sheetViews>
+    <sheetView topLeftCell="A109" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I179" sqref="I179"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="3.46484375" customWidth="1"/>
+    <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.9296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="14.65" thickBot="1"/>
+    <row r="8" spans="2:3" ht="14.65" thickBot="1">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="2">
+        <f ca="1">TODAY()</f>
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" s="4" customFormat="1">
+      <c r="B19" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="C28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="C30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" s="4" customFormat="1">
+      <c r="B35" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="6">
+        <v>1</v>
+      </c>
+      <c r="C37" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="C45" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="6">
+        <v>1</v>
+      </c>
+      <c r="C46" s="6">
+        <v>1</v>
+      </c>
+      <c r="D46" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="C47" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="C49">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="C50">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" s="6">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" s="6">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="C54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="C55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="C56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="D64" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="D65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="D66" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="D67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="D68" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="D69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="D70" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" t="s">
+        <v>100</v>
+      </c>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="C73" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D73" t="s">
+        <v>97</v>
+      </c>
+      <c r="E73" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="C74" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" t="s">
+        <v>106</v>
+      </c>
+      <c r="E74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="C75" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D75" t="s">
+        <v>107</v>
+      </c>
+      <c r="E75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="C76" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D76" t="s">
+        <v>108</v>
+      </c>
+      <c r="E76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="C77" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D77" t="s">
+        <v>109</v>
+      </c>
+      <c r="E77" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" s="6" customFormat="1"/>
+    <row r="86" spans="2:3">
+      <c r="B86" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" t="s">
+        <v>79</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="B92" t="str">
+        <f>C90</f>
+        <v>Acciojob =&gt; Data Analytics</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="B93" t="str">
+        <f>C90</f>
+        <v>Acciojob =&gt; Data Analytics</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="B95" s="8">
+        <v>5</v>
+      </c>
+      <c r="C95" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6">
+      <c r="B97">
+        <f>B95+C95</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6">
+      <c r="B106">
+        <v>5</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <f>B106*D106</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6">
+      <c r="B107">
+        <v>5</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="F107">
+        <f t="shared" ref="F107:F115" si="0">B107*D107</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6">
+      <c r="B108">
+        <v>5</v>
+      </c>
+      <c r="D108">
+        <v>3</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6">
+      <c r="B109">
+        <v>5</v>
+      </c>
+      <c r="D109">
+        <v>4</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="D110">
+        <v>5</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6">
+      <c r="B111">
+        <v>5</v>
+      </c>
+      <c r="D111">
+        <v>6</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6">
+      <c r="B112">
+        <v>5</v>
+      </c>
+      <c r="D112">
+        <v>7</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7">
+      <c r="B113">
+        <v>5</v>
+      </c>
+      <c r="D113">
+        <v>8</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7">
+      <c r="B114">
+        <v>5</v>
+      </c>
+      <c r="D114">
+        <v>9</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7">
+      <c r="B115">
+        <v>5</v>
+      </c>
+      <c r="D115">
+        <v>10</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7">
+      <c r="F121">
+        <f>D121</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7">
+      <c r="D122" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E122">
+        <f>C122</f>
+        <v>0</v>
+      </c>
+      <c r="F122" t="str">
+        <f>D122</f>
+        <v>Siraj</v>
+      </c>
+      <c r="G122">
+        <f>E122</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7">
+      <c r="F123">
+        <f>D123</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7">
+      <c r="C128" t="s">
+        <v>118</v>
+      </c>
+      <c r="G128" t="str">
+        <f>C128</f>
+        <v>Up</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10">
+      <c r="B129" t="s">
+        <v>117</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D129" t="s">
+        <v>120</v>
+      </c>
+      <c r="F129" t="str">
+        <f>B129</f>
+        <v>LEFT</v>
+      </c>
+      <c r="G129" t="str">
+        <f>C129</f>
+        <v>Main Cell</v>
+      </c>
+      <c r="H129" t="str">
+        <f>D129</f>
+        <v>Right</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10">
+      <c r="C130" t="s">
+        <v>119</v>
+      </c>
+      <c r="G130" t="str">
+        <f>C130</f>
+        <v>Down</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10">
+      <c r="D143" s="10">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10">
+      <c r="C144" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E144" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I144" t="str">
+        <f>D144</f>
+        <v>Main Cell</v>
+      </c>
+      <c r="J144" t="str">
+        <f>E144</f>
+        <v>DEF</v>
+      </c>
+    </row>
+    <row r="145" spans="2:13">
+      <c r="D145" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I145" t="str">
+        <f>D145</f>
+        <v>$%^</v>
+      </c>
+    </row>
+    <row r="149" spans="2:13">
+      <c r="I149">
+        <f>I143</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:13">
+      <c r="H150">
+        <f>H144</f>
+        <v>0</v>
+      </c>
+      <c r="I150" t="str">
+        <f>I144</f>
+        <v>Main Cell</v>
+      </c>
+      <c r="J150" t="str">
+        <f>J144</f>
+        <v>DEF</v>
+      </c>
+    </row>
+    <row r="151" spans="2:13">
+      <c r="I151" t="str">
+        <f>I145</f>
+        <v>$%^</v>
+      </c>
+    </row>
+    <row r="158" spans="2:13" s="10" customFormat="1"/>
+    <row r="159" spans="2:13">
+      <c r="G159">
+        <v>5</v>
+      </c>
+      <c r="M159">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="2:13">
+      <c r="B160" t="s">
+        <v>124</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="G160">
+        <f>G159*D160</f>
+        <v>5</v>
+      </c>
+      <c r="M160">
+        <f>$M$159*D160</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="4:14">
+      <c r="D161">
+        <v>2</v>
+      </c>
+      <c r="G161">
+        <f t="shared" ref="G161:G169" si="1">G160*D161</f>
+        <v>10</v>
+      </c>
+      <c r="M161">
+        <f t="shared" ref="M161:M169" si="2">$M$159*D161</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="4:14">
+      <c r="D162">
+        <v>3</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="M162">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="4:14">
+      <c r="D163">
+        <v>4</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="M163">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164" spans="4:14">
+      <c r="D164">
+        <v>5</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="M164">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="165" spans="4:14">
+      <c r="D165">
+        <v>6</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="1"/>
+        <v>3600</v>
+      </c>
+      <c r="M165">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166" spans="4:14">
+      <c r="D166">
+        <v>7</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="1"/>
+        <v>25200</v>
+      </c>
+      <c r="M166">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="167" spans="4:14">
+      <c r="D167">
+        <v>8</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="1"/>
+        <v>201600</v>
+      </c>
+      <c r="M167">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="168" spans="4:14">
+      <c r="D168">
+        <v>9</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="1"/>
+        <v>1814400</v>
+      </c>
+      <c r="M168">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="169" spans="4:14">
+      <c r="D169">
+        <v>10</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="1"/>
+        <v>18144000</v>
+      </c>
+      <c r="M169">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="176" spans="4:14">
+      <c r="D176" t="s">
+        <v>125</v>
+      </c>
+      <c r="E176" s="10">
+        <v>1</v>
+      </c>
+      <c r="F176" s="10">
+        <v>2</v>
+      </c>
+      <c r="G176" s="10">
+        <v>3</v>
+      </c>
+      <c r="H176" s="10">
+        <v>4</v>
+      </c>
+      <c r="I176" s="10">
+        <v>5</v>
+      </c>
+      <c r="J176" s="10">
+        <v>6</v>
+      </c>
+      <c r="K176" s="10">
+        <v>7</v>
+      </c>
+      <c r="L176" s="10">
+        <v>8</v>
+      </c>
+      <c r="M176" s="10">
+        <v>9</v>
+      </c>
+      <c r="N176" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="4:4">
+      <c r="D177" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="4:4">
+      <c r="D178" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="4:4">
+      <c r="D179" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="4:4">
+      <c r="D180" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="4:4">
+      <c r="D181" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="4:4">
+      <c r="D182" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="4:4">
+      <c r="D183" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="4:4">
+      <c r="D184" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="4:4">
+      <c r="D185" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="4:4">
+      <c r="D186" s="10">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C73" r:id="rId1" xr:uid="{63DDE03C-EC20-4A77-BC40-107367A76220}"/>
+    <hyperlink ref="C74" r:id="rId2" xr:uid="{789B7CD7-8F37-4770-BD5A-510EC12C6F18}"/>
+    <hyperlink ref="C75" r:id="rId3" xr:uid="{AB6642D3-0134-4A83-8930-FBDF8C0F7569}"/>
+    <hyperlink ref="C76" r:id="rId4" xr:uid="{603BBBF9-4403-490C-81E9-AC1ED7A0590D}"/>
+    <hyperlink ref="C77" r:id="rId5" xr:uid="{620DBB2A-F7D1-4411-9046-BA3E93F27998}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B210730-C136-497F-9A0C-A23305C6C471}">
+  <dimension ref="B2:G24"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="2.265625" customWidth="1"/>
+    <col min="2" max="2" width="43.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="C5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="C6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="C9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E9" t="s">
+        <v>263</v>
+      </c>
+      <c r="F9" t="s">
+        <v>265</v>
+      </c>
+      <c r="G9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="C10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F10" t="s">
+        <v>265</v>
+      </c>
+      <c r="G10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="C12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="C13" t="s">
+        <v>261</v>
+      </c>
+      <c r="E13" t="s">
+        <v>263</v>
+      </c>
+      <c r="F13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="C14" t="s">
+        <v>260</v>
+      </c>
+      <c r="E14" t="s">
+        <v>262</v>
+      </c>
+      <c r="F14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="C17" t="s">
+        <v>260</v>
+      </c>
+      <c r="D17" t="s">
+        <v>269</v>
+      </c>
+      <c r="E17" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="C18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D18" t="s">
+        <v>269</v>
+      </c>
+      <c r="E18" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" s="10" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03945497-853E-431A-9E99-616FD75BCF08}">
+  <dimension ref="B2:G150"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="2.1328125" customWidth="1"/>
+    <col min="2" max="2" width="51.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1328125" customWidth="1"/>
+    <col min="5" max="5" width="14.9296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="C15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="C16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="C20" s="16">
+        <f ca="1">NOW()</f>
+        <v>45648.953030439814</v>
+      </c>
+      <c r="E20" s="16">
+        <f ca="1">NOW()</f>
+        <v>45648.953030439814</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" t="s">
+        <v>277</v>
+      </c>
+      <c r="C22">
+        <v>45606.923515740738</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="17">
+        <v>45606.923515740738</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" t="s">
+        <v>278</v>
+      </c>
+      <c r="C24" s="18">
+        <v>45606.923515740738</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" t="s">
+        <v>279</v>
+      </c>
+      <c r="C25" s="19">
+        <v>45606.923515740738</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" t="s">
+        <v>280</v>
+      </c>
+      <c r="C26" s="2">
+        <v>45606.923515740738</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" t="s">
+        <v>281</v>
+      </c>
+      <c r="C27" s="20">
+        <v>45606.923515740738</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" t="s">
+        <v>282</v>
+      </c>
+      <c r="C28" s="21">
+        <v>45606.923515740738</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" t="s">
+        <v>283</v>
+      </c>
+      <c r="C29" s="22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" t="s">
+        <v>284</v>
+      </c>
+      <c r="C30" s="23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="C31" s="24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" t="s">
+        <v>285</v>
+      </c>
+      <c r="C32" s="25">
+        <v>5123</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="C33" s="25">
+        <v>0.54122999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="C36">
+        <f>5+6</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="F39">
+        <v>0.54122999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="C45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="C47" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="C49" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="C51" s="2">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="C53" s="17">
+        <v>2958465</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="C55" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" s="10" customFormat="1"/>
+    <row r="60" spans="2:3">
+      <c r="B60" t="s">
+        <v>288</v>
+      </c>
+      <c r="C60" s="2">
+        <v>45606</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" t="s">
+        <v>289</v>
+      </c>
+      <c r="C61" s="27">
+        <v>45606</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" t="s">
+        <v>290</v>
+      </c>
+      <c r="C62" s="28">
+        <v>45606</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="C63" s="29">
+        <v>45606</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" t="s">
+        <v>291</v>
+      </c>
+      <c r="C64" s="30">
+        <v>45606</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="C65" s="31">
+        <v>45606</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" s="10" customFormat="1"/>
+    <row r="69" spans="2:3">
+      <c r="B69" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" s="32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" s="33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" ht="23.25">
+      <c r="B72" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" ht="15.75">
+      <c r="B73" s="35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" ht="14.65">
+      <c r="B75" s="36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" s="37"/>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" s="37" customFormat="1"/>
+    <row r="84" spans="2:5">
+      <c r="B84" s="38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" s="39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" s="40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" ht="44.35" customHeight="1">
+      <c r="B87" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" ht="44.35" customHeight="1">
+      <c r="B88" s="41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" ht="44.35" customHeight="1">
+      <c r="B89" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C94" s="46"/>
+      <c r="D94" s="46"/>
+      <c r="E94" s="46"/>
+    </row>
+    <row r="95" spans="2:5" ht="42.75">
+      <c r="B95" s="42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97" t="s">
+        <v>292</v>
+      </c>
+      <c r="C97" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3">
+      <c r="B106" t="s">
+        <v>294</v>
+      </c>
+      <c r="C106" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="B107">
+        <v>2012</v>
+      </c>
+      <c r="C107">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3">
+      <c r="B108">
+        <v>2013</v>
+      </c>
+      <c r="C108">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3">
+      <c r="B111" t="s">
+        <v>292</v>
+      </c>
+      <c r="C111" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3">
+      <c r="C124" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3">
+      <c r="B127" t="s">
+        <v>292</v>
+      </c>
+      <c r="C127" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3">
+      <c r="C137" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3">
+      <c r="C138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3">
+      <c r="C139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3">
+      <c r="C140">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3">
+      <c r="C141">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3">
+      <c r="C142">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3">
+      <c r="C143">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" ht="23.25">
+      <c r="C145" s="43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3">
+      <c r="C147" s="45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3">
+      <c r="C150" s="44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="C137:C143" xr:uid="{03945497-853E-431A-9E99-616FD75BCF08}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C138:C143">
+    <sortCondition ref="C138:C143"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="B94:E94"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="4">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0703534E-A333-4A18-962A-C16F04882C82}">
   <dimension ref="B2:I35"/>
   <sheetViews>
@@ -15194,7 +17198,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="2:9" s="9" customFormat="1"/>
+    <row r="10" spans="2:9" s="8" customFormat="1"/>
     <row r="13" spans="2:9">
       <c r="B13" t="s">
         <v>297</v>
@@ -15591,15 +17595,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B15:B28">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThan">
       <formula>75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C28">
-    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:C35">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Job">
+      <formula>NOT(ISERROR(SEARCH("Job",C31)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D28">
-    <cfRule type="top10" dxfId="4" priority="7" rank="3"/>
+    <cfRule type="top10" dxfId="0" priority="7" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E28">
     <cfRule type="dataBar" priority="6">
@@ -15649,11 +17658,6 @@
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
       </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31:C35">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Job">
-      <formula>NOT(ISERROR(SEARCH("Job",C31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15706,2466 +17710,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BA661D-1006-40B7-A624-479FA009495E}">
-  <sheetPr>
-    <tabColor theme="6" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="B2:C29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="3" max="3" width="58.19921875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" s="1" customFormat="1">
-      <c r="B2" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="C4" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="C5" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="C6" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="C8" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="C9" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="C10" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="C11" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="C12" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="C14" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="C15" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="C16" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3">
-      <c r="C25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
-      <c r="C28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3">
-      <c r="C29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6742E61-5425-446D-A2A7-9D6BFDDA594C}">
-  <sheetPr>
-    <tabColor theme="4" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="B2:B133"/>
-  <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="2" spans="2:2" ht="17.649999999999999">
-      <c r="B2" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" ht="17.649999999999999">
-      <c r="B8" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" ht="17.649999999999999">
-      <c r="B14" s="13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="17.649999999999999">
-      <c r="B20" s="13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" ht="17.649999999999999">
-      <c r="B26" s="13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" ht="17.649999999999999">
-      <c r="B32" s="13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" ht="17.649999999999999">
-      <c r="B38" s="13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" ht="17.649999999999999">
-      <c r="B44" s="13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="15" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="15" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" ht="17.649999999999999">
-      <c r="B50" s="13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="15" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="15" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" ht="17.649999999999999">
-      <c r="B56" s="13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="15" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" ht="17.649999999999999">
-      <c r="B62" s="13" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" ht="17.649999999999999">
-      <c r="B68" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="15" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" ht="17.649999999999999">
-      <c r="B74" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="15" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="15" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="15" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" ht="17.649999999999999">
-      <c r="B80" s="13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="15" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="15" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83" s="15" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84" s="15" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85" s="15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" ht="17.649999999999999">
-      <c r="B86" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87" s="15" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88" s="15" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2">
-      <c r="B89" s="15" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90" s="15" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2">
-      <c r="B91" s="15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" ht="17.649999999999999">
-      <c r="B92" s="13" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2">
-      <c r="B93" s="15" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2">
-      <c r="B94" s="15" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2">
-      <c r="B95" s="15" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2">
-      <c r="B96" s="15" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="15" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" ht="17.649999999999999">
-      <c r="B98" s="13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2">
-      <c r="B100" s="15" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2">
-      <c r="B101" s="15" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2">
-      <c r="B102" s="15" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103" s="15" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2" ht="17.649999999999999">
-      <c r="B104" s="13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2">
-      <c r="B105" s="15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2">
-      <c r="B106" s="15" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2">
-      <c r="B107" s="15" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2">
-      <c r="B108" s="15" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2">
-      <c r="B109" s="15" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" ht="17.649999999999999">
-      <c r="B110" s="13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2">
-      <c r="B111" s="15" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2">
-      <c r="B112" s="15" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2">
-      <c r="B113" s="15" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2">
-      <c r="B114" s="15" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2">
-      <c r="B115" s="15" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2" ht="17.649999999999999">
-      <c r="B116" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2">
-      <c r="B117" s="15" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2">
-      <c r="B118" s="15" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2">
-      <c r="B119" s="15" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2">
-      <c r="B120" s="15" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2">
-      <c r="B121" s="15" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2" ht="17.649999999999999">
-      <c r="B122" s="13" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2">
-      <c r="B123" s="15" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2">
-      <c r="B124" s="15" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2">
-      <c r="B125" s="15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2">
-      <c r="B126" s="15" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2">
-      <c r="B127" s="15" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2" ht="17.649999999999999">
-      <c r="B128" s="13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2">
-      <c r="B129" s="15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2">
-      <c r="B130" s="15" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2">
-      <c r="B131" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2">
-      <c r="B132" s="15" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2">
-      <c r="B133" s="15" t="s">
-        <v>257</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585878B7-2485-40E2-A062-2ECFB32AC954}">
-  <dimension ref="B2:N186"/>
-  <sheetViews>
-    <sheetView topLeftCell="A154" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I179" sqref="I179"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="3.46484375" customWidth="1"/>
-    <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.06640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.9296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="14.65" thickBot="1"/>
-    <row r="8" spans="2:3" ht="14.65" thickBot="1">
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="2">
-        <f ca="1">TODAY()</f>
-        <v>45606</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" s="4" customFormat="1">
-      <c r="B19" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="C25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="C26" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="C28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="C30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="C31" s="4"/>
-      <c r="D31" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" s="4" customFormat="1">
-      <c r="B35" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="6">
-        <v>1</v>
-      </c>
-      <c r="C37" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="C45" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="6">
-        <v>1</v>
-      </c>
-      <c r="C46" s="6">
-        <v>1</v>
-      </c>
-      <c r="D46" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="C47" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="C49">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="C50">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="C51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52" s="6">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="B53">
-        <v>2</v>
-      </c>
-      <c r="C53" s="6">
-        <v>2</v>
-      </c>
-      <c r="D53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6">
-      <c r="C54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6">
-      <c r="C55">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="C56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6">
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6">
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>2</v>
-      </c>
-      <c r="F60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6">
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6">
-      <c r="D63" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6">
-      <c r="D64" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5">
-      <c r="D65" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5">
-      <c r="D66" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5">
-      <c r="D67" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5">
-      <c r="D68" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5">
-      <c r="D69" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5">
-      <c r="D70" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5">
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="2:5">
-      <c r="B72" t="s">
-        <v>100</v>
-      </c>
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="2:5">
-      <c r="C73" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D73" t="s">
-        <v>97</v>
-      </c>
-      <c r="E73" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5">
-      <c r="C74" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D74" t="s">
-        <v>106</v>
-      </c>
-      <c r="E74" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5">
-      <c r="C75" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D75" t="s">
-        <v>107</v>
-      </c>
-      <c r="E75" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5">
-      <c r="C76" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D76" t="s">
-        <v>108</v>
-      </c>
-      <c r="E76" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5">
-      <c r="C77" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D77" t="s">
-        <v>109</v>
-      </c>
-      <c r="E77" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" s="6" customFormat="1"/>
-    <row r="86" spans="2:3">
-      <c r="B86" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3">
-      <c r="B88" t="s">
-        <v>23</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3">
-      <c r="B90" t="s">
-        <v>79</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3">
-      <c r="B92" t="str">
-        <f>C90</f>
-        <v>Acciojob =&gt; Data Analytics</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3">
-      <c r="B93" t="str">
-        <f>C90</f>
-        <v>Acciojob =&gt; Data Analytics</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3">
-      <c r="B95" s="9">
-        <v>5</v>
-      </c>
-      <c r="C95" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6">
-      <c r="B97">
-        <f>B95+C95</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6">
-      <c r="B106">
-        <v>5</v>
-      </c>
-      <c r="D106">
-        <v>1</v>
-      </c>
-      <c r="F106">
-        <f>B106*D106</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="2:6">
-      <c r="B107">
-        <v>5</v>
-      </c>
-      <c r="D107">
-        <v>2</v>
-      </c>
-      <c r="F107">
-        <f t="shared" ref="F107:F115" si="0">B107*D107</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="108" spans="2:6">
-      <c r="B108">
-        <v>5</v>
-      </c>
-      <c r="D108">
-        <v>3</v>
-      </c>
-      <c r="F108">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="109" spans="2:6">
-      <c r="B109">
-        <v>5</v>
-      </c>
-      <c r="D109">
-        <v>4</v>
-      </c>
-      <c r="F109">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6">
-      <c r="B110">
-        <v>5</v>
-      </c>
-      <c r="D110">
-        <v>5</v>
-      </c>
-      <c r="F110">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="111" spans="2:6">
-      <c r="B111">
-        <v>5</v>
-      </c>
-      <c r="D111">
-        <v>6</v>
-      </c>
-      <c r="F111">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6">
-      <c r="B112">
-        <v>5</v>
-      </c>
-      <c r="D112">
-        <v>7</v>
-      </c>
-      <c r="F112">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7">
-      <c r="B113">
-        <v>5</v>
-      </c>
-      <c r="D113">
-        <v>8</v>
-      </c>
-      <c r="F113">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7">
-      <c r="B114">
-        <v>5</v>
-      </c>
-      <c r="D114">
-        <v>9</v>
-      </c>
-      <c r="F114">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="115" spans="2:7">
-      <c r="B115">
-        <v>5</v>
-      </c>
-      <c r="D115">
-        <v>10</v>
-      </c>
-      <c r="F115">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="121" spans="2:7">
-      <c r="F121">
-        <f>D121</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="2:7">
-      <c r="D122" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E122">
-        <f>C122</f>
-        <v>0</v>
-      </c>
-      <c r="F122" t="str">
-        <f>D122</f>
-        <v>Siraj</v>
-      </c>
-      <c r="G122">
-        <f>E122</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="2:7">
-      <c r="F123">
-        <f>D123</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="2:7">
-      <c r="C128" t="s">
-        <v>118</v>
-      </c>
-      <c r="G128" t="str">
-        <f>C128</f>
-        <v>Up</v>
-      </c>
-    </row>
-    <row r="129" spans="2:10">
-      <c r="B129" t="s">
-        <v>117</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D129" t="s">
-        <v>120</v>
-      </c>
-      <c r="F129" t="str">
-        <f>B129</f>
-        <v>LEFT</v>
-      </c>
-      <c r="G129" t="str">
-        <f>C129</f>
-        <v>Main Cell</v>
-      </c>
-      <c r="H129" t="str">
-        <f>D129</f>
-        <v>Right</v>
-      </c>
-    </row>
-    <row r="130" spans="2:10">
-      <c r="C130" t="s">
-        <v>119</v>
-      </c>
-      <c r="G130" t="str">
-        <f>C130</f>
-        <v>Down</v>
-      </c>
-    </row>
-    <row r="143" spans="2:10">
-      <c r="D143" s="11">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="144" spans="2:10">
-      <c r="C144" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D144" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E144" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="I144" t="str">
-        <f>D144</f>
-        <v>Main Cell</v>
-      </c>
-      <c r="J144" t="str">
-        <f>E144</f>
-        <v>DEF</v>
-      </c>
-    </row>
-    <row r="145" spans="2:13">
-      <c r="D145" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I145" t="str">
-        <f>D145</f>
-        <v>$%^</v>
-      </c>
-    </row>
-    <row r="149" spans="2:13">
-      <c r="I149">
-        <f>I143</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="2:13">
-      <c r="H150">
-        <f>H144</f>
-        <v>0</v>
-      </c>
-      <c r="I150" t="str">
-        <f>I144</f>
-        <v>Main Cell</v>
-      </c>
-      <c r="J150" t="str">
-        <f>J144</f>
-        <v>DEF</v>
-      </c>
-    </row>
-    <row r="151" spans="2:13">
-      <c r="I151" t="str">
-        <f>I145</f>
-        <v>$%^</v>
-      </c>
-    </row>
-    <row r="158" spans="2:13" s="11" customFormat="1"/>
-    <row r="159" spans="2:13">
-      <c r="G159">
-        <v>5</v>
-      </c>
-      <c r="M159">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="160" spans="2:13">
-      <c r="B160" t="s">
-        <v>124</v>
-      </c>
-      <c r="D160">
-        <v>1</v>
-      </c>
-      <c r="G160">
-        <f>G159*D160</f>
-        <v>5</v>
-      </c>
-      <c r="M160">
-        <f>$M$159*D160</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="161" spans="4:14">
-      <c r="D161">
-        <v>2</v>
-      </c>
-      <c r="G161">
-        <f t="shared" ref="G161:G169" si="1">G160*D161</f>
-        <v>10</v>
-      </c>
-      <c r="M161">
-        <f t="shared" ref="M161:M169" si="2">$M$159*D161</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="162" spans="4:14">
-      <c r="D162">
-        <v>3</v>
-      </c>
-      <c r="G162">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="M162">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="163" spans="4:14">
-      <c r="D163">
-        <v>4</v>
-      </c>
-      <c r="G163">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M163">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="164" spans="4:14">
-      <c r="D164">
-        <v>5</v>
-      </c>
-      <c r="G164">
-        <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-      <c r="M164">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="165" spans="4:14">
-      <c r="D165">
-        <v>6</v>
-      </c>
-      <c r="G165">
-        <f t="shared" si="1"/>
-        <v>3600</v>
-      </c>
-      <c r="M165">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="166" spans="4:14">
-      <c r="D166">
-        <v>7</v>
-      </c>
-      <c r="G166">
-        <f t="shared" si="1"/>
-        <v>25200</v>
-      </c>
-      <c r="M166">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="167" spans="4:14">
-      <c r="D167">
-        <v>8</v>
-      </c>
-      <c r="G167">
-        <f t="shared" si="1"/>
-        <v>201600</v>
-      </c>
-      <c r="M167">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="168" spans="4:14">
-      <c r="D168">
-        <v>9</v>
-      </c>
-      <c r="G168">
-        <f t="shared" si="1"/>
-        <v>1814400</v>
-      </c>
-      <c r="M168">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="169" spans="4:14">
-      <c r="D169">
-        <v>10</v>
-      </c>
-      <c r="G169">
-        <f t="shared" si="1"/>
-        <v>18144000</v>
-      </c>
-      <c r="M169">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="176" spans="4:14">
-      <c r="D176" t="s">
-        <v>125</v>
-      </c>
-      <c r="E176" s="11">
-        <v>1</v>
-      </c>
-      <c r="F176" s="11">
-        <v>2</v>
-      </c>
-      <c r="G176" s="11">
-        <v>3</v>
-      </c>
-      <c r="H176" s="11">
-        <v>4</v>
-      </c>
-      <c r="I176" s="11">
-        <v>5</v>
-      </c>
-      <c r="J176" s="11">
-        <v>6</v>
-      </c>
-      <c r="K176" s="11">
-        <v>7</v>
-      </c>
-      <c r="L176" s="11">
-        <v>8</v>
-      </c>
-      <c r="M176" s="11">
-        <v>9</v>
-      </c>
-      <c r="N176" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="177" spans="4:4">
-      <c r="D177" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="4:4">
-      <c r="D178" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="4:4">
-      <c r="D179" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="4:4">
-      <c r="D180" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="4:4">
-      <c r="D181" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="182" spans="4:4">
-      <c r="D182" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="183" spans="4:4">
-      <c r="D183" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="184" spans="4:4">
-      <c r="D184" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="185" spans="4:4">
-      <c r="D185" s="11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="186" spans="4:4">
-      <c r="D186" s="11">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C73" r:id="rId1" xr:uid="{63DDE03C-EC20-4A77-BC40-107367A76220}"/>
-    <hyperlink ref="C74" r:id="rId2" xr:uid="{789B7CD7-8F37-4770-BD5A-510EC12C6F18}"/>
-    <hyperlink ref="C75" r:id="rId3" xr:uid="{AB6642D3-0134-4A83-8930-FBDF8C0F7569}"/>
-    <hyperlink ref="C76" r:id="rId4" xr:uid="{603BBBF9-4403-490C-81E9-AC1ED7A0590D}"/>
-    <hyperlink ref="C77" r:id="rId5" xr:uid="{620DBB2A-F7D1-4411-9046-BA3E93F27998}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
-  <drawing r:id="rId7"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B210730-C136-497F-9A0C-A23305C6C471}">
-  <dimension ref="B2:G24"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="2.265625" customWidth="1"/>
-    <col min="2" max="2" width="43.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7">
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" t="s">
-        <v>259</v>
-      </c>
-      <c r="E4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="C5" t="s">
-        <v>260</v>
-      </c>
-      <c r="E5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="C6" t="s">
-        <v>261</v>
-      </c>
-      <c r="E6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="C9" t="s">
-        <v>261</v>
-      </c>
-      <c r="E9" t="s">
-        <v>263</v>
-      </c>
-      <c r="F9" t="s">
-        <v>265</v>
-      </c>
-      <c r="G9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="C10" t="s">
-        <v>260</v>
-      </c>
-      <c r="E10" t="s">
-        <v>262</v>
-      </c>
-      <c r="F10" t="s">
-        <v>265</v>
-      </c>
-      <c r="G10" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="C12" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="C13" t="s">
-        <v>261</v>
-      </c>
-      <c r="E13" t="s">
-        <v>263</v>
-      </c>
-      <c r="F13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="C14" t="s">
-        <v>260</v>
-      </c>
-      <c r="E14" t="s">
-        <v>262</v>
-      </c>
-      <c r="F14" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="C17" t="s">
-        <v>260</v>
-      </c>
-      <c r="D17" t="s">
-        <v>269</v>
-      </c>
-      <c r="E17" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="C18" t="s">
-        <v>261</v>
-      </c>
-      <c r="D18" t="s">
-        <v>269</v>
-      </c>
-      <c r="E18" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" s="11" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C3AAA8-A6C6-4C9A-83A4-C3D453C431D9}">
-  <sheetPr>
-    <tabColor theme="7" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66D7272-D9F7-4427-9AD9-0DE03EB56975}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA04E34-1507-44EB-A64D-9D038D15BCD4}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03945497-853E-431A-9E99-616FD75BCF08}">
-  <dimension ref="B2:G150"/>
-  <sheetViews>
-    <sheetView topLeftCell="A140" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="2.1328125" customWidth="1"/>
-    <col min="2" max="2" width="51.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" customWidth="1"/>
-    <col min="5" max="5" width="14.9296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" t="s">
-        <v>272</v>
-      </c>
-      <c r="D8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" t="s">
-        <v>276</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="C13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="C14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="C15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="C16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>4</v>
-      </c>
-      <c r="G18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="C20" s="17">
-        <f ca="1">NOW()</f>
-        <v>45606.954491203702</v>
-      </c>
-      <c r="E20" s="17">
-        <f ca="1">NOW()</f>
-        <v>45606.954491203702</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" t="s">
-        <v>277</v>
-      </c>
-      <c r="C22">
-        <v>45606.923515740738</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="18">
-        <v>45606.923515740738</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" t="s">
-        <v>278</v>
-      </c>
-      <c r="C24" s="19">
-        <v>45606.923515740738</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" t="s">
-        <v>279</v>
-      </c>
-      <c r="C25" s="20">
-        <v>45606.923515740738</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" t="s">
-        <v>280</v>
-      </c>
-      <c r="C26" s="2">
-        <v>45606.923515740738</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" t="s">
-        <v>281</v>
-      </c>
-      <c r="C27" s="21">
-        <v>45606.923515740738</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" t="s">
-        <v>282</v>
-      </c>
-      <c r="C28" s="22">
-        <v>45606.923515740738</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" t="s">
-        <v>283</v>
-      </c>
-      <c r="C29" s="23">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" t="s">
-        <v>284</v>
-      </c>
-      <c r="C30" s="24">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="C31" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" t="s">
-        <v>285</v>
-      </c>
-      <c r="C32" s="26">
-        <v>5123</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="C33" s="26">
-        <v>0.54122999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="C36">
-        <f>5+6</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="F39">
-        <v>0.54122999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="C45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="C46" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="C47" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="C49" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3">
-      <c r="C51" s="2">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3">
-      <c r="C53" s="18">
-        <v>2958465</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3">
-      <c r="C55" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" s="11" customFormat="1"/>
-    <row r="60" spans="2:3">
-      <c r="B60" t="s">
-        <v>288</v>
-      </c>
-      <c r="C60" s="2">
-        <v>45606</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3">
-      <c r="B61" t="s">
-        <v>289</v>
-      </c>
-      <c r="C61" s="28">
-        <v>45606</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="B62" t="s">
-        <v>290</v>
-      </c>
-      <c r="C62" s="29">
-        <v>45606</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3">
-      <c r="C63" s="30">
-        <v>45606</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3">
-      <c r="B64" t="s">
-        <v>291</v>
-      </c>
-      <c r="C64" s="31">
-        <v>45606</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3">
-      <c r="C65" s="32">
-        <v>45606</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" s="11" customFormat="1"/>
-    <row r="69" spans="2:3">
-      <c r="B69" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3">
-      <c r="B70" s="33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3">
-      <c r="B71" s="34" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" ht="23.25">
-      <c r="B72" s="35" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" ht="15.75">
-      <c r="B73" s="36" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3">
-      <c r="B75" s="37" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3">
-      <c r="B77" s="38"/>
-    </row>
-    <row r="79" spans="2:3">
-      <c r="B79" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" s="38" customFormat="1"/>
-    <row r="84" spans="2:5">
-      <c r="B84" s="39" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5">
-      <c r="B85" s="40" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5">
-      <c r="B86" s="41" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" ht="44.35" customHeight="1">
-      <c r="B87" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" ht="44.35" customHeight="1">
-      <c r="B88" s="42" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" ht="44.35" customHeight="1">
-      <c r="B89" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5">
-      <c r="B90" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5">
-      <c r="B91" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5">
-      <c r="B92" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5">
-      <c r="B94" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="C94" s="43"/>
-      <c r="D94" s="43"/>
-      <c r="E94" s="43"/>
-    </row>
-    <row r="95" spans="2:5" ht="42.75">
-      <c r="B95" s="44" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3">
-      <c r="B97" t="s">
-        <v>292</v>
-      </c>
-      <c r="C97" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3">
-      <c r="B106" t="s">
-        <v>294</v>
-      </c>
-      <c r="C106" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3">
-      <c r="B107">
-        <v>2012</v>
-      </c>
-      <c r="C107">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3">
-      <c r="B108">
-        <v>2013</v>
-      </c>
-      <c r="C108">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3">
-      <c r="B111" t="s">
-        <v>292</v>
-      </c>
-      <c r="C111" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="124" spans="2:3">
-      <c r="C124" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="127" spans="2:3">
-      <c r="B127" t="s">
-        <v>292</v>
-      </c>
-      <c r="C127" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="137" spans="3:3">
-      <c r="C137" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="138" spans="3:3">
-      <c r="C138">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="3:3">
-      <c r="C139">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="3:3">
-      <c r="C140">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="141" spans="3:3">
-      <c r="C141">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="142" spans="3:3">
-      <c r="C142">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="143" spans="3:3">
-      <c r="C143">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="145" spans="3:3" ht="23.25">
-      <c r="C145" s="45" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="147" spans="3:3">
-      <c r="C147" s="47" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="150" spans="3:3">
-      <c r="C150" s="46" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="C137:C143" xr:uid="{03945497-853E-431A-9E99-616FD75BCF08}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C138:C143">
-    <sortCondition ref="C138:C143"/>
-  </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="B94:E94"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="4">
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
-  </tableParts>
-</worksheet>
 </file>